--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -458,6994 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29768</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>25039000000</v>
+        <v>26023000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29799</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>24795000000</v>
+        <v>26580000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>25429000000</v>
+        <v>26889000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.047010784211077</v>
+        <v>1.04351455702807</v>
       </c>
       <c r="D4" t="n">
-        <v>26624437231.70349</v>
+        <v>28059062923.92778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>26023000000</v>
+        <v>26418000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.037236801161705</v>
+        <v>1.028489149439473</v>
       </c>
       <c r="D5" t="n">
-        <v>26992013276.63105</v>
+        <v>27170626349.89201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>26580000000</v>
+        <v>26602000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.040474456352097</v>
+        <v>1.019991840065279</v>
       </c>
       <c r="D6" t="n">
-        <v>27655811049.83873</v>
+        <v>27133822929.41656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>26889000000</v>
+        <v>27738000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1.04351455702807</v>
+        <v>0.9540164090822362</v>
       </c>
       <c r="D7" t="n">
-        <v>28059062923.92778</v>
+        <v>26462507155.12307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>26418000000</v>
+        <v>27384000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.028489149439473</v>
+        <v>0.9560229445506692</v>
       </c>
       <c r="D8" t="n">
-        <v>27170626349.89201</v>
+        <v>26179732313.57552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>26602000000</v>
+        <v>27294000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.019991840065279</v>
+        <v>0.9251549634563789</v>
       </c>
       <c r="D9" t="n">
-        <v>27133822929.41656</v>
+        <v>25251179572.57841</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>27738000000</v>
+        <v>27709000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9540164090822362</v>
+        <v>0.8764241893076249</v>
       </c>
       <c r="D10" t="n">
-        <v>26462507155.12307</v>
+        <v>24284837861.52498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>27384000000</v>
+        <v>28216000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9560229445506692</v>
+        <v>0.8714596949891068</v>
       </c>
       <c r="D11" t="n">
-        <v>26179732313.57552</v>
+        <v>24589106753.81264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>27294000000</v>
+        <v>28384000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9251549634563789</v>
+        <v>0.8688852202624033</v>
       </c>
       <c r="D12" t="n">
-        <v>25251179572.57841</v>
+        <v>24662438091.92805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>27709000000</v>
+        <v>29265000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8764241893076249</v>
+        <v>0.8649770781074302</v>
       </c>
       <c r="D13" t="n">
-        <v>24284837861.52498</v>
+        <v>25313554190.81395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>28216000000</v>
+        <v>30119000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8714596949891068</v>
+        <v>0.8530239699735563</v>
       </c>
       <c r="D14" t="n">
-        <v>24589106753.81264</v>
+        <v>25692228951.63354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>28384000000</v>
+        <v>30601000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8688852202624033</v>
+        <v>0.9014693951140359</v>
       </c>
       <c r="D15" t="n">
-        <v>24662438091.92805</v>
+        <v>27585864959.88461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>29265000000</v>
+        <v>31356000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8649770781074302</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D16" t="n">
-        <v>25313554190.81395</v>
+        <v>29192812587.28237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>30119000000</v>
+        <v>31464000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8530239699735563</v>
+        <v>0.9365049634763064</v>
       </c>
       <c r="D17" t="n">
-        <v>25692228951.63354</v>
+        <v>29466192170.8185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>30601000000</v>
+        <v>31645000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9014693951140359</v>
+        <v>0.9170105456212746</v>
       </c>
       <c r="D18" t="n">
-        <v>27585864959.88461</v>
+        <v>29018798716.18523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>31356000000</v>
+        <v>33018000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.9123255177447313</v>
       </c>
       <c r="D19" t="n">
-        <v>29192812587.28237</v>
+        <v>30123163944.89554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>31464000000</v>
+        <v>32272000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9365049634763064</v>
+        <v>0.9166743056192135</v>
       </c>
       <c r="D20" t="n">
-        <v>29466192170.8185</v>
+        <v>29582913190.94326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>31645000000</v>
+        <v>34418000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9170105456212746</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D21" t="n">
-        <v>29018798716.18523</v>
+        <v>32043571362.07057</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>33018000000</v>
+        <v>34672000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9123255177447313</v>
+        <v>0.9139932364500503</v>
       </c>
       <c r="D22" t="n">
-        <v>30123163944.89554</v>
+        <v>31689973494.19614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>32272000000</v>
+        <v>34907000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9166743056192135</v>
+        <v>0.91000091000091</v>
       </c>
       <c r="D23" t="n">
-        <v>29582913190.94326</v>
+        <v>31765401765.40176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>34418000000</v>
+        <v>35060000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.8880206020779682</v>
       </c>
       <c r="D24" t="n">
-        <v>32043571362.07057</v>
+        <v>31134002308.85357</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>34672000000</v>
+        <v>37047000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9139932364500503</v>
+        <v>0.9059612248595761</v>
       </c>
       <c r="D25" t="n">
-        <v>31689973494.19614</v>
+        <v>33563145497.37271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>34907000000</v>
+        <v>36682000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.91000091000091</v>
+        <v>0.8514986376021798</v>
       </c>
       <c r="D26" t="n">
-        <v>31765401765.40176</v>
+        <v>31234673024.52316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>35060000000</v>
+        <v>37366000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8880206020779682</v>
+        <v>0.8389965601141035</v>
       </c>
       <c r="D27" t="n">
-        <v>31134002308.85357</v>
+        <v>31349945465.22359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>37047000000</v>
+        <v>38465000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9059612248595761</v>
+        <v>0.8179959100204499</v>
       </c>
       <c r="D28" t="n">
-        <v>33563145497.37271</v>
+        <v>31464212678.93661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>36682000000</v>
+        <v>38905000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8514986376021798</v>
+        <v>0.7864726700747149</v>
       </c>
       <c r="D29" t="n">
-        <v>31234673024.52316</v>
+        <v>30597719229.25678</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>37366000000</v>
+        <v>39321000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8389965601141035</v>
+        <v>0.8350033400133601</v>
       </c>
       <c r="D30" t="n">
-        <v>31349945465.22359</v>
+        <v>32833166332.66533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>38465000000</v>
+        <v>39614000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8179959100204499</v>
+        <v>0.8080155138978669</v>
       </c>
       <c r="D31" t="n">
-        <v>31464212678.93661</v>
+        <v>32008726567.5501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>38905000000</v>
+        <v>40633000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7864726700747149</v>
+        <v>0.7961783439490446</v>
       </c>
       <c r="D32" t="n">
-        <v>30597719229.25678</v>
+        <v>32351114649.68153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>39321000000</v>
+        <v>41110000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8350033400133601</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D33" t="n">
-        <v>32833166332.66533</v>
+        <v>32064581545.90125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>39614000000</v>
+        <v>41484000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8080155138978669</v>
+        <v>0.7359976448075366</v>
       </c>
       <c r="D34" t="n">
-        <v>32008726567.5501</v>
+        <v>30532126297.19585</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>40633000000</v>
+        <v>42605000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7961783439490446</v>
+        <v>0.6080136195050769</v>
       </c>
       <c r="D35" t="n">
-        <v>32351114649.68153</v>
+        <v>25904420259.0138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>41110000000</v>
+        <v>43199000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.6360109393881574</v>
       </c>
       <c r="D36" t="n">
-        <v>32064581545.90125</v>
+        <v>27475036570.62901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>41484000000</v>
+        <v>45287000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7359976448075366</v>
+        <v>0.5985156811108451</v>
       </c>
       <c r="D37" t="n">
-        <v>30532126297.19585</v>
+        <v>27104979650.46684</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>42605000000</v>
+        <v>46311000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6080136195050769</v>
+        <v>0.5249895002099958</v>
       </c>
       <c r="D38" t="n">
-        <v>25904420259.0138</v>
+        <v>24312788744.22512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>43199000000</v>
+        <v>47671000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6360109393881574</v>
+        <v>0.5380104374024856</v>
       </c>
       <c r="D39" t="n">
-        <v>27475036570.62901</v>
+        <v>25647495561.41389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>45287000000</v>
+        <v>47825000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5985156811108451</v>
+        <v>0.502487312195367</v>
       </c>
       <c r="D40" t="n">
-        <v>27104979650.46684</v>
+        <v>24031455705.74343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>46311000000</v>
+        <v>48078000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5249895002099958</v>
+        <v>0.504999495000505</v>
       </c>
       <c r="D41" t="n">
-        <v>24312788744.22512</v>
+        <v>24279365720.63428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>47671000000</v>
+        <v>48526000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5380104374024856</v>
+        <v>0.488997555012225</v>
       </c>
       <c r="D42" t="n">
-        <v>25647495561.41389</v>
+        <v>23729095354.52323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>47825000000</v>
+        <v>49123000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.502487312195367</v>
+        <v>0.5289885738468049</v>
       </c>
       <c r="D43" t="n">
-        <v>24031455705.74343</v>
+        <v>25985505713.0766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>48078000000</v>
+        <v>49187000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.504999495000505</v>
+        <v>0.5140066820868672</v>
       </c>
       <c r="D44" t="n">
-        <v>24279365720.63428</v>
+        <v>25282446671.80674</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>48526000000</v>
+        <v>50021000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.488997555012225</v>
+        <v>0.502992807202857</v>
       </c>
       <c r="D45" t="n">
-        <v>23729095354.52323</v>
+        <v>25160203209.09411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>49123000000</v>
+        <v>50480000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5289885738468049</v>
+        <v>0.5103082261686058</v>
       </c>
       <c r="D46" t="n">
-        <v>25985505713.0766</v>
+        <v>25760359256.99122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>49187000000</v>
+        <v>50961000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5140066820868672</v>
+        <v>0.455000455000455</v>
       </c>
       <c r="D47" t="n">
-        <v>25282446671.80674</v>
+        <v>23187278187.27819</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>50021000000</v>
+        <v>51681000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.502992807202857</v>
+        <v>0.3550001775000888</v>
       </c>
       <c r="D48" t="n">
-        <v>25160203209.09411</v>
+        <v>18346764173.38209</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>50480000000</v>
+        <v>51937000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5103082261686058</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D49" t="n">
-        <v>25760359256.99122</v>
+        <v>20281552639.80006</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>50961000000</v>
+        <v>52956000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.455000455000455</v>
+        <v>0.3869969040247678</v>
       </c>
       <c r="D50" t="n">
-        <v>23187278187.27819</v>
+        <v>20493808049.5356</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>51681000000</v>
+        <v>52822000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3550001775000888</v>
+        <v>0.37000037000037</v>
       </c>
       <c r="D51" t="n">
-        <v>18346764173.38209</v>
+        <v>19544159544.15955</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>51937000000</v>
+        <v>54577000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.3889991053020578</v>
       </c>
       <c r="D52" t="n">
-        <v>20281552639.80006</v>
+        <v>21230404170.07041</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>52956000000</v>
+        <v>52982000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3869969040247678</v>
+        <v>0.43750273439209</v>
       </c>
       <c r="D53" t="n">
-        <v>20493808049.5356</v>
+        <v>23179769873.56171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>52822000000</v>
+        <v>54711000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.37000037000037</v>
+        <v>0.5034993202759176</v>
       </c>
       <c r="D54" t="n">
-        <v>19544159544.15955</v>
+        <v>27546951311.61573</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>54577000000</v>
+        <v>54024000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3889991053020578</v>
+        <v>0.4650081376424087</v>
       </c>
       <c r="D55" t="n">
-        <v>21230404170.07041</v>
+        <v>25121599627.99349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>52982000000</v>
+        <v>54226000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.43750273439209</v>
+        <v>0.4860031104199067</v>
       </c>
       <c r="D56" t="n">
-        <v>23179769873.56171</v>
+        <v>26354004665.62986</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>54711000000</v>
+        <v>54464000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5034993202759176</v>
+        <v>0.4234955321221361</v>
       </c>
       <c r="D57" t="n">
-        <v>27546951311.61573</v>
+        <v>23065260661.50002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>54024000000</v>
+        <v>54673000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4650081376424087</v>
+        <v>0.40399143538157</v>
       </c>
       <c r="D58" t="n">
-        <v>25121599627.99349</v>
+        <v>22087423746.61657</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>54226000000</v>
+        <v>54551000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4860031104199067</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D59" t="n">
-        <v>26354004665.62986</v>
+        <v>21302327397.68822</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>54464000000</v>
+        <v>54737000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4234955321221361</v>
+        <v>0.3920031360250882</v>
       </c>
       <c r="D60" t="n">
-        <v>23065260661.50002</v>
+        <v>21457075656.60525</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>54673000000</v>
+        <v>55248000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.40399143538157</v>
+        <v>0.44849082836256</v>
       </c>
       <c r="D61" t="n">
-        <v>22087423746.61657</v>
+        <v>24778221285.37472</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>54551000000</v>
+        <v>56003000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.4359958144401814</v>
       </c>
       <c r="D62" t="n">
-        <v>21302327397.68822</v>
+        <v>24417073596.09348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>54737000000</v>
+        <v>56188000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3920031360250882</v>
+        <v>0.4504910352283989</v>
       </c>
       <c r="D63" t="n">
-        <v>21457075656.60525</v>
+        <v>25312190287.41328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>55248000000</v>
+        <v>56921000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.44849082836256</v>
+        <v>0.457205559619605</v>
       </c>
       <c r="D64" t="n">
-        <v>24778221285.37472</v>
+        <v>26024597659.10754</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>56003000000</v>
+        <v>55313000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4359958144401814</v>
+        <v>0.4775093114315729</v>
       </c>
       <c r="D65" t="n">
-        <v>24417073596.09348</v>
+        <v>26412472543.21459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>56188000000</v>
+        <v>56599000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4504910352283989</v>
+        <v>0.481000481000481</v>
       </c>
       <c r="D66" t="n">
-        <v>25312190287.41328</v>
+        <v>27224146224.14622</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>56921000000</v>
+        <v>57129000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.457205559619605</v>
+        <v>0.495000495000495</v>
       </c>
       <c r="D67" t="n">
-        <v>26024597659.10754</v>
+        <v>28278883278.88328</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>55313000000</v>
+        <v>58397000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4775093114315729</v>
+        <v>0.499001996007984</v>
       </c>
       <c r="D68" t="n">
-        <v>26412472543.21459</v>
+        <v>29140219560.87824</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>56599000000</v>
+        <v>58843000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.481000481000481</v>
+        <v>0.494486475794887</v>
       </c>
       <c r="D69" t="n">
-        <v>27224146224.14622</v>
+        <v>29097067695.19854</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>57129000000</v>
+        <v>59131000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.495000495000495</v>
+        <v>0.4884959210590592</v>
       </c>
       <c r="D70" t="n">
-        <v>28278883278.88328</v>
+        <v>28885252308.14323</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>58397000000</v>
+        <v>59587000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.499001996007984</v>
+        <v>0.4825090470446322</v>
       </c>
       <c r="D71" t="n">
-        <v>29140219560.87824</v>
+        <v>28751266586.2485</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>58843000000</v>
+        <v>60093000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.494486475794887</v>
+        <v>0.4900039200313603</v>
       </c>
       <c r="D72" t="n">
-        <v>29097067695.19854</v>
+        <v>29445805566.44453</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>59131000000</v>
+        <v>62790000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4884959210590592</v>
+        <v>0.4815100154083205</v>
       </c>
       <c r="D73" t="n">
-        <v>28885252308.14323</v>
+        <v>30234013867.48845</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>59587000000</v>
+        <v>64619000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4825090470446322</v>
+        <v>0.4960071425028521</v>
       </c>
       <c r="D74" t="n">
-        <v>28751266586.2485</v>
+        <v>32051485541.3918</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>60093000000</v>
+        <v>67636000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4900039200313603</v>
+        <v>0.5135051864023826</v>
       </c>
       <c r="D75" t="n">
-        <v>29445805566.44453</v>
+        <v>34731436787.51155</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>62790000000</v>
+        <v>69464000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4815100154083205</v>
+        <v>0.5180005180005179</v>
       </c>
       <c r="D76" t="n">
-        <v>30234013867.48845</v>
+        <v>35982387982.38798</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>64619000000</v>
+        <v>69972000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4960071425028521</v>
+        <v>0.5020080321285141</v>
       </c>
       <c r="D77" t="n">
-        <v>32051485541.3918</v>
+        <v>35126506024.09639</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>67636000000</v>
+        <v>71940000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5135051864023826</v>
+        <v>0.478996024332998</v>
       </c>
       <c r="D78" t="n">
-        <v>34731436787.51155</v>
+        <v>34458973990.51588</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>69464000000</v>
+        <v>75614000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5180005180005179</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="D79" t="n">
-        <v>35982387982.38798</v>
+        <v>35499530516.43192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>69972000000</v>
+        <v>75376000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5020080321285141</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D80" t="n">
-        <v>35126506024.09639</v>
+        <v>35058604651.16279</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>71940000000</v>
+        <v>76968000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.478996024332998</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="D81" t="n">
-        <v>34458973990.51588</v>
+        <v>34360714285.71429</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>75614000000</v>
+        <v>78923000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="D82" t="n">
-        <v>35499530516.43192</v>
+        <v>33872532188.8412</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>75376000000</v>
+        <v>78621000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="D83" t="n">
-        <v>35058604651.16279</v>
+        <v>32221721311.47541</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>76968000000</v>
+        <v>82506000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="D84" t="n">
-        <v>34360714285.71429</v>
+        <v>33675918367.34694</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>78923000000</v>
+        <v>86326000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.4016064257028112</v>
       </c>
       <c r="D85" t="n">
-        <v>33872532188.8412</v>
+        <v>34669076305.22088</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>78621000000</v>
+        <v>87433000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3984063745019921</v>
       </c>
       <c r="D86" t="n">
-        <v>32221721311.47541</v>
+        <v>34833864541.83267</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>82506000000</v>
+        <v>89360000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4081632653061224</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D87" t="n">
-        <v>33675918367.34694</v>
+        <v>38852173913.04348</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>86326000000</v>
+        <v>93941000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4016064257028112</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="D88" t="n">
-        <v>34669076305.22088</v>
+        <v>39471008403.36134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>87433000000</v>
+        <v>93139000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3984063745019921</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>34833864541.83267</v>
+        <v>38807916666.66667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>89360000000</v>
+        <v>95737000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="D90" t="n">
-        <v>38852173913.04348</v>
+        <v>38603629032.25806</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>93941000000</v>
+        <v>100882000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4201680672268908</v>
+        <v>0.390625</v>
       </c>
       <c r="D91" t="n">
-        <v>39471008403.36134</v>
+        <v>39407031250</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>93139000000</v>
+        <v>98893000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.390625</v>
       </c>
       <c r="D92" t="n">
-        <v>38807916666.66667</v>
+        <v>38630078125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>95737000000</v>
+        <v>99881000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="D93" t="n">
-        <v>38603629032.25806</v>
+        <v>36452919708.0292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>100882000000</v>
+        <v>102369000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390625</v>
+        <v>0.3597122302158274</v>
       </c>
       <c r="D94" t="n">
-        <v>39407031250</v>
+        <v>36823381294.96404</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>98893000000</v>
+        <v>103301000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.390625</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="D95" t="n">
-        <v>38630078125</v>
+        <v>38981509433.96227</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>99881000000</v>
+        <v>106860000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.364963503649635</v>
+        <v>0.3690036900369004</v>
       </c>
       <c r="D96" t="n">
-        <v>36452919708.0292</v>
+        <v>39431734317.34317</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>102369000000</v>
+        <v>109691000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3597122302158274</v>
+        <v>0.3713330857779428</v>
       </c>
       <c r="D97" t="n">
-        <v>36823381294.96404</v>
+        <v>40731897512.06833</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>103301000000</v>
+        <v>113738000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.3789314134141721</v>
       </c>
       <c r="D98" t="n">
-        <v>38981509433.96227</v>
+        <v>43098901098.90111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>106860000000</v>
+        <v>115655000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.3834355828220859</v>
       </c>
       <c r="D99" t="n">
-        <v>39431734317.34317</v>
+        <v>44346242331.28835</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>109691000000</v>
+        <v>119022000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3713330857779428</v>
+        <v>0.3947887879984209</v>
       </c>
       <c r="D100" t="n">
-        <v>40731897512.06833</v>
+        <v>46988551125.14805</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>113738000000</v>
+        <v>119454000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3789314134141721</v>
+        <v>0.3900916715428126</v>
       </c>
       <c r="D101" t="n">
-        <v>43098901098.90111</v>
+        <v>46598010532.47514</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>115655000000</v>
+        <v>121163000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3834355828220859</v>
+        <v>0.3910833007430583</v>
       </c>
       <c r="D102" t="n">
-        <v>44346242331.28835</v>
+        <v>47384825967.93118</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>119022000000</v>
+        <v>124200000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3947887879984209</v>
+        <v>0.3784295175023652</v>
       </c>
       <c r="D103" t="n">
-        <v>46988551125.14805</v>
+        <v>47000946073.79375</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>119454000000</v>
+        <v>122731000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3900916715428126</v>
+        <v>0.3760105282947923</v>
       </c>
       <c r="D104" t="n">
-        <v>46598010532.47514</v>
+        <v>46148148148.14815</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>121163000000</v>
+        <v>123458000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3910833007430583</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="D105" t="n">
-        <v>47384825967.93118</v>
+        <v>46152523364.48598</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>124200000000</v>
+        <v>122874000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3784295175023652</v>
+        <v>0.377643504531722</v>
       </c>
       <c r="D106" t="n">
-        <v>47000946073.79375</v>
+        <v>46402567975.83081</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>122731000000</v>
+        <v>121553000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3760105282947923</v>
+        <v>0.3869220352099053</v>
       </c>
       <c r="D107" t="n">
-        <v>46148148148.14815</v>
+        <v>47031534145.86961</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>123458000000</v>
+        <v>124069000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3738317757009346</v>
+        <v>0.3875368159975198</v>
       </c>
       <c r="D108" t="n">
-        <v>46152523364.48598</v>
+        <v>48081305223.99628</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>122874000000</v>
+        <v>124001000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.377643504531722</v>
+        <v>0.390015600624025</v>
       </c>
       <c r="D109" t="n">
-        <v>46402567975.83081</v>
+        <v>48362324492.97972</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>121553000000</v>
+        <v>125418000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3869220352099053</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="D110" t="n">
-        <v>47031534145.86961</v>
+        <v>49425812807.88177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>124069000000</v>
+        <v>130295000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3875368159975198</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="D111" t="n">
-        <v>48081305223.99628</v>
+        <v>51601980198.01981</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>124001000000</v>
+        <v>134244000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.390015600624025</v>
+        <v>0.390625</v>
       </c>
       <c r="D112" t="n">
-        <v>48362324492.97972</v>
+        <v>52439062500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>125418000000</v>
+        <v>133075000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3940886699507389</v>
+        <v>0.3943217665615142</v>
       </c>
       <c r="D113" t="n">
-        <v>49425812807.88177</v>
+        <v>52474369085.1735</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>130295000000</v>
+        <v>141904000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3960396039603961</v>
+        <v>0.3887269193391643</v>
       </c>
       <c r="D114" t="n">
-        <v>51601980198.01981</v>
+        <v>55161904761.90476</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>134244000000</v>
+        <v>144489000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.390625</v>
+        <v>0.3696857670979667</v>
       </c>
       <c r="D115" t="n">
-        <v>52439062500</v>
+        <v>53415526802.21812</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>133075000000</v>
+        <v>143243000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3943217665615142</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="D116" t="n">
-        <v>52474369085.1735</v>
+        <v>51758988256.54923</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>141904000000</v>
+        <v>147025000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3887269193391643</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="D117" t="n">
-        <v>55161904761.90476</v>
+        <v>51633011413.52063</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>144489000000</v>
+        <v>147706000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3696857670979667</v>
+        <v>0.3457216940363008</v>
       </c>
       <c r="D118" t="n">
-        <v>53415526802.21812</v>
+        <v>51065168539.32584</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>143243000000</v>
+        <v>147683000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3613369467028004</v>
+        <v>0.3484320557491289</v>
       </c>
       <c r="D119" t="n">
-        <v>51758988256.54923</v>
+        <v>51457491289.1986</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>147025000000</v>
+        <v>150139000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3511852502194908</v>
+        <v>0.3466805338880222</v>
       </c>
       <c r="D120" t="n">
-        <v>51633011413.52063</v>
+        <v>52050268677.41376</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>147706000000</v>
+        <v>151994000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3457216940363008</v>
+        <v>0.3566333808844508</v>
       </c>
       <c r="D121" t="n">
-        <v>51065168539.32584</v>
+        <v>54206134094.15121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>147683000000</v>
+        <v>152178000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3484320557491289</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="D122" t="n">
-        <v>51457491289.1986</v>
+        <v>53868318584.07079</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>150139000000</v>
+        <v>157379000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3466805338880222</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D123" t="n">
-        <v>52050268677.41376</v>
+        <v>56206785714.28571</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>151994000000</v>
+        <v>155363000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3566333808844508</v>
+        <v>0.3629764065335753</v>
       </c>
       <c r="D124" t="n">
-        <v>54206134094.15121</v>
+        <v>56393103448.27586</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>152178000000</v>
+        <v>154965000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.357653791130186</v>
       </c>
       <c r="D125" t="n">
-        <v>53868318584.07079</v>
+        <v>55423819742.48928</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>157379000000</v>
+        <v>157762000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3516174402250352</v>
       </c>
       <c r="D126" t="n">
-        <v>56206785714.28571</v>
+        <v>55471870604.782</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>155363000000</v>
+        <v>161099000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3629764065335753</v>
+        <v>0.3474635163307853</v>
       </c>
       <c r="D127" t="n">
-        <v>56393103448.27586</v>
+        <v>55976025017.37318</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>154965000000</v>
+        <v>164970000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.357653791130186</v>
+        <v>0.3487966515521451</v>
       </c>
       <c r="D128" t="n">
-        <v>55423819742.48928</v>
+        <v>57540983606.55738</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>157762000000</v>
+        <v>163246000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3516174402250352</v>
+        <v>0.3527336860670194</v>
       </c>
       <c r="D129" t="n">
-        <v>55471870604.782</v>
+        <v>57582363315.69665</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>161099000000</v>
+        <v>164787000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3474635163307853</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="D130" t="n">
-        <v>55976025017.37318</v>
+        <v>59446969696.9697</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>164970000000</v>
+        <v>167064000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3487966515521451</v>
+        <v>0.3614022406938923</v>
       </c>
       <c r="D131" t="n">
-        <v>57540983606.55738</v>
+        <v>60377303939.28442</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>163246000000</v>
+        <v>168993000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3527336860670194</v>
+        <v>0.3648303538854433</v>
       </c>
       <c r="D132" t="n">
-        <v>57582363315.69665</v>
+        <v>61653775994.16271</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>164787000000</v>
+        <v>171409000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3553660270078181</v>
       </c>
       <c r="D133" t="n">
-        <v>59446969696.9697</v>
+        <v>60912935323.38309</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>167064000000</v>
+        <v>170847000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3614022406938923</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="D134" t="n">
-        <v>60377303939.28442</v>
+        <v>57718581081.08108</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>168993000000</v>
+        <v>173892000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3648303538854433</v>
+        <v>0.3309066843150232</v>
       </c>
       <c r="D135" t="n">
-        <v>61653775994.16271</v>
+        <v>57542025148.90801</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>171409000000</v>
+        <v>172214000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3553660270078181</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="D136" t="n">
-        <v>60912935323.38309</v>
+        <v>56463606557.37705</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>170847000000</v>
+        <v>167467000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="D137" t="n">
-        <v>57718581081.08108</v>
+        <v>54549511400.65147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>173892000000</v>
+        <v>168685000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3309066843150232</v>
+        <v>0.3179650238473768</v>
       </c>
       <c r="D138" t="n">
-        <v>57542025148.90801</v>
+        <v>53635930047.69476</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>172214000000</v>
+        <v>169307000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3156565656565656</v>
       </c>
       <c r="D139" t="n">
-        <v>56463606557.37705</v>
+        <v>53442866161.61616</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>167467000000</v>
+        <v>168424000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3257328990228013</v>
+        <v>0.3169572107765452</v>
       </c>
       <c r="D140" t="n">
-        <v>54549511400.65147</v>
+        <v>53383201267.82885</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>168685000000</v>
+        <v>168455000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3179650238473768</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="D141" t="n">
-        <v>53635930047.69476</v>
+        <v>53056692913.38583</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>169307000000</v>
+        <v>167739000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3156565656565656</v>
+        <v>0.3005710850616171</v>
       </c>
       <c r="D142" t="n">
-        <v>53442866161.61616</v>
+        <v>50417493237.15058</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>168424000000</v>
+        <v>167148000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3169572107765452</v>
+        <v>0.2961208172934557</v>
       </c>
       <c r="D143" t="n">
-        <v>53383201267.82885</v>
+        <v>49496002368.96654</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>168455000000</v>
+        <v>171374000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.2960331557134399</v>
       </c>
       <c r="D144" t="n">
-        <v>53056692913.38583</v>
+        <v>50732386027.23505</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>167739000000</v>
+        <v>173708000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3005710850616171</v>
+        <v>0.2911208151382824</v>
       </c>
       <c r="D145" t="n">
-        <v>50417493237.15058</v>
+        <v>50570014556.04076</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>167148000000</v>
+        <v>174910000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2961208172934557</v>
+        <v>0.2985965959988056</v>
       </c>
       <c r="D146" t="n">
-        <v>49496002368.96654</v>
+        <v>52227530606.15109</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>171374000000</v>
+        <v>178454000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2960331557134399</v>
+        <v>0.2968239833778569</v>
       </c>
       <c r="D147" t="n">
-        <v>50732386027.23505</v>
+        <v>52969427129.71208</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>173708000000</v>
+        <v>178963000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2911208151382824</v>
+        <v>0.2943773918163085</v>
       </c>
       <c r="D148" t="n">
-        <v>50570014556.04076</v>
+        <v>52682661171.62202</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>174910000000</v>
+        <v>179000000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2985965959988056</v>
+        <v>0.2921413964358749</v>
       </c>
       <c r="D149" t="n">
-        <v>52227530606.15109</v>
+        <v>52293309962.02161</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>178454000000</v>
+        <v>189328000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2968239833778569</v>
+        <v>0.2878526194588371</v>
       </c>
       <c r="D150" t="n">
-        <v>52969427129.71208</v>
+        <v>54498560736.9027</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>178963000000</v>
+        <v>193007000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2943773918163085</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="D151" t="n">
-        <v>52682661171.62202</v>
+        <v>55461781609.1954</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>179000000000</v>
+        <v>192238000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2921413964358749</v>
+        <v>0.2836074872376631</v>
       </c>
       <c r="D152" t="n">
-        <v>52293309962.02161</v>
+        <v>54520136131.59388</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>189328000000</v>
+        <v>199770000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2878526194588371</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D153" t="n">
-        <v>54498560736.9027</v>
+        <v>55002753303.96475</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>193007000000</v>
+        <v>196484000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D154" t="n">
-        <v>55461781609.1954</v>
+        <v>53757592339.26128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>192238000000</v>
+        <v>199156000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2836074872376631</v>
+        <v>0.2723311546840959</v>
       </c>
       <c r="D155" t="n">
-        <v>54520136131.59388</v>
+        <v>54236383442.26579</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>199770000000</v>
+        <v>205006000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2790178571428572</v>
       </c>
       <c r="D156" t="n">
-        <v>55002753303.96475</v>
+        <v>57200334821.42857</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>196484000000</v>
+        <v>205819000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.2802690582959641</v>
       </c>
       <c r="D157" t="n">
-        <v>53757592339.26128</v>
+        <v>57684697309.41704</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>199156000000</v>
+        <v>208879000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2723311546840959</v>
+        <v>0.2858776443682104</v>
       </c>
       <c r="D158" t="n">
-        <v>54236383442.26579</v>
+        <v>59713836477.98742</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>205006000000</v>
+        <v>213927000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2790178571428572</v>
+        <v>0.2815315315315315</v>
       </c>
       <c r="D159" t="n">
-        <v>57200334821.42857</v>
+        <v>60227195945.94595</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>205819000000</v>
+        <v>215823000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2802690582959641</v>
+        <v>0.2826455624646693</v>
       </c>
       <c r="D160" t="n">
-        <v>57684697309.41704</v>
+        <v>61001413227.81232</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>208879000000</v>
+        <v>208864000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2858776443682104</v>
+        <v>0.2831257078142695</v>
       </c>
       <c r="D161" t="n">
-        <v>59713836477.98742</v>
+        <v>59134767836.91959</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>213927000000</v>
+        <v>213360000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2815315315315315</v>
+        <v>0.2779321845469706</v>
       </c>
       <c r="D162" t="n">
-        <v>60227195945.94595</v>
+        <v>59299610894.94164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>215823000000</v>
+        <v>216538000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2826455624646693</v>
+        <v>0.2794857462269424</v>
       </c>
       <c r="D163" t="n">
-        <v>61001413227.81232</v>
+        <v>60519284516.48966</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>208864000000</v>
+        <v>222258000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2831257078142695</v>
+        <v>0.2763957987838585</v>
       </c>
       <c r="D164" t="n">
-        <v>59134767836.91959</v>
+        <v>61431177446.10282</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>213360000000</v>
+        <v>230265000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2779321845469706</v>
+        <v>0.2718868950516585</v>
       </c>
       <c r="D165" t="n">
-        <v>59299610894.94164</v>
+        <v>62606035889.07015</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>216538000000</v>
+        <v>227731000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2794857462269424</v>
+        <v>0.275027502750275</v>
       </c>
       <c r="D166" t="n">
-        <v>60519284516.48966</v>
+        <v>62632288228.82288</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>222258000000</v>
+        <v>225899000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2763957987838585</v>
+        <v>0.2761668047500691</v>
       </c>
       <c r="D167" t="n">
-        <v>61431177446.10282</v>
+        <v>62385805026.23585</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>230265000000</v>
+        <v>226033000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2718868950516585</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D168" t="n">
-        <v>62606035889.07015</v>
+        <v>61842134062.9275</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>227731000000</v>
+        <v>229457000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.275027502750275</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="D169" t="n">
-        <v>62632288228.82288</v>
+        <v>62864931506.84931</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>225899000000</v>
+        <v>229245000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2761668047500691</v>
+        <v>0.274273176083379</v>
       </c>
       <c r="D170" t="n">
-        <v>62385805026.23585</v>
+        <v>62875754251.23423</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>226033000000</v>
+        <v>236725000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.2726281352235551</v>
       </c>
       <c r="D171" t="n">
-        <v>61842134062.9275</v>
+        <v>64537895310.79607</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>229457000000</v>
+        <v>245722000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2743484224965707</v>
       </c>
       <c r="D172" t="n">
-        <v>62864931506.84931</v>
+        <v>67413443072.70233</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>229245000000</v>
+        <v>244019000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.274273176083379</v>
+        <v>0.2740476842970677</v>
       </c>
       <c r="D173" t="n">
-        <v>62875754251.23423</v>
+        <v>66872841874.48615</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>236725000000</v>
+        <v>256444000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2726281352235551</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="D174" t="n">
-        <v>64537895310.79607</v>
+        <v>66179096774.19355</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>245722000000</v>
+        <v>265163000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2743484224965707</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="D175" t="n">
-        <v>67413443072.70233</v>
+        <v>66707672955.97485</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>244019000000</v>
+        <v>264779000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2740476842970677</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D176" t="n">
-        <v>66872841874.48615</v>
+        <v>61149884526.55889</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>256444000000</v>
+        <v>269925000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2299379167624741</v>
       </c>
       <c r="D177" t="n">
-        <v>66179096774.19355</v>
+        <v>62065992182.11083</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>265163000000</v>
+        <v>276835000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2515723270440252</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D178" t="n">
-        <v>66707672955.97485</v>
+        <v>63934180138.56813</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>264779000000</v>
+        <v>277150000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="D179" t="n">
-        <v>61149884526.55889</v>
+        <v>61316371681.41593</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>269925000000</v>
+        <v>281768000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2299379167624741</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D180" t="n">
-        <v>62065992182.11083</v>
+        <v>62768545333.03631</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>276835000000</v>
+        <v>283328000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2203128442388191</v>
       </c>
       <c r="D181" t="n">
-        <v>63934180138.56813</v>
+        <v>62420797532.49615</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>277150000000</v>
+        <v>286970000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2129925452609158</v>
       </c>
       <c r="D182" t="n">
-        <v>61316371681.41593</v>
+        <v>61122470713.52502</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>281768000000</v>
+        <v>289759000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2168256721595837</v>
       </c>
       <c r="D183" t="n">
-        <v>62768545333.03631</v>
+        <v>62827189939.2888</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>283328000000</v>
+        <v>295313000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2203128442388191</v>
+        <v>0.2137665669089354</v>
       </c>
       <c r="D184" t="n">
-        <v>62420797532.49615</v>
+        <v>63128046173.57845</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>286970000000</v>
+        <v>295617000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2129925452609158</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="D185" t="n">
-        <v>61122470713.52502</v>
+        <v>64828289473.68421</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>289759000000</v>
+        <v>303035000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2168256721595837</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="D186" t="n">
-        <v>62827189939.2888</v>
+        <v>67641741071.42857</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>295313000000</v>
+        <v>313686000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2137665669089354</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="D187" t="n">
-        <v>63128046173.57845</v>
+        <v>70969683257.91855</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>295617000000</v>
+        <v>309474000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.2248201438848921</v>
       </c>
       <c r="D188" t="n">
-        <v>64828289473.68421</v>
+        <v>69575989208.63309</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>303035000000</v>
+        <v>316586000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.2238638907544213</v>
       </c>
       <c r="D189" t="n">
-        <v>67641741071.42857</v>
+        <v>70872173718.37924</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>313686000000</v>
+        <v>316433000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2262443438914027</v>
+        <v>0.2205558006175563</v>
       </c>
       <c r="D190" t="n">
-        <v>70969683257.91855</v>
+        <v>69791133656.81517</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>309474000000</v>
+        <v>317291000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2248201438848921</v>
+        <v>0.2168726957276079</v>
       </c>
       <c r="D191" t="n">
-        <v>69575989208.63309</v>
+        <v>68811754500.10843</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>316586000000</v>
+        <v>324572000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2238638907544213</v>
+        <v>0.213652387565431</v>
       </c>
       <c r="D192" t="n">
-        <v>70872173718.37924</v>
+        <v>69345582736.88708</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>316433000000</v>
+        <v>338253000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2205558006175563</v>
+        <v>0.2148689299527288</v>
       </c>
       <c r="D193" t="n">
-        <v>69791133656.81517</v>
+        <v>72680060163.30038</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>317291000000</v>
+        <v>343147000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2168726957276079</v>
+        <v>0.2077274615704196</v>
       </c>
       <c r="D194" t="n">
-        <v>68811754500.10843</v>
+        <v>71281055255.50478</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>324572000000</v>
+        <v>347944000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.213652387565431</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="D195" t="n">
-        <v>69345582736.88708</v>
+        <v>71667147270.85478</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>338253000000</v>
+        <v>350700000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2148689299527288</v>
+        <v>0.2055921052631579</v>
       </c>
       <c r="D196" t="n">
-        <v>72680060163.30038</v>
+        <v>72101151315.78947</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>343147000000</v>
+        <v>351467000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2077274615704196</v>
+        <v>0.2027780594139714</v>
       </c>
       <c r="D197" t="n">
-        <v>71281055255.50478</v>
+        <v>71269796208.05029</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>347944000000</v>
+        <v>363414000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2059732234809475</v>
+        <v>0.2024701356549909</v>
       </c>
       <c r="D198" t="n">
-        <v>71667147270.85478</v>
+        <v>73580481878.92287</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>350700000000</v>
+        <v>361312000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2055921052631579</v>
+        <v>0.1986886548778065</v>
       </c>
       <c r="D199" t="n">
-        <v>72101151315.78947</v>
+        <v>71788595271.21001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>351467000000</v>
+        <v>366500000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2027780594139714</v>
+        <v>0.1979022362952702</v>
       </c>
       <c r="D200" t="n">
-        <v>71269796208.05029</v>
+        <v>72531169602.21651</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>363414000000</v>
+        <v>366492000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2024701356549909</v>
+        <v>0.1940617116242965</v>
       </c>
       <c r="D201" t="n">
-        <v>73580481878.92287</v>
+        <v>71122064816.61168</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>361312000000</v>
+        <v>375751000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1986886548778065</v>
+        <v>0.1677711601375724</v>
       </c>
       <c r="D202" t="n">
-        <v>71788595271.21001</v>
+        <v>63040181192.85296</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>366500000000</v>
+        <v>375135000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1979022362952702</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D203" t="n">
-        <v>72531169602.21651</v>
+        <v>61196574225.12235</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>366492000000</v>
+        <v>385084000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1940617116242965</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="D204" t="n">
-        <v>71122064816.61168</v>
+        <v>59702945736.4341</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>375751000000</v>
+        <v>387349000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1677711601375724</v>
+        <v>0.169061707523246</v>
       </c>
       <c r="D205" t="n">
-        <v>63040181192.85296</v>
+        <v>65485883347.42181</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>375135000000</v>
+        <v>378172000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1788748770235221</v>
       </c>
       <c r="D206" t="n">
-        <v>61196574225.12235</v>
+        <v>67645469993.73939</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>385084000000</v>
+        <v>389009000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1550387596899225</v>
+        <v>0.1758396342535608</v>
       </c>
       <c r="D207" t="n">
-        <v>59702945736.4341</v>
+        <v>68403200281.34341</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>387349000000</v>
+        <v>393806000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.169061707523246</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="D208" t="n">
-        <v>65485883347.42181</v>
+        <v>67202389078.49829</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>378172000000</v>
+        <v>388959000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1788748770235221</v>
+        <v>0.1650846058605035</v>
       </c>
       <c r="D209" t="n">
-        <v>67645469993.73939</v>
+        <v>64211143210.89558</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>389009000000</v>
+        <v>379842000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1758396342535608</v>
+        <v>0.1617468661544683</v>
       </c>
       <c r="D210" t="n">
-        <v>68403200281.34341</v>
+        <v>61438253133.84554</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>393806000000</v>
+        <v>391457000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1706484641638225</v>
+        <v>0.16249593760156</v>
       </c>
       <c r="D211" t="n">
-        <v>67202389078.49829</v>
+        <v>63610172245.69386</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>388959000000</v>
+        <v>395318000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1650846058605035</v>
+        <v>0.1643007360672976</v>
       </c>
       <c r="D212" t="n">
-        <v>64211143210.89558</v>
+        <v>64951038380.65195</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>379842000000</v>
+        <v>396818000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1617468661544683</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="D213" t="n">
-        <v>61438253133.84554</v>
+        <v>63899838969.40418</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>391457000000</v>
+        <v>407884000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.16249593760156</v>
+        <v>0.1658374792703151</v>
       </c>
       <c r="D214" t="n">
-        <v>63610172245.69386</v>
+        <v>67642454394.6932</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>395318000000</v>
+        <v>407541000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1643007360672976</v>
+        <v>0.1621402513173895</v>
       </c>
       <c r="D215" t="n">
-        <v>64951038380.65195</v>
+        <v>66078800162.14025</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>396818000000</v>
+        <v>413501000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1610305958132045</v>
+        <v>0.164446637066272</v>
       </c>
       <c r="D216" t="n">
-        <v>63899838969.40418</v>
+        <v>67998848873.54053</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>407884000000</v>
+        <v>427411000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1658374792703151</v>
+        <v>0.1665278934221482</v>
       </c>
       <c r="D217" t="n">
-        <v>67642454394.6932</v>
+        <v>71175853455.4538</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>407541000000</v>
+        <v>426662000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1621402513173895</v>
+        <v>0.1627339300244101</v>
       </c>
       <c r="D218" t="n">
-        <v>66078800162.14025</v>
+        <v>69432384052.07486</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>413501000000</v>
+        <v>440284000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.164446637066272</v>
+        <v>0.1619957881095092</v>
       </c>
       <c r="D219" t="n">
-        <v>67998848873.54053</v>
+        <v>71324153572.00713</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>427411000000</v>
+        <v>446935000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1665278934221482</v>
+        <v>0.1625884074465491</v>
       </c>
       <c r="D220" t="n">
-        <v>71175853455.4538</v>
+        <v>72666449882.12341</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>426662000000</v>
+        <v>438789000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1627339300244101</v>
+        <v>0.158378207158695</v>
       </c>
       <c r="D221" t="n">
-        <v>69432384052.07486</v>
+        <v>69494615140.9566</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>440284000000</v>
+        <v>443529000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1619957881095092</v>
+        <v>0.1576789656259855</v>
       </c>
       <c r="D222" t="n">
-        <v>71324153572.00713</v>
+        <v>69935193945.12772</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>446935000000</v>
+        <v>438954000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1625884074465491</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="D223" t="n">
-        <v>72666449882.12341</v>
+        <v>67324233128.83436</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>438789000000</v>
+        <v>440728000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.158378207158695</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D224" t="n">
-        <v>69494615140.9566</v>
+        <v>65052103321.03321</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>443529000000</v>
+        <v>437781000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1576789656259855</v>
+        <v>0.1435750179468772</v>
       </c>
       <c r="D225" t="n">
-        <v>69935193945.12772</v>
+        <v>62854414931.80186</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>438954000000</v>
+        <v>441072000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1533742331288344</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D226" t="n">
-        <v>67324233128.83436</v>
+        <v>65102878228.78229</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>440728000000</v>
+        <v>433197000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1437297879985627</v>
       </c>
       <c r="D227" t="n">
-        <v>65052103321.03321</v>
+        <v>62263312971.61337</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>437781000000</v>
+        <v>439801000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1435750179468772</v>
+        <v>0.1435441039259313</v>
       </c>
       <c r="D228" t="n">
-        <v>62854414931.80186</v>
+        <v>63130840450.72849</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>441072000000</v>
+        <v>452472000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="D229" t="n">
-        <v>65102878228.78229</v>
+        <v>62427152317.88079</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>433197000000</v>
+        <v>450460000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1437297879985627</v>
+        <v>0.1328021248339973</v>
       </c>
       <c r="D230" t="n">
-        <v>62263312971.61337</v>
+        <v>59822045152.72244</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>439801000000</v>
+        <v>461178000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1435441039259313</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D231" t="n">
-        <v>63130840450.72849</v>
+        <v>59545255003.22789</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>452472000000</v>
+        <v>474848000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1379690949227373</v>
+        <v>0.1319713886029509</v>
       </c>
       <c r="D232" t="n">
-        <v>62427152317.88079</v>
+        <v>62666349935.33402</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>450460000000</v>
+        <v>474206000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1328021248339973</v>
+        <v>0.1292256797270754</v>
       </c>
       <c r="D233" t="n">
-        <v>59822045152.72244</v>
+        <v>61279592680.65749</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>461178000000</v>
+        <v>483016000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1291155584247902</v>
+        <v>0.1306062743254186</v>
       </c>
       <c r="D234" t="n">
-        <v>59545255003.22789</v>
+        <v>63084920199.56639</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>474848000000</v>
+        <v>491457000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1319713886029509</v>
+        <v>0.1244152483328357</v>
       </c>
       <c r="D235" t="n">
-        <v>62666349935.33402</v>
+        <v>61144744699.91042</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>474206000000</v>
+        <v>490895000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1292256797270754</v>
+        <v>0.1247193813918683</v>
       </c>
       <c r="D236" t="n">
-        <v>61279592680.65749</v>
+        <v>61224120728.36118</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>483016000000</v>
+        <v>491567000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1306062743254186</v>
+        <v>0.1251564455569462</v>
       </c>
       <c r="D237" t="n">
-        <v>63084920199.56639</v>
+        <v>61522778473.09137</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>491457000000</v>
+        <v>492768000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1244152483328357</v>
+        <v>0.1243224426873539</v>
       </c>
       <c r="D238" t="n">
-        <v>61144744699.91042</v>
+        <v>61262121438.16202</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>490895000000</v>
+        <v>497927000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1247193813918683</v>
+        <v>0.1210419289241793</v>
       </c>
       <c r="D239" t="n">
-        <v>61224120728.36118</v>
+        <v>60270044543.42985</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>491567000000</v>
+        <v>513455000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1251564455569462</v>
+        <v>0.119387304354055</v>
       </c>
       <c r="D240" t="n">
-        <v>61522778473.09137</v>
+        <v>61300008357.11131</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>492768000000</v>
+        <v>508210000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1243224426873539</v>
+        <v>0.1110358534770877</v>
       </c>
       <c r="D241" t="n">
-        <v>61262121438.16202</v>
+        <v>56429531095.59077</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>497927000000</v>
+        <v>510372000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1210419289241793</v>
+        <v>0.105682550754045</v>
       </c>
       <c r="D242" t="n">
-        <v>60270044543.42985</v>
+        <v>53937414793.44345</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>513455000000</v>
+        <v>522814000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.119387304354055</v>
+        <v>0.09749439407234084</v>
       </c>
       <c r="D243" t="n">
-        <v>61300008357.11131</v>
+        <v>50971434142.5368</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>508210000000</v>
+        <v>544056000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1110358534770877</v>
+        <v>0.08350730688935282</v>
       </c>
       <c r="D244" t="n">
-        <v>56429531095.59077</v>
+        <v>45432651356.99374</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>510372000000</v>
+        <v>560885000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.105682550754045</v>
+        <v>0.08777319406653207</v>
       </c>
       <c r="D245" t="n">
-        <v>53937414793.44345</v>
+        <v>49230667954.00684</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>522814000000</v>
+        <v>573536000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.09749439407234084</v>
+        <v>0.08822232024702249</v>
       </c>
       <c r="D246" t="n">
-        <v>50971434142.5368</v>
+        <v>50598676665.19629</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>544056000000</v>
+        <v>585236000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.08350730688935282</v>
+        <v>0.0883197173769044</v>
       </c>
       <c r="D247" t="n">
-        <v>45432651356.99374</v>
+        <v>51687878118.79002</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>560885000000</v>
+        <v>581307000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.08777319406653207</v>
+        <v>0.09383063570255688</v>
       </c>
       <c r="D248" t="n">
-        <v>49230667954.00684</v>
+        <v>54544405348.34624</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>573536000000</v>
+        <v>594432000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.08822232024702249</v>
+        <v>0.102380342974149</v>
       </c>
       <c r="D249" t="n">
-        <v>50598676665.19629</v>
+        <v>60858152034.80932</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>585236000000</v>
+        <v>579246000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0883197173769044</v>
+        <v>0.09737098344693282</v>
       </c>
       <c r="D250" t="n">
-        <v>51687878118.79002</v>
+        <v>56401752677.70205</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>581307000000</v>
+        <v>574280000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.09383063570255688</v>
+        <v>0.09826078412105729</v>
       </c>
       <c r="D251" t="n">
-        <v>54544405348.34624</v>
+        <v>56429203105.04078</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>594432000000</v>
+        <v>591806000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.102380342974149</v>
+        <v>0.09456264775413713</v>
       </c>
       <c r="D252" t="n">
-        <v>60858152034.80932</v>
+        <v>55962742316.78487</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>579246000000</v>
+        <v>598267000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.09737098344693282</v>
+        <v>0.09513842641042718</v>
       </c>
       <c r="D253" t="n">
-        <v>56401752677.70205</v>
+        <v>56918180953.28703</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>574280000000</v>
+        <v>607600000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.09826078412105729</v>
+        <v>0.09995002498750624</v>
       </c>
       <c r="D254" t="n">
-        <v>56429203105.04078</v>
+        <v>60729635182.40879</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>591806000000</v>
+        <v>621424000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.09456264775413713</v>
+        <v>0.1082602576594132</v>
       </c>
       <c r="D255" t="n">
-        <v>55962742316.78487</v>
+        <v>67275522355.74321</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>598267000000</v>
+        <v>632621000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.09513842641042718</v>
+        <v>0.1170275014628438</v>
       </c>
       <c r="D256" t="n">
-        <v>56918180953.28703</v>
+        <v>74034055002.92569</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>607600000000</v>
+        <v>639520000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.09995002498750624</v>
+        <v>0.1178314303557331</v>
       </c>
       <c r="D257" t="n">
-        <v>60729635182.40879</v>
+        <v>75355556341.09842</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>621424000000</v>
+        <v>646346000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1082602576594132</v>
+        <v>0.1239464551313832</v>
       </c>
       <c r="D258" t="n">
-        <v>67275522355.74321</v>
+        <v>80112295488.34903</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>632621000000</v>
+        <v>651020000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1170275014628438</v>
+        <v>0.1272102785905101</v>
       </c>
       <c r="D259" t="n">
-        <v>74034055002.92569</v>
+        <v>82816435567.9939</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>639520000000</v>
+        <v>671314000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1178314303557331</v>
+        <v>0.1378359751895245</v>
       </c>
       <c r="D260" t="n">
-        <v>75355556341.09842</v>
+        <v>92531219848.38043</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>646346000000</v>
+        <v>680405000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1239464551313832</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="D261" t="n">
-        <v>80112295488.34903</v>
+        <v>84260681114.55109</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>651020000000</v>
+        <v>684477000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1272102785905101</v>
+        <v>0.1343111182743708</v>
       </c>
       <c r="D262" t="n">
-        <v>82816435567.9939</v>
+        <v>91932871303.08647</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>671314000000</v>
+        <v>688974000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1378359751895245</v>
+        <v>0.1362323579096507</v>
       </c>
       <c r="D263" t="n">
-        <v>92531219848.38043</v>
+        <v>93860552558.4437</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>680405000000</v>
+        <v>690024000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1238390092879257</v>
+        <v>0.1364256480218281</v>
       </c>
       <c r="D264" t="n">
-        <v>84260681114.55109</v>
+        <v>94136971350.61392</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>684477000000</v>
+        <v>706699000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1343111182743708</v>
+        <v>0.144196106705119</v>
       </c>
       <c r="D265" t="n">
-        <v>91932871303.08647</v>
+        <v>101903244412.4009</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>688974000000</v>
+        <v>711110000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1362323579096507</v>
+        <v>0.1455582888167567</v>
       </c>
       <c r="D266" t="n">
-        <v>93860552558.4437</v>
+        <v>103507954760.4838</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>690024000000</v>
+        <v>721063000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1364256480218281</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="D267" t="n">
-        <v>94136971350.61392</v>
+        <v>113196703296.7033</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>706699000000</v>
+        <v>733453000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.144196106705119</v>
+        <v>0.1517450682852807</v>
       </c>
       <c r="D268" t="n">
-        <v>101903244412.4009</v>
+        <v>111297875569.044</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>711110000000</v>
+        <v>734861000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1455582888167567</v>
+        <v>0.1412628902387343</v>
       </c>
       <c r="D269" t="n">
-        <v>103507954760.4838</v>
+        <v>103808588783.7265</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>721063000000</v>
+        <v>756772000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1569858712715856</v>
+        <v>0.150941117869919</v>
       </c>
       <c r="D270" t="n">
-        <v>113196703296.7033</v>
+        <v>114228011652.6543</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>733453000000</v>
+        <v>748540000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1517450682852807</v>
+        <v>0.1595405232929164</v>
       </c>
       <c r="D271" t="n">
-        <v>111297875569.044</v>
+        <v>119422463305.6796</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>734861000000</v>
+        <v>750744000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1412628902387343</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D272" t="n">
-        <v>103808588783.7265</v>
+        <v>108646020260.492</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>756772000000</v>
+        <v>748172000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.150941117869919</v>
+        <v>0.1534636751480924</v>
       </c>
       <c r="D273" t="n">
-        <v>114228011652.6543</v>
+        <v>114817224762.8986</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>748540000000</v>
+        <v>749022000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1595405232929164</v>
+        <v>0.163212012404113</v>
       </c>
       <c r="D274" t="n">
-        <v>119422463305.6796</v>
+        <v>122249387954.9535</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>750744000000</v>
+        <v>748658000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1598082301238514</v>
       </c>
       <c r="D275" t="n">
-        <v>108646020260.492</v>
+        <v>119641709948.0623</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>748172000000</v>
+        <v>766827000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1534636751480924</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="D276" t="n">
-        <v>114817224762.8986</v>
+        <v>115747471698.1132</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>749022000000</v>
+        <v>790428000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.163212012404113</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D277" t="n">
-        <v>122249387954.9535</v>
+        <v>122680117957.4732</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>748658000000</v>
+        <v>807543000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1598082301238514</v>
+        <v>0.1641497045305318</v>
       </c>
       <c r="D278" t="n">
-        <v>119641709948.0623</v>
+        <v>132557944845.6993</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>766827000000</v>
+        <v>805336000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1721614874752518</v>
       </c>
       <c r="D279" t="n">
-        <v>115747471698.1132</v>
+        <v>138647843677.3694</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>790428000000</v>
+        <v>818740000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1770287494689138</v>
       </c>
       <c r="D280" t="n">
-        <v>122680117957.4732</v>
+        <v>144940518340.1784</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>807543000000</v>
+        <v>819280000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1641497045305318</v>
+        <v>0.1674340728338217</v>
       </c>
       <c r="D281" t="n">
-        <v>132557944845.6993</v>
+        <v>137175387191.2934</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>805336000000</v>
+        <v>842007000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1721614874752518</v>
+        <v>0.1722652885443583</v>
       </c>
       <c r="D282" t="n">
-        <v>138647843677.3694</v>
+        <v>145048578811.3695</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>818740000000</v>
+        <v>836640000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1770287494689138</v>
+        <v>0.1604621309370989</v>
       </c>
       <c r="D283" t="n">
-        <v>144940518340.1784</v>
+        <v>134249037227.2144</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>819280000000</v>
+        <v>870197000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1674340728338217</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="D284" t="n">
-        <v>137175387191.2934</v>
+        <v>143124506578.9474</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>842007000000</v>
+        <v>865829000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1722652885443583</v>
+        <v>0.1472320376914016</v>
       </c>
       <c r="D285" t="n">
-        <v>145048578811.3695</v>
+        <v>127477767962.3086</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>836640000000</v>
+        <v>876491000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1604621309370989</v>
+        <v>0.1501501501501502</v>
       </c>
       <c r="D286" t="n">
-        <v>134249037227.2144</v>
+        <v>131605255255.2553</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>870197000000</v>
+        <v>898047000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.1523693432881304</v>
       </c>
       <c r="D287" t="n">
-        <v>143124506578.9474</v>
+        <v>136834831631.8757</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>865829000000</v>
+        <v>915941000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1472320376914016</v>
+        <v>0.1574555188159345</v>
       </c>
       <c r="D288" t="n">
-        <v>127477767962.3086</v>
+        <v>144219965359.7859</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>876491000000</v>
+        <v>928537000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1501501501501502</v>
+        <v>0.1577784790154623</v>
       </c>
       <c r="D289" t="n">
-        <v>131605255255.2553</v>
+        <v>146503155569.5803</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>898047000000</v>
+        <v>931975000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1523693432881304</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D290" t="n">
-        <v>136834831631.8757</v>
+        <v>138893442622.9508</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>915941000000</v>
+        <v>937193000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1574555188159345</v>
+        <v>0.1551133102731545</v>
       </c>
       <c r="D291" t="n">
-        <v>144219965359.7859</v>
+        <v>145371108594.8285</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>928537000000</v>
+        <v>963515000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1577784790154623</v>
+        <v>0.158045295781771</v>
       </c>
       <c r="D292" t="n">
-        <v>146503155569.5803</v>
+        <v>152279013165.1731</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>931975000000</v>
+        <v>965101000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1654232353476369</v>
       </c>
       <c r="D293" t="n">
-        <v>138893442622.9508</v>
+        <v>159650129857.2398</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>937193000000</v>
+        <v>1000200000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1551133102731545</v>
+        <v>0.1625408383856444</v>
       </c>
       <c r="D294" t="n">
-        <v>145371108594.8285</v>
+        <v>162573346553.3215</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>963515000000</v>
+        <v>1032586000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.158045295781771</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="D295" t="n">
-        <v>152279013165.1731</v>
+        <v>167900162601.626</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>965101000000</v>
+        <v>1026904000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1654232353476369</v>
+        <v>0.1670843776106934</v>
       </c>
       <c r="D296" t="n">
-        <v>159650129857.2398</v>
+        <v>171579615705.9315</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>1000200000000</v>
+        <v>1044155000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1625408383856444</v>
+        <v>0.1487541837114169</v>
       </c>
       <c r="D297" t="n">
-        <v>162573346553.3215</v>
+        <v>155322424693.1945</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>1032586000000</v>
+        <v>1050280000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1402268871033332</v>
       </c>
       <c r="D298" t="n">
-        <v>167900162601.626</v>
+        <v>147277494986.8888</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>1026904000000</v>
+        <v>1061266000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1670843776106934</v>
+        <v>0.1445295562942622</v>
       </c>
       <c r="D299" t="n">
-        <v>171579615705.9315</v>
+        <v>153384304090.1864</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>1044155000000</v>
+        <v>1078788000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1487541837114169</v>
+        <v>0.1400560224089636</v>
       </c>
       <c r="D300" t="n">
-        <v>155322424693.1945</v>
+        <v>151090756302.521</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>1050280000000</v>
+        <v>1106311000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1402268871033332</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="D301" t="n">
-        <v>147277494986.8888</v>
+        <v>143119146183.6999</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>1061266000000</v>
+        <v>1125707000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1445295562942622</v>
+        <v>0.1358511071865236</v>
       </c>
       <c r="D302" t="n">
-        <v>153384304090.1864</v>
+        <v>152928542317.6199</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>1078788000000</v>
+        <v>1146097000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1400560224089636</v>
+        <v>0.1399932803225445</v>
       </c>
       <c r="D303" t="n">
-        <v>151090756302.521</v>
+        <v>160445878597.8273</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>1106311000000</v>
+        <v>1156842000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.129366106080207</v>
+        <v>0.1427103550633634</v>
       </c>
       <c r="D304" t="n">
-        <v>143119146183.6999</v>
+        <v>165093332572.2115</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>1125707000000</v>
+        <v>1133627000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1358511071865236</v>
+        <v>0.1388406803193336</v>
       </c>
       <c r="D305" t="n">
-        <v>152928542317.6199</v>
+        <v>157393543908.3652</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>1146097000000</v>
+        <v>1180287000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1399932803225445</v>
+        <v>0.1385502105963201</v>
       </c>
       <c r="D306" t="n">
-        <v>160445878597.8273</v>
+        <v>163529012414.0989</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>1156842000000</v>
+        <v>1195132000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1427103550633634</v>
+        <v>0.1379500620775279</v>
       </c>
       <c r="D307" t="n">
-        <v>165093332572.2115</v>
+        <v>164868533590.8401</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>1133627000000</v>
+        <v>1215180000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1388406803193336</v>
+        <v>0.142673705236125</v>
       </c>
       <c r="D308" t="n">
-        <v>157393543908.3652</v>
+        <v>173374233128.8343</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>1180287000000</v>
+        <v>1241347000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1385502105963201</v>
+        <v>0.1414227124876255</v>
       </c>
       <c r="D309" t="n">
-        <v>163529012414.0989</v>
+        <v>175554659878.3765</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>1195132000000</v>
+        <v>1249390000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1379500620775279</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="D310" t="n">
-        <v>164868533590.8401</v>
+        <v>178077251995.439</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>1215180000000</v>
+        <v>1290230000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.142673705236125</v>
+        <v>0.1399423437543732</v>
       </c>
       <c r="D311" t="n">
-        <v>173374233128.8343</v>
+        <v>180557810182.2049</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>1241347000000</v>
+        <v>1341912000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1414227124876255</v>
+        <v>0.140548137737175</v>
       </c>
       <c r="D312" t="n">
-        <v>175554659878.3765</v>
+        <v>188603232607.1679</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>1249390000000</v>
+        <v>1350336000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1425313568985177</v>
+        <v>0.1458512608841503</v>
       </c>
       <c r="D313" t="n">
-        <v>178077251995.439</v>
+        <v>196948208217.26</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>1290230000000</v>
+        <v>1346359000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1399423437543732</v>
+        <v>0.154273372415921</v>
       </c>
       <c r="D314" t="n">
-        <v>180557810182.2049</v>
+        <v>207707343412.527</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>1341912000000</v>
+        <v>1381640000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.140548137737175</v>
+        <v>0.1472732360348154</v>
       </c>
       <c r="D315" t="n">
-        <v>188603232607.1679</v>
+        <v>203478593835.1424</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>1350336000000</v>
+        <v>1396325000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1458512608841503</v>
+        <v>0.1463957369561398</v>
       </c>
       <c r="D316" t="n">
-        <v>196948208217.26</v>
+        <v>204416027405.282</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>1346359000000</v>
+        <v>1377990000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.154273372415921</v>
+        <v>0.1338508901084192</v>
       </c>
       <c r="D317" t="n">
-        <v>207707343412.527</v>
+        <v>184445188060.5006</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>1381640000000</v>
+        <v>1393920000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1472732360348154</v>
+        <v>0.1279230414982347</v>
       </c>
       <c r="D318" t="n">
-        <v>203478593835.1424</v>
+        <v>178314486005.2193</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>1396325000000</v>
+        <v>1431028000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1463957369561398</v>
+        <v>0.1234415504258733</v>
       </c>
       <c r="D319" t="n">
-        <v>204416027405.282</v>
+        <v>176648315022.8367</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>1377990000000</v>
+        <v>1458145000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1338508901084192</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D320" t="n">
-        <v>184445188060.5006</v>
+        <v>193131788079.4702</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>1393920000000</v>
+        <v>1482428000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1279230414982347</v>
+        <v>0.1322401481089659</v>
       </c>
       <c r="D321" t="n">
-        <v>178314486005.2193</v>
+        <v>196036498280.8781</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>1431028000000</v>
+        <v>1474862000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1234415504258733</v>
+        <v>0.1277791975466394</v>
       </c>
       <c r="D322" t="n">
-        <v>176648315022.8367</v>
+        <v>188456682852.0317</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>1458145000000</v>
+        <v>1484679000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1364237868514754</v>
       </c>
       <c r="D323" t="n">
-        <v>193131788079.4702</v>
+        <v>202545531438.8617</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>1482428000000</v>
+        <v>1482748000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1322401481089659</v>
+        <v>0.129974784891731</v>
       </c>
       <c r="D324" t="n">
-        <v>196036498280.8781</v>
+        <v>192719852348.6444</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>1474862000000</v>
+        <v>1506513000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1277791975466394</v>
+        <v>0.1208327795164272</v>
       </c>
       <c r="D325" t="n">
-        <v>188456682852.0317</v>
+        <v>182036153167.6313</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>1484679000000</v>
+        <v>1523646000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1364237868514754</v>
+        <v>0.1026630803030614</v>
       </c>
       <c r="D326" t="n">
-        <v>202545531438.8617</v>
+        <v>156422191651.4383</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>1482748000000</v>
+        <v>1565803000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.129974784891731</v>
+        <v>0.09868940470551082</v>
       </c>
       <c r="D327" t="n">
-        <v>192719852348.6444</v>
+        <v>154528165956.103</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>1506513000000</v>
+        <v>1562427000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1208327795164272</v>
+        <v>0.1071799873527615</v>
       </c>
       <c r="D328" t="n">
-        <v>182036153167.6313</v>
+        <v>167460906099.6131</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>1523646000000</v>
+        <v>1566667000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1026630803030614</v>
+        <v>0.09811039381512077</v>
       </c>
       <c r="D329" t="n">
-        <v>156422191651.4383</v>
+        <v>153706316347.1538</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>1565803000000</v>
+        <v>1585801000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.09868940470551082</v>
+        <v>0.09911490390810067</v>
       </c>
       <c r="D330" t="n">
-        <v>154528165956.103</v>
+        <v>157176513732.3699</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>1562427000000</v>
+        <v>1574342000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1071799873527615</v>
+        <v>0.105380851666967</v>
       </c>
       <c r="D331" t="n">
-        <v>167460906099.6131</v>
+        <v>165905500775.0761</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>1566667000000</v>
+        <v>1574490000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.09811039381512077</v>
+        <v>0.1184246209523945</v>
       </c>
       <c r="D332" t="n">
-        <v>153706316347.1538</v>
+        <v>186458381443.3356</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>1585801000000</v>
+        <v>1597266000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.09911490390810067</v>
+        <v>0.1258211402163369</v>
       </c>
       <c r="D333" t="n">
-        <v>157176513732.3699</v>
+        <v>200969829348.7875</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>1574342000000</v>
+        <v>1545955000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.105380851666967</v>
+        <v>0.1297489746587278</v>
       </c>
       <c r="D334" t="n">
-        <v>165905500775.0761</v>
+        <v>200586076118.5335</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>1574490000000</v>
+        <v>1539789000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1184246209523945</v>
+        <v>0.1289908145640949</v>
       </c>
       <c r="D335" t="n">
-        <v>186458381443.3356</v>
+        <v>198618637366.8331</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>1597266000000</v>
+        <v>1554419000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1258211402163369</v>
+        <v>0.1287665835263759</v>
       </c>
       <c r="D336" t="n">
-        <v>200969829348.7875</v>
+        <v>200157223998.4857</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>1545955000000</v>
+        <v>1544145000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1297489746587278</v>
+        <v>0.1333210677950962</v>
       </c>
       <c r="D337" t="n">
-        <v>200586076118.5335</v>
+        <v>205867060230.4588</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>1539789000000</v>
+        <v>1537065000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1289908145640949</v>
+        <v>0.1281100311435486</v>
       </c>
       <c r="D338" t="n">
-        <v>198618637366.8331</v>
+        <v>196913445019.6585</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>1554419000000</v>
+        <v>1549706000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1287665835263759</v>
+        <v>0.1351700236142031</v>
       </c>
       <c r="D339" t="n">
-        <v>200157223998.4857</v>
+        <v>209473796615.0723</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>1544145000000</v>
+        <v>1589340000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1333210677950962</v>
+        <v>0.1355548054856319</v>
       </c>
       <c r="D340" t="n">
-        <v>205867060230.4588</v>
+        <v>215442674550.5341</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>1537065000000</v>
+        <v>1569747000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1281100311435486</v>
+        <v>0.1312802847206815</v>
       </c>
       <c r="D341" t="n">
-        <v>196913445019.6585</v>
+        <v>206076833099.4356</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>1549706000000</v>
+        <v>1566078000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1351700236142031</v>
+        <v>0.1295674132772911</v>
       </c>
       <c r="D342" t="n">
-        <v>209473796615.0723</v>
+        <v>202912675450.4735</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>1589340000000</v>
+        <v>1578113000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.1355548054856319</v>
+        <v>0.137462902199269</v>
       </c>
       <c r="D343" t="n">
-        <v>215442674550.5341</v>
+        <v>216931992978.395</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>1569747000000</v>
+        <v>1581563000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1312802847206815</v>
+        <v>0.135475655024792</v>
       </c>
       <c r="D344" t="n">
-        <v>206076833099.4356</v>
+        <v>214263283387.9752</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>1566078000000</v>
+        <v>1580338000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1295674132772911</v>
+        <v>0.1310255368771374</v>
       </c>
       <c r="D345" t="n">
-        <v>202912675450.4735</v>
+        <v>207064634897.3415</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>1578113000000</v>
+        <v>1551427000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.137462902199269</v>
+        <v>0.1304886801070007</v>
       </c>
       <c r="D346" t="n">
-        <v>216931992978.395</v>
+        <v>202443661512.3638</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>1581563000000</v>
+        <v>1583836000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.135475655024792</v>
+        <v>0.1372156206262521</v>
       </c>
       <c r="D347" t="n">
-        <v>214263283387.9752</v>
+        <v>217327039710.2006</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>1580338000000</v>
+        <v>1595672000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1310255368771374</v>
+        <v>0.135707306481381</v>
       </c>
       <c r="D348" t="n">
-        <v>207064634897.3415</v>
+        <v>216544349147.7581</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>1551427000000</v>
+        <v>1589594000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1304886801070007</v>
+        <v>0.1437359857413902</v>
       </c>
       <c r="D349" t="n">
-        <v>202443661512.3638</v>
+        <v>228481860518.5994</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>1583836000000</v>
+        <v>1598006000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1372156206262521</v>
+        <v>0.1429245215601641</v>
       </c>
       <c r="D350" t="n">
-        <v>217327039710.2006</v>
+        <v>228394243000.2716</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>1595672000000</v>
+        <v>1660253000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.135707306481381</v>
+        <v>0.1407974769092138</v>
       </c>
       <c r="D351" t="n">
-        <v>216544349147.7581</v>
+        <v>233759433430.9529</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>1589594000000</v>
+        <v>1678417000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1437359857413902</v>
+        <v>0.1518395359783781</v>
       </c>
       <c r="D352" t="n">
-        <v>228481860518.5994</v>
+        <v>254850058458.2214</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>1598006000000</v>
+        <v>1674643000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1429245215601641</v>
+        <v>0.1392874056327827</v>
       </c>
       <c r="D353" t="n">
-        <v>228394243000.2716</v>
+        <v>233256678831.1001</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>1660253000000</v>
+        <v>1653749000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1407974769092138</v>
+        <v>0.143682289720969</v>
       </c>
       <c r="D354" t="n">
-        <v>233759433430.9529</v>
+        <v>237614442943.7628</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>1678417000000</v>
+        <v>1650771000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1518395359783781</v>
+        <v>0.1477235796377818</v>
       </c>
       <c r="D355" t="n">
-        <v>254850058458.2214</v>
+        <v>243857801282.2407</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>1674643000000</v>
+        <v>1656915000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1392874056327827</v>
+        <v>0.1525129559756101</v>
       </c>
       <c r="D356" t="n">
-        <v>233256678831.1001</v>
+        <v>252701004450.3281</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>1653749000000</v>
+        <v>1666606000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.143682289720969</v>
+        <v>0.1472472133464874</v>
       </c>
       <c r="D357" t="n">
-        <v>237614442943.7628</v>
+        <v>245403089246.536</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>1650771000000</v>
+        <v>1646475000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1477235796377818</v>
+        <v>0.1479443137603006</v>
       </c>
       <c r="D358" t="n">
-        <v>243857801282.2407</v>
+        <v>243586613998.491</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>1656915000000</v>
+        <v>1670191000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1525129559756101</v>
+        <v>0.1497633738692865</v>
       </c>
       <c r="D359" t="n">
-        <v>252701004450.3281</v>
+        <v>250133439166.1176</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>1666606000000</v>
+        <v>1693482000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1472472133464874</v>
+        <v>0.1431372829680947</v>
       </c>
       <c r="D360" t="n">
-        <v>245403089246.536</v>
+        <v>242400412235.3749</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>1646475000000</v>
+        <v>1721643000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1479443137603006</v>
+        <v>0.1238144763885794</v>
       </c>
       <c r="D361" t="n">
-        <v>243586613998.491</v>
+        <v>213164326573.063</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>1670191000000</v>
+        <v>1740142000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1497633738692865</v>
+        <v>0.1258004050773044</v>
       </c>
       <c r="D362" t="n">
-        <v>250133439166.1176</v>
+        <v>218910568492.0306</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>1693482000000</v>
+        <v>1757764000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1431372829680947</v>
+        <v>0.1233745404298369</v>
       </c>
       <c r="D363" t="n">
-        <v>242400412235.3749</v>
+        <v>216863325684.1118</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>1721643000000</v>
+        <v>1798932000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1238144763885794</v>
+        <v>0.1240987329519366</v>
       </c>
       <c r="D364" t="n">
-        <v>213164326573.063</v>
+        <v>223245181866.6931</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>1740142000000</v>
+        <v>1785342000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1258004050773044</v>
+        <v>0.1281640499839795</v>
       </c>
       <c r="D365" t="n">
-        <v>218910568492.0306</v>
+        <v>228816661326.4979</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>1757764000000</v>
+        <v>1767502000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1233745404298369</v>
+        <v>0.1332924569798595</v>
       </c>
       <c r="D366" t="n">
-        <v>216863325684.1118</v>
+        <v>235594684296.8156</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>1798932000000</v>
+        <v>1799376000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1240987329519366</v>
+        <v>0.1306455195119083</v>
       </c>
       <c r="D367" t="n">
-        <v>223245181866.6931</v>
+        <v>235080412317.2596</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>1785342000000</v>
+        <v>1777035000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1281640499839795</v>
+        <v>0.1286223262633928</v>
       </c>
       <c r="D368" t="n">
-        <v>228816661326.4979</v>
+        <v>228566375551.4682</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>1767502000000</v>
+        <v>1781526000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1332924569798595</v>
+        <v>0.1173516088905579</v>
       </c>
       <c r="D369" t="n">
-        <v>235594684296.8156</v>
+        <v>209064942380.36</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>1799376000000</v>
+        <v>1769160000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1306455195119083</v>
+        <v>0.1228531413548245</v>
       </c>
       <c r="D370" t="n">
-        <v>235080412317.2596</v>
+        <v>217346863559.3012</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>1777035000000</v>
+        <v>1802929000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1286223262633928</v>
+        <v>0.121307696973373</v>
       </c>
       <c r="D371" t="n">
-        <v>228566375551.4682</v>
+        <v>218709164796.5063</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>1781526000000</v>
+        <v>1820822000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1173516088905579</v>
+        <v>0.1191696260457135</v>
       </c>
       <c r="D372" t="n">
-        <v>209064942380.36</v>
+        <v>216986676835.8081</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>1769160000000</v>
+        <v>1831446000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1228531413548245</v>
+        <v>0.1203775038520801</v>
       </c>
       <c r="D373" t="n">
-        <v>217346863559.3012</v>
+        <v>220464897919.8767</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>1802929000000</v>
+        <v>1812952000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.121307696973373</v>
+        <v>0.1153429144847632</v>
       </c>
       <c r="D374" t="n">
-        <v>218709164796.5063</v>
+        <v>209111167500.9804</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>1820822000000</v>
+        <v>1872964000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1191696260457135</v>
+        <v>0.1122977237251401</v>
       </c>
       <c r="D375" t="n">
-        <v>216986676835.8081</v>
+        <v>210329593819.1333</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>1831446000000</v>
+        <v>1869050000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1203775038520801</v>
+        <v>0.1178189358593713</v>
       </c>
       <c r="D376" t="n">
-        <v>220464897919.8767</v>
+        <v>220209482067.9579</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>1812952000000</v>
+        <v>1861751000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1153429144847632</v>
+        <v>0.1116694584031267</v>
       </c>
       <c r="D377" t="n">
-        <v>209111167500.9804</v>
+        <v>207900725851.4796</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>1872964000000</v>
+        <v>1869042000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1122977237251401</v>
+        <v>0.1107591431672685</v>
       </c>
       <c r="D378" t="n">
-        <v>210329593819.1333</v>
+        <v>207013490463.6378</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>1869050000000</v>
+        <v>1900810000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1178189358593713</v>
+        <v>0.1083869848908543</v>
       </c>
       <c r="D379" t="n">
-        <v>220209482067.9579</v>
+        <v>206023064750.3848</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>1861751000000</v>
+        <v>1912464000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.1116694584031267</v>
+        <v>0.1115312120096809</v>
       </c>
       <c r="D380" t="n">
-        <v>207900725851.4796</v>
+        <v>213299427844.8824</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>1869042000000</v>
+        <v>1915820000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1107591431672685</v>
+        <v>0.09940851931010487</v>
       </c>
       <c r="D381" t="n">
-        <v>207013490463.6378</v>
+        <v>190448829464.6851</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>1900810000000</v>
+        <v>1928903000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1083869848908543</v>
+        <v>0.1013410460625457</v>
       </c>
       <c r="D382" t="n">
-        <v>206023064750.3848</v>
+        <v>195477047773.1825</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>1912464000000</v>
+        <v>1954780000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.1115312120096809</v>
+        <v>0.1014973910095641</v>
       </c>
       <c r="D383" t="n">
-        <v>213299427844.8824</v>
+        <v>198405069997.6757</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>1915820000000</v>
+        <v>1983864000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.09940851931010487</v>
+        <v>0.09735676386116926</v>
       </c>
       <c r="D384" t="n">
-        <v>190448829464.6851</v>
+        <v>193142578980.6747</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>1928903000000</v>
+        <v>2011342000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.1013410460625457</v>
+        <v>0.09976913422340704</v>
       </c>
       <c r="D385" t="n">
-        <v>195477047773.1825</v>
+        <v>200669849967.176</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>1954780000000</v>
+        <v>2011789000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1014973910095641</v>
+        <v>0.09962074382824587</v>
       </c>
       <c r="D386" t="n">
-        <v>198405069997.6757</v>
+        <v>200415916605.4829</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>1983864000000</v>
+        <v>2057061000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.09735676386116926</v>
+        <v>0.09835375485129896</v>
       </c>
       <c r="D387" t="n">
-        <v>193142578980.6747</v>
+        <v>202319673308.1679</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>2011342000000</v>
+        <v>2049694000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.09976913422340704</v>
+        <v>0.09539472429016785</v>
       </c>
       <c r="D388" t="n">
-        <v>200669849967.176</v>
+        <v>195529994009.2113</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>2011789000000</v>
+        <v>2058373000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.09962074382824587</v>
+        <v>0.09004506755631195</v>
       </c>
       <c r="D389" t="n">
-        <v>200415916605.4829</v>
+        <v>185346335841.0885</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>2057061000000</v>
+        <v>2057046000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.09835375485129896</v>
+        <v>0.09295753699709973</v>
       </c>
       <c r="D390" t="n">
-        <v>202319673308.1679</v>
+        <v>191217929649.736</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>2049694000000</v>
+        <v>2108158000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.09539472429016785</v>
+        <v>0.09495233392836797</v>
       </c>
       <c r="D391" t="n">
-        <v>195529994009.2113</v>
+        <v>200174522389.7603</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>2058373000000</v>
+        <v>2112214000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.09004506755631195</v>
+        <v>0.09507239763079585</v>
       </c>
       <c r="D392" t="n">
-        <v>185346335841.0885</v>
+        <v>200813249289.3338</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>2057046000000</v>
+        <v>2147111000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.09295753699709973</v>
+        <v>0.09460379928857944</v>
       </c>
       <c r="D393" t="n">
-        <v>191217929649.736</v>
+        <v>203124858094.3011</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>2108158000000</v>
+        <v>2116923000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.09495233392836797</v>
+        <v>0.09406629792677879</v>
       </c>
       <c r="D394" t="n">
-        <v>200174522389.7603</v>
+        <v>199131109606.0503</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>2112214000000</v>
+        <v>2127901000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.09507239763079585</v>
+        <v>0.09349988780013464</v>
       </c>
       <c r="D395" t="n">
-        <v>200813249289.3338</v>
+        <v>198958504749.7943</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>2147111000000</v>
+        <v>2155842000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.09460379928857944</v>
+        <v>0.09384032130926016</v>
       </c>
       <c r="D396" t="n">
-        <v>203124858094.3011</v>
+        <v>202304905971.998</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>2116923000000</v>
+        <v>2215507000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.09406629792677879</v>
+        <v>0.08863205289560916</v>
       </c>
       <c r="D397" t="n">
-        <v>199131109606.0503</v>
+        <v>196364933614.5923</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>2127901000000</v>
+        <v>2217769000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.09349988780013464</v>
+        <v>0.09072269700433654</v>
       </c>
       <c r="D398" t="n">
-        <v>198958504749.7943</v>
+        <v>201201985012.6104</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>2155842000000</v>
+        <v>2259755000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.09384032130926016</v>
+        <v>0.09041517745334803</v>
       </c>
       <c r="D399" t="n">
-        <v>202304905971.998</v>
+        <v>204316149326.0905</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>2215507000000</v>
+        <v>2226544000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.08863205289560916</v>
+        <v>0.08639383493593898</v>
       </c>
       <c r="D400" t="n">
-        <v>196364933614.5923</v>
+        <v>192359674813.6053</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>2217769000000</v>
+        <v>2222725000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.09072269700433654</v>
+        <v>0.08629021123843711</v>
       </c>
       <c r="D401" t="n">
-        <v>201201985012.6104</v>
+        <v>191799409774.9551</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>2259755000000</v>
+        <v>2221686000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.09041517745334803</v>
+        <v>0.0858052392679097</v>
       </c>
       <c r="D402" t="n">
-        <v>204316149326.0905</v>
+        <v>190632298808.1652</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>2226544000000</v>
+        <v>2271450000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.08639383493593898</v>
+        <v>0.08247830820494211</v>
       </c>
       <c r="D403" t="n">
-        <v>192359674813.6053</v>
+        <v>187345353172.1158</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>2222725000000</v>
+        <v>2279247000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.08629021123843711</v>
+        <v>0.08406186953597848</v>
       </c>
       <c r="D404" t="n">
-        <v>191799409774.9551</v>
+        <v>191597763954.2704</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>2221686000000</v>
+        <v>2307632000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.0858052392679097</v>
+        <v>0.08228285554421881</v>
       </c>
       <c r="D405" t="n">
-        <v>190632298808.1652</v>
+        <v>189878550505.2167</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>2271450000000</v>
+        <v>2308183000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.08247830820494211</v>
+        <v>0.08219898730847636</v>
       </c>
       <c r="D406" t="n">
-        <v>187345353172.1158</v>
+        <v>189730305122.6409</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>2279247000000</v>
+        <v>2375417000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.08406186953597848</v>
+        <v>0.07889110660555235</v>
       </c>
       <c r="D407" t="n">
-        <v>191597763954.2704</v>
+        <v>187399275779.6413</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>2307632000000</v>
+        <v>2367936000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.08228285554421881</v>
+        <v>0.07533807963235017</v>
       </c>
       <c r="D408" t="n">
-        <v>189878550505.2167</v>
+        <v>178395750932.3087</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>2308183000000</v>
+        <v>2386441000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.08219898730847636</v>
+        <v>0.07220685820739253</v>
       </c>
       <c r="D409" t="n">
-        <v>189730305122.6409</v>
+        <v>172317406907.308</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>2375417000000</v>
+        <v>2415205000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.07889110660555235</v>
+        <v>0.07246004009938618</v>
       </c>
       <c r="D410" t="n">
-        <v>187399275779.6413</v>
+        <v>175005851148.238</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>2367936000000</v>
+        <v>2448155000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.07533807963235017</v>
+        <v>0.06923673424171929</v>
       </c>
       <c r="D411" t="n">
-        <v>178395750932.3087</v>
+        <v>169502257117.5363</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>2386441000000</v>
+        <v>2441272000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.07220685820739253</v>
+        <v>0.06462202577126387</v>
       </c>
       <c r="D412" t="n">
-        <v>172317406907.308</v>
+        <v>157759942098.6649</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>2415205000000</v>
+        <v>2420841000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.07246004009938618</v>
+        <v>0.06301991429291656</v>
       </c>
       <c r="D413" t="n">
-        <v>175005851148.238</v>
+        <v>152561192336.7784</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>2448155000000</v>
+        <v>2411088000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.06923673424171929</v>
+        <v>0.06306442661823319</v>
       </c>
       <c r="D414" t="n">
-        <v>169502257117.5363</v>
+        <v>152053882246.1026</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>2441272000000</v>
+        <v>2459285000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.06462202577126387</v>
+        <v>0.06778420221383204</v>
       </c>
       <c r="D415" t="n">
-        <v>157759942098.6649</v>
+        <v>166700671741.4439</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>2420841000000</v>
+        <v>2446136000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.06301991429291656</v>
+        <v>0.07036653930323053</v>
       </c>
       <c r="D416" t="n">
-        <v>152561192336.7784</v>
+        <v>172126124985.0471</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>2411088000000</v>
+        <v>2431670000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.06306442661823319</v>
+        <v>0.06368088236230601</v>
       </c>
       <c r="D417" t="n">
-        <v>152053882246.1026</v>
+        <v>154850891213.9487</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>2459285000000</v>
+        <v>2412885000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.06778420221383204</v>
+        <v>0.06797264780652265</v>
       </c>
       <c r="D418" t="n">
-        <v>166700671741.4439</v>
+        <v>164010182302.6414</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>2446136000000</v>
+        <v>2453694000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.07036653930323053</v>
+        <v>0.07200564524258701</v>
       </c>
       <c r="D419" t="n">
-        <v>172126124985.0471</v>
+        <v>176679819697.8643</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>2431670000000</v>
+        <v>2486214000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.06368088236230601</v>
+        <v>0.06791448208415964</v>
       </c>
       <c r="D420" t="n">
-        <v>154850891213.9487</v>
+        <v>168849936160.3869</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>2412885000000</v>
+        <v>2509320000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.06797264780652265</v>
+        <v>0.07292137617221112</v>
       </c>
       <c r="D421" t="n">
-        <v>164010182302.6414</v>
+        <v>182983067656.4528</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>2453694000000</v>
+        <v>2566282000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.07200564524258701</v>
+        <v>0.07424015204383139</v>
       </c>
       <c r="D422" t="n">
-        <v>176679819697.8643</v>
+        <v>190521165867.3477</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>2486214000000</v>
+        <v>2561804000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.06791448208415964</v>
+        <v>0.07107270026510117</v>
       </c>
       <c r="D423" t="n">
-        <v>168849936160.3869</v>
+        <v>182074327829.9372</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>2509320000000</v>
+        <v>2601201000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.07292137617221112</v>
+        <v>0.07283957811316356</v>
       </c>
       <c r="D424" t="n">
-        <v>182983067656.4528</v>
+        <v>189470383427.5392</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>2566282000000</v>
+        <v>2592617000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.07424015204383139</v>
+        <v>0.07423519193508875</v>
       </c>
       <c r="D425" t="n">
-        <v>190521165867.3477</v>
+        <v>192463420609.174</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>2561804000000</v>
+        <v>2556260000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.07107270026510117</v>
+        <v>0.07625345428147895</v>
       </c>
       <c r="D426" t="n">
-        <v>182074327829.9372</v>
+        <v>194923655041.5734</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>2601201000000</v>
+        <v>2585519000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.07283957811316356</v>
+        <v>0.07466642773409793</v>
       </c>
       <c r="D427" t="n">
-        <v>189470383427.5392</v>
+        <v>193051467568.6371</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>2592617000000</v>
+        <v>2575364000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.07423519193508875</v>
+        <v>0.07492376506904225</v>
       </c>
       <c r="D428" t="n">
-        <v>192463420609.174</v>
+        <v>192955967303.2689</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>2556260000000</v>
+        <v>2594454000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.07625345428147895</v>
+        <v>0.07643512683262771</v>
       </c>
       <c r="D429" t="n">
-        <v>194923655041.5734</v>
+        <v>198307420551.4183</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>2585519000000</v>
+        <v>2575034000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.07466642773409793</v>
+        <v>0.07659126001813682</v>
       </c>
       <c r="D430" t="n">
-        <v>193051467568.6371</v>
+        <v>197225098649.5429</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>2575364000000</v>
+        <v>2619202000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.07492376506904225</v>
+        <v>0.07592754993185502</v>
       </c>
       <c r="D431" t="n">
-        <v>192955967303.2689</v>
+        <v>198869590636.6145</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>2594454000000</v>
+        <v>2645827000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.07643512683262771</v>
+        <v>0.07695741176832741</v>
       </c>
       <c r="D432" t="n">
-        <v>198307420551.4183</v>
+        <v>203615997906.7584</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>2575034000000</v>
+        <v>2682778000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.07659126001813682</v>
+        <v>0.07383343177790903</v>
       </c>
       <c r="D433" t="n">
-        <v>197225098649.5429</v>
+        <v>198078706438.2752</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>2619202000000</v>
+        <v>2714733000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.07592754993185502</v>
+        <v>0.07084059449426899</v>
       </c>
       <c r="D434" t="n">
-        <v>198869590636.6145</v>
+        <v>192313299613.2104</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>2645827000000</v>
+        <v>2783914000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.07695741176832741</v>
+        <v>0.07325738983920003</v>
       </c>
       <c r="D435" t="n">
-        <v>203615997906.7584</v>
+        <v>203942273176.8067</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>2682778000000</v>
+        <v>2806033000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.07383343177790903</v>
+        <v>0.08100721126194653</v>
       </c>
       <c r="D436" t="n">
-        <v>198078706438.2752</v>
+        <v>227308908038.9936</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>2714733000000</v>
+        <v>2770230000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.07084059449426899</v>
+        <v>0.08452921033656996</v>
       </c>
       <c r="D437" t="n">
-        <v>192313299613.2104</v>
+        <v>234165354350.6762</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>2783914000000</v>
+        <v>2752658000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.07325738983920003</v>
+        <v>0.08483922965979468</v>
       </c>
       <c r="D438" t="n">
-        <v>203942273176.8067</v>
+        <v>233533384236.8711</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>2806033000000</v>
+        <v>2788976000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.08100721126194653</v>
+        <v>0.08457732481921597</v>
       </c>
       <c r="D439" t="n">
-        <v>227308908038.9936</v>
+        <v>235884129064.9977</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>2770230000000</v>
+        <v>2752713000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.08452921033656996</v>
+        <v>0.08033741715203856</v>
       </c>
       <c r="D440" t="n">
-        <v>234165354350.6762</v>
+        <v>221145852580.8395</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>2752658000000</v>
+        <v>2737382000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.08483922965979468</v>
+        <v>0.07878171948980958</v>
       </c>
       <c r="D441" t="n">
-        <v>233533384236.8711</v>
+        <v>215655660860.4539</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>2788976000000</v>
+        <v>2703936000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.08457732481921597</v>
+        <v>0.07287142565657155</v>
       </c>
       <c r="D442" t="n">
-        <v>235884129064.9977</v>
+        <v>197039671204.1274</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>2752713000000</v>
+        <v>2791325000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.08033741715203856</v>
+        <v>0.07536476546484987</v>
       </c>
       <c r="D443" t="n">
-        <v>221145852580.8395</v>
+        <v>210367553961.1721</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>2737382000000</v>
+        <v>2834147000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.07878171948980958</v>
+        <v>0.06814983422552824</v>
       </c>
       <c r="D444" t="n">
-        <v>215655660860.4539</v>
+        <v>193146648220.7782</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>2703936000000</v>
+        <v>2864233000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.07287142565657155</v>
+        <v>0.07075573492920535</v>
       </c>
       <c r="D445" t="n">
-        <v>197039671204.1274</v>
+        <v>202660910923.4826</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>2791325000000</v>
+        <v>2844764000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.07536476546484987</v>
+        <v>0.06765854087590747</v>
       </c>
       <c r="D446" t="n">
-        <v>210367553961.1721</v>
+        <v>192472581376.3101</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>2834147000000</v>
+        <v>2891387000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.06814983422552824</v>
+        <v>0.07216985898009555</v>
       </c>
       <c r="D447" t="n">
-        <v>193146648220.7782</v>
+        <v>208670992046.8815</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>2864233000000</v>
+        <v>2895085000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.07075573492920535</v>
+        <v>0.06964341180288686</v>
       </c>
       <c r="D448" t="n">
-        <v>202660910923.4826</v>
+        <v>201623596859.3607</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>2844764000000</v>
+        <v>2849113000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.06765854087590747</v>
+        <v>0.07549277911567759</v>
       </c>
       <c r="D449" t="n">
-        <v>192472581376.3101</v>
+        <v>215087458384.6055</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>2891387000000</v>
+        <v>2838339000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.07216985898009555</v>
+        <v>0.07097786200484069</v>
       </c>
       <c r="D450" t="n">
-        <v>208670992046.8815</v>
+        <v>201459233864.9575</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>2895085000000</v>
+        <v>2916916000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.06964341180288686</v>
+        <v>0.06909417536101706</v>
       </c>
       <c r="D451" t="n">
-        <v>201623596859.3607</v>
+        <v>201541905617.3564</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>2849113000000</v>
+        <v>2947020000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.07549277911567759</v>
+        <v>0.06995257215607817</v>
       </c>
       <c r="D452" t="n">
-        <v>215087458384.6055</v>
+        <v>206151629195.4055</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>2838339000000</v>
+        <v>2932463000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.07097786200484069</v>
+        <v>0.06866622720281257</v>
       </c>
       <c r="D453" t="n">
-        <v>201459233864.9575</v>
+        <v>201361170621.8413</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>2916916000000</v>
+        <v>2905091000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.06909417536101706</v>
+        <v>0.07110226282951455</v>
       </c>
       <c r="D454" t="n">
-        <v>201541905617.3564</v>
+        <v>206558543825.6573</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>2947020000000</v>
+        <v>2965855000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.06995257215607817</v>
+        <v>0.0697150744905571</v>
       </c>
       <c r="D455" t="n">
-        <v>206151629195.4055</v>
+        <v>206764802253.1912</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>2932463000000</v>
+        <v>2977362000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.06866622720281257</v>
+        <v>0.06596619364508076</v>
       </c>
       <c r="D456" t="n">
-        <v>201361170621.8413</v>
+        <v>196405238243.5049</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>2905091000000</v>
+        <v>2986861000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.07110226282951455</v>
+        <v>0.06616749905380476</v>
       </c>
       <c r="D457" t="n">
-        <v>206558543825.6573</v>
+        <v>197633122391.3463</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>2965855000000</v>
+        <v>2992285000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.0697150744905571</v>
+        <v>0.06623349957941728</v>
       </c>
       <c r="D458" t="n">
-        <v>206764802253.1912</v>
+        <v>198189507288.9966</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>2977362000000</v>
+        <v>3026017000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.06596619364508076</v>
+        <v>0.06829808014096724</v>
       </c>
       <c r="D459" t="n">
-        <v>196405238243.5049</v>
+        <v>206671151573.9293</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>2986861000000</v>
+        <v>3030992000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.06616749905380476</v>
+        <v>0.0713718308230671</v>
       </c>
       <c r="D460" t="n">
-        <v>197633122391.3463</v>
+        <v>216327448250.0698</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>2992285000000</v>
+        <v>3028250000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.06623349957941728</v>
+        <v>0.06666880006826885</v>
       </c>
       <c r="D461" t="n">
-        <v>198189507288.9966</v>
+        <v>201889793806.7351</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>3026017000000</v>
+        <v>3039985000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.06829808014096724</v>
+        <v>0.06407258142023284</v>
       </c>
       <c r="D462" t="n">
-        <v>206671151573.9293</v>
+        <v>194779686428.7865</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>3030992000000</v>
+        <v>3233262000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.0713718308230671</v>
+        <v>0.05608524957936063</v>
       </c>
       <c r="D463" t="n">
-        <v>216327448250.0698</v>
+        <v>181338306225.4627</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>3028250000000</v>
+        <v>3317977000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.06666880006826885</v>
+        <v>0.05397761008733577</v>
       </c>
       <c r="D464" t="n">
-        <v>201889793806.7351</v>
+        <v>179096468784.7481</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>3039985000000</v>
+        <v>3325003000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.06407258142023284</v>
+        <v>0.05705906183490531</v>
       </c>
       <c r="D465" t="n">
-        <v>194779686428.7865</v>
+        <v>189721551778.2456</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>3233262000000</v>
+        <v>3314630000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.05608524957936063</v>
+        <v>0.05771039768235043</v>
       </c>
       <c r="D466" t="n">
-        <v>181338306225.4627</v>
+        <v>191288615469.8492</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>3317977000000</v>
+        <v>3344223000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.05397761008733577</v>
+        <v>0.05865102639296187</v>
       </c>
       <c r="D467" t="n">
-        <v>179096468784.7481</v>
+        <v>196142111436.9501</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>3325003000000</v>
+        <v>3446316000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.05705906183490531</v>
+        <v>0.05903571070140328</v>
       </c>
       <c r="D468" t="n">
-        <v>189721551778.2456</v>
+        <v>203455714361.6173</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>3314630000000</v>
+        <v>3399239000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.05771039768235043</v>
+        <v>0.05977929484343802</v>
       </c>
       <c r="D469" t="n">
-        <v>191288615469.8492</v>
+        <v>203204110424.3134</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>3344223000000</v>
+        <v>3469361000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.06166406649852932</v>
       </c>
       <c r="D470" t="n">
-        <v>196142111436.9501</v>
+        <v>213934907411.4042</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>3446316000000</v>
+        <v>3482409000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.05903571070140328</v>
+        <v>0.06473170649608567</v>
       </c>
       <c r="D471" t="n">
-        <v>203455714361.6173</v>
+        <v>225422277287.3272</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>3399239000000</v>
+        <v>3491791000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.05977929484343802</v>
+        <v>0.06808728517610436</v>
       </c>
       <c r="D472" t="n">
-        <v>203204110424.3134</v>
+        <v>237746569592.3546</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>3469361000000</v>
+        <v>3477653000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.06166406649852932</v>
+        <v>0.06610958324518722</v>
       </c>
       <c r="D473" t="n">
-        <v>213934907411.4042</v>
+        <v>229906190501.3751</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>3482409000000</v>
+        <v>3445466000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.06473170649608567</v>
+        <v>0.06621990305406193</v>
       </c>
       <c r="D474" t="n">
-        <v>225422277287.3272</v>
+        <v>228158424496.0666</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>3491791000000</v>
+        <v>3468716000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.06808728517610436</v>
+        <v>0.06774379297496867</v>
       </c>
       <c r="D475" t="n">
-        <v>237746569592.3546</v>
+        <v>234983978592.9614</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>3477653000000</v>
+        <v>3465045000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.06610958324518722</v>
+        <v>0.06910754516178076</v>
       </c>
       <c r="D476" t="n">
-        <v>229906190501.3751</v>
+        <v>239460753825.1026</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>3445466000000</v>
+        <v>3447483000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.06621990305406193</v>
+        <v>0.0728093487203757</v>
       </c>
       <c r="D477" t="n">
-        <v>228158424496.0666</v>
+        <v>251008991954.567</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>3468716000000</v>
+        <v>3376662000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.06774379297496867</v>
+        <v>0.07010557900197698</v>
       </c>
       <c r="D478" t="n">
-        <v>234983978592.9614</v>
+        <v>236722844603.9736</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>3465045000000</v>
+        <v>3490057000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.06910754516178076</v>
+        <v>0.06856782386297407</v>
       </c>
       <c r="D479" t="n">
-        <v>239460753825.1026</v>
+        <v>239305613647.7397</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>3447483000000</v>
+        <v>3540188000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.0728093487203757</v>
+        <v>0.06891466297284073</v>
       </c>
       <c r="D480" t="n">
-        <v>251008991954.567</v>
+        <v>243970862880.4951</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>3376662000000</v>
+        <v>3560444000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.07010557900197698</v>
+        <v>0.06644915642795915</v>
       </c>
       <c r="D481" t="n">
-        <v>236722844603.9736</v>
+        <v>236588500308.9886</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>3490057000000</v>
+        <v>3550623000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.06856782386297407</v>
+        <v>0.06572850185025733</v>
       </c>
       <c r="D482" t="n">
-        <v>239305613647.7397</v>
+        <v>233377130425.0662</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>3540188000000</v>
+        <v>3659236000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.06891466297284073</v>
+        <v>0.06299887232018547</v>
       </c>
       <c r="D483" t="n">
-        <v>243970862880.4951</v>
+        <v>230527741553.4262</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>3560444000000</v>
+        <v>3668876000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.06644915642795915</v>
+        <v>0.06276959541229582</v>
       </c>
       <c r="D484" t="n">
-        <v>236588500308.9886</v>
+        <v>230293862137.8822</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>3550623000000</v>
+        <v>3658166000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.06572850185025733</v>
+        <v>0.06509145349215648</v>
       </c>
       <c r="D485" t="n">
-        <v>233377130425.0662</v>
+        <v>238115342055.5881</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>3659236000000</v>
+        <v>3619200000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.06299887232018547</v>
+        <v>0.06510543825725763</v>
       </c>
       <c r="D486" t="n">
-        <v>230527741553.4262</v>
+        <v>235629602140.6668</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>3668876000000</v>
+        <v>3708416000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.06276959541229582</v>
+        <v>0.06846454563504289</v>
       </c>
       <c r="D487" t="n">
-        <v>230293862137.8822</v>
+        <v>253895016465.7232</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>3658166000000</v>
+        <v>3679429000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.06509145349215648</v>
+        <v>0.06326151043182307</v>
       </c>
       <c r="D488" t="n">
-        <v>238115342055.5881</v>
+        <v>232766236066.6523</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>3619200000000</v>
+        <v>3681214000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.06510543825725763</v>
+        <v>0.06408654246694737</v>
       </c>
       <c r="D489" t="n">
-        <v>235629602140.6668</v>
+        <v>235916277340.9212</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>3708416000000</v>
+        <v>3622203000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.06846454563504289</v>
+        <v>0.06149116064565719</v>
       </c>
       <c r="D490" t="n">
-        <v>253895016465.7232</v>
+        <v>222733466564.1814</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>3679429000000</v>
+        <v>3726652000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.06326151043182307</v>
+        <v>0.06031872413834702</v>
       </c>
       <c r="D491" t="n">
-        <v>232766236066.6523</v>
+        <v>224786893947.6192</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>3681214000000</v>
+        <v>3789615000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.06408654246694737</v>
+        <v>0.05844227948266894</v>
       </c>
       <c r="D492" t="n">
-        <v>235916277340.9212</v>
+        <v>221473738961.7144</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>3622203000000</v>
+        <v>3829438000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.06149116064565719</v>
+        <v>0.0553345248701022</v>
       </c>
       <c r="D493" t="n">
-        <v>222733466564.1814</v>
+        <v>211900132249.5144</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>3726652000000</v>
+        <v>3858603000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.06031872413834702</v>
+        <v>0.05453127641358701</v>
       </c>
       <c r="D494" t="n">
-        <v>224786893947.6192</v>
+        <v>210414546763.2961</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>3789888000000</v>
+        <v>3909699000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.05844227948266894</v>
+        <v>0.05806829993438282</v>
       </c>
       <c r="D495" t="n">
-        <v>221489693704.0132</v>
+        <v>227029574185.1566</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>3828429000000</v>
+        <v>3908523000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0553345248701022</v>
+        <v>0.05892092223027474</v>
       </c>
       <c r="D496" t="n">
-        <v>211844299713.9205</v>
+        <v>230293779718.2401</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>3858603000000</v>
+        <v>3936182000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.05453127641358701</v>
+        <v>0.05747952291995976</v>
       </c>
       <c r="D497" t="n">
-        <v>210414546763.2961</v>
+        <v>226249863486.1331</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>3909699000000</v>
+        <v>3978818000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.05806829993438282</v>
+        <v>0.05448433303003721</v>
       </c>
       <c r="D498" t="n">
-        <v>227029574185.1566</v>
+        <v>216783244977.9066</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>3908523000000</v>
+        <v>3995219000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.05892092223027474</v>
+        <v>0.05628032102295111</v>
       </c>
       <c r="D499" t="n">
-        <v>230293779718.2401</v>
+        <v>224852207876.9937</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>3936182000000</v>
+        <v>4008914000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.05747952291995976</v>
+        <v>0.05474292721380398</v>
       </c>
       <c r="D500" t="n">
-        <v>226249863486.1331</v>
+        <v>219459687308.3997</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>3978818000000</v>
+        <v>4007742000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.05448433303003721</v>
+        <v>0.05070531087426097</v>
       </c>
       <c r="D501" t="n">
-        <v>216783244977.9066</v>
+        <v>203213804013.8324</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -458,6994 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B2" t="n">
-        <v>26023000000</v>
+        <v>26580000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B3" t="n">
-        <v>26580000000</v>
+        <v>26889000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
-        <v>26889000000</v>
+        <v>26418000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.04351455702807</v>
+        <v>1.028489149439473</v>
       </c>
       <c r="D4" t="n">
-        <v>28059062923.92778</v>
+        <v>27170626349.89201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B5" t="n">
-        <v>26418000000</v>
+        <v>26602000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.028489149439473</v>
+        <v>1.019991840065279</v>
       </c>
       <c r="D5" t="n">
-        <v>27170626349.89201</v>
+        <v>27133822929.41656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B6" t="n">
-        <v>26602000000</v>
+        <v>27738000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.019991840065279</v>
+        <v>0.9540164090822362</v>
       </c>
       <c r="D6" t="n">
-        <v>27133822929.41656</v>
+        <v>26462507155.12307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B7" t="n">
-        <v>27738000000</v>
+        <v>27384000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9540164090822362</v>
+        <v>0.9560229445506692</v>
       </c>
       <c r="D7" t="n">
-        <v>26462507155.12307</v>
+        <v>26179732313.57552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B8" t="n">
-        <v>27384000000</v>
+        <v>27294000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9560229445506692</v>
+        <v>0.9251549634563789</v>
       </c>
       <c r="D8" t="n">
-        <v>26179732313.57552</v>
+        <v>25251179572.57841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B9" t="n">
-        <v>27294000000</v>
+        <v>27709000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9251549634563789</v>
+        <v>0.8764241893076249</v>
       </c>
       <c r="D9" t="n">
-        <v>25251179572.57841</v>
+        <v>24284837861.52498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B10" t="n">
-        <v>27709000000</v>
+        <v>28216000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8764241893076249</v>
+        <v>0.8714596949891068</v>
       </c>
       <c r="D10" t="n">
-        <v>24284837861.52498</v>
+        <v>24589106753.81264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B11" t="n">
-        <v>28216000000</v>
+        <v>28384000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8714596949891068</v>
+        <v>0.8688852202624033</v>
       </c>
       <c r="D11" t="n">
-        <v>24589106753.81264</v>
+        <v>24662438091.92805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B12" t="n">
-        <v>28384000000</v>
+        <v>29265000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8688852202624033</v>
+        <v>0.8649770781074302</v>
       </c>
       <c r="D12" t="n">
-        <v>24662438091.92805</v>
+        <v>25313554190.81395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B13" t="n">
-        <v>29265000000</v>
+        <v>30119000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8649770781074302</v>
+        <v>0.8530239699735563</v>
       </c>
       <c r="D13" t="n">
-        <v>25313554190.81395</v>
+        <v>25692228951.63354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B14" t="n">
-        <v>30119000000</v>
+        <v>30601000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8530239699735563</v>
+        <v>0.9014693951140359</v>
       </c>
       <c r="D14" t="n">
-        <v>25692228951.63354</v>
+        <v>27585864959.88461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B15" t="n">
-        <v>30601000000</v>
+        <v>31356000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9014693951140359</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D15" t="n">
-        <v>27585864959.88461</v>
+        <v>29192812587.28237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B16" t="n">
-        <v>31356000000</v>
+        <v>31464000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.9365049634763064</v>
       </c>
       <c r="D16" t="n">
-        <v>29192812587.28237</v>
+        <v>29466192170.8185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B17" t="n">
-        <v>31464000000</v>
+        <v>31645000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9365049634763064</v>
+        <v>0.9170105456212746</v>
       </c>
       <c r="D17" t="n">
-        <v>29466192170.8185</v>
+        <v>29018798716.18523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B18" t="n">
-        <v>31645000000</v>
+        <v>33018000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9170105456212746</v>
+        <v>0.9123255177447313</v>
       </c>
       <c r="D18" t="n">
-        <v>29018798716.18523</v>
+        <v>30123163944.89554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B19" t="n">
-        <v>33018000000</v>
+        <v>32272000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9123255177447313</v>
+        <v>0.9166743056192135</v>
       </c>
       <c r="D19" t="n">
-        <v>30123163944.89554</v>
+        <v>29582913190.94326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B20" t="n">
-        <v>32272000000</v>
+        <v>34418000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9166743056192135</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D20" t="n">
-        <v>29582913190.94326</v>
+        <v>32043571362.07057</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B21" t="n">
-        <v>34418000000</v>
+        <v>34672000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.9139932364500503</v>
       </c>
       <c r="D21" t="n">
-        <v>32043571362.07057</v>
+        <v>31689973494.19614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B22" t="n">
-        <v>34672000000</v>
+        <v>34907000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9139932364500503</v>
+        <v>0.91000091000091</v>
       </c>
       <c r="D22" t="n">
-        <v>31689973494.19614</v>
+        <v>31765401765.40176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B23" t="n">
-        <v>34907000000</v>
+        <v>35060000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.91000091000091</v>
+        <v>0.8880206020779682</v>
       </c>
       <c r="D23" t="n">
-        <v>31765401765.40176</v>
+        <v>31134002308.85357</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B24" t="n">
-        <v>35060000000</v>
+        <v>37047000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8880206020779682</v>
+        <v>0.9059612248595761</v>
       </c>
       <c r="D24" t="n">
-        <v>31134002308.85357</v>
+        <v>33563145497.37271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B25" t="n">
-        <v>37047000000</v>
+        <v>36682000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9059612248595761</v>
+        <v>0.8514986376021798</v>
       </c>
       <c r="D25" t="n">
-        <v>33563145497.37271</v>
+        <v>31234673024.52316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B26" t="n">
-        <v>36682000000</v>
+        <v>37366000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8514986376021798</v>
+        <v>0.8389965601141035</v>
       </c>
       <c r="D26" t="n">
-        <v>31234673024.52316</v>
+        <v>31349945465.22359</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B27" t="n">
-        <v>37366000000</v>
+        <v>38465000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8389965601141035</v>
+        <v>0.8179959100204499</v>
       </c>
       <c r="D27" t="n">
-        <v>31349945465.22359</v>
+        <v>31464212678.93661</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B28" t="n">
-        <v>38465000000</v>
+        <v>38905000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8179959100204499</v>
+        <v>0.7864726700747149</v>
       </c>
       <c r="D28" t="n">
-        <v>31464212678.93661</v>
+        <v>30597719229.25678</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B29" t="n">
-        <v>38905000000</v>
+        <v>39321000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7864726700747149</v>
+        <v>0.8350033400133601</v>
       </c>
       <c r="D29" t="n">
-        <v>30597719229.25678</v>
+        <v>32833166332.66533</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B30" t="n">
-        <v>39321000000</v>
+        <v>39614000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8350033400133601</v>
+        <v>0.8080155138978669</v>
       </c>
       <c r="D30" t="n">
-        <v>32833166332.66533</v>
+        <v>32008726567.5501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B31" t="n">
-        <v>39614000000</v>
+        <v>40633000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8080155138978669</v>
+        <v>0.7961783439490446</v>
       </c>
       <c r="D31" t="n">
-        <v>32008726567.5501</v>
+        <v>32351114649.68153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B32" t="n">
-        <v>40633000000</v>
+        <v>41110000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7961783439490446</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D32" t="n">
-        <v>32351114649.68153</v>
+        <v>32064581545.90125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B33" t="n">
-        <v>41110000000</v>
+        <v>41484000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.7359976448075366</v>
       </c>
       <c r="D33" t="n">
-        <v>32064581545.90125</v>
+        <v>30532126297.19585</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B34" t="n">
-        <v>41484000000</v>
+        <v>42605000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7359976448075366</v>
+        <v>0.6080136195050769</v>
       </c>
       <c r="D34" t="n">
-        <v>30532126297.19585</v>
+        <v>25904420259.0138</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B35" t="n">
-        <v>42605000000</v>
+        <v>43199000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6080136195050769</v>
+        <v>0.6360109393881574</v>
       </c>
       <c r="D35" t="n">
-        <v>25904420259.0138</v>
+        <v>27475036570.62901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B36" t="n">
-        <v>43199000000</v>
+        <v>45287000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6360109393881574</v>
+        <v>0.5985156811108451</v>
       </c>
       <c r="D36" t="n">
-        <v>27475036570.62901</v>
+        <v>27104979650.46684</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B37" t="n">
-        <v>45287000000</v>
+        <v>46311000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5985156811108451</v>
+        <v>0.5249895002099958</v>
       </c>
       <c r="D37" t="n">
-        <v>27104979650.46684</v>
+        <v>24312788744.22512</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B38" t="n">
-        <v>46311000000</v>
+        <v>47671000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5249895002099958</v>
+        <v>0.5380104374024856</v>
       </c>
       <c r="D38" t="n">
-        <v>24312788744.22512</v>
+        <v>25647495561.41389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B39" t="n">
-        <v>47671000000</v>
+        <v>47825000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5380104374024856</v>
+        <v>0.502487312195367</v>
       </c>
       <c r="D39" t="n">
-        <v>25647495561.41389</v>
+        <v>24031455705.74343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B40" t="n">
-        <v>47825000000</v>
+        <v>48078000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.502487312195367</v>
+        <v>0.504999495000505</v>
       </c>
       <c r="D40" t="n">
-        <v>24031455705.74343</v>
+        <v>24279365720.63428</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B41" t="n">
-        <v>48078000000</v>
+        <v>48526000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.504999495000505</v>
+        <v>0.488997555012225</v>
       </c>
       <c r="D41" t="n">
-        <v>24279365720.63428</v>
+        <v>23729095354.52323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B42" t="n">
-        <v>48526000000</v>
+        <v>49123000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.488997555012225</v>
+        <v>0.5289885738468049</v>
       </c>
       <c r="D42" t="n">
-        <v>23729095354.52323</v>
+        <v>25985505713.0766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B43" t="n">
-        <v>49123000000</v>
+        <v>49187000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5289885738468049</v>
+        <v>0.5140066820868672</v>
       </c>
       <c r="D43" t="n">
-        <v>25985505713.0766</v>
+        <v>25282446671.80674</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B44" t="n">
-        <v>49187000000</v>
+        <v>50021000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5140066820868672</v>
+        <v>0.502992807202857</v>
       </c>
       <c r="D44" t="n">
-        <v>25282446671.80674</v>
+        <v>25160203209.09411</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B45" t="n">
-        <v>50021000000</v>
+        <v>50480000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.502992807202857</v>
+        <v>0.5103082261686058</v>
       </c>
       <c r="D45" t="n">
-        <v>25160203209.09411</v>
+        <v>25760359256.99122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B46" t="n">
-        <v>50480000000</v>
+        <v>50961000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5103082261686058</v>
+        <v>0.455000455000455</v>
       </c>
       <c r="D46" t="n">
-        <v>25760359256.99122</v>
+        <v>23187278187.27819</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B47" t="n">
-        <v>50961000000</v>
+        <v>51681000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.455000455000455</v>
+        <v>0.3550001775000888</v>
       </c>
       <c r="D47" t="n">
-        <v>23187278187.27819</v>
+        <v>18346764173.38209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B48" t="n">
-        <v>51681000000</v>
+        <v>51937000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3550001775000888</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D48" t="n">
-        <v>18346764173.38209</v>
+        <v>20281552639.80006</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B49" t="n">
-        <v>51937000000</v>
+        <v>52956000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.3869969040247678</v>
       </c>
       <c r="D49" t="n">
-        <v>20281552639.80006</v>
+        <v>20493808049.5356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B50" t="n">
-        <v>52956000000</v>
+        <v>52822000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3869969040247678</v>
+        <v>0.37000037000037</v>
       </c>
       <c r="D50" t="n">
-        <v>20493808049.5356</v>
+        <v>19544159544.15955</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B51" t="n">
-        <v>52822000000</v>
+        <v>54577000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.37000037000037</v>
+        <v>0.3889991053020578</v>
       </c>
       <c r="D51" t="n">
-        <v>19544159544.15955</v>
+        <v>21230404170.07041</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B52" t="n">
-        <v>54577000000</v>
+        <v>52982000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3889991053020578</v>
+        <v>0.43750273439209</v>
       </c>
       <c r="D52" t="n">
-        <v>21230404170.07041</v>
+        <v>23179769873.56171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B53" t="n">
-        <v>52982000000</v>
+        <v>54711000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.43750273439209</v>
+        <v>0.5034993202759176</v>
       </c>
       <c r="D53" t="n">
-        <v>23179769873.56171</v>
+        <v>27546951311.61573</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>54711000000</v>
+        <v>54024000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5034993202759176</v>
+        <v>0.4650081376424087</v>
       </c>
       <c r="D54" t="n">
-        <v>27546951311.61573</v>
+        <v>25121599627.99349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B55" t="n">
-        <v>54024000000</v>
+        <v>54226000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4650081376424087</v>
+        <v>0.4860031104199067</v>
       </c>
       <c r="D55" t="n">
-        <v>25121599627.99349</v>
+        <v>26354004665.62986</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B56" t="n">
-        <v>54226000000</v>
+        <v>54464000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4860031104199067</v>
+        <v>0.4234955321221361</v>
       </c>
       <c r="D56" t="n">
-        <v>26354004665.62986</v>
+        <v>23065260661.50002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B57" t="n">
-        <v>54464000000</v>
+        <v>54673000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4234955321221361</v>
+        <v>0.40399143538157</v>
       </c>
       <c r="D57" t="n">
-        <v>23065260661.50002</v>
+        <v>22087423746.61657</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B58" t="n">
-        <v>54673000000</v>
+        <v>54551000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.40399143538157</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D58" t="n">
-        <v>22087423746.61657</v>
+        <v>21302327397.68822</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B59" t="n">
-        <v>54551000000</v>
+        <v>54737000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.3920031360250882</v>
       </c>
       <c r="D59" t="n">
-        <v>21302327397.68822</v>
+        <v>21457075656.60525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B60" t="n">
-        <v>54737000000</v>
+        <v>55248000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3920031360250882</v>
+        <v>0.44849082836256</v>
       </c>
       <c r="D60" t="n">
-        <v>21457075656.60525</v>
+        <v>24778221285.37472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B61" t="n">
-        <v>55248000000</v>
+        <v>56003000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.44849082836256</v>
+        <v>0.4359958144401814</v>
       </c>
       <c r="D61" t="n">
-        <v>24778221285.37472</v>
+        <v>24417073596.09348</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B62" t="n">
-        <v>56003000000</v>
+        <v>56188000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4359958144401814</v>
+        <v>0.4504910352283989</v>
       </c>
       <c r="D62" t="n">
-        <v>24417073596.09348</v>
+        <v>25312190287.41328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B63" t="n">
-        <v>56188000000</v>
+        <v>56921000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4504910352283989</v>
+        <v>0.457205559619605</v>
       </c>
       <c r="D63" t="n">
-        <v>25312190287.41328</v>
+        <v>26024597659.10754</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B64" t="n">
-        <v>56921000000</v>
+        <v>55313000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.457205559619605</v>
+        <v>0.4775093114315729</v>
       </c>
       <c r="D64" t="n">
-        <v>26024597659.10754</v>
+        <v>26412472543.21459</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B65" t="n">
-        <v>55313000000</v>
+        <v>56599000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4775093114315729</v>
+        <v>0.481000481000481</v>
       </c>
       <c r="D65" t="n">
-        <v>26412472543.21459</v>
+        <v>27224146224.14622</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B66" t="n">
-        <v>56599000000</v>
+        <v>57129000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.481000481000481</v>
+        <v>0.495000495000495</v>
       </c>
       <c r="D66" t="n">
-        <v>27224146224.14622</v>
+        <v>28278883278.88328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B67" t="n">
-        <v>57129000000</v>
+        <v>58397000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.495000495000495</v>
+        <v>0.499001996007984</v>
       </c>
       <c r="D67" t="n">
-        <v>28278883278.88328</v>
+        <v>29140219560.87824</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B68" t="n">
-        <v>58397000000</v>
+        <v>58843000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.499001996007984</v>
+        <v>0.494486475794887</v>
       </c>
       <c r="D68" t="n">
-        <v>29140219560.87824</v>
+        <v>29097067695.19854</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B69" t="n">
-        <v>58843000000</v>
+        <v>59131000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.494486475794887</v>
+        <v>0.4884959210590592</v>
       </c>
       <c r="D69" t="n">
-        <v>29097067695.19854</v>
+        <v>28885252308.14323</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B70" t="n">
-        <v>59131000000</v>
+        <v>59587000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4884959210590592</v>
+        <v>0.4825090470446322</v>
       </c>
       <c r="D70" t="n">
-        <v>28885252308.14323</v>
+        <v>28751266586.2485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B71" t="n">
-        <v>59587000000</v>
+        <v>60093000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4825090470446322</v>
+        <v>0.4900039200313603</v>
       </c>
       <c r="D71" t="n">
-        <v>28751266586.2485</v>
+        <v>29445805566.44453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B72" t="n">
-        <v>60093000000</v>
+        <v>62790000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4900039200313603</v>
+        <v>0.4815100154083205</v>
       </c>
       <c r="D72" t="n">
-        <v>29445805566.44453</v>
+        <v>30234013867.48845</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B73" t="n">
-        <v>62790000000</v>
+        <v>64619000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4815100154083205</v>
+        <v>0.4960071425028521</v>
       </c>
       <c r="D73" t="n">
-        <v>30234013867.48845</v>
+        <v>32051485541.3918</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B74" t="n">
-        <v>64619000000</v>
+        <v>67636000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4960071425028521</v>
+        <v>0.5135051864023826</v>
       </c>
       <c r="D74" t="n">
-        <v>32051485541.3918</v>
+        <v>34731436787.51155</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B75" t="n">
-        <v>67636000000</v>
+        <v>69464000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5135051864023826</v>
+        <v>0.5180005180005179</v>
       </c>
       <c r="D75" t="n">
-        <v>34731436787.51155</v>
+        <v>35982387982.38798</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B76" t="n">
-        <v>69464000000</v>
+        <v>69972000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180005180005179</v>
+        <v>0.5020080321285141</v>
       </c>
       <c r="D76" t="n">
-        <v>35982387982.38798</v>
+        <v>35126506024.09639</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B77" t="n">
-        <v>69972000000</v>
+        <v>71940000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5020080321285141</v>
+        <v>0.478996024332998</v>
       </c>
       <c r="D77" t="n">
-        <v>35126506024.09639</v>
+        <v>34458973990.51588</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B78" t="n">
-        <v>71940000000</v>
+        <v>75614000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.478996024332998</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="D78" t="n">
-        <v>34458973990.51588</v>
+        <v>35499530516.43192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B79" t="n">
-        <v>75614000000</v>
+        <v>75376000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D79" t="n">
-        <v>35499530516.43192</v>
+        <v>35058604651.16279</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B80" t="n">
-        <v>75376000000</v>
+        <v>76968000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="D80" t="n">
-        <v>35058604651.16279</v>
+        <v>34360714285.71429</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B81" t="n">
-        <v>76968000000</v>
+        <v>78923000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="D81" t="n">
-        <v>34360714285.71429</v>
+        <v>33872532188.8412</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B82" t="n">
-        <v>78923000000</v>
+        <v>78621000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="D82" t="n">
-        <v>33872532188.8412</v>
+        <v>32221721311.47541</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B83" t="n">
-        <v>78621000000</v>
+        <v>82506000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="D83" t="n">
-        <v>32221721311.47541</v>
+        <v>33675918367.34694</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B84" t="n">
-        <v>82506000000</v>
+        <v>86326000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4081632653061224</v>
+        <v>0.4016064257028112</v>
       </c>
       <c r="D84" t="n">
-        <v>33675918367.34694</v>
+        <v>34669076305.22088</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B85" t="n">
-        <v>86326000000</v>
+        <v>87433000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4016064257028112</v>
+        <v>0.3984063745019921</v>
       </c>
       <c r="D85" t="n">
-        <v>34669076305.22088</v>
+        <v>34833864541.83267</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B86" t="n">
-        <v>87433000000</v>
+        <v>89360000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3984063745019921</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D86" t="n">
-        <v>34833864541.83267</v>
+        <v>38852173913.04348</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B87" t="n">
-        <v>89360000000</v>
+        <v>93941000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="D87" t="n">
-        <v>38852173913.04348</v>
+        <v>39471008403.36134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B88" t="n">
-        <v>93941000000</v>
+        <v>93139000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4201680672268908</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>39471008403.36134</v>
+        <v>38807916666.66667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B89" t="n">
-        <v>93139000000</v>
+        <v>95737000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="D89" t="n">
-        <v>38807916666.66667</v>
+        <v>38603629032.25806</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B90" t="n">
-        <v>95737000000</v>
+        <v>100882000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.390625</v>
       </c>
       <c r="D90" t="n">
-        <v>38603629032.25806</v>
+        <v>39407031250</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B91" t="n">
-        <v>100882000000</v>
+        <v>98893000000</v>
       </c>
       <c r="C91" t="n">
         <v>0.390625</v>
       </c>
       <c r="D91" t="n">
-        <v>39407031250</v>
+        <v>38630078125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B92" t="n">
-        <v>98893000000</v>
+        <v>99881000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.390625</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="D92" t="n">
-        <v>38630078125</v>
+        <v>36452919708.0292</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B93" t="n">
-        <v>99881000000</v>
+        <v>102369000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364963503649635</v>
+        <v>0.3597122302158274</v>
       </c>
       <c r="D93" t="n">
-        <v>36452919708.0292</v>
+        <v>36823381294.96404</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B94" t="n">
-        <v>102369000000</v>
+        <v>103301000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3597122302158274</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="D94" t="n">
-        <v>36823381294.96404</v>
+        <v>38981509433.96227</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B95" t="n">
-        <v>103301000000</v>
+        <v>106860000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.3690036900369004</v>
       </c>
       <c r="D95" t="n">
-        <v>38981509433.96227</v>
+        <v>39431734317.34317</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B96" t="n">
-        <v>106860000000</v>
+        <v>109691000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.3713330857779428</v>
       </c>
       <c r="D96" t="n">
-        <v>39431734317.34317</v>
+        <v>40731897512.06833</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B97" t="n">
-        <v>109691000000</v>
+        <v>113738000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3713330857779428</v>
+        <v>0.3789314134141721</v>
       </c>
       <c r="D97" t="n">
-        <v>40731897512.06833</v>
+        <v>43098901098.90111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B98" t="n">
-        <v>113738000000</v>
+        <v>115655000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3789314134141721</v>
+        <v>0.3834355828220859</v>
       </c>
       <c r="D98" t="n">
-        <v>43098901098.90111</v>
+        <v>44346242331.28835</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B99" t="n">
-        <v>115655000000</v>
+        <v>119022000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3834355828220859</v>
+        <v>0.3947887879984209</v>
       </c>
       <c r="D99" t="n">
-        <v>44346242331.28835</v>
+        <v>46988551125.14805</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B100" t="n">
-        <v>119022000000</v>
+        <v>119454000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3947887879984209</v>
+        <v>0.3900916715428126</v>
       </c>
       <c r="D100" t="n">
-        <v>46988551125.14805</v>
+        <v>46598010532.47514</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B101" t="n">
-        <v>119454000000</v>
+        <v>121163000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3900916715428126</v>
+        <v>0.3910833007430583</v>
       </c>
       <c r="D101" t="n">
-        <v>46598010532.47514</v>
+        <v>47384825967.93118</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B102" t="n">
-        <v>121163000000</v>
+        <v>124200000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3910833007430583</v>
+        <v>0.3784295175023652</v>
       </c>
       <c r="D102" t="n">
-        <v>47384825967.93118</v>
+        <v>47000946073.79375</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B103" t="n">
-        <v>124200000000</v>
+        <v>122731000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3784295175023652</v>
+        <v>0.3760105282947923</v>
       </c>
       <c r="D103" t="n">
-        <v>47000946073.79375</v>
+        <v>46148148148.14815</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B104" t="n">
-        <v>122731000000</v>
+        <v>123458000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3760105282947923</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="D104" t="n">
-        <v>46148148148.14815</v>
+        <v>46152523364.48598</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B105" t="n">
-        <v>123458000000</v>
+        <v>122874000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3738317757009346</v>
+        <v>0.377643504531722</v>
       </c>
       <c r="D105" t="n">
-        <v>46152523364.48598</v>
+        <v>46402567975.83081</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B106" t="n">
-        <v>122874000000</v>
+        <v>121553000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.377643504531722</v>
+        <v>0.3869220352099053</v>
       </c>
       <c r="D106" t="n">
-        <v>46402567975.83081</v>
+        <v>47031534145.86961</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B107" t="n">
-        <v>121553000000</v>
+        <v>124069000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3869220352099053</v>
+        <v>0.3875368159975198</v>
       </c>
       <c r="D107" t="n">
-        <v>47031534145.86961</v>
+        <v>48081305223.99628</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B108" t="n">
-        <v>124069000000</v>
+        <v>124001000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3875368159975198</v>
+        <v>0.390015600624025</v>
       </c>
       <c r="D108" t="n">
-        <v>48081305223.99628</v>
+        <v>48362324492.97972</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B109" t="n">
-        <v>124001000000</v>
+        <v>125418000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390015600624025</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="D109" t="n">
-        <v>48362324492.97972</v>
+        <v>49425812807.88177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B110" t="n">
-        <v>125418000000</v>
+        <v>130295000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3940886699507389</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="D110" t="n">
-        <v>49425812807.88177</v>
+        <v>51601980198.01981</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B111" t="n">
-        <v>130295000000</v>
+        <v>134244000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3960396039603961</v>
+        <v>0.390625</v>
       </c>
       <c r="D111" t="n">
-        <v>51601980198.01981</v>
+        <v>52439062500</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B112" t="n">
-        <v>134244000000</v>
+        <v>133075000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.390625</v>
+        <v>0.3943217665615142</v>
       </c>
       <c r="D112" t="n">
-        <v>52439062500</v>
+        <v>52474369085.1735</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B113" t="n">
-        <v>133075000000</v>
+        <v>141904000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3943217665615142</v>
+        <v>0.3887269193391643</v>
       </c>
       <c r="D113" t="n">
-        <v>52474369085.1735</v>
+        <v>55161904761.90476</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B114" t="n">
-        <v>141904000000</v>
+        <v>144489000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3887269193391643</v>
+        <v>0.3696857670979667</v>
       </c>
       <c r="D114" t="n">
-        <v>55161904761.90476</v>
+        <v>53415526802.21812</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B115" t="n">
-        <v>144489000000</v>
+        <v>143243000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3696857670979667</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="D115" t="n">
-        <v>53415526802.21812</v>
+        <v>51758988256.54923</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B116" t="n">
-        <v>143243000000</v>
+        <v>147025000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3613369467028004</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="D116" t="n">
-        <v>51758988256.54923</v>
+        <v>51633011413.52063</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B117" t="n">
-        <v>147025000000</v>
+        <v>147706000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3511852502194908</v>
+        <v>0.3457216940363008</v>
       </c>
       <c r="D117" t="n">
-        <v>51633011413.52063</v>
+        <v>51065168539.32584</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B118" t="n">
-        <v>147706000000</v>
+        <v>147683000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3457216940363008</v>
+        <v>0.3484320557491289</v>
       </c>
       <c r="D118" t="n">
-        <v>51065168539.32584</v>
+        <v>51457491289.1986</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B119" t="n">
-        <v>147683000000</v>
+        <v>150139000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3484320557491289</v>
+        <v>0.3466805338880222</v>
       </c>
       <c r="D119" t="n">
-        <v>51457491289.1986</v>
+        <v>52050268677.41376</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B120" t="n">
-        <v>150139000000</v>
+        <v>151994000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3466805338880222</v>
+        <v>0.3566333808844508</v>
       </c>
       <c r="D120" t="n">
-        <v>52050268677.41376</v>
+        <v>54206134094.15121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B121" t="n">
-        <v>151994000000</v>
+        <v>152178000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3566333808844508</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="D121" t="n">
-        <v>54206134094.15121</v>
+        <v>53868318584.07079</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B122" t="n">
-        <v>152178000000</v>
+        <v>157379000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D122" t="n">
-        <v>53868318584.07079</v>
+        <v>56206785714.28571</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B123" t="n">
-        <v>157379000000</v>
+        <v>155363000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3629764065335753</v>
       </c>
       <c r="D123" t="n">
-        <v>56206785714.28571</v>
+        <v>56393103448.27586</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B124" t="n">
-        <v>155363000000</v>
+        <v>154965000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3629764065335753</v>
+        <v>0.357653791130186</v>
       </c>
       <c r="D124" t="n">
-        <v>56393103448.27586</v>
+        <v>55423819742.48928</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B125" t="n">
-        <v>154965000000</v>
+        <v>157762000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.357653791130186</v>
+        <v>0.3516174402250352</v>
       </c>
       <c r="D125" t="n">
-        <v>55423819742.48928</v>
+        <v>55471870604.782</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B126" t="n">
-        <v>157762000000</v>
+        <v>161099000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3516174402250352</v>
+        <v>0.3474635163307853</v>
       </c>
       <c r="D126" t="n">
-        <v>55471870604.782</v>
+        <v>55976025017.37318</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B127" t="n">
-        <v>161099000000</v>
+        <v>164970000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3474635163307853</v>
+        <v>0.3487966515521451</v>
       </c>
       <c r="D127" t="n">
-        <v>55976025017.37318</v>
+        <v>57540983606.55738</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B128" t="n">
-        <v>164970000000</v>
+        <v>163246000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3487966515521451</v>
+        <v>0.3527336860670194</v>
       </c>
       <c r="D128" t="n">
-        <v>57540983606.55738</v>
+        <v>57582363315.69665</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B129" t="n">
-        <v>163246000000</v>
+        <v>164787000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3527336860670194</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="D129" t="n">
-        <v>57582363315.69665</v>
+        <v>59446969696.9697</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B130" t="n">
-        <v>164787000000</v>
+        <v>167064000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3614022406938923</v>
       </c>
       <c r="D130" t="n">
-        <v>59446969696.9697</v>
+        <v>60377303939.28442</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B131" t="n">
-        <v>167064000000</v>
+        <v>168993000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3614022406938923</v>
+        <v>0.3648303538854433</v>
       </c>
       <c r="D131" t="n">
-        <v>60377303939.28442</v>
+        <v>61653775994.16271</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B132" t="n">
-        <v>168993000000</v>
+        <v>171409000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3648303538854433</v>
+        <v>0.3553660270078181</v>
       </c>
       <c r="D132" t="n">
-        <v>61653775994.16271</v>
+        <v>60912935323.38309</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B133" t="n">
-        <v>171409000000</v>
+        <v>170847000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3553660270078181</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="D133" t="n">
-        <v>60912935323.38309</v>
+        <v>57718581081.08108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B134" t="n">
-        <v>170847000000</v>
+        <v>173892000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.3309066843150232</v>
       </c>
       <c r="D134" t="n">
-        <v>57718581081.08108</v>
+        <v>57542025148.90801</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B135" t="n">
-        <v>173892000000</v>
+        <v>172214000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3309066843150232</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="D135" t="n">
-        <v>57542025148.90801</v>
+        <v>56463606557.37705</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B136" t="n">
-        <v>172214000000</v>
+        <v>167467000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="D136" t="n">
-        <v>56463606557.37705</v>
+        <v>54549511400.65147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B137" t="n">
-        <v>167467000000</v>
+        <v>168685000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3257328990228013</v>
+        <v>0.3179650238473768</v>
       </c>
       <c r="D137" t="n">
-        <v>54549511400.65147</v>
+        <v>53635930047.69476</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B138" t="n">
-        <v>168685000000</v>
+        <v>169307000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3179650238473768</v>
+        <v>0.3156565656565656</v>
       </c>
       <c r="D138" t="n">
-        <v>53635930047.69476</v>
+        <v>53442866161.61616</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B139" t="n">
-        <v>169307000000</v>
+        <v>168424000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3156565656565656</v>
+        <v>0.3169572107765452</v>
       </c>
       <c r="D139" t="n">
-        <v>53442866161.61616</v>
+        <v>53383201267.82885</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B140" t="n">
-        <v>168424000000</v>
+        <v>168455000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3169572107765452</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="D140" t="n">
-        <v>53383201267.82885</v>
+        <v>53056692913.38583</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B141" t="n">
-        <v>168455000000</v>
+        <v>167739000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.3005710850616171</v>
       </c>
       <c r="D141" t="n">
-        <v>53056692913.38583</v>
+        <v>50417493237.15058</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B142" t="n">
-        <v>167739000000</v>
+        <v>167148000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3005710850616171</v>
+        <v>0.2961208172934557</v>
       </c>
       <c r="D142" t="n">
-        <v>50417493237.15058</v>
+        <v>49496002368.96654</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B143" t="n">
-        <v>167148000000</v>
+        <v>171374000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2961208172934557</v>
+        <v>0.2960331557134399</v>
       </c>
       <c r="D143" t="n">
-        <v>49496002368.96654</v>
+        <v>50732386027.23505</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B144" t="n">
-        <v>171374000000</v>
+        <v>173708000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2960331557134399</v>
+        <v>0.2911208151382824</v>
       </c>
       <c r="D144" t="n">
-        <v>50732386027.23505</v>
+        <v>50570014556.04076</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B145" t="n">
-        <v>173708000000</v>
+        <v>174910000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2911208151382824</v>
+        <v>0.2985965959988056</v>
       </c>
       <c r="D145" t="n">
-        <v>50570014556.04076</v>
+        <v>52227530606.15109</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B146" t="n">
-        <v>174910000000</v>
+        <v>178454000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2985965959988056</v>
+        <v>0.2968239833778569</v>
       </c>
       <c r="D146" t="n">
-        <v>52227530606.15109</v>
+        <v>52969427129.71208</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B147" t="n">
-        <v>178454000000</v>
+        <v>178963000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2968239833778569</v>
+        <v>0.2943773918163085</v>
       </c>
       <c r="D147" t="n">
-        <v>52969427129.71208</v>
+        <v>52682661171.62202</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B148" t="n">
-        <v>178963000000</v>
+        <v>179000000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2943773918163085</v>
+        <v>0.2921413964358749</v>
       </c>
       <c r="D148" t="n">
-        <v>52682661171.62202</v>
+        <v>52293309962.02161</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B149" t="n">
-        <v>179000000000</v>
+        <v>189328000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2921413964358749</v>
+        <v>0.2878526194588371</v>
       </c>
       <c r="D149" t="n">
-        <v>52293309962.02161</v>
+        <v>54498560736.9027</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B150" t="n">
-        <v>189328000000</v>
+        <v>193007000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2878526194588371</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="D150" t="n">
-        <v>54498560736.9027</v>
+        <v>55461781609.1954</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B151" t="n">
-        <v>193007000000</v>
+        <v>192238000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.2836074872376631</v>
       </c>
       <c r="D151" t="n">
-        <v>55461781609.1954</v>
+        <v>54520136131.59388</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B152" t="n">
-        <v>192238000000</v>
+        <v>199770000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2836074872376631</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D152" t="n">
-        <v>54520136131.59388</v>
+        <v>55002753303.96475</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B153" t="n">
-        <v>199770000000</v>
+        <v>196484000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D153" t="n">
-        <v>55002753303.96475</v>
+        <v>53757592339.26128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B154" t="n">
-        <v>196484000000</v>
+        <v>199156000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.2723311546840959</v>
       </c>
       <c r="D154" t="n">
-        <v>53757592339.26128</v>
+        <v>54236383442.26579</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B155" t="n">
-        <v>199156000000</v>
+        <v>205006000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2723311546840959</v>
+        <v>0.2790178571428572</v>
       </c>
       <c r="D155" t="n">
-        <v>54236383442.26579</v>
+        <v>57200334821.42857</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B156" t="n">
-        <v>205006000000</v>
+        <v>205819000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2790178571428572</v>
+        <v>0.2802690582959641</v>
       </c>
       <c r="D156" t="n">
-        <v>57200334821.42857</v>
+        <v>57684697309.41704</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B157" t="n">
-        <v>205819000000</v>
+        <v>208879000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2802690582959641</v>
+        <v>0.2858776443682104</v>
       </c>
       <c r="D157" t="n">
-        <v>57684697309.41704</v>
+        <v>59713836477.98742</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B158" t="n">
-        <v>208879000000</v>
+        <v>213927000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2858776443682104</v>
+        <v>0.2815315315315315</v>
       </c>
       <c r="D158" t="n">
-        <v>59713836477.98742</v>
+        <v>60227195945.94595</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B159" t="n">
-        <v>213927000000</v>
+        <v>215823000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2815315315315315</v>
+        <v>0.2826455624646693</v>
       </c>
       <c r="D159" t="n">
-        <v>60227195945.94595</v>
+        <v>61001413227.81232</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B160" t="n">
-        <v>215823000000</v>
+        <v>208864000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2826455624646693</v>
+        <v>0.2831257078142695</v>
       </c>
       <c r="D160" t="n">
-        <v>61001413227.81232</v>
+        <v>59134767836.91959</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B161" t="n">
-        <v>208864000000</v>
+        <v>213360000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2831257078142695</v>
+        <v>0.2779321845469706</v>
       </c>
       <c r="D161" t="n">
-        <v>59134767836.91959</v>
+        <v>59299610894.94164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B162" t="n">
-        <v>213360000000</v>
+        <v>216538000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2779321845469706</v>
+        <v>0.2794857462269424</v>
       </c>
       <c r="D162" t="n">
-        <v>59299610894.94164</v>
+        <v>60519284516.48966</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B163" t="n">
-        <v>216538000000</v>
+        <v>222258000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2794857462269424</v>
+        <v>0.2763957987838585</v>
       </c>
       <c r="D163" t="n">
-        <v>60519284516.48966</v>
+        <v>61431177446.10282</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B164" t="n">
-        <v>222258000000</v>
+        <v>230265000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2763957987838585</v>
+        <v>0.2718868950516585</v>
       </c>
       <c r="D164" t="n">
-        <v>61431177446.10282</v>
+        <v>62606035889.07015</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B165" t="n">
-        <v>230265000000</v>
+        <v>227731000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2718868950516585</v>
+        <v>0.275027502750275</v>
       </c>
       <c r="D165" t="n">
-        <v>62606035889.07015</v>
+        <v>62632288228.82288</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B166" t="n">
-        <v>227731000000</v>
+        <v>225899000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.275027502750275</v>
+        <v>0.2761668047500691</v>
       </c>
       <c r="D166" t="n">
-        <v>62632288228.82288</v>
+        <v>62385805026.23585</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B167" t="n">
-        <v>225899000000</v>
+        <v>226033000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2761668047500691</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D167" t="n">
-        <v>62385805026.23585</v>
+        <v>61842134062.9275</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B168" t="n">
-        <v>226033000000</v>
+        <v>229457000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="D168" t="n">
-        <v>61842134062.9275</v>
+        <v>62864931506.84931</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B169" t="n">
-        <v>229457000000</v>
+        <v>229245000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.273972602739726</v>
+        <v>0.274273176083379</v>
       </c>
       <c r="D169" t="n">
-        <v>62864931506.84931</v>
+        <v>62875754251.23423</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B170" t="n">
-        <v>229245000000</v>
+        <v>236725000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.274273176083379</v>
+        <v>0.2726281352235551</v>
       </c>
       <c r="D170" t="n">
-        <v>62875754251.23423</v>
+        <v>64537895310.79607</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B171" t="n">
-        <v>236725000000</v>
+        <v>245722000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2726281352235551</v>
+        <v>0.2743484224965707</v>
       </c>
       <c r="D171" t="n">
-        <v>64537895310.79607</v>
+        <v>67413443072.70233</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B172" t="n">
-        <v>245722000000</v>
+        <v>244019000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2743484224965707</v>
+        <v>0.2740476842970677</v>
       </c>
       <c r="D172" t="n">
-        <v>67413443072.70233</v>
+        <v>66872841874.48615</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B173" t="n">
-        <v>244019000000</v>
+        <v>256444000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2740476842970677</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="D173" t="n">
-        <v>66872841874.48615</v>
+        <v>66179096774.19355</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B174" t="n">
-        <v>256444000000</v>
+        <v>265163000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="D174" t="n">
-        <v>66179096774.19355</v>
+        <v>66707672955.97485</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B175" t="n">
-        <v>265163000000</v>
+        <v>264779000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2515723270440252</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D175" t="n">
-        <v>66707672955.97485</v>
+        <v>61149884526.55889</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B176" t="n">
-        <v>264779000000</v>
+        <v>269925000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2299379167624741</v>
       </c>
       <c r="D176" t="n">
-        <v>61149884526.55889</v>
+        <v>62065992182.11083</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B177" t="n">
-        <v>269925000000</v>
+        <v>276835000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2299379167624741</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D177" t="n">
-        <v>62065992182.11083</v>
+        <v>63934180138.56813</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B178" t="n">
-        <v>276835000000</v>
+        <v>277150000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="D178" t="n">
-        <v>63934180138.56813</v>
+        <v>61316371681.41593</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B179" t="n">
-        <v>277150000000</v>
+        <v>281768000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D179" t="n">
-        <v>61316371681.41593</v>
+        <v>62768545333.03631</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B180" t="n">
-        <v>281768000000</v>
+        <v>283328000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2203128442388191</v>
       </c>
       <c r="D180" t="n">
-        <v>62768545333.03631</v>
+        <v>62420797532.49615</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B181" t="n">
-        <v>283328000000</v>
+        <v>286970000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2203128442388191</v>
+        <v>0.2129925452609158</v>
       </c>
       <c r="D181" t="n">
-        <v>62420797532.49615</v>
+        <v>61122470713.52502</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B182" t="n">
-        <v>286970000000</v>
+        <v>289759000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2129925452609158</v>
+        <v>0.2168256721595837</v>
       </c>
       <c r="D182" t="n">
-        <v>61122470713.52502</v>
+        <v>62827189939.2888</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B183" t="n">
-        <v>289759000000</v>
+        <v>295313000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2168256721595837</v>
+        <v>0.2137665669089354</v>
       </c>
       <c r="D183" t="n">
-        <v>62827189939.2888</v>
+        <v>63128046173.57845</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B184" t="n">
-        <v>295313000000</v>
+        <v>295617000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2137665669089354</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="D184" t="n">
-        <v>63128046173.57845</v>
+        <v>64828289473.68421</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B185" t="n">
-        <v>295617000000</v>
+        <v>303035000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="D185" t="n">
-        <v>64828289473.68421</v>
+        <v>67641741071.42857</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B186" t="n">
-        <v>303035000000</v>
+        <v>313686000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="D186" t="n">
-        <v>67641741071.42857</v>
+        <v>70969683257.91855</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B187" t="n">
-        <v>313686000000</v>
+        <v>309474000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2262443438914027</v>
+        <v>0.2248201438848921</v>
       </c>
       <c r="D187" t="n">
-        <v>70969683257.91855</v>
+        <v>69575989208.63309</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B188" t="n">
-        <v>309474000000</v>
+        <v>316586000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2248201438848921</v>
+        <v>0.2238638907544213</v>
       </c>
       <c r="D188" t="n">
-        <v>69575989208.63309</v>
+        <v>70872173718.37924</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B189" t="n">
-        <v>316586000000</v>
+        <v>316433000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2238638907544213</v>
+        <v>0.2205558006175563</v>
       </c>
       <c r="D189" t="n">
-        <v>70872173718.37924</v>
+        <v>69791133656.81517</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B190" t="n">
-        <v>316433000000</v>
+        <v>317291000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2205558006175563</v>
+        <v>0.2168726957276079</v>
       </c>
       <c r="D190" t="n">
-        <v>69791133656.81517</v>
+        <v>68811754500.10843</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B191" t="n">
-        <v>317291000000</v>
+        <v>324572000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2168726957276079</v>
+        <v>0.213652387565431</v>
       </c>
       <c r="D191" t="n">
-        <v>68811754500.10843</v>
+        <v>69345582736.88708</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B192" t="n">
-        <v>324572000000</v>
+        <v>338253000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.213652387565431</v>
+        <v>0.2148689299527288</v>
       </c>
       <c r="D192" t="n">
-        <v>69345582736.88708</v>
+        <v>72680060163.30038</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B193" t="n">
-        <v>338253000000</v>
+        <v>343147000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2148689299527288</v>
+        <v>0.2077274615704196</v>
       </c>
       <c r="D193" t="n">
-        <v>72680060163.30038</v>
+        <v>71281055255.50478</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B194" t="n">
-        <v>343147000000</v>
+        <v>347944000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2077274615704196</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="D194" t="n">
-        <v>71281055255.50478</v>
+        <v>71667147270.85478</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B195" t="n">
-        <v>347944000000</v>
+        <v>350700000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2059732234809475</v>
+        <v>0.2055921052631579</v>
       </c>
       <c r="D195" t="n">
-        <v>71667147270.85478</v>
+        <v>72101151315.78947</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B196" t="n">
-        <v>350700000000</v>
+        <v>351467000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2055921052631579</v>
+        <v>0.2027780594139714</v>
       </c>
       <c r="D196" t="n">
-        <v>72101151315.78947</v>
+        <v>71269796208.05029</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B197" t="n">
-        <v>351467000000</v>
+        <v>363414000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2027780594139714</v>
+        <v>0.2024701356549909</v>
       </c>
       <c r="D197" t="n">
-        <v>71269796208.05029</v>
+        <v>73580481878.92287</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B198" t="n">
-        <v>363414000000</v>
+        <v>361312000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2024701356549909</v>
+        <v>0.1986886548778065</v>
       </c>
       <c r="D198" t="n">
-        <v>73580481878.92287</v>
+        <v>71788595271.21001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B199" t="n">
-        <v>361312000000</v>
+        <v>366500000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1986886548778065</v>
+        <v>0.1979022362952702</v>
       </c>
       <c r="D199" t="n">
-        <v>71788595271.21001</v>
+        <v>72531169602.21651</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B200" t="n">
-        <v>366500000000</v>
+        <v>366492000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1979022362952702</v>
+        <v>0.1940617116242965</v>
       </c>
       <c r="D200" t="n">
-        <v>72531169602.21651</v>
+        <v>71122064816.61168</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B201" t="n">
-        <v>366492000000</v>
+        <v>375751000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1940617116242965</v>
+        <v>0.1677711601375724</v>
       </c>
       <c r="D201" t="n">
-        <v>71122064816.61168</v>
+        <v>63040181192.85296</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B202" t="n">
-        <v>375751000000</v>
+        <v>375135000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1677711601375724</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D202" t="n">
-        <v>63040181192.85296</v>
+        <v>61196574225.12235</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B203" t="n">
-        <v>375135000000</v>
+        <v>385084000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="D203" t="n">
-        <v>61196574225.12235</v>
+        <v>59702945736.4341</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B204" t="n">
-        <v>385084000000</v>
+        <v>387349000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1550387596899225</v>
+        <v>0.169061707523246</v>
       </c>
       <c r="D204" t="n">
-        <v>59702945736.4341</v>
+        <v>65485883347.42181</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B205" t="n">
-        <v>387349000000</v>
+        <v>378172000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.169061707523246</v>
+        <v>0.1788748770235221</v>
       </c>
       <c r="D205" t="n">
-        <v>65485883347.42181</v>
+        <v>67645469993.73939</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B206" t="n">
-        <v>378172000000</v>
+        <v>389009000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1788748770235221</v>
+        <v>0.1758396342535608</v>
       </c>
       <c r="D206" t="n">
-        <v>67645469993.73939</v>
+        <v>68403200281.34341</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B207" t="n">
-        <v>389009000000</v>
+        <v>393806000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1758396342535608</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="D207" t="n">
-        <v>68403200281.34341</v>
+        <v>67202389078.49829</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B208" t="n">
-        <v>393806000000</v>
+        <v>388959000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1706484641638225</v>
+        <v>0.1650846058605035</v>
       </c>
       <c r="D208" t="n">
-        <v>67202389078.49829</v>
+        <v>64211143210.89558</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B209" t="n">
-        <v>388959000000</v>
+        <v>379842000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1650846058605035</v>
+        <v>0.1617468661544683</v>
       </c>
       <c r="D209" t="n">
-        <v>64211143210.89558</v>
+        <v>61438253133.84554</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B210" t="n">
-        <v>379842000000</v>
+        <v>391457000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1617468661544683</v>
+        <v>0.16249593760156</v>
       </c>
       <c r="D210" t="n">
-        <v>61438253133.84554</v>
+        <v>63610172245.69386</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B211" t="n">
-        <v>391457000000</v>
+        <v>395318000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.16249593760156</v>
+        <v>0.1643007360672976</v>
       </c>
       <c r="D211" t="n">
-        <v>63610172245.69386</v>
+        <v>64951038380.65195</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B212" t="n">
-        <v>395318000000</v>
+        <v>396818000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1643007360672976</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="D212" t="n">
-        <v>64951038380.65195</v>
+        <v>63899838969.40418</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B213" t="n">
-        <v>396818000000</v>
+        <v>407884000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1610305958132045</v>
+        <v>0.1658374792703151</v>
       </c>
       <c r="D213" t="n">
-        <v>63899838969.40418</v>
+        <v>67642454394.6932</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B214" t="n">
-        <v>407884000000</v>
+        <v>407541000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1658374792703151</v>
+        <v>0.1621402513173895</v>
       </c>
       <c r="D214" t="n">
-        <v>67642454394.6932</v>
+        <v>66078800162.14025</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B215" t="n">
-        <v>407541000000</v>
+        <v>413501000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1621402513173895</v>
+        <v>0.164446637066272</v>
       </c>
       <c r="D215" t="n">
-        <v>66078800162.14025</v>
+        <v>67998848873.54053</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B216" t="n">
-        <v>413501000000</v>
+        <v>427411000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.164446637066272</v>
+        <v>0.1665278934221482</v>
       </c>
       <c r="D216" t="n">
-        <v>67998848873.54053</v>
+        <v>71175853455.4538</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B217" t="n">
-        <v>427411000000</v>
+        <v>426662000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1665278934221482</v>
+        <v>0.1627339300244101</v>
       </c>
       <c r="D217" t="n">
-        <v>71175853455.4538</v>
+        <v>69432384052.07486</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B218" t="n">
-        <v>426662000000</v>
+        <v>440284000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1627339300244101</v>
+        <v>0.1619957881095092</v>
       </c>
       <c r="D218" t="n">
-        <v>69432384052.07486</v>
+        <v>71324153572.00713</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B219" t="n">
-        <v>440284000000</v>
+        <v>446935000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1619957881095092</v>
+        <v>0.1625884074465491</v>
       </c>
       <c r="D219" t="n">
-        <v>71324153572.00713</v>
+        <v>72666449882.12341</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B220" t="n">
-        <v>446935000000</v>
+        <v>438789000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1625884074465491</v>
+        <v>0.158378207158695</v>
       </c>
       <c r="D220" t="n">
-        <v>72666449882.12341</v>
+        <v>69494615140.9566</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B221" t="n">
-        <v>438789000000</v>
+        <v>443529000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.158378207158695</v>
+        <v>0.1576789656259855</v>
       </c>
       <c r="D221" t="n">
-        <v>69494615140.9566</v>
+        <v>69935193945.12772</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B222" t="n">
-        <v>443529000000</v>
+        <v>438954000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1576789656259855</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="D222" t="n">
-        <v>69935193945.12772</v>
+        <v>67324233128.83436</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B223" t="n">
-        <v>438954000000</v>
+        <v>440728000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1533742331288344</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D223" t="n">
-        <v>67324233128.83436</v>
+        <v>65052103321.03321</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B224" t="n">
-        <v>440728000000</v>
+        <v>437781000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1435750179468772</v>
       </c>
       <c r="D224" t="n">
-        <v>65052103321.03321</v>
+        <v>62854414931.80186</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B225" t="n">
-        <v>437781000000</v>
+        <v>441072000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1435750179468772</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D225" t="n">
-        <v>62854414931.80186</v>
+        <v>65102878228.78229</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B226" t="n">
-        <v>441072000000</v>
+        <v>433197000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1437297879985627</v>
       </c>
       <c r="D226" t="n">
-        <v>65102878228.78229</v>
+        <v>62263312971.61337</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B227" t="n">
-        <v>433197000000</v>
+        <v>439801000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1437297879985627</v>
+        <v>0.1435441039259313</v>
       </c>
       <c r="D227" t="n">
-        <v>62263312971.61337</v>
+        <v>63130840450.72849</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B228" t="n">
-        <v>439801000000</v>
+        <v>452472000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1435441039259313</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="D228" t="n">
-        <v>63130840450.72849</v>
+        <v>62427152317.88079</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B229" t="n">
-        <v>452472000000</v>
+        <v>450460000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1379690949227373</v>
+        <v>0.1328021248339973</v>
       </c>
       <c r="D229" t="n">
-        <v>62427152317.88079</v>
+        <v>59822045152.72244</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B230" t="n">
-        <v>450460000000</v>
+        <v>461178000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1328021248339973</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D230" t="n">
-        <v>59822045152.72244</v>
+        <v>59545255003.22789</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B231" t="n">
-        <v>461178000000</v>
+        <v>474848000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1291155584247902</v>
+        <v>0.1319713886029509</v>
       </c>
       <c r="D231" t="n">
-        <v>59545255003.22789</v>
+        <v>62666349935.33402</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B232" t="n">
-        <v>474848000000</v>
+        <v>474206000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1319713886029509</v>
+        <v>0.1292256797270754</v>
       </c>
       <c r="D232" t="n">
-        <v>62666349935.33402</v>
+        <v>61279592680.65749</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B233" t="n">
-        <v>474206000000</v>
+        <v>483016000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1292256797270754</v>
+        <v>0.1306062743254186</v>
       </c>
       <c r="D233" t="n">
-        <v>61279592680.65749</v>
+        <v>63084920199.56639</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B234" t="n">
-        <v>483016000000</v>
+        <v>491457000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1306062743254186</v>
+        <v>0.1244152483328357</v>
       </c>
       <c r="D234" t="n">
-        <v>63084920199.56639</v>
+        <v>61144744699.91042</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B235" t="n">
-        <v>491457000000</v>
+        <v>490895000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1244152483328357</v>
+        <v>0.1247193813918683</v>
       </c>
       <c r="D235" t="n">
-        <v>61144744699.91042</v>
+        <v>61224120728.36118</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B236" t="n">
-        <v>490895000000</v>
+        <v>491567000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1247193813918683</v>
+        <v>0.1251564455569462</v>
       </c>
       <c r="D236" t="n">
-        <v>61224120728.36118</v>
+        <v>61522778473.09137</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B237" t="n">
-        <v>491567000000</v>
+        <v>492768000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1251564455569462</v>
+        <v>0.1243224426873539</v>
       </c>
       <c r="D237" t="n">
-        <v>61522778473.09137</v>
+        <v>61262121438.16202</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B238" t="n">
-        <v>492768000000</v>
+        <v>497927000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1243224426873539</v>
+        <v>0.1210419289241793</v>
       </c>
       <c r="D238" t="n">
-        <v>61262121438.16202</v>
+        <v>60270044543.42985</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B239" t="n">
-        <v>497927000000</v>
+        <v>513455000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1210419289241793</v>
+        <v>0.119387304354055</v>
       </c>
       <c r="D239" t="n">
-        <v>60270044543.42985</v>
+        <v>61300008357.11131</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B240" t="n">
-        <v>513455000000</v>
+        <v>508210000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.119387304354055</v>
+        <v>0.1110358534770877</v>
       </c>
       <c r="D240" t="n">
-        <v>61300008357.11131</v>
+        <v>56429531095.59077</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B241" t="n">
-        <v>508210000000</v>
+        <v>510372000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1110358534770877</v>
+        <v>0.105682550754045</v>
       </c>
       <c r="D241" t="n">
-        <v>56429531095.59077</v>
+        <v>53937414793.44345</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B242" t="n">
-        <v>510372000000</v>
+        <v>522814000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.105682550754045</v>
+        <v>0.09749439407234084</v>
       </c>
       <c r="D242" t="n">
-        <v>53937414793.44345</v>
+        <v>50971434142.5368</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B243" t="n">
-        <v>522814000000</v>
+        <v>544056000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.09749439407234084</v>
+        <v>0.08350730688935282</v>
       </c>
       <c r="D243" t="n">
-        <v>50971434142.5368</v>
+        <v>45432651356.99374</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B244" t="n">
-        <v>544056000000</v>
+        <v>560885000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.08350730688935282</v>
+        <v>0.08777319406653207</v>
       </c>
       <c r="D244" t="n">
-        <v>45432651356.99374</v>
+        <v>49230667954.00684</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B245" t="n">
-        <v>560885000000</v>
+        <v>573536000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.08777319406653207</v>
+        <v>0.08822232024702249</v>
       </c>
       <c r="D245" t="n">
-        <v>49230667954.00684</v>
+        <v>50598676665.19629</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B246" t="n">
-        <v>573536000000</v>
+        <v>585236000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.08822232024702249</v>
+        <v>0.0883197173769044</v>
       </c>
       <c r="D246" t="n">
-        <v>50598676665.19629</v>
+        <v>51687878118.79002</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B247" t="n">
-        <v>585236000000</v>
+        <v>581307000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0883197173769044</v>
+        <v>0.09383063570255688</v>
       </c>
       <c r="D247" t="n">
-        <v>51687878118.79002</v>
+        <v>54544405348.34624</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B248" t="n">
-        <v>581307000000</v>
+        <v>594432000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.09383063570255688</v>
+        <v>0.102380342974149</v>
       </c>
       <c r="D248" t="n">
-        <v>54544405348.34624</v>
+        <v>60858152034.80932</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B249" t="n">
-        <v>594432000000</v>
+        <v>579246000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.102380342974149</v>
+        <v>0.09737098344693282</v>
       </c>
       <c r="D249" t="n">
-        <v>60858152034.80932</v>
+        <v>56401752677.70205</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B250" t="n">
-        <v>579246000000</v>
+        <v>574280000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.09737098344693282</v>
+        <v>0.09826078412105729</v>
       </c>
       <c r="D250" t="n">
-        <v>56401752677.70205</v>
+        <v>56429203105.04078</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B251" t="n">
-        <v>574280000000</v>
+        <v>591806000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.09826078412105729</v>
+        <v>0.09456264775413713</v>
       </c>
       <c r="D251" t="n">
-        <v>56429203105.04078</v>
+        <v>55962742316.78487</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B252" t="n">
-        <v>591806000000</v>
+        <v>598267000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.09456264775413713</v>
+        <v>0.09513842641042718</v>
       </c>
       <c r="D252" t="n">
-        <v>55962742316.78487</v>
+        <v>56918180953.28703</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B253" t="n">
-        <v>598267000000</v>
+        <v>607600000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.09513842641042718</v>
+        <v>0.09995002498750624</v>
       </c>
       <c r="D253" t="n">
-        <v>56918180953.28703</v>
+        <v>60729635182.40879</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B254" t="n">
-        <v>607600000000</v>
+        <v>621424000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.09995002498750624</v>
+        <v>0.1082602576594132</v>
       </c>
       <c r="D254" t="n">
-        <v>60729635182.40879</v>
+        <v>67275522355.74321</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B255" t="n">
-        <v>621424000000</v>
+        <v>632621000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1082602576594132</v>
+        <v>0.1170275014628438</v>
       </c>
       <c r="D255" t="n">
-        <v>67275522355.74321</v>
+        <v>74034055002.92569</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B256" t="n">
-        <v>632621000000</v>
+        <v>639520000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1170275014628438</v>
+        <v>0.1178314303557331</v>
       </c>
       <c r="D256" t="n">
-        <v>74034055002.92569</v>
+        <v>75355556341.09842</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B257" t="n">
-        <v>639520000000</v>
+        <v>646346000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1178314303557331</v>
+        <v>0.1239464551313832</v>
       </c>
       <c r="D257" t="n">
-        <v>75355556341.09842</v>
+        <v>80112295488.34903</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B258" t="n">
-        <v>646346000000</v>
+        <v>651020000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1239464551313832</v>
+        <v>0.1272102785905101</v>
       </c>
       <c r="D258" t="n">
-        <v>80112295488.34903</v>
+        <v>82816435567.9939</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B259" t="n">
-        <v>651020000000</v>
+        <v>671314000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1272102785905101</v>
+        <v>0.1378359751895245</v>
       </c>
       <c r="D259" t="n">
-        <v>82816435567.9939</v>
+        <v>92531219848.38043</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B260" t="n">
-        <v>671314000000</v>
+        <v>680405000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1378359751895245</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="D260" t="n">
-        <v>92531219848.38043</v>
+        <v>84260681114.55109</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B261" t="n">
-        <v>680405000000</v>
+        <v>684477000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1238390092879257</v>
+        <v>0.1343111182743708</v>
       </c>
       <c r="D261" t="n">
-        <v>84260681114.55109</v>
+        <v>91932871303.08647</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B262" t="n">
-        <v>684477000000</v>
+        <v>688974000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1343111182743708</v>
+        <v>0.1362323579096507</v>
       </c>
       <c r="D262" t="n">
-        <v>91932871303.08647</v>
+        <v>93860552558.4437</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B263" t="n">
-        <v>688974000000</v>
+        <v>690024000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1362323579096507</v>
+        <v>0.1364256480218281</v>
       </c>
       <c r="D263" t="n">
-        <v>93860552558.4437</v>
+        <v>94136971350.61392</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B264" t="n">
-        <v>690024000000</v>
+        <v>706699000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1364256480218281</v>
+        <v>0.144196106705119</v>
       </c>
       <c r="D264" t="n">
-        <v>94136971350.61392</v>
+        <v>101903244412.4009</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B265" t="n">
-        <v>706699000000</v>
+        <v>711110000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.144196106705119</v>
+        <v>0.1455582888167567</v>
       </c>
       <c r="D265" t="n">
-        <v>101903244412.4009</v>
+        <v>103507954760.4838</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B266" t="n">
-        <v>711110000000</v>
+        <v>721063000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1455582888167567</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="D266" t="n">
-        <v>103507954760.4838</v>
+        <v>113196703296.7033</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B267" t="n">
-        <v>721063000000</v>
+        <v>733453000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1569858712715856</v>
+        <v>0.1517450682852807</v>
       </c>
       <c r="D267" t="n">
-        <v>113196703296.7033</v>
+        <v>111297875569.044</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B268" t="n">
-        <v>733453000000</v>
+        <v>734861000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1517450682852807</v>
+        <v>0.1412628902387343</v>
       </c>
       <c r="D268" t="n">
-        <v>111297875569.044</v>
+        <v>103808588783.7265</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B269" t="n">
-        <v>734861000000</v>
+        <v>756772000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1412628902387343</v>
+        <v>0.150941117869919</v>
       </c>
       <c r="D269" t="n">
-        <v>103808588783.7265</v>
+        <v>114228011652.6543</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B270" t="n">
-        <v>756772000000</v>
+        <v>748540000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.150941117869919</v>
+        <v>0.1595405232929164</v>
       </c>
       <c r="D270" t="n">
-        <v>114228011652.6543</v>
+        <v>119422463305.6796</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B271" t="n">
-        <v>748540000000</v>
+        <v>750744000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1595405232929164</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D271" t="n">
-        <v>119422463305.6796</v>
+        <v>108646020260.492</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B272" t="n">
-        <v>750744000000</v>
+        <v>748172000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1534636751480924</v>
       </c>
       <c r="D272" t="n">
-        <v>108646020260.492</v>
+        <v>114817224762.8986</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B273" t="n">
-        <v>748172000000</v>
+        <v>749022000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1534636751480924</v>
+        <v>0.163212012404113</v>
       </c>
       <c r="D273" t="n">
-        <v>114817224762.8986</v>
+        <v>122249387954.9535</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B274" t="n">
-        <v>749022000000</v>
+        <v>748658000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.163212012404113</v>
+        <v>0.1598082301238514</v>
       </c>
       <c r="D274" t="n">
-        <v>122249387954.9535</v>
+        <v>119641709948.0623</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B275" t="n">
-        <v>748658000000</v>
+        <v>766827000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1598082301238514</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="D275" t="n">
-        <v>119641709948.0623</v>
+        <v>115747471698.1132</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B276" t="n">
-        <v>766827000000</v>
+        <v>790428000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D276" t="n">
-        <v>115747471698.1132</v>
+        <v>122680117957.4732</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B277" t="n">
-        <v>790428000000</v>
+        <v>807543000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1641497045305318</v>
       </c>
       <c r="D277" t="n">
-        <v>122680117957.4732</v>
+        <v>132557944845.6993</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B278" t="n">
-        <v>807543000000</v>
+        <v>805336000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1641497045305318</v>
+        <v>0.1721614874752518</v>
       </c>
       <c r="D278" t="n">
-        <v>132557944845.6993</v>
+        <v>138647843677.3694</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B279" t="n">
-        <v>805336000000</v>
+        <v>818740000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1721614874752518</v>
+        <v>0.1770287494689138</v>
       </c>
       <c r="D279" t="n">
-        <v>138647843677.3694</v>
+        <v>144940518340.1784</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B280" t="n">
-        <v>818740000000</v>
+        <v>819280000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1770287494689138</v>
+        <v>0.1674340728338217</v>
       </c>
       <c r="D280" t="n">
-        <v>144940518340.1784</v>
+        <v>137175387191.2934</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B281" t="n">
-        <v>819280000000</v>
+        <v>842007000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1674340728338217</v>
+        <v>0.1722652885443583</v>
       </c>
       <c r="D281" t="n">
-        <v>137175387191.2934</v>
+        <v>145048578811.3695</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B282" t="n">
-        <v>842007000000</v>
+        <v>836640000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1722652885443583</v>
+        <v>0.1604621309370989</v>
       </c>
       <c r="D282" t="n">
-        <v>145048578811.3695</v>
+        <v>134249037227.2144</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B283" t="n">
-        <v>836640000000</v>
+        <v>870197000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1604621309370989</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="D283" t="n">
-        <v>134249037227.2144</v>
+        <v>143124506578.9474</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B284" t="n">
-        <v>870197000000</v>
+        <v>865829000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.1472320376914016</v>
       </c>
       <c r="D284" t="n">
-        <v>143124506578.9474</v>
+        <v>127477767962.3086</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B285" t="n">
-        <v>865829000000</v>
+        <v>876491000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1472320376914016</v>
+        <v>0.1501501501501502</v>
       </c>
       <c r="D285" t="n">
-        <v>127477767962.3086</v>
+        <v>131605255255.2553</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B286" t="n">
-        <v>876491000000</v>
+        <v>898047000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1501501501501502</v>
+        <v>0.1523693432881304</v>
       </c>
       <c r="D286" t="n">
-        <v>131605255255.2553</v>
+        <v>136834831631.8757</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B287" t="n">
-        <v>898047000000</v>
+        <v>915941000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1523693432881304</v>
+        <v>0.1574555188159345</v>
       </c>
       <c r="D287" t="n">
-        <v>136834831631.8757</v>
+        <v>144219965359.7859</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B288" t="n">
-        <v>915941000000</v>
+        <v>928537000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1574555188159345</v>
+        <v>0.1577784790154623</v>
       </c>
       <c r="D288" t="n">
-        <v>144219965359.7859</v>
+        <v>146503155569.5803</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B289" t="n">
-        <v>928537000000</v>
+        <v>931975000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1577784790154623</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D289" t="n">
-        <v>146503155569.5803</v>
+        <v>138893442622.9508</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B290" t="n">
-        <v>931975000000</v>
+        <v>937193000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1551133102731545</v>
       </c>
       <c r="D290" t="n">
-        <v>138893442622.9508</v>
+        <v>145371108594.8285</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B291" t="n">
-        <v>937193000000</v>
+        <v>963515000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1551133102731545</v>
+        <v>0.158045295781771</v>
       </c>
       <c r="D291" t="n">
-        <v>145371108594.8285</v>
+        <v>152279013165.1731</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B292" t="n">
-        <v>963515000000</v>
+        <v>965101000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.158045295781771</v>
+        <v>0.1654232353476369</v>
       </c>
       <c r="D292" t="n">
-        <v>152279013165.1731</v>
+        <v>159650129857.2398</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B293" t="n">
-        <v>965101000000</v>
+        <v>1000200000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1654232353476369</v>
+        <v>0.1625408383856444</v>
       </c>
       <c r="D293" t="n">
-        <v>159650129857.2398</v>
+        <v>162573346553.3215</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B294" t="n">
-        <v>1000200000000</v>
+        <v>1032586000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1625408383856444</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="D294" t="n">
-        <v>162573346553.3215</v>
+        <v>167900162601.626</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B295" t="n">
-        <v>1032586000000</v>
+        <v>1026904000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1670843776106934</v>
       </c>
       <c r="D295" t="n">
-        <v>167900162601.626</v>
+        <v>171579615705.9315</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B296" t="n">
-        <v>1026904000000</v>
+        <v>1044155000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1670843776106934</v>
+        <v>0.1487541837114169</v>
       </c>
       <c r="D296" t="n">
-        <v>171579615705.9315</v>
+        <v>155322424693.1945</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B297" t="n">
-        <v>1044155000000</v>
+        <v>1050280000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1487541837114169</v>
+        <v>0.1402268871033332</v>
       </c>
       <c r="D297" t="n">
-        <v>155322424693.1945</v>
+        <v>147277494986.8888</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B298" t="n">
-        <v>1050280000000</v>
+        <v>1061266000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1402268871033332</v>
+        <v>0.1445295562942622</v>
       </c>
       <c r="D298" t="n">
-        <v>147277494986.8888</v>
+        <v>153384304090.1864</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B299" t="n">
-        <v>1061266000000</v>
+        <v>1078788000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1445295562942622</v>
+        <v>0.1400560224089636</v>
       </c>
       <c r="D299" t="n">
-        <v>153384304090.1864</v>
+        <v>151090756302.521</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B300" t="n">
-        <v>1078788000000</v>
+        <v>1106311000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1400560224089636</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="D300" t="n">
-        <v>151090756302.521</v>
+        <v>143119146183.6999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B301" t="n">
-        <v>1106311000000</v>
+        <v>1125707000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.129366106080207</v>
+        <v>0.1358511071865236</v>
       </c>
       <c r="D301" t="n">
-        <v>143119146183.6999</v>
+        <v>152928542317.6199</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B302" t="n">
-        <v>1125707000000</v>
+        <v>1146097000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1358511071865236</v>
+        <v>0.1399932803225445</v>
       </c>
       <c r="D302" t="n">
-        <v>152928542317.6199</v>
+        <v>160445878597.8273</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B303" t="n">
-        <v>1146097000000</v>
+        <v>1156842000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1399932803225445</v>
+        <v>0.1427103550633634</v>
       </c>
       <c r="D303" t="n">
-        <v>160445878597.8273</v>
+        <v>165093332572.2115</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B304" t="n">
-        <v>1156842000000</v>
+        <v>1133627000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1427103550633634</v>
+        <v>0.1388406803193336</v>
       </c>
       <c r="D304" t="n">
-        <v>165093332572.2115</v>
+        <v>157393543908.3652</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B305" t="n">
-        <v>1133627000000</v>
+        <v>1180287000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1388406803193336</v>
+        <v>0.1385502105963201</v>
       </c>
       <c r="D305" t="n">
-        <v>157393543908.3652</v>
+        <v>163529012414.0989</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B306" t="n">
-        <v>1180287000000</v>
+        <v>1195132000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1385502105963201</v>
+        <v>0.1379500620775279</v>
       </c>
       <c r="D306" t="n">
-        <v>163529012414.0989</v>
+        <v>164868533590.8401</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B307" t="n">
-        <v>1195132000000</v>
+        <v>1215180000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1379500620775279</v>
+        <v>0.142673705236125</v>
       </c>
       <c r="D307" t="n">
-        <v>164868533590.8401</v>
+        <v>173374233128.8343</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B308" t="n">
-        <v>1215180000000</v>
+        <v>1241347000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.142673705236125</v>
+        <v>0.1414227124876255</v>
       </c>
       <c r="D308" t="n">
-        <v>173374233128.8343</v>
+        <v>175554659878.3765</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B309" t="n">
-        <v>1241347000000</v>
+        <v>1249390000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1414227124876255</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="D309" t="n">
-        <v>175554659878.3765</v>
+        <v>178077251995.439</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B310" t="n">
-        <v>1249390000000</v>
+        <v>1290230000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1425313568985177</v>
+        <v>0.1399423437543732</v>
       </c>
       <c r="D310" t="n">
-        <v>178077251995.439</v>
+        <v>180557810182.2049</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B311" t="n">
-        <v>1290230000000</v>
+        <v>1341912000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1399423437543732</v>
+        <v>0.140548137737175</v>
       </c>
       <c r="D311" t="n">
-        <v>180557810182.2049</v>
+        <v>188603232607.1679</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B312" t="n">
-        <v>1341912000000</v>
+        <v>1350336000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.140548137737175</v>
+        <v>0.1458512608841503</v>
       </c>
       <c r="D312" t="n">
-        <v>188603232607.1679</v>
+        <v>196948208217.26</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B313" t="n">
-        <v>1350336000000</v>
+        <v>1346359000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1458512608841503</v>
+        <v>0.154273372415921</v>
       </c>
       <c r="D313" t="n">
-        <v>196948208217.26</v>
+        <v>207707343412.527</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B314" t="n">
-        <v>1346359000000</v>
+        <v>1381640000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.154273372415921</v>
+        <v>0.1472732360348154</v>
       </c>
       <c r="D314" t="n">
-        <v>207707343412.527</v>
+        <v>203478593835.1424</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B315" t="n">
-        <v>1381640000000</v>
+        <v>1396325000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1472732360348154</v>
+        <v>0.1463957369561398</v>
       </c>
       <c r="D315" t="n">
-        <v>203478593835.1424</v>
+        <v>204416027405.282</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B316" t="n">
-        <v>1396325000000</v>
+        <v>1377990000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1463957369561398</v>
+        <v>0.1338508901084192</v>
       </c>
       <c r="D316" t="n">
-        <v>204416027405.282</v>
+        <v>184445188060.5006</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B317" t="n">
-        <v>1377990000000</v>
+        <v>1393920000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1338508901084192</v>
+        <v>0.1279230414982347</v>
       </c>
       <c r="D317" t="n">
-        <v>184445188060.5006</v>
+        <v>178314486005.2193</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B318" t="n">
-        <v>1393920000000</v>
+        <v>1431028000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1279230414982347</v>
+        <v>0.1234415504258733</v>
       </c>
       <c r="D318" t="n">
-        <v>178314486005.2193</v>
+        <v>176648315022.8367</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B319" t="n">
-        <v>1431028000000</v>
+        <v>1458145000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1234415504258733</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D319" t="n">
-        <v>176648315022.8367</v>
+        <v>193131788079.4702</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B320" t="n">
-        <v>1458145000000</v>
+        <v>1482428000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1322401481089659</v>
       </c>
       <c r="D320" t="n">
-        <v>193131788079.4702</v>
+        <v>196036498280.8781</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B321" t="n">
-        <v>1482428000000</v>
+        <v>1474862000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1322401481089659</v>
+        <v>0.1277791975466394</v>
       </c>
       <c r="D321" t="n">
-        <v>196036498280.8781</v>
+        <v>188456682852.0317</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B322" t="n">
-        <v>1474862000000</v>
+        <v>1484679000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1277791975466394</v>
+        <v>0.1364237868514754</v>
       </c>
       <c r="D322" t="n">
-        <v>188456682852.0317</v>
+        <v>202545531438.8617</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B323" t="n">
-        <v>1484679000000</v>
+        <v>1482748000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1364237868514754</v>
+        <v>0.129974784891731</v>
       </c>
       <c r="D323" t="n">
-        <v>202545531438.8617</v>
+        <v>192719852348.6444</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B324" t="n">
-        <v>1482748000000</v>
+        <v>1506513000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.129974784891731</v>
+        <v>0.1208327795164272</v>
       </c>
       <c r="D324" t="n">
-        <v>192719852348.6444</v>
+        <v>182036153167.6313</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B325" t="n">
-        <v>1506513000000</v>
+        <v>1523646000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1208327795164272</v>
+        <v>0.1026630803030614</v>
       </c>
       <c r="D325" t="n">
-        <v>182036153167.6313</v>
+        <v>156422191651.4383</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B326" t="n">
-        <v>1523646000000</v>
+        <v>1565803000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1026630803030614</v>
+        <v>0.09868940470551082</v>
       </c>
       <c r="D326" t="n">
-        <v>156422191651.4383</v>
+        <v>154528165956.103</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B327" t="n">
-        <v>1565803000000</v>
+        <v>1562427000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.09868940470551082</v>
+        <v>0.1071799873527615</v>
       </c>
       <c r="D327" t="n">
-        <v>154528165956.103</v>
+        <v>167460906099.6131</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B328" t="n">
-        <v>1562427000000</v>
+        <v>1566667000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1071799873527615</v>
+        <v>0.09811039381512077</v>
       </c>
       <c r="D328" t="n">
-        <v>167460906099.6131</v>
+        <v>153706316347.1538</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B329" t="n">
-        <v>1566667000000</v>
+        <v>1585801000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.09811039381512077</v>
+        <v>0.09911490390810067</v>
       </c>
       <c r="D329" t="n">
-        <v>153706316347.1538</v>
+        <v>157176513732.3699</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B330" t="n">
-        <v>1585801000000</v>
+        <v>1574342000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.09911490390810067</v>
+        <v>0.105380851666967</v>
       </c>
       <c r="D330" t="n">
-        <v>157176513732.3699</v>
+        <v>165905500775.0761</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B331" t="n">
-        <v>1574342000000</v>
+        <v>1574490000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.105380851666967</v>
+        <v>0.1184246209523945</v>
       </c>
       <c r="D331" t="n">
-        <v>165905500775.0761</v>
+        <v>186458381443.3356</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B332" t="n">
-        <v>1574490000000</v>
+        <v>1597266000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1184246209523945</v>
+        <v>0.1258211402163369</v>
       </c>
       <c r="D332" t="n">
-        <v>186458381443.3356</v>
+        <v>200969829348.7875</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B333" t="n">
-        <v>1597266000000</v>
+        <v>1545955000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1258211402163369</v>
+        <v>0.1297489746587278</v>
       </c>
       <c r="D333" t="n">
-        <v>200969829348.7875</v>
+        <v>200586076118.5335</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B334" t="n">
-        <v>1545955000000</v>
+        <v>1539789000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1297489746587278</v>
+        <v>0.1289908145640949</v>
       </c>
       <c r="D334" t="n">
-        <v>200586076118.5335</v>
+        <v>198618637366.8331</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B335" t="n">
-        <v>1539789000000</v>
+        <v>1554419000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1289908145640949</v>
+        <v>0.1287665835263759</v>
       </c>
       <c r="D335" t="n">
-        <v>198618637366.8331</v>
+        <v>200157223998.4857</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B336" t="n">
-        <v>1554419000000</v>
+        <v>1544145000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1287665835263759</v>
+        <v>0.1333210677950962</v>
       </c>
       <c r="D336" t="n">
-        <v>200157223998.4857</v>
+        <v>205867060230.4588</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B337" t="n">
-        <v>1544145000000</v>
+        <v>1537065000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1333210677950962</v>
+        <v>0.1281100311435486</v>
       </c>
       <c r="D337" t="n">
-        <v>205867060230.4588</v>
+        <v>196913445019.6585</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B338" t="n">
-        <v>1537065000000</v>
+        <v>1549706000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1281100311435486</v>
+        <v>0.1351700236142031</v>
       </c>
       <c r="D338" t="n">
-        <v>196913445019.6585</v>
+        <v>209473796615.0723</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B339" t="n">
-        <v>1549706000000</v>
+        <v>1589340000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1351700236142031</v>
+        <v>0.1355548054856319</v>
       </c>
       <c r="D339" t="n">
-        <v>209473796615.0723</v>
+        <v>215442674550.5341</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B340" t="n">
-        <v>1589340000000</v>
+        <v>1569747000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1355548054856319</v>
+        <v>0.1312802847206815</v>
       </c>
       <c r="D340" t="n">
-        <v>215442674550.5341</v>
+        <v>206076833099.4356</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B341" t="n">
-        <v>1569747000000</v>
+        <v>1566078000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1312802847206815</v>
+        <v>0.1295674132772911</v>
       </c>
       <c r="D341" t="n">
-        <v>206076833099.4356</v>
+        <v>202912675450.4735</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B342" t="n">
-        <v>1566078000000</v>
+        <v>1578113000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1295674132772911</v>
+        <v>0.137462902199269</v>
       </c>
       <c r="D342" t="n">
-        <v>202912675450.4735</v>
+        <v>216931992978.395</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B343" t="n">
-        <v>1578113000000</v>
+        <v>1581563000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.137462902199269</v>
+        <v>0.135475655024792</v>
       </c>
       <c r="D343" t="n">
-        <v>216931992978.395</v>
+        <v>214263283387.9752</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B344" t="n">
-        <v>1581563000000</v>
+        <v>1580338000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.135475655024792</v>
+        <v>0.1310255368771374</v>
       </c>
       <c r="D344" t="n">
-        <v>214263283387.9752</v>
+        <v>207064634897.3415</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B345" t="n">
-        <v>1580338000000</v>
+        <v>1551427000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1310255368771374</v>
+        <v>0.1304886801070007</v>
       </c>
       <c r="D345" t="n">
-        <v>207064634897.3415</v>
+        <v>202443661512.3638</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B346" t="n">
-        <v>1551427000000</v>
+        <v>1583836000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1304886801070007</v>
+        <v>0.1372156206262521</v>
       </c>
       <c r="D346" t="n">
-        <v>202443661512.3638</v>
+        <v>217327039710.2006</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B347" t="n">
-        <v>1583836000000</v>
+        <v>1595672000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1372156206262521</v>
+        <v>0.135707306481381</v>
       </c>
       <c r="D347" t="n">
-        <v>217327039710.2006</v>
+        <v>216544349147.7581</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B348" t="n">
-        <v>1595672000000</v>
+        <v>1589594000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.135707306481381</v>
+        <v>0.1437359857413902</v>
       </c>
       <c r="D348" t="n">
-        <v>216544349147.7581</v>
+        <v>228481860518.5994</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B349" t="n">
-        <v>1589594000000</v>
+        <v>1598006000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1437359857413902</v>
+        <v>0.1429245215601641</v>
       </c>
       <c r="D349" t="n">
-        <v>228481860518.5994</v>
+        <v>228394243000.2716</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B350" t="n">
-        <v>1598006000000</v>
+        <v>1660253000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1429245215601641</v>
+        <v>0.1407974769092138</v>
       </c>
       <c r="D350" t="n">
-        <v>228394243000.2716</v>
+        <v>233759433430.9529</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B351" t="n">
-        <v>1660253000000</v>
+        <v>1678417000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1407974769092138</v>
+        <v>0.1518395359783781</v>
       </c>
       <c r="D351" t="n">
-        <v>233759433430.9529</v>
+        <v>254850058458.2214</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B352" t="n">
-        <v>1678417000000</v>
+        <v>1674643000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1518395359783781</v>
+        <v>0.1392874056327827</v>
       </c>
       <c r="D352" t="n">
-        <v>254850058458.2214</v>
+        <v>233256678831.1001</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B353" t="n">
-        <v>1674643000000</v>
+        <v>1653749000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1392874056327827</v>
+        <v>0.143682289720969</v>
       </c>
       <c r="D353" t="n">
-        <v>233256678831.1001</v>
+        <v>237614442943.7628</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B354" t="n">
-        <v>1653749000000</v>
+        <v>1650771000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.143682289720969</v>
+        <v>0.1477235796377818</v>
       </c>
       <c r="D354" t="n">
-        <v>237614442943.7628</v>
+        <v>243857801282.2407</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B355" t="n">
-        <v>1650771000000</v>
+        <v>1656915000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1477235796377818</v>
+        <v>0.1525129559756101</v>
       </c>
       <c r="D355" t="n">
-        <v>243857801282.2407</v>
+        <v>252701004450.3281</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B356" t="n">
-        <v>1656915000000</v>
+        <v>1666606000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1525129559756101</v>
+        <v>0.1472472133464874</v>
       </c>
       <c r="D356" t="n">
-        <v>252701004450.3281</v>
+        <v>245403089246.536</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B357" t="n">
-        <v>1666606000000</v>
+        <v>1646475000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1472472133464874</v>
+        <v>0.1479443137603006</v>
       </c>
       <c r="D357" t="n">
-        <v>245403089246.536</v>
+        <v>243586613998.491</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B358" t="n">
-        <v>1646475000000</v>
+        <v>1670191000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1479443137603006</v>
+        <v>0.1497633738692865</v>
       </c>
       <c r="D358" t="n">
-        <v>243586613998.491</v>
+        <v>250133439166.1176</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B359" t="n">
-        <v>1670191000000</v>
+        <v>1693482000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1497633738692865</v>
+        <v>0.1431372829680947</v>
       </c>
       <c r="D359" t="n">
-        <v>250133439166.1176</v>
+        <v>242400412235.3749</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B360" t="n">
-        <v>1693482000000</v>
+        <v>1721643000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1431372829680947</v>
+        <v>0.1238144763885794</v>
       </c>
       <c r="D360" t="n">
-        <v>242400412235.3749</v>
+        <v>213164326573.063</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B361" t="n">
-        <v>1721643000000</v>
+        <v>1740142000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1238144763885794</v>
+        <v>0.1258004050773044</v>
       </c>
       <c r="D361" t="n">
-        <v>213164326573.063</v>
+        <v>218910568492.0306</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B362" t="n">
-        <v>1740142000000</v>
+        <v>1757764000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1258004050773044</v>
+        <v>0.1233745404298369</v>
       </c>
       <c r="D362" t="n">
-        <v>218910568492.0306</v>
+        <v>216863325684.1118</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B363" t="n">
-        <v>1757764000000</v>
+        <v>1798932000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1233745404298369</v>
+        <v>0.1240987329519366</v>
       </c>
       <c r="D363" t="n">
-        <v>216863325684.1118</v>
+        <v>223245181866.6931</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B364" t="n">
-        <v>1798932000000</v>
+        <v>1785342000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1240987329519366</v>
+        <v>0.1281640499839795</v>
       </c>
       <c r="D364" t="n">
-        <v>223245181866.6931</v>
+        <v>228816661326.4979</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B365" t="n">
-        <v>1785342000000</v>
+        <v>1767502000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1281640499839795</v>
+        <v>0.1332924569798595</v>
       </c>
       <c r="D365" t="n">
-        <v>228816661326.4979</v>
+        <v>235594684296.8156</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B366" t="n">
-        <v>1767502000000</v>
+        <v>1799376000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1332924569798595</v>
+        <v>0.1306455195119083</v>
       </c>
       <c r="D366" t="n">
-        <v>235594684296.8156</v>
+        <v>235080412317.2596</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B367" t="n">
-        <v>1799376000000</v>
+        <v>1777035000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1306455195119083</v>
+        <v>0.1286223262633928</v>
       </c>
       <c r="D367" t="n">
-        <v>235080412317.2596</v>
+        <v>228566375551.4682</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B368" t="n">
-        <v>1777035000000</v>
+        <v>1781526000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1286223262633928</v>
+        <v>0.1173516088905579</v>
       </c>
       <c r="D368" t="n">
-        <v>228566375551.4682</v>
+        <v>209064942380.36</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B369" t="n">
-        <v>1781526000000</v>
+        <v>1769160000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1173516088905579</v>
+        <v>0.1228531413548245</v>
       </c>
       <c r="D369" t="n">
-        <v>209064942380.36</v>
+        <v>217346863559.3012</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B370" t="n">
-        <v>1769160000000</v>
+        <v>1802929000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1228531413548245</v>
+        <v>0.121307696973373</v>
       </c>
       <c r="D370" t="n">
-        <v>217346863559.3012</v>
+        <v>218709164796.5063</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B371" t="n">
-        <v>1802929000000</v>
+        <v>1820822000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.121307696973373</v>
+        <v>0.1191696260457135</v>
       </c>
       <c r="D371" t="n">
-        <v>218709164796.5063</v>
+        <v>216986676835.8081</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B372" t="n">
-        <v>1820822000000</v>
+        <v>1831446000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1191696260457135</v>
+        <v>0.1203775038520801</v>
       </c>
       <c r="D372" t="n">
-        <v>216986676835.8081</v>
+        <v>220464897919.8767</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B373" t="n">
-        <v>1831446000000</v>
+        <v>1812952000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1203775038520801</v>
+        <v>0.1153429144847632</v>
       </c>
       <c r="D373" t="n">
-        <v>220464897919.8767</v>
+        <v>209111167500.9804</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B374" t="n">
-        <v>1812952000000</v>
+        <v>1872964000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1153429144847632</v>
+        <v>0.1122977237251401</v>
       </c>
       <c r="D374" t="n">
-        <v>209111167500.9804</v>
+        <v>210329593819.1333</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B375" t="n">
-        <v>1872964000000</v>
+        <v>1869050000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1122977237251401</v>
+        <v>0.1178189358593713</v>
       </c>
       <c r="D375" t="n">
-        <v>210329593819.1333</v>
+        <v>220209482067.9579</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B376" t="n">
-        <v>1869050000000</v>
+        <v>1861751000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1178189358593713</v>
+        <v>0.1116694584031267</v>
       </c>
       <c r="D376" t="n">
-        <v>220209482067.9579</v>
+        <v>207900725851.4796</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B377" t="n">
-        <v>1861751000000</v>
+        <v>1869042000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1116694584031267</v>
+        <v>0.1107591431672685</v>
       </c>
       <c r="D377" t="n">
-        <v>207900725851.4796</v>
+        <v>207013490463.6378</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B378" t="n">
-        <v>1869042000000</v>
+        <v>1900810000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1107591431672685</v>
+        <v>0.1083869848908543</v>
       </c>
       <c r="D378" t="n">
-        <v>207013490463.6378</v>
+        <v>206023064750.3848</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B379" t="n">
-        <v>1900810000000</v>
+        <v>1912464000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1083869848908543</v>
+        <v>0.1115312120096809</v>
       </c>
       <c r="D379" t="n">
-        <v>206023064750.3848</v>
+        <v>213299427844.8824</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B380" t="n">
-        <v>1912464000000</v>
+        <v>1915820000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.1115312120096809</v>
+        <v>0.09940851931010487</v>
       </c>
       <c r="D380" t="n">
-        <v>213299427844.8824</v>
+        <v>190448829464.6851</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B381" t="n">
-        <v>1915820000000</v>
+        <v>1928903000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.09940851931010487</v>
+        <v>0.1013410460625457</v>
       </c>
       <c r="D381" t="n">
-        <v>190448829464.6851</v>
+        <v>195477047773.1825</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B382" t="n">
-        <v>1928903000000</v>
+        <v>1954780000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1013410460625457</v>
+        <v>0.1014973910095641</v>
       </c>
       <c r="D382" t="n">
-        <v>195477047773.1825</v>
+        <v>198405069997.6757</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B383" t="n">
-        <v>1954780000000</v>
+        <v>1983864000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.1014973910095641</v>
+        <v>0.09735676386116926</v>
       </c>
       <c r="D383" t="n">
-        <v>198405069997.6757</v>
+        <v>193142578980.6747</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B384" t="n">
-        <v>1983864000000</v>
+        <v>2011342000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.09735676386116926</v>
+        <v>0.09976913422340704</v>
       </c>
       <c r="D384" t="n">
-        <v>193142578980.6747</v>
+        <v>200669849967.176</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B385" t="n">
-        <v>2011342000000</v>
+        <v>2011789000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.09976913422340704</v>
+        <v>0.09962074382824587</v>
       </c>
       <c r="D385" t="n">
-        <v>200669849967.176</v>
+        <v>200415916605.4829</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B386" t="n">
-        <v>2011789000000</v>
+        <v>2057061000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.09962074382824587</v>
+        <v>0.09835375485129896</v>
       </c>
       <c r="D386" t="n">
-        <v>200415916605.4829</v>
+        <v>202319673308.1679</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B387" t="n">
-        <v>2057061000000</v>
+        <v>2049694000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.09835375485129896</v>
+        <v>0.09539472429016785</v>
       </c>
       <c r="D387" t="n">
-        <v>202319673308.1679</v>
+        <v>195529994009.2113</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B388" t="n">
-        <v>2049694000000</v>
+        <v>2058373000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.09539472429016785</v>
+        <v>0.09004506755631195</v>
       </c>
       <c r="D388" t="n">
-        <v>195529994009.2113</v>
+        <v>185346335841.0885</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B389" t="n">
-        <v>2058373000000</v>
+        <v>2057046000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.09004506755631195</v>
+        <v>0.09295753699709973</v>
       </c>
       <c r="D389" t="n">
-        <v>185346335841.0885</v>
+        <v>191217929649.736</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B390" t="n">
-        <v>2057046000000</v>
+        <v>2108158000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.09295753699709973</v>
+        <v>0.09495233392836797</v>
       </c>
       <c r="D390" t="n">
-        <v>191217929649.736</v>
+        <v>200174522389.7603</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B391" t="n">
-        <v>2108158000000</v>
+        <v>2112214000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.09495233392836797</v>
+        <v>0.09507239763079585</v>
       </c>
       <c r="D391" t="n">
-        <v>200174522389.7603</v>
+        <v>200813249289.3338</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B392" t="n">
-        <v>2112214000000</v>
+        <v>2147111000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.09507239763079585</v>
+        <v>0.09460379928857944</v>
       </c>
       <c r="D392" t="n">
-        <v>200813249289.3338</v>
+        <v>203124858094.3011</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B393" t="n">
-        <v>2147111000000</v>
+        <v>2116923000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.09460379928857944</v>
+        <v>0.09406629792677879</v>
       </c>
       <c r="D393" t="n">
-        <v>203124858094.3011</v>
+        <v>199131109606.0503</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B394" t="n">
-        <v>2116923000000</v>
+        <v>2127901000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.09406629792677879</v>
+        <v>0.09349988780013464</v>
       </c>
       <c r="D394" t="n">
-        <v>199131109606.0503</v>
+        <v>198958504749.7943</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B395" t="n">
-        <v>2127901000000</v>
+        <v>2155842000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.09349988780013464</v>
+        <v>0.09384032130926016</v>
       </c>
       <c r="D395" t="n">
-        <v>198958504749.7943</v>
+        <v>202304905971.998</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B396" t="n">
-        <v>2155842000000</v>
+        <v>2215507000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.09384032130926016</v>
+        <v>0.08863205289560916</v>
       </c>
       <c r="D396" t="n">
-        <v>202304905971.998</v>
+        <v>196364933614.5923</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B397" t="n">
-        <v>2215507000000</v>
+        <v>2217769000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.08863205289560916</v>
+        <v>0.09072269700433654</v>
       </c>
       <c r="D397" t="n">
-        <v>196364933614.5923</v>
+        <v>201201985012.6104</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B398" t="n">
-        <v>2217769000000</v>
+        <v>2259755000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.09072269700433654</v>
+        <v>0.09041517745334803</v>
       </c>
       <c r="D398" t="n">
-        <v>201201985012.6104</v>
+        <v>204316149326.0905</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B399" t="n">
-        <v>2259755000000</v>
+        <v>2226544000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.09041517745334803</v>
+        <v>0.08639383493593898</v>
       </c>
       <c r="D399" t="n">
-        <v>204316149326.0905</v>
+        <v>192359674813.6053</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B400" t="n">
-        <v>2226544000000</v>
+        <v>2222725000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.08639383493593898</v>
+        <v>0.08629021123843711</v>
       </c>
       <c r="D400" t="n">
-        <v>192359674813.6053</v>
+        <v>191799409774.9551</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B401" t="n">
-        <v>2222725000000</v>
+        <v>2221686000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.08629021123843711</v>
+        <v>0.0858052392679097</v>
       </c>
       <c r="D401" t="n">
-        <v>191799409774.9551</v>
+        <v>190632298808.1652</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B402" t="n">
-        <v>2221686000000</v>
+        <v>2271450000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.0858052392679097</v>
+        <v>0.08247830820494211</v>
       </c>
       <c r="D402" t="n">
-        <v>190632298808.1652</v>
+        <v>187345353172.1158</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B403" t="n">
-        <v>2271450000000</v>
+        <v>2279247000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.08247830820494211</v>
+        <v>0.08406186953597848</v>
       </c>
       <c r="D403" t="n">
-        <v>187345353172.1158</v>
+        <v>191597763954.2704</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B404" t="n">
-        <v>2279247000000</v>
+        <v>2307632000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.08406186953597848</v>
+        <v>0.08228285554421881</v>
       </c>
       <c r="D404" t="n">
-        <v>191597763954.2704</v>
+        <v>189878550505.2167</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B405" t="n">
-        <v>2307632000000</v>
+        <v>2308183000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.08228285554421881</v>
+        <v>0.08219898730847636</v>
       </c>
       <c r="D405" t="n">
-        <v>189878550505.2167</v>
+        <v>189730305122.6409</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B406" t="n">
-        <v>2308183000000</v>
+        <v>2375417000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.08219898730847636</v>
+        <v>0.07889110660555235</v>
       </c>
       <c r="D406" t="n">
-        <v>189730305122.6409</v>
+        <v>187399275779.6413</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B407" t="n">
-        <v>2375417000000</v>
+        <v>2367936000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.07889110660555235</v>
+        <v>0.07533807963235017</v>
       </c>
       <c r="D407" t="n">
-        <v>187399275779.6413</v>
+        <v>178395750932.3087</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B408" t="n">
-        <v>2367936000000</v>
+        <v>2386441000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.07533807963235017</v>
+        <v>0.07220685820739253</v>
       </c>
       <c r="D408" t="n">
-        <v>178395750932.3087</v>
+        <v>172317406907.308</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B409" t="n">
-        <v>2386441000000</v>
+        <v>2415205000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.07220685820739253</v>
+        <v>0.07246004009938618</v>
       </c>
       <c r="D409" t="n">
-        <v>172317406907.308</v>
+        <v>175005851148.238</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B410" t="n">
-        <v>2415205000000</v>
+        <v>2448155000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.07246004009938618</v>
+        <v>0.06923673424171929</v>
       </c>
       <c r="D410" t="n">
-        <v>175005851148.238</v>
+        <v>169502257117.5363</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B411" t="n">
-        <v>2448155000000</v>
+        <v>2441272000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.06923673424171929</v>
+        <v>0.06462202577126387</v>
       </c>
       <c r="D411" t="n">
-        <v>169502257117.5363</v>
+        <v>157759942098.6649</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B412" t="n">
-        <v>2441272000000</v>
+        <v>2420841000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.06462202577126387</v>
+        <v>0.06301991429291656</v>
       </c>
       <c r="D412" t="n">
-        <v>157759942098.6649</v>
+        <v>152561192336.7784</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B413" t="n">
-        <v>2420841000000</v>
+        <v>2411088000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.06301991429291656</v>
+        <v>0.06306442661823319</v>
       </c>
       <c r="D413" t="n">
-        <v>152561192336.7784</v>
+        <v>152053882246.1026</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B414" t="n">
-        <v>2411088000000</v>
+        <v>2459285000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.06306442661823319</v>
+        <v>0.06778420221383204</v>
       </c>
       <c r="D414" t="n">
-        <v>152053882246.1026</v>
+        <v>166700671741.4439</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B415" t="n">
-        <v>2459285000000</v>
+        <v>2446136000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.06778420221383204</v>
+        <v>0.07036653930323053</v>
       </c>
       <c r="D415" t="n">
-        <v>166700671741.4439</v>
+        <v>172126124985.0471</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B416" t="n">
-        <v>2446136000000</v>
+        <v>2431670000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.07036653930323053</v>
+        <v>0.06368088236230601</v>
       </c>
       <c r="D416" t="n">
-        <v>172126124985.0471</v>
+        <v>154850891213.9487</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B417" t="n">
-        <v>2431670000000</v>
+        <v>2412885000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.06368088236230601</v>
+        <v>0.06797264780652265</v>
       </c>
       <c r="D417" t="n">
-        <v>154850891213.9487</v>
+        <v>164010182302.6414</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B418" t="n">
-        <v>2412885000000</v>
+        <v>2453694000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.06797264780652265</v>
+        <v>0.07200564524258701</v>
       </c>
       <c r="D418" t="n">
-        <v>164010182302.6414</v>
+        <v>176679819697.8643</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B419" t="n">
-        <v>2453694000000</v>
+        <v>2486214000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.07200564524258701</v>
+        <v>0.06791448208415964</v>
       </c>
       <c r="D419" t="n">
-        <v>176679819697.8643</v>
+        <v>168849936160.3869</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B420" t="n">
-        <v>2486214000000</v>
+        <v>2509320000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.06791448208415964</v>
+        <v>0.07292137617221112</v>
       </c>
       <c r="D420" t="n">
-        <v>168849936160.3869</v>
+        <v>182983067656.4528</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B421" t="n">
-        <v>2509320000000</v>
+        <v>2566282000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.07292137617221112</v>
+        <v>0.07424015204383139</v>
       </c>
       <c r="D421" t="n">
-        <v>182983067656.4528</v>
+        <v>190521165867.3477</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B422" t="n">
-        <v>2566282000000</v>
+        <v>2561804000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.07424015204383139</v>
+        <v>0.07107270026510117</v>
       </c>
       <c r="D422" t="n">
-        <v>190521165867.3477</v>
+        <v>182074327829.9372</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B423" t="n">
-        <v>2561804000000</v>
+        <v>2601201000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.07107270026510117</v>
+        <v>0.07283957811316356</v>
       </c>
       <c r="D423" t="n">
-        <v>182074327829.9372</v>
+        <v>189470383427.5392</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B424" t="n">
-        <v>2601201000000</v>
+        <v>2592617000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.07283957811316356</v>
+        <v>0.07423519193508875</v>
       </c>
       <c r="D424" t="n">
-        <v>189470383427.5392</v>
+        <v>192463420609.174</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B425" t="n">
-        <v>2592617000000</v>
+        <v>2556260000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.07423519193508875</v>
+        <v>0.07625345428147895</v>
       </c>
       <c r="D425" t="n">
-        <v>192463420609.174</v>
+        <v>194923655041.5734</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B426" t="n">
-        <v>2556260000000</v>
+        <v>2585519000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.07625345428147895</v>
+        <v>0.07466642773409793</v>
       </c>
       <c r="D426" t="n">
-        <v>194923655041.5734</v>
+        <v>193051467568.6371</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B427" t="n">
-        <v>2585519000000</v>
+        <v>2575364000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.07466642773409793</v>
+        <v>0.07492376506904225</v>
       </c>
       <c r="D427" t="n">
-        <v>193051467568.6371</v>
+        <v>192955967303.2689</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B428" t="n">
-        <v>2575364000000</v>
+        <v>2594454000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.07492376506904225</v>
+        <v>0.07643512683262771</v>
       </c>
       <c r="D428" t="n">
-        <v>192955967303.2689</v>
+        <v>198307420551.4183</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B429" t="n">
-        <v>2594454000000</v>
+        <v>2575034000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.07643512683262771</v>
+        <v>0.07659126001813682</v>
       </c>
       <c r="D429" t="n">
-        <v>198307420551.4183</v>
+        <v>197225098649.5429</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B430" t="n">
-        <v>2575034000000</v>
+        <v>2619202000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.07659126001813682</v>
+        <v>0.07592754993185502</v>
       </c>
       <c r="D430" t="n">
-        <v>197225098649.5429</v>
+        <v>198869590636.6145</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B431" t="n">
-        <v>2619202000000</v>
+        <v>2645827000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.07592754993185502</v>
+        <v>0.07695741176832741</v>
       </c>
       <c r="D431" t="n">
-        <v>198869590636.6145</v>
+        <v>203615997906.7584</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B432" t="n">
-        <v>2645827000000</v>
+        <v>2682778000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.07695741176832741</v>
+        <v>0.07383343177790903</v>
       </c>
       <c r="D432" t="n">
-        <v>203615997906.7584</v>
+        <v>198078706438.2752</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B433" t="n">
-        <v>2682778000000</v>
+        <v>2714733000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.07383343177790903</v>
+        <v>0.07084059449426899</v>
       </c>
       <c r="D433" t="n">
-        <v>198078706438.2752</v>
+        <v>192313299613.2104</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B434" t="n">
-        <v>2714733000000</v>
+        <v>2783914000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.07084059449426899</v>
+        <v>0.07325738983920003</v>
       </c>
       <c r="D434" t="n">
-        <v>192313299613.2104</v>
+        <v>203942273176.8067</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B435" t="n">
-        <v>2783914000000</v>
+        <v>2806033000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.07325738983920003</v>
+        <v>0.08100721126194653</v>
       </c>
       <c r="D435" t="n">
-        <v>203942273176.8067</v>
+        <v>227308908038.9936</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B436" t="n">
-        <v>2806033000000</v>
+        <v>2770230000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.08100721126194653</v>
+        <v>0.08452921033656996</v>
       </c>
       <c r="D436" t="n">
-        <v>227308908038.9936</v>
+        <v>234165354350.6762</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B437" t="n">
-        <v>2770230000000</v>
+        <v>2752658000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.08452921033656996</v>
+        <v>0.08483922965979468</v>
       </c>
       <c r="D437" t="n">
-        <v>234165354350.6762</v>
+        <v>233533384236.8711</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B438" t="n">
-        <v>2752658000000</v>
+        <v>2788976000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.08483922965979468</v>
+        <v>0.08457732481921597</v>
       </c>
       <c r="D438" t="n">
-        <v>233533384236.8711</v>
+        <v>235884129064.9977</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B439" t="n">
-        <v>2788976000000</v>
+        <v>2752713000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.08457732481921597</v>
+        <v>0.08033741715203856</v>
       </c>
       <c r="D439" t="n">
-        <v>235884129064.9977</v>
+        <v>221145852580.8395</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B440" t="n">
-        <v>2752713000000</v>
+        <v>2737382000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.08033741715203856</v>
+        <v>0.07878171948980958</v>
       </c>
       <c r="D440" t="n">
-        <v>221145852580.8395</v>
+        <v>215655660860.4539</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B441" t="n">
-        <v>2737382000000</v>
+        <v>2703936000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.07878171948980958</v>
+        <v>0.07287142565657155</v>
       </c>
       <c r="D441" t="n">
-        <v>215655660860.4539</v>
+        <v>197039671204.1274</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B442" t="n">
-        <v>2703936000000</v>
+        <v>2791325000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.07287142565657155</v>
+        <v>0.07536476546484987</v>
       </c>
       <c r="D442" t="n">
-        <v>197039671204.1274</v>
+        <v>210367553961.1721</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B443" t="n">
-        <v>2791325000000</v>
+        <v>2834147000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.07536476546484987</v>
+        <v>0.06814983422552824</v>
       </c>
       <c r="D443" t="n">
-        <v>210367553961.1721</v>
+        <v>193146648220.7782</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B444" t="n">
-        <v>2834147000000</v>
+        <v>2864233000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.06814983422552824</v>
+        <v>0.07075573492920535</v>
       </c>
       <c r="D444" t="n">
-        <v>193146648220.7782</v>
+        <v>202660910923.4826</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B445" t="n">
-        <v>2864233000000</v>
+        <v>2844764000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.07075573492920535</v>
+        <v>0.06765854087590747</v>
       </c>
       <c r="D445" t="n">
-        <v>202660910923.4826</v>
+        <v>192472581376.3101</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B446" t="n">
-        <v>2844764000000</v>
+        <v>2891387000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.06765854087590747</v>
+        <v>0.07216985898009555</v>
       </c>
       <c r="D446" t="n">
-        <v>192472581376.3101</v>
+        <v>208670992046.8815</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B447" t="n">
-        <v>2891387000000</v>
+        <v>2895085000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.07216985898009555</v>
+        <v>0.06964341180288686</v>
       </c>
       <c r="D447" t="n">
-        <v>208670992046.8815</v>
+        <v>201623596859.3607</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B448" t="n">
-        <v>2895085000000</v>
+        <v>2848485000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.06964341180288686</v>
+        <v>0.07549277911567759</v>
       </c>
       <c r="D448" t="n">
-        <v>201623596859.3607</v>
+        <v>215040048919.3209</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B449" t="n">
-        <v>2849113000000</v>
+        <v>2837818000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.07549277911567759</v>
+        <v>0.07097786200484069</v>
       </c>
       <c r="D449" t="n">
-        <v>215087458384.6055</v>
+        <v>201422254398.853</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B450" t="n">
-        <v>2838339000000</v>
+        <v>2916460000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.07097786200484069</v>
+        <v>0.06909417536101706</v>
       </c>
       <c r="D450" t="n">
-        <v>201459233864.9575</v>
+        <v>201510398673.3918</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B451" t="n">
-        <v>2916916000000</v>
+        <v>2946560000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.06909417536101706</v>
+        <v>0.06995257215607817</v>
       </c>
       <c r="D451" t="n">
-        <v>201541905617.3564</v>
+        <v>206119451012.2137</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B452" t="n">
-        <v>2947020000000</v>
+        <v>2931927000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.06995257215607817</v>
+        <v>0.06866622720281257</v>
       </c>
       <c r="D452" t="n">
-        <v>206151629195.4055</v>
+        <v>201324365524.0606</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B453" t="n">
-        <v>2932463000000</v>
+        <v>2904525000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.06866622720281257</v>
+        <v>0.07110226282951455</v>
       </c>
       <c r="D453" t="n">
-        <v>201361170621.8413</v>
+        <v>206518299944.8958</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B454" t="n">
-        <v>2905091000000</v>
+        <v>2965149000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.07110226282951455</v>
+        <v>0.0697150744905571</v>
       </c>
       <c r="D454" t="n">
-        <v>206558543825.6573</v>
+        <v>206715583410.6009</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B455" t="n">
-        <v>2965855000000</v>
+        <v>2982248000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.0697150744905571</v>
+        <v>0.06596619364508076</v>
       </c>
       <c r="D455" t="n">
-        <v>206764802253.1912</v>
+        <v>196727549065.6548</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B456" t="n">
-        <v>2977362000000</v>
+        <v>2992942000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.06596619364508076</v>
+        <v>0.06616749905380476</v>
       </c>
       <c r="D456" t="n">
-        <v>196405238243.5049</v>
+        <v>198035486953.0925</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B457" t="n">
-        <v>2986861000000</v>
+        <v>2997459000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.06616749905380476</v>
+        <v>0.06623349957941728</v>
       </c>
       <c r="D457" t="n">
-        <v>197633122391.3463</v>
+        <v>198532199415.8205</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B458" t="n">
-        <v>2992285000000</v>
+        <v>3032900000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.06623349957941728</v>
+        <v>0.06829808014096724</v>
       </c>
       <c r="D458" t="n">
-        <v>198189507288.9966</v>
+        <v>207141247259.5395</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B459" t="n">
-        <v>3026017000000</v>
+        <v>3034447000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.06829808014096724</v>
+        <v>0.0713718308230671</v>
       </c>
       <c r="D459" t="n">
-        <v>206671151573.9293</v>
+        <v>216574037925.5635</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B460" t="n">
-        <v>3030992000000</v>
+        <v>3034991000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.0713718308230671</v>
+        <v>0.06666880006826885</v>
       </c>
       <c r="D460" t="n">
-        <v>216327448250.0698</v>
+        <v>202339208187.9953</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B461" t="n">
-        <v>3028250000000</v>
+        <v>3046597000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.06666880006826885</v>
+        <v>0.06407258142023284</v>
       </c>
       <c r="D461" t="n">
-        <v>201889793806.7351</v>
+        <v>195203334337.1371</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B462" t="n">
-        <v>3039985000000</v>
+        <v>3236386000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.06407258142023284</v>
+        <v>0.05608524957936063</v>
       </c>
       <c r="D462" t="n">
-        <v>194779686428.7865</v>
+        <v>181513516545.1487</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B463" t="n">
-        <v>3233262000000</v>
+        <v>3318827000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.05608524957936063</v>
+        <v>0.05397761008733577</v>
       </c>
       <c r="D463" t="n">
-        <v>181338306225.4627</v>
+        <v>179142349753.3223</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B464" t="n">
-        <v>3317977000000</v>
+        <v>3324556000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.05397761008733577</v>
+        <v>0.05705906183490531</v>
       </c>
       <c r="D464" t="n">
-        <v>179096468784.7481</v>
+        <v>189696046377.6054</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B465" t="n">
-        <v>3325003000000</v>
+        <v>3315625000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.05705906183490531</v>
+        <v>0.05771039768235043</v>
       </c>
       <c r="D465" t="n">
-        <v>189721551778.2456</v>
+        <v>191346037315.5432</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B466" t="n">
-        <v>3314630000000</v>
+        <v>3350272000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.05771039768235043</v>
+        <v>0.05865102639296187</v>
       </c>
       <c r="D466" t="n">
-        <v>191288615469.8492</v>
+        <v>196496891495.6012</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B467" t="n">
-        <v>3344223000000</v>
+        <v>3449687000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.05903571070140328</v>
       </c>
       <c r="D467" t="n">
-        <v>196142111436.9501</v>
+        <v>203654723742.3918</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B468" t="n">
-        <v>3446316000000</v>
+        <v>3398176000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.05903571070140328</v>
+        <v>0.05977929484343802</v>
       </c>
       <c r="D468" t="n">
-        <v>203455714361.6173</v>
+        <v>203140565033.8949</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B469" t="n">
-        <v>3399239000000</v>
+        <v>3468293000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.05977929484343802</v>
+        <v>0.06166406649852932</v>
       </c>
       <c r="D469" t="n">
-        <v>203204110424.3134</v>
+        <v>213869050188.3838</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B470" t="n">
-        <v>3469361000000</v>
+        <v>3481094000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.06166406649852932</v>
+        <v>0.06473170649608567</v>
       </c>
       <c r="D470" t="n">
-        <v>213934907411.4042</v>
+        <v>225337155093.2849</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B471" t="n">
-        <v>3482409000000</v>
+        <v>3489713000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.06473170649608567</v>
+        <v>0.06808728517610436</v>
       </c>
       <c r="D471" t="n">
-        <v>225422277287.3272</v>
+        <v>237605084213.7587</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B472" t="n">
-        <v>3491791000000</v>
+        <v>3477595000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.06808728517610436</v>
+        <v>0.06610958324518722</v>
       </c>
       <c r="D472" t="n">
-        <v>237746569592.3546</v>
+        <v>229902356145.5468</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B473" t="n">
-        <v>3477653000000</v>
+        <v>3445432000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.06610958324518722</v>
+        <v>0.06621990305406193</v>
       </c>
       <c r="D473" t="n">
-        <v>229906190501.3751</v>
+        <v>228156173019.3627</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B474" t="n">
-        <v>3445466000000</v>
+        <v>3468690000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.06621990305406193</v>
+        <v>0.06774379297496867</v>
       </c>
       <c r="D474" t="n">
-        <v>228158424496.0666</v>
+        <v>234982217254.3441</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B475" t="n">
-        <v>3468716000000</v>
+        <v>3465042000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.06774379297496867</v>
+        <v>0.06910754516178076</v>
       </c>
       <c r="D475" t="n">
-        <v>234983978592.9614</v>
+        <v>239460546502.4671</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B476" t="n">
-        <v>3465045000000</v>
+        <v>3447483000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.06910754516178076</v>
+        <v>0.0728093487203757</v>
       </c>
       <c r="D476" t="n">
-        <v>239460753825.1026</v>
+        <v>251008991954.567</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B477" t="n">
-        <v>3447483000000</v>
+        <v>3376660000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.0728093487203757</v>
+        <v>0.07010557900197698</v>
       </c>
       <c r="D477" t="n">
-        <v>251008991954.567</v>
+        <v>236722704392.8156</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B478" t="n">
-        <v>3376662000000</v>
+        <v>3490057000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.07010557900197698</v>
+        <v>0.06856782386297407</v>
       </c>
       <c r="D478" t="n">
-        <v>236722844603.9736</v>
+        <v>239305613647.7397</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B479" t="n">
-        <v>3490057000000</v>
+        <v>3540188000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.06856782386297407</v>
+        <v>0.06891466297284073</v>
       </c>
       <c r="D479" t="n">
-        <v>239305613647.7397</v>
+        <v>243970862880.4951</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B480" t="n">
-        <v>3540188000000</v>
+        <v>3560444000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.06891466297284073</v>
+        <v>0.06644915642795915</v>
       </c>
       <c r="D480" t="n">
-        <v>243970862880.4951</v>
+        <v>236588500308.9886</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B481" t="n">
-        <v>3560444000000</v>
+        <v>3550623000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.06644915642795915</v>
+        <v>0.06572850185025733</v>
       </c>
       <c r="D481" t="n">
-        <v>236588500308.9886</v>
+        <v>233377130425.0662</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B482" t="n">
-        <v>3550623000000</v>
+        <v>3659236000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.06572850185025733</v>
+        <v>0.06299887232018547</v>
       </c>
       <c r="D482" t="n">
-        <v>233377130425.0662</v>
+        <v>230527741553.4262</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B483" t="n">
-        <v>3659236000000</v>
+        <v>3668057000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.06299887232018547</v>
+        <v>0.06276959541229582</v>
       </c>
       <c r="D483" t="n">
-        <v>230527741553.4262</v>
+        <v>230242453839.2396</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B484" t="n">
-        <v>3668876000000</v>
+        <v>3658001000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.06276959541229582</v>
+        <v>0.06509145349215648</v>
       </c>
       <c r="D484" t="n">
-        <v>230293862137.8822</v>
+        <v>238104601965.7619</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B485" t="n">
-        <v>3658166000000</v>
+        <v>3618983000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.06509145349215648</v>
+        <v>0.06510543825725763</v>
       </c>
       <c r="D485" t="n">
-        <v>238115342055.5881</v>
+        <v>235615474260.565</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B486" t="n">
-        <v>3619200000000</v>
+        <v>3708143000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.06510543825725763</v>
+        <v>0.06846454563504289</v>
       </c>
       <c r="D486" t="n">
-        <v>235629602140.6668</v>
+        <v>253876325644.7649</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B487" t="n">
-        <v>3708416000000</v>
+        <v>3679157000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.06846454563504289</v>
+        <v>0.06326151043182307</v>
       </c>
       <c r="D487" t="n">
-        <v>253895016465.7232</v>
+        <v>232749028935.8149</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B488" t="n">
-        <v>3679429000000</v>
+        <v>3680984000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.06326151043182307</v>
+        <v>0.06408654246694737</v>
       </c>
       <c r="D488" t="n">
-        <v>232766236066.6523</v>
+        <v>235901537436.1538</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B489" t="n">
-        <v>3681214000000</v>
+        <v>3621974000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.06408654246694737</v>
+        <v>0.06149116064565719</v>
       </c>
       <c r="D489" t="n">
-        <v>235916277340.9212</v>
+        <v>222719385088.3936</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B490" t="n">
-        <v>3622203000000</v>
+        <v>3726372000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.06149116064565719</v>
+        <v>0.06031872413834702</v>
       </c>
       <c r="D490" t="n">
-        <v>222733466564.1814</v>
+        <v>224770004704.8604</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B491" t="n">
-        <v>3726652000000</v>
+        <v>3789445000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.06031872413834702</v>
+        <v>0.05844227948266894</v>
       </c>
       <c r="D491" t="n">
-        <v>224786893947.6192</v>
+        <v>221463803774.2024</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B492" t="n">
-        <v>3789615000000</v>
+        <v>3829270000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.05844227948266894</v>
+        <v>0.0553345248701022</v>
       </c>
       <c r="D492" t="n">
-        <v>221473738961.7144</v>
+        <v>211890836049.3362</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B493" t="n">
-        <v>3829438000000</v>
+        <v>3858434000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.0553345248701022</v>
+        <v>0.05453127641358701</v>
       </c>
       <c r="D493" t="n">
-        <v>211900132249.5144</v>
+        <v>210405330977.5822</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B494" t="n">
-        <v>3858603000000</v>
+        <v>3909531000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.05453127641358701</v>
+        <v>0.05806829993438282</v>
       </c>
       <c r="D494" t="n">
-        <v>210414546763.2961</v>
+        <v>227019818710.7676</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B495" t="n">
-        <v>3909699000000</v>
+        <v>3905132000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.05806829993438282</v>
+        <v>0.05892092223027474</v>
       </c>
       <c r="D495" t="n">
-        <v>227029574185.1566</v>
+        <v>230093978870.9573</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B496" t="n">
-        <v>3908523000000</v>
+        <v>3936219000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.05892092223027474</v>
+        <v>0.05747952291995976</v>
       </c>
       <c r="D496" t="n">
-        <v>230293779718.2401</v>
+        <v>226251990228.4811</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B497" t="n">
-        <v>3936182000000</v>
+        <v>3977391000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.05747952291995976</v>
+        <v>0.05448433303003721</v>
       </c>
       <c r="D497" t="n">
-        <v>226249863486.1331</v>
+        <v>216705495834.6727</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B498" t="n">
-        <v>3978818000000</v>
+        <v>3995219000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.05448433303003721</v>
+        <v>0.05628032102295111</v>
       </c>
       <c r="D498" t="n">
-        <v>216783244977.9066</v>
+        <v>224852207876.9937</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B499" t="n">
-        <v>3995219000000</v>
+        <v>4008914000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.05628032102295111</v>
+        <v>0.05474292721380398</v>
       </c>
       <c r="D499" t="n">
-        <v>224852207876.9937</v>
+        <v>219459687308.3997</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B500" t="n">
-        <v>4008914000000</v>
+        <v>4007716000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.05474292721380398</v>
+        <v>0.05070531087426097</v>
       </c>
       <c r="D500" t="n">
-        <v>219459687308.3997</v>
+        <v>203212485675.7497</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B501" t="n">
-        <v>4007742000000</v>
+        <v>4005043000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.05070531087426097</v>
+        <v>0.0531697124050256</v>
       </c>
       <c r="D501" t="n">
-        <v>203213804013.8324</v>
+        <v>212946984479.7609</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -458,6994 +458,6994 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B2" t="n">
-        <v>26580000000</v>
+        <v>26602000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B3" t="n">
-        <v>26889000000</v>
+        <v>27738000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B4" t="n">
-        <v>26418000000</v>
+        <v>27384000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.028489149439473</v>
+        <v>0.9560229445506692</v>
       </c>
       <c r="D4" t="n">
-        <v>27170626349.89201</v>
+        <v>26179732313.57552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B5" t="n">
-        <v>26602000000</v>
+        <v>27294000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.019991840065279</v>
+        <v>0.9251549634563789</v>
       </c>
       <c r="D5" t="n">
-        <v>27133822929.41656</v>
+        <v>25251179572.57841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B6" t="n">
-        <v>27738000000</v>
+        <v>27709000000</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9540164090822362</v>
+        <v>0.8764241893076249</v>
       </c>
       <c r="D6" t="n">
-        <v>26462507155.12307</v>
+        <v>24284837861.52498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B7" t="n">
-        <v>27384000000</v>
+        <v>28216000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9560229445506692</v>
+        <v>0.8714596949891068</v>
       </c>
       <c r="D7" t="n">
-        <v>26179732313.57552</v>
+        <v>24589106753.81264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B8" t="n">
-        <v>27294000000</v>
+        <v>28384000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9251549634563789</v>
+        <v>0.8688852202624033</v>
       </c>
       <c r="D8" t="n">
-        <v>25251179572.57841</v>
+        <v>24662438091.92805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B9" t="n">
-        <v>27709000000</v>
+        <v>29265000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8764241893076249</v>
+        <v>0.8649770781074302</v>
       </c>
       <c r="D9" t="n">
-        <v>24284837861.52498</v>
+        <v>25313554190.81395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B10" t="n">
-        <v>28216000000</v>
+        <v>30119000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8714596949891068</v>
+        <v>0.8530239699735563</v>
       </c>
       <c r="D10" t="n">
-        <v>24589106753.81264</v>
+        <v>25692228951.63354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B11" t="n">
-        <v>28384000000</v>
+        <v>30601000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8688852202624033</v>
+        <v>0.9014693951140359</v>
       </c>
       <c r="D11" t="n">
-        <v>24662438091.92805</v>
+        <v>27585864959.88461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B12" t="n">
-        <v>29265000000</v>
+        <v>31356000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8649770781074302</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D12" t="n">
-        <v>25313554190.81395</v>
+        <v>29192812587.28237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B13" t="n">
-        <v>30119000000</v>
+        <v>31464000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8530239699735563</v>
+        <v>0.9365049634763064</v>
       </c>
       <c r="D13" t="n">
-        <v>25692228951.63354</v>
+        <v>29466192170.8185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B14" t="n">
-        <v>30601000000</v>
+        <v>31645000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9014693951140359</v>
+        <v>0.9170105456212746</v>
       </c>
       <c r="D14" t="n">
-        <v>27585864959.88461</v>
+        <v>29018798716.18523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B15" t="n">
-        <v>31356000000</v>
+        <v>33018000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.9123255177447313</v>
       </c>
       <c r="D15" t="n">
-        <v>29192812587.28237</v>
+        <v>30123163944.89554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B16" t="n">
-        <v>31464000000</v>
+        <v>32272000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9365049634763064</v>
+        <v>0.9166743056192135</v>
       </c>
       <c r="D16" t="n">
-        <v>29466192170.8185</v>
+        <v>29582913190.94326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B17" t="n">
-        <v>31645000000</v>
+        <v>34418000000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9170105456212746</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D17" t="n">
-        <v>29018798716.18523</v>
+        <v>32043571362.07057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B18" t="n">
-        <v>33018000000</v>
+        <v>34672000000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9123255177447313</v>
+        <v>0.9139932364500503</v>
       </c>
       <c r="D18" t="n">
-        <v>30123163944.89554</v>
+        <v>31689973494.19614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B19" t="n">
-        <v>32272000000</v>
+        <v>34907000000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9166743056192135</v>
+        <v>0.91000091000091</v>
       </c>
       <c r="D19" t="n">
-        <v>29582913190.94326</v>
+        <v>31765401765.40176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B20" t="n">
-        <v>34418000000</v>
+        <v>35060000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9310120100549296</v>
+        <v>0.8880206020779682</v>
       </c>
       <c r="D20" t="n">
-        <v>32043571362.07057</v>
+        <v>31134002308.85357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B21" t="n">
-        <v>34672000000</v>
+        <v>37047000000</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9139932364500503</v>
+        <v>0.9059612248595761</v>
       </c>
       <c r="D21" t="n">
-        <v>31689973494.19614</v>
+        <v>33563145497.37271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B22" t="n">
-        <v>34907000000</v>
+        <v>36682000000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.91000091000091</v>
+        <v>0.8514986376021798</v>
       </c>
       <c r="D22" t="n">
-        <v>31765401765.40176</v>
+        <v>31234673024.52316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B23" t="n">
-        <v>35060000000</v>
+        <v>37366000000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8880206020779682</v>
+        <v>0.8389965601141035</v>
       </c>
       <c r="D23" t="n">
-        <v>31134002308.85357</v>
+        <v>31349945465.22359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B24" t="n">
-        <v>37047000000</v>
+        <v>38465000000</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9059612248595761</v>
+        <v>0.8179959100204499</v>
       </c>
       <c r="D24" t="n">
-        <v>33563145497.37271</v>
+        <v>31464212678.93661</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B25" t="n">
-        <v>36682000000</v>
+        <v>38905000000</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8514986376021798</v>
+        <v>0.7864726700747149</v>
       </c>
       <c r="D25" t="n">
-        <v>31234673024.52316</v>
+        <v>30597719229.25678</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B26" t="n">
-        <v>37366000000</v>
+        <v>39321000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8389965601141035</v>
+        <v>0.8350033400133601</v>
       </c>
       <c r="D26" t="n">
-        <v>31349945465.22359</v>
+        <v>32833166332.66533</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B27" t="n">
-        <v>38465000000</v>
+        <v>39614000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8179959100204499</v>
+        <v>0.8080155138978669</v>
       </c>
       <c r="D27" t="n">
-        <v>31464212678.93661</v>
+        <v>32008726567.5501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B28" t="n">
-        <v>38905000000</v>
+        <v>40633000000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7864726700747149</v>
+        <v>0.7961783439490446</v>
       </c>
       <c r="D28" t="n">
-        <v>30597719229.25678</v>
+        <v>32351114649.68153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B29" t="n">
-        <v>39321000000</v>
+        <v>41110000000</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8350033400133601</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D29" t="n">
-        <v>32833166332.66533</v>
+        <v>32064581545.90125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B30" t="n">
-        <v>39614000000</v>
+        <v>41484000000</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8080155138978669</v>
+        <v>0.7359976448075366</v>
       </c>
       <c r="D30" t="n">
-        <v>32008726567.5501</v>
+        <v>30532126297.19585</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B31" t="n">
-        <v>40633000000</v>
+        <v>42605000000</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7961783439490446</v>
+        <v>0.6080136195050769</v>
       </c>
       <c r="D31" t="n">
-        <v>32351114649.68153</v>
+        <v>25904420259.0138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B32" t="n">
-        <v>41110000000</v>
+        <v>43199000000</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7799703611262772</v>
+        <v>0.6360109393881574</v>
       </c>
       <c r="D32" t="n">
-        <v>32064581545.90125</v>
+        <v>27475036570.62901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B33" t="n">
-        <v>41484000000</v>
+        <v>45287000000</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7359976448075366</v>
+        <v>0.5985156811108451</v>
       </c>
       <c r="D33" t="n">
-        <v>30532126297.19585</v>
+        <v>27104979650.46684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B34" t="n">
-        <v>42605000000</v>
+        <v>46311000000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6080136195050769</v>
+        <v>0.5249895002099958</v>
       </c>
       <c r="D34" t="n">
-        <v>25904420259.0138</v>
+        <v>24312788744.22512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B35" t="n">
-        <v>43199000000</v>
+        <v>47671000000</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6360109393881574</v>
+        <v>0.5380104374024856</v>
       </c>
       <c r="D35" t="n">
-        <v>27475036570.62901</v>
+        <v>25647495561.41389</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B36" t="n">
-        <v>45287000000</v>
+        <v>47825000000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5985156811108451</v>
+        <v>0.502487312195367</v>
       </c>
       <c r="D36" t="n">
-        <v>27104979650.46684</v>
+        <v>24031455705.74343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B37" t="n">
-        <v>46311000000</v>
+        <v>48078000000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5249895002099958</v>
+        <v>0.504999495000505</v>
       </c>
       <c r="D37" t="n">
-        <v>24312788744.22512</v>
+        <v>24279365720.63428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B38" t="n">
-        <v>47671000000</v>
+        <v>48526000000</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5380104374024856</v>
+        <v>0.488997555012225</v>
       </c>
       <c r="D38" t="n">
-        <v>25647495561.41389</v>
+        <v>23729095354.52323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B39" t="n">
-        <v>47825000000</v>
+        <v>49123000000</v>
       </c>
       <c r="C39" t="n">
-        <v>0.502487312195367</v>
+        <v>0.5289885738468049</v>
       </c>
       <c r="D39" t="n">
-        <v>24031455705.74343</v>
+        <v>25985505713.0766</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B40" t="n">
-        <v>48078000000</v>
+        <v>49187000000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.504999495000505</v>
+        <v>0.5140066820868672</v>
       </c>
       <c r="D40" t="n">
-        <v>24279365720.63428</v>
+        <v>25282446671.80674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B41" t="n">
-        <v>48526000000</v>
+        <v>50021000000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.488997555012225</v>
+        <v>0.502992807202857</v>
       </c>
       <c r="D41" t="n">
-        <v>23729095354.52323</v>
+        <v>25160203209.09411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B42" t="n">
-        <v>49123000000</v>
+        <v>50480000000</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5289885738468049</v>
+        <v>0.5103082261686058</v>
       </c>
       <c r="D42" t="n">
-        <v>25985505713.0766</v>
+        <v>25760359256.99122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B43" t="n">
-        <v>49187000000</v>
+        <v>50961000000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5140066820868672</v>
+        <v>0.455000455000455</v>
       </c>
       <c r="D43" t="n">
-        <v>25282446671.80674</v>
+        <v>23187278187.27819</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B44" t="n">
-        <v>50021000000</v>
+        <v>51681000000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.502992807202857</v>
+        <v>0.3550001775000888</v>
       </c>
       <c r="D44" t="n">
-        <v>25160203209.09411</v>
+        <v>18346764173.38209</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B45" t="n">
-        <v>50480000000</v>
+        <v>51937000000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5103082261686058</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D45" t="n">
-        <v>25760359256.99122</v>
+        <v>20281552639.80006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B46" t="n">
-        <v>50961000000</v>
+        <v>52956000000</v>
       </c>
       <c r="C46" t="n">
-        <v>0.455000455000455</v>
+        <v>0.3869969040247678</v>
       </c>
       <c r="D46" t="n">
-        <v>23187278187.27819</v>
+        <v>20493808049.5356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B47" t="n">
-        <v>51681000000</v>
+        <v>52822000000</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3550001775000888</v>
+        <v>0.37000037000037</v>
       </c>
       <c r="D47" t="n">
-        <v>18346764173.38209</v>
+        <v>19544159544.15955</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B48" t="n">
-        <v>51937000000</v>
+        <v>54577000000</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.3889991053020578</v>
       </c>
       <c r="D48" t="n">
-        <v>20281552639.80006</v>
+        <v>21230404170.07041</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B49" t="n">
-        <v>52956000000</v>
+        <v>52982000000</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3869969040247678</v>
+        <v>0.43750273439209</v>
       </c>
       <c r="D49" t="n">
-        <v>20493808049.5356</v>
+        <v>23179769873.56171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B50" t="n">
-        <v>52822000000</v>
+        <v>54711000000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.37000037000037</v>
+        <v>0.5034993202759176</v>
       </c>
       <c r="D50" t="n">
-        <v>19544159544.15955</v>
+        <v>27546951311.61573</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B51" t="n">
-        <v>54577000000</v>
+        <v>54024000000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3889991053020578</v>
+        <v>0.4650081376424087</v>
       </c>
       <c r="D51" t="n">
-        <v>21230404170.07041</v>
+        <v>25121599627.99349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B52" t="n">
-        <v>52982000000</v>
+        <v>54226000000</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43750273439209</v>
+        <v>0.4860031104199067</v>
       </c>
       <c r="D52" t="n">
-        <v>23179769873.56171</v>
+        <v>26354004665.62986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B53" t="n">
-        <v>54711000000</v>
+        <v>54464000000</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5034993202759176</v>
+        <v>0.4234955321221361</v>
       </c>
       <c r="D53" t="n">
-        <v>27546951311.61573</v>
+        <v>23065260661.50002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B54" t="n">
-        <v>54024000000</v>
+        <v>54673000000</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4650081376424087</v>
+        <v>0.40399143538157</v>
       </c>
       <c r="D54" t="n">
-        <v>25121599627.99349</v>
+        <v>22087423746.61657</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B55" t="n">
-        <v>54226000000</v>
+        <v>54551000000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4860031104199067</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D55" t="n">
-        <v>26354004665.62986</v>
+        <v>21302327397.68822</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B56" t="n">
-        <v>54464000000</v>
+        <v>54737000000</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4234955321221361</v>
+        <v>0.3920031360250882</v>
       </c>
       <c r="D56" t="n">
-        <v>23065260661.50002</v>
+        <v>21457075656.60525</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B57" t="n">
-        <v>54673000000</v>
+        <v>55248000000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.40399143538157</v>
+        <v>0.44849082836256</v>
       </c>
       <c r="D57" t="n">
-        <v>22087423746.61657</v>
+        <v>24778221285.37472</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B58" t="n">
-        <v>54551000000</v>
+        <v>56003000000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3905029678225554</v>
+        <v>0.4359958144401814</v>
       </c>
       <c r="D58" t="n">
-        <v>21302327397.68822</v>
+        <v>24417073596.09348</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B59" t="n">
-        <v>54737000000</v>
+        <v>56188000000</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3920031360250882</v>
+        <v>0.4504910352283989</v>
       </c>
       <c r="D59" t="n">
-        <v>21457075656.60525</v>
+        <v>25312190287.41328</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B60" t="n">
-        <v>55248000000</v>
+        <v>56921000000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.44849082836256</v>
+        <v>0.457205559619605</v>
       </c>
       <c r="D60" t="n">
-        <v>24778221285.37472</v>
+        <v>26024597659.10754</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B61" t="n">
-        <v>56003000000</v>
+        <v>55313000000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4359958144401814</v>
+        <v>0.4775093114315729</v>
       </c>
       <c r="D61" t="n">
-        <v>24417073596.09348</v>
+        <v>26412472543.21459</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B62" t="n">
-        <v>56188000000</v>
+        <v>56599000000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4504910352283989</v>
+        <v>0.481000481000481</v>
       </c>
       <c r="D62" t="n">
-        <v>25312190287.41328</v>
+        <v>27224146224.14622</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B63" t="n">
-        <v>56921000000</v>
+        <v>57129000000</v>
       </c>
       <c r="C63" t="n">
-        <v>0.457205559619605</v>
+        <v>0.495000495000495</v>
       </c>
       <c r="D63" t="n">
-        <v>26024597659.10754</v>
+        <v>28278883278.88328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B64" t="n">
-        <v>55313000000</v>
+        <v>58397000000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4775093114315729</v>
+        <v>0.499001996007984</v>
       </c>
       <c r="D64" t="n">
-        <v>26412472543.21459</v>
+        <v>29140219560.87824</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B65" t="n">
-        <v>56599000000</v>
+        <v>58843000000</v>
       </c>
       <c r="C65" t="n">
-        <v>0.481000481000481</v>
+        <v>0.494486475794887</v>
       </c>
       <c r="D65" t="n">
-        <v>27224146224.14622</v>
+        <v>29097067695.19854</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B66" t="n">
-        <v>57129000000</v>
+        <v>59131000000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.495000495000495</v>
+        <v>0.4884959210590592</v>
       </c>
       <c r="D66" t="n">
-        <v>28278883278.88328</v>
+        <v>28885252308.14323</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B67" t="n">
-        <v>58397000000</v>
+        <v>59587000000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.499001996007984</v>
+        <v>0.4825090470446322</v>
       </c>
       <c r="D67" t="n">
-        <v>29140219560.87824</v>
+        <v>28751266586.2485</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B68" t="n">
-        <v>58843000000</v>
+        <v>60093000000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.494486475794887</v>
+        <v>0.4900039200313603</v>
       </c>
       <c r="D68" t="n">
-        <v>29097067695.19854</v>
+        <v>29445805566.44453</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B69" t="n">
-        <v>59131000000</v>
+        <v>62790000000</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4884959210590592</v>
+        <v>0.4815100154083205</v>
       </c>
       <c r="D69" t="n">
-        <v>28885252308.14323</v>
+        <v>30234013867.48845</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B70" t="n">
-        <v>59587000000</v>
+        <v>64619000000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4825090470446322</v>
+        <v>0.4960071425028521</v>
       </c>
       <c r="D70" t="n">
-        <v>28751266586.2485</v>
+        <v>32051485541.3918</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B71" t="n">
-        <v>60093000000</v>
+        <v>67636000000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4900039200313603</v>
+        <v>0.5135051864023826</v>
       </c>
       <c r="D71" t="n">
-        <v>29445805566.44453</v>
+        <v>34731436787.51155</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B72" t="n">
-        <v>62790000000</v>
+        <v>69464000000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4815100154083205</v>
+        <v>0.5180005180005179</v>
       </c>
       <c r="D72" t="n">
-        <v>30234013867.48845</v>
+        <v>35982387982.38798</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B73" t="n">
-        <v>64619000000</v>
+        <v>69972000000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4960071425028521</v>
+        <v>0.5020080321285141</v>
       </c>
       <c r="D73" t="n">
-        <v>32051485541.3918</v>
+        <v>35126506024.09639</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B74" t="n">
-        <v>67636000000</v>
+        <v>71940000000</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5135051864023826</v>
+        <v>0.478996024332998</v>
       </c>
       <c r="D74" t="n">
-        <v>34731436787.51155</v>
+        <v>34458973990.51588</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B75" t="n">
-        <v>69464000000</v>
+        <v>75614000000</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5180005180005179</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="D75" t="n">
-        <v>35982387982.38798</v>
+        <v>35499530516.43192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B76" t="n">
-        <v>69972000000</v>
+        <v>75376000000</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5020080321285141</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D76" t="n">
-        <v>35126506024.09639</v>
+        <v>35058604651.16279</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B77" t="n">
-        <v>71940000000</v>
+        <v>76968000000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.478996024332998</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="D77" t="n">
-        <v>34458973990.51588</v>
+        <v>34360714285.71429</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B78" t="n">
-        <v>75614000000</v>
+        <v>78923000000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="D78" t="n">
-        <v>35499530516.43192</v>
+        <v>33872532188.8412</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B79" t="n">
-        <v>75376000000</v>
+        <v>78621000000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="D79" t="n">
-        <v>35058604651.16279</v>
+        <v>32221721311.47541</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B80" t="n">
-        <v>76968000000</v>
+        <v>82506000000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="D80" t="n">
-        <v>34360714285.71429</v>
+        <v>33675918367.34694</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B81" t="n">
-        <v>78923000000</v>
+        <v>86326000000</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.4016064257028112</v>
       </c>
       <c r="D81" t="n">
-        <v>33872532188.8412</v>
+        <v>34669076305.22088</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B82" t="n">
-        <v>78621000000</v>
+        <v>87433000000</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3984063745019921</v>
       </c>
       <c r="D82" t="n">
-        <v>32221721311.47541</v>
+        <v>34833864541.83267</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B83" t="n">
-        <v>82506000000</v>
+        <v>89360000000</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4081632653061224</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D83" t="n">
-        <v>33675918367.34694</v>
+        <v>38852173913.04348</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B84" t="n">
-        <v>86326000000</v>
+        <v>93941000000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4016064257028112</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="D84" t="n">
-        <v>34669076305.22088</v>
+        <v>39471008403.36134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B85" t="n">
-        <v>87433000000</v>
+        <v>93139000000</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3984063745019921</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D85" t="n">
-        <v>34833864541.83267</v>
+        <v>38807916666.66667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B86" t="n">
-        <v>89360000000</v>
+        <v>95737000000</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="D86" t="n">
-        <v>38852173913.04348</v>
+        <v>38603629032.25806</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B87" t="n">
-        <v>93941000000</v>
+        <v>100882000000</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4201680672268908</v>
+        <v>0.390625</v>
       </c>
       <c r="D87" t="n">
-        <v>39471008403.36134</v>
+        <v>39407031250</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B88" t="n">
-        <v>93139000000</v>
+        <v>98893000000</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.390625</v>
       </c>
       <c r="D88" t="n">
-        <v>38807916666.66667</v>
+        <v>38630078125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B89" t="n">
-        <v>95737000000</v>
+        <v>99881000000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="D89" t="n">
-        <v>38603629032.25806</v>
+        <v>36452919708.0292</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B90" t="n">
-        <v>100882000000</v>
+        <v>102369000000</v>
       </c>
       <c r="C90" t="n">
-        <v>0.390625</v>
+        <v>0.3597122302158274</v>
       </c>
       <c r="D90" t="n">
-        <v>39407031250</v>
+        <v>36823381294.96404</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B91" t="n">
-        <v>98893000000</v>
+        <v>103301000000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.390625</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="D91" t="n">
-        <v>38630078125</v>
+        <v>38981509433.96227</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B92" t="n">
-        <v>99881000000</v>
+        <v>106860000000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.364963503649635</v>
+        <v>0.3690036900369004</v>
       </c>
       <c r="D92" t="n">
-        <v>36452919708.0292</v>
+        <v>39431734317.34317</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B93" t="n">
-        <v>102369000000</v>
+        <v>109691000000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3597122302158274</v>
+        <v>0.3713330857779428</v>
       </c>
       <c r="D93" t="n">
-        <v>36823381294.96404</v>
+        <v>40731897512.06833</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B94" t="n">
-        <v>103301000000</v>
+        <v>113738000000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.3789314134141721</v>
       </c>
       <c r="D94" t="n">
-        <v>38981509433.96227</v>
+        <v>43098901098.90111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B95" t="n">
-        <v>106860000000</v>
+        <v>115655000000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3690036900369004</v>
+        <v>0.3834355828220859</v>
       </c>
       <c r="D95" t="n">
-        <v>39431734317.34317</v>
+        <v>44346242331.28835</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B96" t="n">
-        <v>109691000000</v>
+        <v>119022000000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3713330857779428</v>
+        <v>0.3947887879984209</v>
       </c>
       <c r="D96" t="n">
-        <v>40731897512.06833</v>
+        <v>46988551125.14805</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B97" t="n">
-        <v>113738000000</v>
+        <v>119454000000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3789314134141721</v>
+        <v>0.3900916715428126</v>
       </c>
       <c r="D97" t="n">
-        <v>43098901098.90111</v>
+        <v>46598010532.47514</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B98" t="n">
-        <v>115655000000</v>
+        <v>121163000000</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3834355828220859</v>
+        <v>0.3910833007430583</v>
       </c>
       <c r="D98" t="n">
-        <v>44346242331.28835</v>
+        <v>47384825967.93118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B99" t="n">
-        <v>119022000000</v>
+        <v>124200000000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3947887879984209</v>
+        <v>0.3784295175023652</v>
       </c>
       <c r="D99" t="n">
-        <v>46988551125.14805</v>
+        <v>47000946073.79375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B100" t="n">
-        <v>119454000000</v>
+        <v>122731000000</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3900916715428126</v>
+        <v>0.3760105282947923</v>
       </c>
       <c r="D100" t="n">
-        <v>46598010532.47514</v>
+        <v>46148148148.14815</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B101" t="n">
-        <v>121163000000</v>
+        <v>123458000000</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3910833007430583</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="D101" t="n">
-        <v>47384825967.93118</v>
+        <v>46152523364.48598</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B102" t="n">
-        <v>124200000000</v>
+        <v>122874000000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3784295175023652</v>
+        <v>0.377643504531722</v>
       </c>
       <c r="D102" t="n">
-        <v>47000946073.79375</v>
+        <v>46402567975.83081</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B103" t="n">
-        <v>122731000000</v>
+        <v>121553000000</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3760105282947923</v>
+        <v>0.3869220352099053</v>
       </c>
       <c r="D103" t="n">
-        <v>46148148148.14815</v>
+        <v>47031534145.86961</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B104" t="n">
-        <v>123458000000</v>
+        <v>124069000000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3738317757009346</v>
+        <v>0.3875368159975198</v>
       </c>
       <c r="D104" t="n">
-        <v>46152523364.48598</v>
+        <v>48081305223.99628</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B105" t="n">
-        <v>122874000000</v>
+        <v>124001000000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.377643504531722</v>
+        <v>0.390015600624025</v>
       </c>
       <c r="D105" t="n">
-        <v>46402567975.83081</v>
+        <v>48362324492.97972</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B106" t="n">
-        <v>121553000000</v>
+        <v>125418000000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3869220352099053</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="D106" t="n">
-        <v>47031534145.86961</v>
+        <v>49425812807.88177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B107" t="n">
-        <v>124069000000</v>
+        <v>130295000000</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3875368159975198</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="D107" t="n">
-        <v>48081305223.99628</v>
+        <v>51601980198.01981</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B108" t="n">
-        <v>124001000000</v>
+        <v>134244000000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.390015600624025</v>
+        <v>0.390625</v>
       </c>
       <c r="D108" t="n">
-        <v>48362324492.97972</v>
+        <v>52439062500</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B109" t="n">
-        <v>125418000000</v>
+        <v>133075000000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3940886699507389</v>
+        <v>0.3943217665615142</v>
       </c>
       <c r="D109" t="n">
-        <v>49425812807.88177</v>
+        <v>52474369085.1735</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B110" t="n">
-        <v>130295000000</v>
+        <v>141904000000</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3960396039603961</v>
+        <v>0.3887269193391643</v>
       </c>
       <c r="D110" t="n">
-        <v>51601980198.01981</v>
+        <v>55161904761.90476</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B111" t="n">
-        <v>134244000000</v>
+        <v>144489000000</v>
       </c>
       <c r="C111" t="n">
-        <v>0.390625</v>
+        <v>0.3696857670979667</v>
       </c>
       <c r="D111" t="n">
-        <v>52439062500</v>
+        <v>53415526802.21812</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B112" t="n">
-        <v>133075000000</v>
+        <v>143243000000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3943217665615142</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="D112" t="n">
-        <v>52474369085.1735</v>
+        <v>51758988256.54923</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B113" t="n">
-        <v>141904000000</v>
+        <v>147025000000</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3887269193391643</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="D113" t="n">
-        <v>55161904761.90476</v>
+        <v>51633011413.52063</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B114" t="n">
-        <v>144489000000</v>
+        <v>147706000000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3696857670979667</v>
+        <v>0.3457216940363008</v>
       </c>
       <c r="D114" t="n">
-        <v>53415526802.21812</v>
+        <v>51065168539.32584</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B115" t="n">
-        <v>143243000000</v>
+        <v>147683000000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3613369467028004</v>
+        <v>0.3484320557491289</v>
       </c>
       <c r="D115" t="n">
-        <v>51758988256.54923</v>
+        <v>51457491289.1986</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B116" t="n">
-        <v>147025000000</v>
+        <v>150139000000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3511852502194908</v>
+        <v>0.3466805338880222</v>
       </c>
       <c r="D116" t="n">
-        <v>51633011413.52063</v>
+        <v>52050268677.41376</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B117" t="n">
-        <v>147706000000</v>
+        <v>151994000000</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3457216940363008</v>
+        <v>0.3566333808844508</v>
       </c>
       <c r="D117" t="n">
-        <v>51065168539.32584</v>
+        <v>54206134094.15121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B118" t="n">
-        <v>147683000000</v>
+        <v>152178000000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3484320557491289</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="D118" t="n">
-        <v>51457491289.1986</v>
+        <v>53868318584.07079</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B119" t="n">
-        <v>150139000000</v>
+        <v>157379000000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3466805338880222</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D119" t="n">
-        <v>52050268677.41376</v>
+        <v>56206785714.28571</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B120" t="n">
-        <v>151994000000</v>
+        <v>155363000000</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3566333808844508</v>
+        <v>0.3629764065335753</v>
       </c>
       <c r="D120" t="n">
-        <v>54206134094.15121</v>
+        <v>56393103448.27586</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B121" t="n">
-        <v>152178000000</v>
+        <v>154965000000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.357653791130186</v>
       </c>
       <c r="D121" t="n">
-        <v>53868318584.07079</v>
+        <v>55423819742.48928</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B122" t="n">
-        <v>157379000000</v>
+        <v>157762000000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3516174402250352</v>
       </c>
       <c r="D122" t="n">
-        <v>56206785714.28571</v>
+        <v>55471870604.782</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B123" t="n">
-        <v>155363000000</v>
+        <v>161099000000</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3629764065335753</v>
+        <v>0.3474635163307853</v>
       </c>
       <c r="D123" t="n">
-        <v>56393103448.27586</v>
+        <v>55976025017.37318</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B124" t="n">
-        <v>154965000000</v>
+        <v>164970000000</v>
       </c>
       <c r="C124" t="n">
-        <v>0.357653791130186</v>
+        <v>0.3487966515521451</v>
       </c>
       <c r="D124" t="n">
-        <v>55423819742.48928</v>
+        <v>57540983606.55738</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B125" t="n">
-        <v>157762000000</v>
+        <v>163246000000</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3516174402250352</v>
+        <v>0.3527336860670194</v>
       </c>
       <c r="D125" t="n">
-        <v>55471870604.782</v>
+        <v>57582363315.69665</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B126" t="n">
-        <v>161099000000</v>
+        <v>164787000000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3474635163307853</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="D126" t="n">
-        <v>55976025017.37318</v>
+        <v>59446969696.9697</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B127" t="n">
-        <v>164970000000</v>
+        <v>167064000000</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3487966515521451</v>
+        <v>0.3614022406938923</v>
       </c>
       <c r="D127" t="n">
-        <v>57540983606.55738</v>
+        <v>60377303939.28442</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B128" t="n">
-        <v>163246000000</v>
+        <v>168993000000</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3527336860670194</v>
+        <v>0.3648303538854433</v>
       </c>
       <c r="D128" t="n">
-        <v>57582363315.69665</v>
+        <v>61653775994.16271</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B129" t="n">
-        <v>164787000000</v>
+        <v>171409000000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3553660270078181</v>
       </c>
       <c r="D129" t="n">
-        <v>59446969696.9697</v>
+        <v>60912935323.38309</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B130" t="n">
-        <v>167064000000</v>
+        <v>170847000000</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3614022406938923</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="D130" t="n">
-        <v>60377303939.28442</v>
+        <v>57718581081.08108</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B131" t="n">
-        <v>168993000000</v>
+        <v>173892000000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3648303538854433</v>
+        <v>0.3309066843150232</v>
       </c>
       <c r="D131" t="n">
-        <v>61653775994.16271</v>
+        <v>57542025148.90801</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B132" t="n">
-        <v>171409000000</v>
+        <v>172214000000</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3553660270078181</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="D132" t="n">
-        <v>60912935323.38309</v>
+        <v>56463606557.37705</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B133" t="n">
-        <v>170847000000</v>
+        <v>167467000000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="D133" t="n">
-        <v>57718581081.08108</v>
+        <v>54549511400.65147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B134" t="n">
-        <v>173892000000</v>
+        <v>168685000000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3309066843150232</v>
+        <v>0.3179650238473768</v>
       </c>
       <c r="D134" t="n">
-        <v>57542025148.90801</v>
+        <v>53635930047.69476</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B135" t="n">
-        <v>172214000000</v>
+        <v>169307000000</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3156565656565656</v>
       </c>
       <c r="D135" t="n">
-        <v>56463606557.37705</v>
+        <v>53442866161.61616</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B136" t="n">
-        <v>167467000000</v>
+        <v>168424000000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3257328990228013</v>
+        <v>0.3169572107765452</v>
       </c>
       <c r="D136" t="n">
-        <v>54549511400.65147</v>
+        <v>53383201267.82885</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B137" t="n">
-        <v>168685000000</v>
+        <v>168455000000</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3179650238473768</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="D137" t="n">
-        <v>53635930047.69476</v>
+        <v>53056692913.38583</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B138" t="n">
-        <v>169307000000</v>
+        <v>167739000000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3156565656565656</v>
+        <v>0.3005710850616171</v>
       </c>
       <c r="D138" t="n">
-        <v>53442866161.61616</v>
+        <v>50417493237.15058</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B139" t="n">
-        <v>168424000000</v>
+        <v>167148000000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3169572107765452</v>
+        <v>0.2961208172934557</v>
       </c>
       <c r="D139" t="n">
-        <v>53383201267.82885</v>
+        <v>49496002368.96654</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B140" t="n">
-        <v>168455000000</v>
+        <v>171374000000</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.2960331557134399</v>
       </c>
       <c r="D140" t="n">
-        <v>53056692913.38583</v>
+        <v>50732386027.23505</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B141" t="n">
-        <v>167739000000</v>
+        <v>173708000000</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3005710850616171</v>
+        <v>0.2911208151382824</v>
       </c>
       <c r="D141" t="n">
-        <v>50417493237.15058</v>
+        <v>50570014556.04076</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B142" t="n">
-        <v>167148000000</v>
+        <v>174910000000</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2961208172934557</v>
+        <v>0.2985965959988056</v>
       </c>
       <c r="D142" t="n">
-        <v>49496002368.96654</v>
+        <v>52227530606.15109</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B143" t="n">
-        <v>171374000000</v>
+        <v>178454000000</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2960331557134399</v>
+        <v>0.2968239833778569</v>
       </c>
       <c r="D143" t="n">
-        <v>50732386027.23505</v>
+        <v>52969427129.71208</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B144" t="n">
-        <v>173708000000</v>
+        <v>178963000000</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2911208151382824</v>
+        <v>0.2943773918163085</v>
       </c>
       <c r="D144" t="n">
-        <v>50570014556.04076</v>
+        <v>52682661171.62202</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B145" t="n">
-        <v>174910000000</v>
+        <v>179000000000</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2985965959988056</v>
+        <v>0.2921413964358749</v>
       </c>
       <c r="D145" t="n">
-        <v>52227530606.15109</v>
+        <v>52293309962.02161</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B146" t="n">
-        <v>178454000000</v>
+        <v>189328000000</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2968239833778569</v>
+        <v>0.2878526194588371</v>
       </c>
       <c r="D146" t="n">
-        <v>52969427129.71208</v>
+        <v>54498560736.9027</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B147" t="n">
-        <v>178963000000</v>
+        <v>193007000000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2943773918163085</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="D147" t="n">
-        <v>52682661171.62202</v>
+        <v>55461781609.1954</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B148" t="n">
-        <v>179000000000</v>
+        <v>192238000000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2921413964358749</v>
+        <v>0.2836074872376631</v>
       </c>
       <c r="D148" t="n">
-        <v>52293309962.02161</v>
+        <v>54520136131.59388</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B149" t="n">
-        <v>189328000000</v>
+        <v>199770000000</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2878526194588371</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D149" t="n">
-        <v>54498560736.9027</v>
+        <v>55002753303.96475</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B150" t="n">
-        <v>193007000000</v>
+        <v>196484000000</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D150" t="n">
-        <v>55461781609.1954</v>
+        <v>53757592339.26128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B151" t="n">
-        <v>192238000000</v>
+        <v>199156000000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2836074872376631</v>
+        <v>0.2723311546840959</v>
       </c>
       <c r="D151" t="n">
-        <v>54520136131.59388</v>
+        <v>54236383442.26579</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B152" t="n">
-        <v>199770000000</v>
+        <v>205006000000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2790178571428572</v>
       </c>
       <c r="D152" t="n">
-        <v>55002753303.96475</v>
+        <v>57200334821.42857</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B153" t="n">
-        <v>196484000000</v>
+        <v>205819000000</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.2802690582959641</v>
       </c>
       <c r="D153" t="n">
-        <v>53757592339.26128</v>
+        <v>57684697309.41704</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B154" t="n">
-        <v>199156000000</v>
+        <v>208879000000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2723311546840959</v>
+        <v>0.2858776443682104</v>
       </c>
       <c r="D154" t="n">
-        <v>54236383442.26579</v>
+        <v>59713836477.98742</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B155" t="n">
-        <v>205006000000</v>
+        <v>213927000000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2790178571428572</v>
+        <v>0.2815315315315315</v>
       </c>
       <c r="D155" t="n">
-        <v>57200334821.42857</v>
+        <v>60227195945.94595</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B156" t="n">
-        <v>205819000000</v>
+        <v>215823000000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2802690582959641</v>
+        <v>0.2826455624646693</v>
       </c>
       <c r="D156" t="n">
-        <v>57684697309.41704</v>
+        <v>61001413227.81232</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B157" t="n">
-        <v>208879000000</v>
+        <v>208864000000</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2858776443682104</v>
+        <v>0.2831257078142695</v>
       </c>
       <c r="D157" t="n">
-        <v>59713836477.98742</v>
+        <v>59134767836.91959</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B158" t="n">
-        <v>213927000000</v>
+        <v>213360000000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2815315315315315</v>
+        <v>0.2779321845469706</v>
       </c>
       <c r="D158" t="n">
-        <v>60227195945.94595</v>
+        <v>59299610894.94164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B159" t="n">
-        <v>215823000000</v>
+        <v>216538000000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2826455624646693</v>
+        <v>0.2794857462269424</v>
       </c>
       <c r="D159" t="n">
-        <v>61001413227.81232</v>
+        <v>60519284516.48966</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B160" t="n">
-        <v>208864000000</v>
+        <v>222258000000</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2831257078142695</v>
+        <v>0.2763957987838585</v>
       </c>
       <c r="D160" t="n">
-        <v>59134767836.91959</v>
+        <v>61431177446.10282</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B161" t="n">
-        <v>213360000000</v>
+        <v>230265000000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2779321845469706</v>
+        <v>0.2718868950516585</v>
       </c>
       <c r="D161" t="n">
-        <v>59299610894.94164</v>
+        <v>62606035889.07015</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B162" t="n">
-        <v>216538000000</v>
+        <v>227731000000</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2794857462269424</v>
+        <v>0.275027502750275</v>
       </c>
       <c r="D162" t="n">
-        <v>60519284516.48966</v>
+        <v>62632288228.82288</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B163" t="n">
-        <v>222258000000</v>
+        <v>225899000000</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2763957987838585</v>
+        <v>0.2761668047500691</v>
       </c>
       <c r="D163" t="n">
-        <v>61431177446.10282</v>
+        <v>62385805026.23585</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B164" t="n">
-        <v>230265000000</v>
+        <v>226033000000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2718868950516585</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D164" t="n">
-        <v>62606035889.07015</v>
+        <v>61842134062.9275</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B165" t="n">
-        <v>227731000000</v>
+        <v>229457000000</v>
       </c>
       <c r="C165" t="n">
-        <v>0.275027502750275</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="D165" t="n">
-        <v>62632288228.82288</v>
+        <v>62864931506.84931</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B166" t="n">
-        <v>225899000000</v>
+        <v>229245000000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2761668047500691</v>
+        <v>0.274273176083379</v>
       </c>
       <c r="D166" t="n">
-        <v>62385805026.23585</v>
+        <v>62875754251.23423</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B167" t="n">
-        <v>226033000000</v>
+        <v>236725000000</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2735978112175103</v>
+        <v>0.2726281352235551</v>
       </c>
       <c r="D167" t="n">
-        <v>61842134062.9275</v>
+        <v>64537895310.79607</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B168" t="n">
-        <v>229457000000</v>
+        <v>245722000000</v>
       </c>
       <c r="C168" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2743484224965707</v>
       </c>
       <c r="D168" t="n">
-        <v>62864931506.84931</v>
+        <v>67413443072.70233</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B169" t="n">
-        <v>229245000000</v>
+        <v>244019000000</v>
       </c>
       <c r="C169" t="n">
-        <v>0.274273176083379</v>
+        <v>0.2740476842970677</v>
       </c>
       <c r="D169" t="n">
-        <v>62875754251.23423</v>
+        <v>66872841874.48615</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B170" t="n">
-        <v>236725000000</v>
+        <v>256444000000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2726281352235551</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="D170" t="n">
-        <v>64537895310.79607</v>
+        <v>66179096774.19355</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B171" t="n">
-        <v>245722000000</v>
+        <v>265163000000</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2743484224965707</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="D171" t="n">
-        <v>67413443072.70233</v>
+        <v>66707672955.97485</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B172" t="n">
-        <v>244019000000</v>
+        <v>264779000000</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2740476842970677</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D172" t="n">
-        <v>66872841874.48615</v>
+        <v>61149884526.55889</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B173" t="n">
-        <v>256444000000</v>
+        <v>269925000000</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2299379167624741</v>
       </c>
       <c r="D173" t="n">
-        <v>66179096774.19355</v>
+        <v>62065992182.11083</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B174" t="n">
-        <v>265163000000</v>
+        <v>276835000000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2515723270440252</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D174" t="n">
-        <v>66707672955.97485</v>
+        <v>63934180138.56813</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B175" t="n">
-        <v>264779000000</v>
+        <v>277150000000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="D175" t="n">
-        <v>61149884526.55889</v>
+        <v>61316371681.41593</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B176" t="n">
-        <v>269925000000</v>
+        <v>281768000000</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2299379167624741</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D176" t="n">
-        <v>62065992182.11083</v>
+        <v>62768545333.03631</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B177" t="n">
-        <v>276835000000</v>
+        <v>283328000000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2309468822170901</v>
+        <v>0.2203128442388191</v>
       </c>
       <c r="D177" t="n">
-        <v>63934180138.56813</v>
+        <v>62420797532.49615</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B178" t="n">
-        <v>277150000000</v>
+        <v>286970000000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2129925452609158</v>
       </c>
       <c r="D178" t="n">
-        <v>61316371681.41593</v>
+        <v>61122470713.52502</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B179" t="n">
-        <v>281768000000</v>
+        <v>289759000000</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2168256721595837</v>
       </c>
       <c r="D179" t="n">
-        <v>62768545333.03631</v>
+        <v>62827189939.2888</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B180" t="n">
-        <v>283328000000</v>
+        <v>295313000000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2203128442388191</v>
+        <v>0.2137665669089354</v>
       </c>
       <c r="D180" t="n">
-        <v>62420797532.49615</v>
+        <v>63128046173.57845</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B181" t="n">
-        <v>286970000000</v>
+        <v>295617000000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2129925452609158</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="D181" t="n">
-        <v>61122470713.52502</v>
+        <v>64828289473.68421</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B182" t="n">
-        <v>289759000000</v>
+        <v>303035000000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2168256721595837</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="D182" t="n">
-        <v>62827189939.2888</v>
+        <v>67641741071.42857</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B183" t="n">
-        <v>295313000000</v>
+        <v>313686000000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2137665669089354</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="D183" t="n">
-        <v>63128046173.57845</v>
+        <v>70969683257.91855</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B184" t="n">
-        <v>295617000000</v>
+        <v>309474000000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.2248201438848921</v>
       </c>
       <c r="D184" t="n">
-        <v>64828289473.68421</v>
+        <v>69575989208.63309</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B185" t="n">
-        <v>303035000000</v>
+        <v>316586000000</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.2238638907544213</v>
       </c>
       <c r="D185" t="n">
-        <v>67641741071.42857</v>
+        <v>70872173718.37924</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B186" t="n">
-        <v>313686000000</v>
+        <v>316433000000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2262443438914027</v>
+        <v>0.2205558006175563</v>
       </c>
       <c r="D186" t="n">
-        <v>70969683257.91855</v>
+        <v>69791133656.81517</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B187" t="n">
-        <v>309474000000</v>
+        <v>317291000000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2248201438848921</v>
+        <v>0.2168726957276079</v>
       </c>
       <c r="D187" t="n">
-        <v>69575989208.63309</v>
+        <v>68811754500.10843</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B188" t="n">
-        <v>316586000000</v>
+        <v>324572000000</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2238638907544213</v>
+        <v>0.213652387565431</v>
       </c>
       <c r="D188" t="n">
-        <v>70872173718.37924</v>
+        <v>69345582736.88708</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B189" t="n">
-        <v>316433000000</v>
+        <v>338253000000</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2205558006175563</v>
+        <v>0.2148689299527288</v>
       </c>
       <c r="D189" t="n">
-        <v>69791133656.81517</v>
+        <v>72680060163.30038</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B190" t="n">
-        <v>317291000000</v>
+        <v>343147000000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2168726957276079</v>
+        <v>0.2077274615704196</v>
       </c>
       <c r="D190" t="n">
-        <v>68811754500.10843</v>
+        <v>71281055255.50478</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B191" t="n">
-        <v>324572000000</v>
+        <v>347944000000</v>
       </c>
       <c r="C191" t="n">
-        <v>0.213652387565431</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="D191" t="n">
-        <v>69345582736.88708</v>
+        <v>71667147270.85478</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B192" t="n">
-        <v>338253000000</v>
+        <v>350700000000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2148689299527288</v>
+        <v>0.2055921052631579</v>
       </c>
       <c r="D192" t="n">
-        <v>72680060163.30038</v>
+        <v>72101151315.78947</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B193" t="n">
-        <v>343147000000</v>
+        <v>351467000000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2077274615704196</v>
+        <v>0.2027780594139714</v>
       </c>
       <c r="D193" t="n">
-        <v>71281055255.50478</v>
+        <v>71269796208.05029</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B194" t="n">
-        <v>347944000000</v>
+        <v>363414000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2059732234809475</v>
+        <v>0.2024701356549909</v>
       </c>
       <c r="D194" t="n">
-        <v>71667147270.85478</v>
+        <v>73580481878.92287</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B195" t="n">
-        <v>350700000000</v>
+        <v>361312000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2055921052631579</v>
+        <v>0.1986886548778065</v>
       </c>
       <c r="D195" t="n">
-        <v>72101151315.78947</v>
+        <v>71788595271.21001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B196" t="n">
-        <v>351467000000</v>
+        <v>366500000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2027780594139714</v>
+        <v>0.1979022362952702</v>
       </c>
       <c r="D196" t="n">
-        <v>71269796208.05029</v>
+        <v>72531169602.21651</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B197" t="n">
-        <v>363414000000</v>
+        <v>366492000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2024701356549909</v>
+        <v>0.1940617116242965</v>
       </c>
       <c r="D197" t="n">
-        <v>73580481878.92287</v>
+        <v>71122064816.61168</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B198" t="n">
-        <v>361312000000</v>
+        <v>375751000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1986886548778065</v>
+        <v>0.1677711601375724</v>
       </c>
       <c r="D198" t="n">
-        <v>71788595271.21001</v>
+        <v>63040181192.85296</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B199" t="n">
-        <v>366500000000</v>
+        <v>375135000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1979022362952702</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D199" t="n">
-        <v>72531169602.21651</v>
+        <v>61196574225.12235</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B200" t="n">
-        <v>366492000000</v>
+        <v>385084000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1940617116242965</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="D200" t="n">
-        <v>71122064816.61168</v>
+        <v>59702945736.4341</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B201" t="n">
-        <v>375751000000</v>
+        <v>387349000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1677711601375724</v>
+        <v>0.169061707523246</v>
       </c>
       <c r="D201" t="n">
-        <v>63040181192.85296</v>
+        <v>65485883347.42181</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B202" t="n">
-        <v>375135000000</v>
+        <v>378172000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1788748770235221</v>
       </c>
       <c r="D202" t="n">
-        <v>61196574225.12235</v>
+        <v>67645469993.73939</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B203" t="n">
-        <v>385084000000</v>
+        <v>389009000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1550387596899225</v>
+        <v>0.1758396342535608</v>
       </c>
       <c r="D203" t="n">
-        <v>59702945736.4341</v>
+        <v>68403200281.34341</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B204" t="n">
-        <v>387349000000</v>
+        <v>393806000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.169061707523246</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="D204" t="n">
-        <v>65485883347.42181</v>
+        <v>67202389078.49829</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B205" t="n">
-        <v>378172000000</v>
+        <v>388959000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1788748770235221</v>
+        <v>0.1650846058605035</v>
       </c>
       <c r="D205" t="n">
-        <v>67645469993.73939</v>
+        <v>64211143210.89558</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B206" t="n">
-        <v>389009000000</v>
+        <v>379842000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1758396342535608</v>
+        <v>0.1617468661544683</v>
       </c>
       <c r="D206" t="n">
-        <v>68403200281.34341</v>
+        <v>61438253133.84554</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B207" t="n">
-        <v>393806000000</v>
+        <v>391457000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1706484641638225</v>
+        <v>0.16249593760156</v>
       </c>
       <c r="D207" t="n">
-        <v>67202389078.49829</v>
+        <v>63610172245.69386</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B208" t="n">
-        <v>388959000000</v>
+        <v>395318000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1650846058605035</v>
+        <v>0.1643007360672976</v>
       </c>
       <c r="D208" t="n">
-        <v>64211143210.89558</v>
+        <v>64951038380.65195</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B209" t="n">
-        <v>379842000000</v>
+        <v>396818000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1617468661544683</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="D209" t="n">
-        <v>61438253133.84554</v>
+        <v>63899838969.40418</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B210" t="n">
-        <v>391457000000</v>
+        <v>407884000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.16249593760156</v>
+        <v>0.1658374792703151</v>
       </c>
       <c r="D210" t="n">
-        <v>63610172245.69386</v>
+        <v>67642454394.6932</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B211" t="n">
-        <v>395318000000</v>
+        <v>407541000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1643007360672976</v>
+        <v>0.1621402513173895</v>
       </c>
       <c r="D211" t="n">
-        <v>64951038380.65195</v>
+        <v>66078800162.14025</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B212" t="n">
-        <v>396818000000</v>
+        <v>413501000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1610305958132045</v>
+        <v>0.164446637066272</v>
       </c>
       <c r="D212" t="n">
-        <v>63899838969.40418</v>
+        <v>67998848873.54053</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B213" t="n">
-        <v>407884000000</v>
+        <v>427411000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1658374792703151</v>
+        <v>0.1665278934221482</v>
       </c>
       <c r="D213" t="n">
-        <v>67642454394.6932</v>
+        <v>71175853455.4538</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B214" t="n">
-        <v>407541000000</v>
+        <v>426662000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1621402513173895</v>
+        <v>0.1627339300244101</v>
       </c>
       <c r="D214" t="n">
-        <v>66078800162.14025</v>
+        <v>69432384052.07486</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B215" t="n">
-        <v>413501000000</v>
+        <v>440284000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.164446637066272</v>
+        <v>0.1619957881095092</v>
       </c>
       <c r="D215" t="n">
-        <v>67998848873.54053</v>
+        <v>71324153572.00713</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B216" t="n">
-        <v>427411000000</v>
+        <v>446935000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1665278934221482</v>
+        <v>0.1625884074465491</v>
       </c>
       <c r="D216" t="n">
-        <v>71175853455.4538</v>
+        <v>72666449882.12341</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B217" t="n">
-        <v>426662000000</v>
+        <v>438789000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1627339300244101</v>
+        <v>0.158378207158695</v>
       </c>
       <c r="D217" t="n">
-        <v>69432384052.07486</v>
+        <v>69494615140.9566</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B218" t="n">
-        <v>440284000000</v>
+        <v>443529000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1619957881095092</v>
+        <v>0.1576789656259855</v>
       </c>
       <c r="D218" t="n">
-        <v>71324153572.00713</v>
+        <v>69935193945.12772</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B219" t="n">
-        <v>446935000000</v>
+        <v>438954000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1625884074465491</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="D219" t="n">
-        <v>72666449882.12341</v>
+        <v>67324233128.83436</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B220" t="n">
-        <v>438789000000</v>
+        <v>440728000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.158378207158695</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D220" t="n">
-        <v>69494615140.9566</v>
+        <v>65052103321.03321</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B221" t="n">
-        <v>443529000000</v>
+        <v>437781000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1576789656259855</v>
+        <v>0.1435750179468772</v>
       </c>
       <c r="D221" t="n">
-        <v>69935193945.12772</v>
+        <v>62854414931.80186</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B222" t="n">
-        <v>438954000000</v>
+        <v>441072000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1533742331288344</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D222" t="n">
-        <v>67324233128.83436</v>
+        <v>65102878228.78229</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B223" t="n">
-        <v>440728000000</v>
+        <v>433197000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1437297879985627</v>
       </c>
       <c r="D223" t="n">
-        <v>65052103321.03321</v>
+        <v>62263312971.61337</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B224" t="n">
-        <v>437781000000</v>
+        <v>439801000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1435750179468772</v>
+        <v>0.1435441039259313</v>
       </c>
       <c r="D224" t="n">
-        <v>62854414931.80186</v>
+        <v>63130840450.72849</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B225" t="n">
-        <v>441072000000</v>
+        <v>452472000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1476014760147601</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="D225" t="n">
-        <v>65102878228.78229</v>
+        <v>62427152317.88079</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B226" t="n">
-        <v>433197000000</v>
+        <v>450460000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1437297879985627</v>
+        <v>0.1328021248339973</v>
       </c>
       <c r="D226" t="n">
-        <v>62263312971.61337</v>
+        <v>59822045152.72244</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B227" t="n">
-        <v>439801000000</v>
+        <v>461178000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1435441039259313</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D227" t="n">
-        <v>63130840450.72849</v>
+        <v>59545255003.22789</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B228" t="n">
-        <v>452472000000</v>
+        <v>474848000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1379690949227373</v>
+        <v>0.1319713886029509</v>
       </c>
       <c r="D228" t="n">
-        <v>62427152317.88079</v>
+        <v>62666349935.33402</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B229" t="n">
-        <v>450460000000</v>
+        <v>474206000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1328021248339973</v>
+        <v>0.1292256797270754</v>
       </c>
       <c r="D229" t="n">
-        <v>59822045152.72244</v>
+        <v>61279592680.65749</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B230" t="n">
-        <v>461178000000</v>
+        <v>483016000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1291155584247902</v>
+        <v>0.1306062743254186</v>
       </c>
       <c r="D230" t="n">
-        <v>59545255003.22789</v>
+        <v>63084920199.56639</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B231" t="n">
-        <v>474848000000</v>
+        <v>491457000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1319713886029509</v>
+        <v>0.1244152483328357</v>
       </c>
       <c r="D231" t="n">
-        <v>62666349935.33402</v>
+        <v>61144744699.91042</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B232" t="n">
-        <v>474206000000</v>
+        <v>490895000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1292256797270754</v>
+        <v>0.1247193813918683</v>
       </c>
       <c r="D232" t="n">
-        <v>61279592680.65749</v>
+        <v>61224120728.36118</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B233" t="n">
-        <v>483016000000</v>
+        <v>491567000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1306062743254186</v>
+        <v>0.1251564455569462</v>
       </c>
       <c r="D233" t="n">
-        <v>63084920199.56639</v>
+        <v>61522778473.09137</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B234" t="n">
-        <v>491457000000</v>
+        <v>492768000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1244152483328357</v>
+        <v>0.1243224426873539</v>
       </c>
       <c r="D234" t="n">
-        <v>61144744699.91042</v>
+        <v>61262121438.16202</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B235" t="n">
-        <v>490895000000</v>
+        <v>497927000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1247193813918683</v>
+        <v>0.1210419289241793</v>
       </c>
       <c r="D235" t="n">
-        <v>61224120728.36118</v>
+        <v>60270044543.42985</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B236" t="n">
-        <v>491567000000</v>
+        <v>513455000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1251564455569462</v>
+        <v>0.119387304354055</v>
       </c>
       <c r="D236" t="n">
-        <v>61522778473.09137</v>
+        <v>61300008357.11131</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B237" t="n">
-        <v>492768000000</v>
+        <v>508210000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1243224426873539</v>
+        <v>0.1110358534770877</v>
       </c>
       <c r="D237" t="n">
-        <v>61262121438.16202</v>
+        <v>56429531095.59077</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B238" t="n">
-        <v>497927000000</v>
+        <v>510372000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1210419289241793</v>
+        <v>0.105682550754045</v>
       </c>
       <c r="D238" t="n">
-        <v>60270044543.42985</v>
+        <v>53937414793.44345</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B239" t="n">
-        <v>513455000000</v>
+        <v>522814000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.119387304354055</v>
+        <v>0.09749439407234084</v>
       </c>
       <c r="D239" t="n">
-        <v>61300008357.11131</v>
+        <v>50971434142.5368</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B240" t="n">
-        <v>508210000000</v>
+        <v>544056000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1110358534770877</v>
+        <v>0.08350730688935282</v>
       </c>
       <c r="D240" t="n">
-        <v>56429531095.59077</v>
+        <v>45432651356.99374</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B241" t="n">
-        <v>510372000000</v>
+        <v>560885000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.105682550754045</v>
+        <v>0.08777319406653207</v>
       </c>
       <c r="D241" t="n">
-        <v>53937414793.44345</v>
+        <v>49230667954.00684</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B242" t="n">
-        <v>522814000000</v>
+        <v>573536000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.09749439407234084</v>
+        <v>0.08822232024702249</v>
       </c>
       <c r="D242" t="n">
-        <v>50971434142.5368</v>
+        <v>50598676665.19629</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B243" t="n">
-        <v>544056000000</v>
+        <v>585236000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.08350730688935282</v>
+        <v>0.0883197173769044</v>
       </c>
       <c r="D243" t="n">
-        <v>45432651356.99374</v>
+        <v>51687878118.79002</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B244" t="n">
-        <v>560885000000</v>
+        <v>581307000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.08777319406653207</v>
+        <v>0.09383063570255688</v>
       </c>
       <c r="D244" t="n">
-        <v>49230667954.00684</v>
+        <v>54544405348.34624</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B245" t="n">
-        <v>573536000000</v>
+        <v>594432000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.08822232024702249</v>
+        <v>0.102380342974149</v>
       </c>
       <c r="D245" t="n">
-        <v>50598676665.19629</v>
+        <v>60858152034.80932</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B246" t="n">
-        <v>585236000000</v>
+        <v>579246000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0883197173769044</v>
+        <v>0.09737098344693282</v>
       </c>
       <c r="D246" t="n">
-        <v>51687878118.79002</v>
+        <v>56401752677.70205</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B247" t="n">
-        <v>581307000000</v>
+        <v>574280000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.09383063570255688</v>
+        <v>0.09826078412105729</v>
       </c>
       <c r="D247" t="n">
-        <v>54544405348.34624</v>
+        <v>56429203105.04078</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B248" t="n">
-        <v>594432000000</v>
+        <v>591806000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.102380342974149</v>
+        <v>0.09456264775413713</v>
       </c>
       <c r="D248" t="n">
-        <v>60858152034.80932</v>
+        <v>55962742316.78487</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B249" t="n">
-        <v>579246000000</v>
+        <v>598267000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.09737098344693282</v>
+        <v>0.09513842641042718</v>
       </c>
       <c r="D249" t="n">
-        <v>56401752677.70205</v>
+        <v>56918180953.28703</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B250" t="n">
-        <v>574280000000</v>
+        <v>607600000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.09826078412105729</v>
+        <v>0.09995002498750624</v>
       </c>
       <c r="D250" t="n">
-        <v>56429203105.04078</v>
+        <v>60729635182.40879</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B251" t="n">
-        <v>591806000000</v>
+        <v>621424000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.09456264775413713</v>
+        <v>0.1082602576594132</v>
       </c>
       <c r="D251" t="n">
-        <v>55962742316.78487</v>
+        <v>67275522355.74321</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B252" t="n">
-        <v>598267000000</v>
+        <v>632621000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.09513842641042718</v>
+        <v>0.1170275014628438</v>
       </c>
       <c r="D252" t="n">
-        <v>56918180953.28703</v>
+        <v>74034055002.92569</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B253" t="n">
-        <v>607600000000</v>
+        <v>639520000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.09995002498750624</v>
+        <v>0.1178314303557331</v>
       </c>
       <c r="D253" t="n">
-        <v>60729635182.40879</v>
+        <v>75355556341.09842</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B254" t="n">
-        <v>621424000000</v>
+        <v>646346000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1082602576594132</v>
+        <v>0.1239464551313832</v>
       </c>
       <c r="D254" t="n">
-        <v>67275522355.74321</v>
+        <v>80112295488.34903</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B255" t="n">
-        <v>632621000000</v>
+        <v>651020000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1170275014628438</v>
+        <v>0.1272102785905101</v>
       </c>
       <c r="D255" t="n">
-        <v>74034055002.92569</v>
+        <v>82816435567.9939</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B256" t="n">
-        <v>639520000000</v>
+        <v>671314000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1178314303557331</v>
+        <v>0.1378359751895245</v>
       </c>
       <c r="D256" t="n">
-        <v>75355556341.09842</v>
+        <v>92531219848.38043</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B257" t="n">
-        <v>646346000000</v>
+        <v>680405000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1239464551313832</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="D257" t="n">
-        <v>80112295488.34903</v>
+        <v>84260681114.55109</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B258" t="n">
-        <v>651020000000</v>
+        <v>684477000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1272102785905101</v>
+        <v>0.1343111182743708</v>
       </c>
       <c r="D258" t="n">
-        <v>82816435567.9939</v>
+        <v>91932871303.08647</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B259" t="n">
-        <v>671314000000</v>
+        <v>688974000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1378359751895245</v>
+        <v>0.1362323579096507</v>
       </c>
       <c r="D259" t="n">
-        <v>92531219848.38043</v>
+        <v>93860552558.4437</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B260" t="n">
-        <v>680405000000</v>
+        <v>690024000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1238390092879257</v>
+        <v>0.1364256480218281</v>
       </c>
       <c r="D260" t="n">
-        <v>84260681114.55109</v>
+        <v>94136971350.61392</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B261" t="n">
-        <v>684477000000</v>
+        <v>706699000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1343111182743708</v>
+        <v>0.144196106705119</v>
       </c>
       <c r="D261" t="n">
-        <v>91932871303.08647</v>
+        <v>101903244412.4009</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B262" t="n">
-        <v>688974000000</v>
+        <v>711110000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1362323579096507</v>
+        <v>0.1455582888167567</v>
       </c>
       <c r="D262" t="n">
-        <v>93860552558.4437</v>
+        <v>103507954760.4838</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B263" t="n">
-        <v>690024000000</v>
+        <v>721063000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1364256480218281</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="D263" t="n">
-        <v>94136971350.61392</v>
+        <v>113196703296.7033</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B264" t="n">
-        <v>706699000000</v>
+        <v>733453000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.144196106705119</v>
+        <v>0.1517450682852807</v>
       </c>
       <c r="D264" t="n">
-        <v>101903244412.4009</v>
+        <v>111297875569.044</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B265" t="n">
-        <v>711110000000</v>
+        <v>734861000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1455582888167567</v>
+        <v>0.1412628902387343</v>
       </c>
       <c r="D265" t="n">
-        <v>103507954760.4838</v>
+        <v>103808588783.7265</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B266" t="n">
-        <v>721063000000</v>
+        <v>756772000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1569858712715856</v>
+        <v>0.150941117869919</v>
       </c>
       <c r="D266" t="n">
-        <v>113196703296.7033</v>
+        <v>114228011652.6543</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B267" t="n">
-        <v>733453000000</v>
+        <v>748540000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1517450682852807</v>
+        <v>0.1595405232929164</v>
       </c>
       <c r="D267" t="n">
-        <v>111297875569.044</v>
+        <v>119422463305.6796</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B268" t="n">
-        <v>734861000000</v>
+        <v>750744000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1412628902387343</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D268" t="n">
-        <v>103808588783.7265</v>
+        <v>108646020260.492</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B269" t="n">
-        <v>756772000000</v>
+        <v>748172000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.150941117869919</v>
+        <v>0.1534636751480924</v>
       </c>
       <c r="D269" t="n">
-        <v>114228011652.6543</v>
+        <v>114817224762.8986</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B270" t="n">
-        <v>748540000000</v>
+        <v>749022000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1595405232929164</v>
+        <v>0.163212012404113</v>
       </c>
       <c r="D270" t="n">
-        <v>119422463305.6796</v>
+        <v>122249387954.9535</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B271" t="n">
-        <v>750744000000</v>
+        <v>748658000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1598082301238514</v>
       </c>
       <c r="D271" t="n">
-        <v>108646020260.492</v>
+        <v>119641709948.0623</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B272" t="n">
-        <v>748172000000</v>
+        <v>766827000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1534636751480924</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="D272" t="n">
-        <v>114817224762.8986</v>
+        <v>115747471698.1132</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B273" t="n">
-        <v>749022000000</v>
+        <v>790428000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.163212012404113</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D273" t="n">
-        <v>122249387954.9535</v>
+        <v>122680117957.4732</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B274" t="n">
-        <v>748658000000</v>
+        <v>807543000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1598082301238514</v>
+        <v>0.1641497045305318</v>
       </c>
       <c r="D274" t="n">
-        <v>119641709948.0623</v>
+        <v>132557944845.6993</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B275" t="n">
-        <v>766827000000</v>
+        <v>805336000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1721614874752518</v>
       </c>
       <c r="D275" t="n">
-        <v>115747471698.1132</v>
+        <v>138647843677.3694</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B276" t="n">
-        <v>790428000000</v>
+        <v>818740000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1770287494689138</v>
       </c>
       <c r="D276" t="n">
-        <v>122680117957.4732</v>
+        <v>144940518340.1784</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B277" t="n">
-        <v>807543000000</v>
+        <v>819280000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1641497045305318</v>
+        <v>0.1674340728338217</v>
       </c>
       <c r="D277" t="n">
-        <v>132557944845.6993</v>
+        <v>137175387191.2934</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B278" t="n">
-        <v>805336000000</v>
+        <v>842007000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1721614874752518</v>
+        <v>0.1722652885443583</v>
       </c>
       <c r="D278" t="n">
-        <v>138647843677.3694</v>
+        <v>145048578811.3695</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B279" t="n">
-        <v>818740000000</v>
+        <v>836640000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1770287494689138</v>
+        <v>0.1604621309370989</v>
       </c>
       <c r="D279" t="n">
-        <v>144940518340.1784</v>
+        <v>134249037227.2144</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B280" t="n">
-        <v>819280000000</v>
+        <v>870197000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1674340728338217</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="D280" t="n">
-        <v>137175387191.2934</v>
+        <v>143124506578.9474</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B281" t="n">
-        <v>842007000000</v>
+        <v>865829000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1722652885443583</v>
+        <v>0.1472320376914016</v>
       </c>
       <c r="D281" t="n">
-        <v>145048578811.3695</v>
+        <v>127477767962.3086</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B282" t="n">
-        <v>836640000000</v>
+        <v>876491000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1604621309370989</v>
+        <v>0.1501501501501502</v>
       </c>
       <c r="D282" t="n">
-        <v>134249037227.2144</v>
+        <v>131605255255.2553</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B283" t="n">
-        <v>870197000000</v>
+        <v>898047000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.1523693432881304</v>
       </c>
       <c r="D283" t="n">
-        <v>143124506578.9474</v>
+        <v>136834831631.8757</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B284" t="n">
-        <v>865829000000</v>
+        <v>915941000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1472320376914016</v>
+        <v>0.1574555188159345</v>
       </c>
       <c r="D284" t="n">
-        <v>127477767962.3086</v>
+        <v>144219965359.7859</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B285" t="n">
-        <v>876491000000</v>
+        <v>928537000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1501501501501502</v>
+        <v>0.1577784790154623</v>
       </c>
       <c r="D285" t="n">
-        <v>131605255255.2553</v>
+        <v>146503155569.5803</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B286" t="n">
-        <v>898047000000</v>
+        <v>931975000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1523693432881304</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D286" t="n">
-        <v>136834831631.8757</v>
+        <v>138893442622.9508</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B287" t="n">
-        <v>915941000000</v>
+        <v>937193000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1574555188159345</v>
+        <v>0.1551133102731545</v>
       </c>
       <c r="D287" t="n">
-        <v>144219965359.7859</v>
+        <v>145371108594.8285</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B288" t="n">
-        <v>928537000000</v>
+        <v>963515000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1577784790154623</v>
+        <v>0.158045295781771</v>
       </c>
       <c r="D288" t="n">
-        <v>146503155569.5803</v>
+        <v>152279013165.1731</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B289" t="n">
-        <v>931975000000</v>
+        <v>965101000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1654232353476369</v>
       </c>
       <c r="D289" t="n">
-        <v>138893442622.9508</v>
+        <v>159650129857.2398</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B290" t="n">
-        <v>937193000000</v>
+        <v>1000200000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1551133102731545</v>
+        <v>0.1625408383856444</v>
       </c>
       <c r="D290" t="n">
-        <v>145371108594.8285</v>
+        <v>162573346553.3215</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B291" t="n">
-        <v>963515000000</v>
+        <v>1032586000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.158045295781771</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="D291" t="n">
-        <v>152279013165.1731</v>
+        <v>167900162601.626</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B292" t="n">
-        <v>965101000000</v>
+        <v>1026904000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1654232353476369</v>
+        <v>0.1670843776106934</v>
       </c>
       <c r="D292" t="n">
-        <v>159650129857.2398</v>
+        <v>171579615705.9315</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B293" t="n">
-        <v>1000200000000</v>
+        <v>1044155000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1625408383856444</v>
+        <v>0.1487541837114169</v>
       </c>
       <c r="D293" t="n">
-        <v>162573346553.3215</v>
+        <v>155322424693.1945</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B294" t="n">
-        <v>1032586000000</v>
+        <v>1050280000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1402268871033332</v>
       </c>
       <c r="D294" t="n">
-        <v>167900162601.626</v>
+        <v>147277494986.8888</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B295" t="n">
-        <v>1026904000000</v>
+        <v>1061266000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1670843776106934</v>
+        <v>0.1445295562942622</v>
       </c>
       <c r="D295" t="n">
-        <v>171579615705.9315</v>
+        <v>153384304090.1864</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B296" t="n">
-        <v>1044155000000</v>
+        <v>1078788000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1487541837114169</v>
+        <v>0.1400560224089636</v>
       </c>
       <c r="D296" t="n">
-        <v>155322424693.1945</v>
+        <v>151090756302.521</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B297" t="n">
-        <v>1050280000000</v>
+        <v>1106311000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1402268871033332</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="D297" t="n">
-        <v>147277494986.8888</v>
+        <v>143119146183.6999</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B298" t="n">
-        <v>1061266000000</v>
+        <v>1125707000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1445295562942622</v>
+        <v>0.1358511071865236</v>
       </c>
       <c r="D298" t="n">
-        <v>153384304090.1864</v>
+        <v>152928542317.6199</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B299" t="n">
-        <v>1078788000000</v>
+        <v>1146097000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1400560224089636</v>
+        <v>0.1399932803225445</v>
       </c>
       <c r="D299" t="n">
-        <v>151090756302.521</v>
+        <v>160445878597.8273</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B300" t="n">
-        <v>1106311000000</v>
+        <v>1156842000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.129366106080207</v>
+        <v>0.1427103550633634</v>
       </c>
       <c r="D300" t="n">
-        <v>143119146183.6999</v>
+        <v>165093332572.2115</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B301" t="n">
-        <v>1125707000000</v>
+        <v>1133627000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1358511071865236</v>
+        <v>0.1388406803193336</v>
       </c>
       <c r="D301" t="n">
-        <v>152928542317.6199</v>
+        <v>157393543908.3652</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B302" t="n">
-        <v>1146097000000</v>
+        <v>1180287000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1399932803225445</v>
+        <v>0.1385502105963201</v>
       </c>
       <c r="D302" t="n">
-        <v>160445878597.8273</v>
+        <v>163529012414.0989</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B303" t="n">
-        <v>1156842000000</v>
+        <v>1195132000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1427103550633634</v>
+        <v>0.1379500620775279</v>
       </c>
       <c r="D303" t="n">
-        <v>165093332572.2115</v>
+        <v>164868533590.8401</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B304" t="n">
-        <v>1133627000000</v>
+        <v>1215180000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1388406803193336</v>
+        <v>0.142673705236125</v>
       </c>
       <c r="D304" t="n">
-        <v>157393543908.3652</v>
+        <v>173374233128.8343</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B305" t="n">
-        <v>1180287000000</v>
+        <v>1241347000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1385502105963201</v>
+        <v>0.1414227124876255</v>
       </c>
       <c r="D305" t="n">
-        <v>163529012414.0989</v>
+        <v>175554659878.3765</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B306" t="n">
-        <v>1195132000000</v>
+        <v>1249390000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1379500620775279</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="D306" t="n">
-        <v>164868533590.8401</v>
+        <v>178077251995.439</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B307" t="n">
-        <v>1215180000000</v>
+        <v>1290230000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.142673705236125</v>
+        <v>0.1399423437543732</v>
       </c>
       <c r="D307" t="n">
-        <v>173374233128.8343</v>
+        <v>180557810182.2049</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B308" t="n">
-        <v>1241347000000</v>
+        <v>1341912000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1414227124876255</v>
+        <v>0.140548137737175</v>
       </c>
       <c r="D308" t="n">
-        <v>175554659878.3765</v>
+        <v>188603232607.1679</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B309" t="n">
-        <v>1249390000000</v>
+        <v>1350336000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1425313568985177</v>
+        <v>0.1458512608841503</v>
       </c>
       <c r="D309" t="n">
-        <v>178077251995.439</v>
+        <v>196948208217.26</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B310" t="n">
-        <v>1290230000000</v>
+        <v>1346359000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1399423437543732</v>
+        <v>0.154273372415921</v>
       </c>
       <c r="D310" t="n">
-        <v>180557810182.2049</v>
+        <v>207707343412.527</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B311" t="n">
-        <v>1341912000000</v>
+        <v>1381640000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.140548137737175</v>
+        <v>0.1472732360348154</v>
       </c>
       <c r="D311" t="n">
-        <v>188603232607.1679</v>
+        <v>203478593835.1424</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B312" t="n">
-        <v>1350336000000</v>
+        <v>1396325000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1458512608841503</v>
+        <v>0.1463957369561398</v>
       </c>
       <c r="D312" t="n">
-        <v>196948208217.26</v>
+        <v>204416027405.282</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B313" t="n">
-        <v>1346359000000</v>
+        <v>1377990000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.154273372415921</v>
+        <v>0.1338508901084192</v>
       </c>
       <c r="D313" t="n">
-        <v>207707343412.527</v>
+        <v>184445188060.5006</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B314" t="n">
-        <v>1381640000000</v>
+        <v>1393920000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1472732360348154</v>
+        <v>0.1279230414982347</v>
       </c>
       <c r="D314" t="n">
-        <v>203478593835.1424</v>
+        <v>178314486005.2193</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B315" t="n">
-        <v>1396325000000</v>
+        <v>1431028000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1463957369561398</v>
+        <v>0.1234415504258733</v>
       </c>
       <c r="D315" t="n">
-        <v>204416027405.282</v>
+        <v>176648315022.8367</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B316" t="n">
-        <v>1377990000000</v>
+        <v>1458145000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1338508901084192</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D316" t="n">
-        <v>184445188060.5006</v>
+        <v>193131788079.4702</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B317" t="n">
-        <v>1393920000000</v>
+        <v>1482428000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1279230414982347</v>
+        <v>0.1322401481089659</v>
       </c>
       <c r="D317" t="n">
-        <v>178314486005.2193</v>
+        <v>196036498280.8781</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B318" t="n">
-        <v>1431028000000</v>
+        <v>1474862000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1234415504258733</v>
+        <v>0.1277791975466394</v>
       </c>
       <c r="D318" t="n">
-        <v>176648315022.8367</v>
+        <v>188456682852.0317</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B319" t="n">
-        <v>1458145000000</v>
+        <v>1484679000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1364237868514754</v>
       </c>
       <c r="D319" t="n">
-        <v>193131788079.4702</v>
+        <v>202545531438.8617</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B320" t="n">
-        <v>1482428000000</v>
+        <v>1482748000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1322401481089659</v>
+        <v>0.129974784891731</v>
       </c>
       <c r="D320" t="n">
-        <v>196036498280.8781</v>
+        <v>192719852348.6444</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B321" t="n">
-        <v>1474862000000</v>
+        <v>1506513000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1277791975466394</v>
+        <v>0.1208327795164272</v>
       </c>
       <c r="D321" t="n">
-        <v>188456682852.0317</v>
+        <v>182036153167.6313</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B322" t="n">
-        <v>1484679000000</v>
+        <v>1523646000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1364237868514754</v>
+        <v>0.1026630803030614</v>
       </c>
       <c r="D322" t="n">
-        <v>202545531438.8617</v>
+        <v>156422191651.4383</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B323" t="n">
-        <v>1482748000000</v>
+        <v>1565803000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.129974784891731</v>
+        <v>0.09868940470551082</v>
       </c>
       <c r="D323" t="n">
-        <v>192719852348.6444</v>
+        <v>154528165956.103</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B324" t="n">
-        <v>1506513000000</v>
+        <v>1562427000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1208327795164272</v>
+        <v>0.1071799873527615</v>
       </c>
       <c r="D324" t="n">
-        <v>182036153167.6313</v>
+        <v>167460906099.6131</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B325" t="n">
-        <v>1523646000000</v>
+        <v>1566667000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1026630803030614</v>
+        <v>0.09811039381512077</v>
       </c>
       <c r="D325" t="n">
-        <v>156422191651.4383</v>
+        <v>153706316347.1538</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B326" t="n">
-        <v>1565803000000</v>
+        <v>1585801000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.09868940470551082</v>
+        <v>0.09911490390810067</v>
       </c>
       <c r="D326" t="n">
-        <v>154528165956.103</v>
+        <v>157176513732.3699</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B327" t="n">
-        <v>1562427000000</v>
+        <v>1574342000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1071799873527615</v>
+        <v>0.105380851666967</v>
       </c>
       <c r="D327" t="n">
-        <v>167460906099.6131</v>
+        <v>165905500775.0761</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B328" t="n">
-        <v>1566667000000</v>
+        <v>1574490000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.09811039381512077</v>
+        <v>0.1184246209523945</v>
       </c>
       <c r="D328" t="n">
-        <v>153706316347.1538</v>
+        <v>186458381443.3356</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B329" t="n">
-        <v>1585801000000</v>
+        <v>1597266000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.09911490390810067</v>
+        <v>0.1258211402163369</v>
       </c>
       <c r="D329" t="n">
-        <v>157176513732.3699</v>
+        <v>200969829348.7875</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B330" t="n">
-        <v>1574342000000</v>
+        <v>1545955000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.105380851666967</v>
+        <v>0.1297489746587278</v>
       </c>
       <c r="D330" t="n">
-        <v>165905500775.0761</v>
+        <v>200586076118.5335</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B331" t="n">
-        <v>1574490000000</v>
+        <v>1539789000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1184246209523945</v>
+        <v>0.1289908145640949</v>
       </c>
       <c r="D331" t="n">
-        <v>186458381443.3356</v>
+        <v>198618637366.8331</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B332" t="n">
-        <v>1597266000000</v>
+        <v>1554419000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1258211402163369</v>
+        <v>0.1287665835263759</v>
       </c>
       <c r="D332" t="n">
-        <v>200969829348.7875</v>
+        <v>200157223998.4857</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B333" t="n">
-        <v>1545955000000</v>
+        <v>1544145000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1297489746587278</v>
+        <v>0.1333210677950962</v>
       </c>
       <c r="D333" t="n">
-        <v>200586076118.5335</v>
+        <v>205867060230.4588</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B334" t="n">
-        <v>1539789000000</v>
+        <v>1537065000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1289908145640949</v>
+        <v>0.1281100311435486</v>
       </c>
       <c r="D334" t="n">
-        <v>198618637366.8331</v>
+        <v>196913445019.6585</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B335" t="n">
-        <v>1554419000000</v>
+        <v>1549706000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1287665835263759</v>
+        <v>0.1351700236142031</v>
       </c>
       <c r="D335" t="n">
-        <v>200157223998.4857</v>
+        <v>209473796615.0723</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B336" t="n">
-        <v>1544145000000</v>
+        <v>1589340000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1333210677950962</v>
+        <v>0.1355548054856319</v>
       </c>
       <c r="D336" t="n">
-        <v>205867060230.4588</v>
+        <v>215442674550.5341</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B337" t="n">
-        <v>1537065000000</v>
+        <v>1569747000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1281100311435486</v>
+        <v>0.1312802847206815</v>
       </c>
       <c r="D337" t="n">
-        <v>196913445019.6585</v>
+        <v>206076833099.4356</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B338" t="n">
-        <v>1549706000000</v>
+        <v>1566078000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1351700236142031</v>
+        <v>0.1295674132772911</v>
       </c>
       <c r="D338" t="n">
-        <v>209473796615.0723</v>
+        <v>202912675450.4735</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B339" t="n">
-        <v>1589340000000</v>
+        <v>1578113000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1355548054856319</v>
+        <v>0.137462902199269</v>
       </c>
       <c r="D339" t="n">
-        <v>215442674550.5341</v>
+        <v>216931992978.395</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B340" t="n">
-        <v>1569747000000</v>
+        <v>1581563000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1312802847206815</v>
+        <v>0.135475655024792</v>
       </c>
       <c r="D340" t="n">
-        <v>206076833099.4356</v>
+        <v>214263283387.9752</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B341" t="n">
-        <v>1566078000000</v>
+        <v>1580338000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1295674132772911</v>
+        <v>0.1310255368771374</v>
       </c>
       <c r="D341" t="n">
-        <v>202912675450.4735</v>
+        <v>207064634897.3415</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B342" t="n">
-        <v>1578113000000</v>
+        <v>1551427000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.137462902199269</v>
+        <v>0.1304886801070007</v>
       </c>
       <c r="D342" t="n">
-        <v>216931992978.395</v>
+        <v>202443661512.3638</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B343" t="n">
-        <v>1581563000000</v>
+        <v>1583836000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.135475655024792</v>
+        <v>0.1372156206262521</v>
       </c>
       <c r="D343" t="n">
-        <v>214263283387.9752</v>
+        <v>217327039710.2006</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B344" t="n">
-        <v>1580338000000</v>
+        <v>1595672000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1310255368771374</v>
+        <v>0.135707306481381</v>
       </c>
       <c r="D344" t="n">
-        <v>207064634897.3415</v>
+        <v>216544349147.7581</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B345" t="n">
-        <v>1551427000000</v>
+        <v>1589594000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1304886801070007</v>
+        <v>0.1437359857413902</v>
       </c>
       <c r="D345" t="n">
-        <v>202443661512.3638</v>
+        <v>228481860518.5994</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B346" t="n">
-        <v>1583836000000</v>
+        <v>1598006000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1372156206262521</v>
+        <v>0.1429245215601641</v>
       </c>
       <c r="D346" t="n">
-        <v>217327039710.2006</v>
+        <v>228394243000.2716</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B347" t="n">
-        <v>1595672000000</v>
+        <v>1660253000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.135707306481381</v>
+        <v>0.1407974769092138</v>
       </c>
       <c r="D347" t="n">
-        <v>216544349147.7581</v>
+        <v>233759433430.9529</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B348" t="n">
-        <v>1589594000000</v>
+        <v>1678417000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1437359857413902</v>
+        <v>0.1518395359783781</v>
       </c>
       <c r="D348" t="n">
-        <v>228481860518.5994</v>
+        <v>254850058458.2214</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B349" t="n">
-        <v>1598006000000</v>
+        <v>1674643000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1429245215601641</v>
+        <v>0.1392874056327827</v>
       </c>
       <c r="D349" t="n">
-        <v>228394243000.2716</v>
+        <v>233256678831.1001</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B350" t="n">
-        <v>1660253000000</v>
+        <v>1653749000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1407974769092138</v>
+        <v>0.143682289720969</v>
       </c>
       <c r="D350" t="n">
-        <v>233759433430.9529</v>
+        <v>237614442943.7628</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B351" t="n">
-        <v>1678417000000</v>
+        <v>1650771000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1518395359783781</v>
+        <v>0.1477235796377818</v>
       </c>
       <c r="D351" t="n">
-        <v>254850058458.2214</v>
+        <v>243857801282.2407</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B352" t="n">
-        <v>1674643000000</v>
+        <v>1656915000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1392874056327827</v>
+        <v>0.1525129559756101</v>
       </c>
       <c r="D352" t="n">
-        <v>233256678831.1001</v>
+        <v>252701004450.3281</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B353" t="n">
-        <v>1653749000000</v>
+        <v>1666606000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.143682289720969</v>
+        <v>0.1472472133464874</v>
       </c>
       <c r="D353" t="n">
-        <v>237614442943.7628</v>
+        <v>245403089246.536</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B354" t="n">
-        <v>1650771000000</v>
+        <v>1646475000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1477235796377818</v>
+        <v>0.1479443137603006</v>
       </c>
       <c r="D354" t="n">
-        <v>243857801282.2407</v>
+        <v>243586613998.491</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B355" t="n">
-        <v>1656915000000</v>
+        <v>1670191000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1525129559756101</v>
+        <v>0.1497633738692865</v>
       </c>
       <c r="D355" t="n">
-        <v>252701004450.3281</v>
+        <v>250133439166.1176</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B356" t="n">
-        <v>1666606000000</v>
+        <v>1693482000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1472472133464874</v>
+        <v>0.1431372829680947</v>
       </c>
       <c r="D356" t="n">
-        <v>245403089246.536</v>
+        <v>242400412235.3749</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B357" t="n">
-        <v>1646475000000</v>
+        <v>1721643000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1479443137603006</v>
+        <v>0.1238144763885794</v>
       </c>
       <c r="D357" t="n">
-        <v>243586613998.491</v>
+        <v>213164326573.063</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B358" t="n">
-        <v>1670191000000</v>
+        <v>1740142000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1497633738692865</v>
+        <v>0.1258004050773044</v>
       </c>
       <c r="D358" t="n">
-        <v>250133439166.1176</v>
+        <v>218910568492.0306</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B359" t="n">
-        <v>1693482000000</v>
+        <v>1757764000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1431372829680947</v>
+        <v>0.1233745404298369</v>
       </c>
       <c r="D359" t="n">
-        <v>242400412235.3749</v>
+        <v>216863325684.1118</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B360" t="n">
-        <v>1721643000000</v>
+        <v>1798932000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1238144763885794</v>
+        <v>0.1240987329519366</v>
       </c>
       <c r="D360" t="n">
-        <v>213164326573.063</v>
+        <v>223245181866.6931</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B361" t="n">
-        <v>1740142000000</v>
+        <v>1785342000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1258004050773044</v>
+        <v>0.1281640499839795</v>
       </c>
       <c r="D361" t="n">
-        <v>218910568492.0306</v>
+        <v>228816661326.4979</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B362" t="n">
-        <v>1757764000000</v>
+        <v>1767502000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1233745404298369</v>
+        <v>0.1332924569798595</v>
       </c>
       <c r="D362" t="n">
-        <v>216863325684.1118</v>
+        <v>235594684296.8156</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B363" t="n">
-        <v>1798932000000</v>
+        <v>1799376000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1240987329519366</v>
+        <v>0.1306455195119083</v>
       </c>
       <c r="D363" t="n">
-        <v>223245181866.6931</v>
+        <v>235080412317.2596</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B364" t="n">
-        <v>1785342000000</v>
+        <v>1777035000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1281640499839795</v>
+        <v>0.1286223262633928</v>
       </c>
       <c r="D364" t="n">
-        <v>228816661326.4979</v>
+        <v>228566375551.4682</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B365" t="n">
-        <v>1767502000000</v>
+        <v>1781526000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1332924569798595</v>
+        <v>0.1173516088905579</v>
       </c>
       <c r="D365" t="n">
-        <v>235594684296.8156</v>
+        <v>209064942380.36</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B366" t="n">
-        <v>1799376000000</v>
+        <v>1769160000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1306455195119083</v>
+        <v>0.1228531413548245</v>
       </c>
       <c r="D366" t="n">
-        <v>235080412317.2596</v>
+        <v>217346863559.3012</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B367" t="n">
-        <v>1777035000000</v>
+        <v>1802929000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1286223262633928</v>
+        <v>0.121307696973373</v>
       </c>
       <c r="D367" t="n">
-        <v>228566375551.4682</v>
+        <v>218709164796.5063</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B368" t="n">
-        <v>1781526000000</v>
+        <v>1820822000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1173516088905579</v>
+        <v>0.1191696260457135</v>
       </c>
       <c r="D368" t="n">
-        <v>209064942380.36</v>
+        <v>216986676835.8081</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B369" t="n">
-        <v>1769160000000</v>
+        <v>1831446000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1228531413548245</v>
+        <v>0.1203775038520801</v>
       </c>
       <c r="D369" t="n">
-        <v>217346863559.3012</v>
+        <v>220464897919.8767</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B370" t="n">
-        <v>1802929000000</v>
+        <v>1812952000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.121307696973373</v>
+        <v>0.1153429144847632</v>
       </c>
       <c r="D370" t="n">
-        <v>218709164796.5063</v>
+        <v>209111167500.9804</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B371" t="n">
-        <v>1820822000000</v>
+        <v>1872964000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1191696260457135</v>
+        <v>0.1122977237251401</v>
       </c>
       <c r="D371" t="n">
-        <v>216986676835.8081</v>
+        <v>210329593819.1333</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B372" t="n">
-        <v>1831446000000</v>
+        <v>1869050000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1203775038520801</v>
+        <v>0.1178189358593713</v>
       </c>
       <c r="D372" t="n">
-        <v>220464897919.8767</v>
+        <v>220209482067.9579</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B373" t="n">
-        <v>1812952000000</v>
+        <v>1861751000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1153429144847632</v>
+        <v>0.1116694584031267</v>
       </c>
       <c r="D373" t="n">
-        <v>209111167500.9804</v>
+        <v>207900725851.4796</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B374" t="n">
-        <v>1872964000000</v>
+        <v>1869042000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1122977237251401</v>
+        <v>0.1107591431672685</v>
       </c>
       <c r="D374" t="n">
-        <v>210329593819.1333</v>
+        <v>207013490463.6378</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B375" t="n">
-        <v>1869050000000</v>
+        <v>1900810000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1178189358593713</v>
+        <v>0.1083869848908543</v>
       </c>
       <c r="D375" t="n">
-        <v>220209482067.9579</v>
+        <v>206023064750.3848</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B376" t="n">
-        <v>1861751000000</v>
+        <v>1912464000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1116694584031267</v>
+        <v>0.1115312120096809</v>
       </c>
       <c r="D376" t="n">
-        <v>207900725851.4796</v>
+        <v>213299427844.8824</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B377" t="n">
-        <v>1869042000000</v>
+        <v>1915820000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1107591431672685</v>
+        <v>0.09940851931010487</v>
       </c>
       <c r="D377" t="n">
-        <v>207013490463.6378</v>
+        <v>190448829464.6851</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B378" t="n">
-        <v>1900810000000</v>
+        <v>1928903000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1083869848908543</v>
+        <v>0.1013410460625457</v>
       </c>
       <c r="D378" t="n">
-        <v>206023064750.3848</v>
+        <v>195477047773.1825</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B379" t="n">
-        <v>1912464000000</v>
+        <v>1954780000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1115312120096809</v>
+        <v>0.1014973910095641</v>
       </c>
       <c r="D379" t="n">
-        <v>213299427844.8824</v>
+        <v>198405069997.6757</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B380" t="n">
-        <v>1915820000000</v>
+        <v>1983864000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.09940851931010487</v>
+        <v>0.09735676386116926</v>
       </c>
       <c r="D380" t="n">
-        <v>190448829464.6851</v>
+        <v>193142578980.6747</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B381" t="n">
-        <v>1928903000000</v>
+        <v>2011342000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1013410460625457</v>
+        <v>0.09976913422340704</v>
       </c>
       <c r="D381" t="n">
-        <v>195477047773.1825</v>
+        <v>200669849967.176</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B382" t="n">
-        <v>1954780000000</v>
+        <v>2011789000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1014973910095641</v>
+        <v>0.09962074382824587</v>
       </c>
       <c r="D382" t="n">
-        <v>198405069997.6757</v>
+        <v>200415916605.4829</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B383" t="n">
-        <v>1983864000000</v>
+        <v>2057061000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.09735676386116926</v>
+        <v>0.09835375485129896</v>
       </c>
       <c r="D383" t="n">
-        <v>193142578980.6747</v>
+        <v>202319673308.1679</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B384" t="n">
-        <v>2011342000000</v>
+        <v>2049694000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.09976913422340704</v>
+        <v>0.09539472429016785</v>
       </c>
       <c r="D384" t="n">
-        <v>200669849967.176</v>
+        <v>195529994009.2113</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B385" t="n">
-        <v>2011789000000</v>
+        <v>2058373000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.09962074382824587</v>
+        <v>0.09004506755631195</v>
       </c>
       <c r="D385" t="n">
-        <v>200415916605.4829</v>
+        <v>185346335841.0885</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B386" t="n">
-        <v>2057061000000</v>
+        <v>2057046000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.09835375485129896</v>
+        <v>0.09295753699709973</v>
       </c>
       <c r="D386" t="n">
-        <v>202319673308.1679</v>
+        <v>191217929649.736</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B387" t="n">
-        <v>2049694000000</v>
+        <v>2108158000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.09539472429016785</v>
+        <v>0.09495233392836797</v>
       </c>
       <c r="D387" t="n">
-        <v>195529994009.2113</v>
+        <v>200174522389.7603</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B388" t="n">
-        <v>2058373000000</v>
+        <v>2112214000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.09004506755631195</v>
+        <v>0.09507239763079585</v>
       </c>
       <c r="D388" t="n">
-        <v>185346335841.0885</v>
+        <v>200813249289.3338</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B389" t="n">
-        <v>2057046000000</v>
+        <v>2147111000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.09295753699709973</v>
+        <v>0.09460379928857944</v>
       </c>
       <c r="D389" t="n">
-        <v>191217929649.736</v>
+        <v>203124858094.3011</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B390" t="n">
-        <v>2108158000000</v>
+        <v>2116923000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.09495233392836797</v>
+        <v>0.09406629792677879</v>
       </c>
       <c r="D390" t="n">
-        <v>200174522389.7603</v>
+        <v>199131109606.0503</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B391" t="n">
-        <v>2112214000000</v>
+        <v>2127901000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.09507239763079585</v>
+        <v>0.09349988780013464</v>
       </c>
       <c r="D391" t="n">
-        <v>200813249289.3338</v>
+        <v>198958504749.7943</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B392" t="n">
-        <v>2147111000000</v>
+        <v>2155842000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.09460379928857944</v>
+        <v>0.09384032130926016</v>
       </c>
       <c r="D392" t="n">
-        <v>203124858094.3011</v>
+        <v>202304905971.998</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B393" t="n">
-        <v>2116923000000</v>
+        <v>2215507000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.09406629792677879</v>
+        <v>0.08863205289560916</v>
       </c>
       <c r="D393" t="n">
-        <v>199131109606.0503</v>
+        <v>196364933614.5923</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B394" t="n">
-        <v>2127901000000</v>
+        <v>2217769000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.09349988780013464</v>
+        <v>0.09072269700433654</v>
       </c>
       <c r="D394" t="n">
-        <v>198958504749.7943</v>
+        <v>201201985012.6104</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B395" t="n">
-        <v>2155842000000</v>
+        <v>2259755000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.09384032130926016</v>
+        <v>0.09041517745334803</v>
       </c>
       <c r="D395" t="n">
-        <v>202304905971.998</v>
+        <v>204316149326.0905</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B396" t="n">
-        <v>2215507000000</v>
+        <v>2226544000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.08863205289560916</v>
+        <v>0.08639383493593898</v>
       </c>
       <c r="D396" t="n">
-        <v>196364933614.5923</v>
+        <v>192359674813.6053</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B397" t="n">
-        <v>2217769000000</v>
+        <v>2222725000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.09072269700433654</v>
+        <v>0.08629021123843711</v>
       </c>
       <c r="D397" t="n">
-        <v>201201985012.6104</v>
+        <v>191799409774.9551</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B398" t="n">
-        <v>2259755000000</v>
+        <v>2221686000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.09041517745334803</v>
+        <v>0.0858052392679097</v>
       </c>
       <c r="D398" t="n">
-        <v>204316149326.0905</v>
+        <v>190632298808.1652</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B399" t="n">
-        <v>2226544000000</v>
+        <v>2271450000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.08639383493593898</v>
+        <v>0.08247830820494211</v>
       </c>
       <c r="D399" t="n">
-        <v>192359674813.6053</v>
+        <v>187345353172.1158</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B400" t="n">
-        <v>2222725000000</v>
+        <v>2279247000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.08629021123843711</v>
+        <v>0.08406186953597848</v>
       </c>
       <c r="D400" t="n">
-        <v>191799409774.9551</v>
+        <v>191597763954.2704</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B401" t="n">
-        <v>2221686000000</v>
+        <v>2307632000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.0858052392679097</v>
+        <v>0.08228285554421881</v>
       </c>
       <c r="D401" t="n">
-        <v>190632298808.1652</v>
+        <v>189878550505.2167</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B402" t="n">
-        <v>2271450000000</v>
+        <v>2308183000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.08247830820494211</v>
+        <v>0.08219898730847636</v>
       </c>
       <c r="D402" t="n">
-        <v>187345353172.1158</v>
+        <v>189730305122.6409</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B403" t="n">
-        <v>2279247000000</v>
+        <v>2375417000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.08406186953597848</v>
+        <v>0.07889110660555235</v>
       </c>
       <c r="D403" t="n">
-        <v>191597763954.2704</v>
+        <v>187399275779.6413</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B404" t="n">
-        <v>2307632000000</v>
+        <v>2367936000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.08228285554421881</v>
+        <v>0.07533807963235017</v>
       </c>
       <c r="D404" t="n">
-        <v>189878550505.2167</v>
+        <v>178395750932.3087</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B405" t="n">
-        <v>2308183000000</v>
+        <v>2386441000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.08219898730847636</v>
+        <v>0.07220685820739253</v>
       </c>
       <c r="D405" t="n">
-        <v>189730305122.6409</v>
+        <v>172317406907.308</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B406" t="n">
-        <v>2375417000000</v>
+        <v>2415205000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.07889110660555235</v>
+        <v>0.07246004009938618</v>
       </c>
       <c r="D406" t="n">
-        <v>187399275779.6413</v>
+        <v>175005851148.238</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B407" t="n">
-        <v>2367936000000</v>
+        <v>2448155000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.07533807963235017</v>
+        <v>0.06923673424171929</v>
       </c>
       <c r="D407" t="n">
-        <v>178395750932.3087</v>
+        <v>169502257117.5363</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B408" t="n">
-        <v>2386441000000</v>
+        <v>2441272000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.07220685820739253</v>
+        <v>0.06462202577126387</v>
       </c>
       <c r="D408" t="n">
-        <v>172317406907.308</v>
+        <v>157759942098.6649</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B409" t="n">
-        <v>2415205000000</v>
+        <v>2420841000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.07246004009938618</v>
+        <v>0.06301991429291656</v>
       </c>
       <c r="D409" t="n">
-        <v>175005851148.238</v>
+        <v>152561192336.7784</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B410" t="n">
-        <v>2448155000000</v>
+        <v>2411088000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.06923673424171929</v>
+        <v>0.06306442661823319</v>
       </c>
       <c r="D410" t="n">
-        <v>169502257117.5363</v>
+        <v>152053882246.1026</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B411" t="n">
-        <v>2441272000000</v>
+        <v>2459285000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.06462202577126387</v>
+        <v>0.06778420221383204</v>
       </c>
       <c r="D411" t="n">
-        <v>157759942098.6649</v>
+        <v>166700671741.4439</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B412" t="n">
-        <v>2420841000000</v>
+        <v>2446136000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.06301991429291656</v>
+        <v>0.07036653930323053</v>
       </c>
       <c r="D412" t="n">
-        <v>152561192336.7784</v>
+        <v>172126124985.0471</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B413" t="n">
-        <v>2411088000000</v>
+        <v>2431670000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.06306442661823319</v>
+        <v>0.06368088236230601</v>
       </c>
       <c r="D413" t="n">
-        <v>152053882246.1026</v>
+        <v>154850891213.9487</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B414" t="n">
-        <v>2459285000000</v>
+        <v>2412885000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.06778420221383204</v>
+        <v>0.06797264780652265</v>
       </c>
       <c r="D414" t="n">
-        <v>166700671741.4439</v>
+        <v>164010182302.6414</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B415" t="n">
-        <v>2446136000000</v>
+        <v>2453694000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.07036653930323053</v>
+        <v>0.07200564524258701</v>
       </c>
       <c r="D415" t="n">
-        <v>172126124985.0471</v>
+        <v>176679819697.8643</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B416" t="n">
-        <v>2431670000000</v>
+        <v>2486214000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.06368088236230601</v>
+        <v>0.06791448208415964</v>
       </c>
       <c r="D416" t="n">
-        <v>154850891213.9487</v>
+        <v>168849936160.3869</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B417" t="n">
-        <v>2412885000000</v>
+        <v>2509320000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.06797264780652265</v>
+        <v>0.07292137617221112</v>
       </c>
       <c r="D417" t="n">
-        <v>164010182302.6414</v>
+        <v>182983067656.4528</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B418" t="n">
-        <v>2453694000000</v>
+        <v>2566282000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.07200564524258701</v>
+        <v>0.07424015204383139</v>
       </c>
       <c r="D418" t="n">
-        <v>176679819697.8643</v>
+        <v>190521165867.3477</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B419" t="n">
-        <v>2486214000000</v>
+        <v>2561804000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.06791448208415964</v>
+        <v>0.07107270026510117</v>
       </c>
       <c r="D419" t="n">
-        <v>168849936160.3869</v>
+        <v>182074327829.9372</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B420" t="n">
-        <v>2509320000000</v>
+        <v>2601201000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.07292137617221112</v>
+        <v>0.07283957811316356</v>
       </c>
       <c r="D420" t="n">
-        <v>182983067656.4528</v>
+        <v>189470383427.5392</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B421" t="n">
-        <v>2566282000000</v>
+        <v>2592617000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.07424015204383139</v>
+        <v>0.07423519193508875</v>
       </c>
       <c r="D421" t="n">
-        <v>190521165867.3477</v>
+        <v>192463420609.174</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B422" t="n">
-        <v>2561804000000</v>
+        <v>2556260000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.07107270026510117</v>
+        <v>0.07625345428147895</v>
       </c>
       <c r="D422" t="n">
-        <v>182074327829.9372</v>
+        <v>194923655041.5734</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B423" t="n">
-        <v>2601201000000</v>
+        <v>2585519000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.07283957811316356</v>
+        <v>0.07466642773409793</v>
       </c>
       <c r="D423" t="n">
-        <v>189470383427.5392</v>
+        <v>193051467568.6371</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B424" t="n">
-        <v>2592617000000</v>
+        <v>2575364000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.07423519193508875</v>
+        <v>0.07492376506904225</v>
       </c>
       <c r="D424" t="n">
-        <v>192463420609.174</v>
+        <v>192955967303.2689</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B425" t="n">
-        <v>2556260000000</v>
+        <v>2594454000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.07625345428147895</v>
+        <v>0.07643512683262771</v>
       </c>
       <c r="D425" t="n">
-        <v>194923655041.5734</v>
+        <v>198307420551.4183</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B426" t="n">
-        <v>2585519000000</v>
+        <v>2575034000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.07466642773409793</v>
+        <v>0.07659126001813682</v>
       </c>
       <c r="D426" t="n">
-        <v>193051467568.6371</v>
+        <v>197225098649.5429</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B427" t="n">
-        <v>2575364000000</v>
+        <v>2619202000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.07492376506904225</v>
+        <v>0.07592754993185502</v>
       </c>
       <c r="D427" t="n">
-        <v>192955967303.2689</v>
+        <v>198869590636.6145</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B428" t="n">
-        <v>2594454000000</v>
+        <v>2645827000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.07643512683262771</v>
+        <v>0.07695741176832741</v>
       </c>
       <c r="D428" t="n">
-        <v>198307420551.4183</v>
+        <v>203615997906.7584</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B429" t="n">
-        <v>2575034000000</v>
+        <v>2682778000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.07659126001813682</v>
+        <v>0.07383343177790903</v>
       </c>
       <c r="D429" t="n">
-        <v>197225098649.5429</v>
+        <v>198078706438.2752</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B430" t="n">
-        <v>2619202000000</v>
+        <v>2714733000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.07592754993185502</v>
+        <v>0.07084059449426899</v>
       </c>
       <c r="D430" t="n">
-        <v>198869590636.6145</v>
+        <v>192313299613.2104</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B431" t="n">
-        <v>2645827000000</v>
+        <v>2783914000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.07695741176832741</v>
+        <v>0.07325738983920003</v>
       </c>
       <c r="D431" t="n">
-        <v>203615997906.7584</v>
+        <v>203942273176.8067</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B432" t="n">
-        <v>2682778000000</v>
+        <v>2806033000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.07383343177790903</v>
+        <v>0.08100721126194653</v>
       </c>
       <c r="D432" t="n">
-        <v>198078706438.2752</v>
+        <v>227308908038.9936</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B433" t="n">
-        <v>2714733000000</v>
+        <v>2770230000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.07084059449426899</v>
+        <v>0.08452921033656996</v>
       </c>
       <c r="D433" t="n">
-        <v>192313299613.2104</v>
+        <v>234165354350.6762</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B434" t="n">
-        <v>2783914000000</v>
+        <v>2752658000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.07325738983920003</v>
+        <v>0.08483922965979468</v>
       </c>
       <c r="D434" t="n">
-        <v>203942273176.8067</v>
+        <v>233533384236.8711</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B435" t="n">
-        <v>2806033000000</v>
+        <v>2788976000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.08100721126194653</v>
+        <v>0.08457732481921597</v>
       </c>
       <c r="D435" t="n">
-        <v>227308908038.9936</v>
+        <v>235884129064.9977</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B436" t="n">
-        <v>2770230000000</v>
+        <v>2752713000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.08452921033656996</v>
+        <v>0.08033741715203856</v>
       </c>
       <c r="D436" t="n">
-        <v>234165354350.6762</v>
+        <v>221145852580.8395</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B437" t="n">
-        <v>2752658000000</v>
+        <v>2737382000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.08483922965979468</v>
+        <v>0.07878171948980958</v>
       </c>
       <c r="D437" t="n">
-        <v>233533384236.8711</v>
+        <v>215655660860.4539</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B438" t="n">
-        <v>2788976000000</v>
+        <v>2703936000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.08457732481921597</v>
+        <v>0.07287142565657155</v>
       </c>
       <c r="D438" t="n">
-        <v>235884129064.9977</v>
+        <v>197039671204.1274</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B439" t="n">
-        <v>2752713000000</v>
+        <v>2791325000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.08033741715203856</v>
+        <v>0.07536476546484987</v>
       </c>
       <c r="D439" t="n">
-        <v>221145852580.8395</v>
+        <v>210367553961.1721</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B440" t="n">
-        <v>2737382000000</v>
+        <v>2834147000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.07878171948980958</v>
+        <v>0.06814983422552824</v>
       </c>
       <c r="D440" t="n">
-        <v>215655660860.4539</v>
+        <v>193146648220.7782</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B441" t="n">
-        <v>2703936000000</v>
+        <v>2864233000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.07287142565657155</v>
+        <v>0.07075573492920535</v>
       </c>
       <c r="D441" t="n">
-        <v>197039671204.1274</v>
+        <v>202660910923.4826</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B442" t="n">
-        <v>2791325000000</v>
+        <v>2844764000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.07536476546484987</v>
+        <v>0.06765854087590747</v>
       </c>
       <c r="D442" t="n">
-        <v>210367553961.1721</v>
+        <v>192472581376.3101</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B443" t="n">
-        <v>2834147000000</v>
+        <v>2891387000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.06814983422552824</v>
+        <v>0.07216985898009555</v>
       </c>
       <c r="D443" t="n">
-        <v>193146648220.7782</v>
+        <v>208670992046.8815</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B444" t="n">
-        <v>2864233000000</v>
+        <v>2895085000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.07075573492920535</v>
+        <v>0.06964341180288686</v>
       </c>
       <c r="D444" t="n">
-        <v>202660910923.4826</v>
+        <v>201623596859.3607</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B445" t="n">
-        <v>2844764000000</v>
+        <v>2848485000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.06765854087590747</v>
+        <v>0.07549277911567759</v>
       </c>
       <c r="D445" t="n">
-        <v>192472581376.3101</v>
+        <v>215040048919.3209</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B446" t="n">
-        <v>2891387000000</v>
+        <v>2837818000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.07216985898009555</v>
+        <v>0.07097786200484069</v>
       </c>
       <c r="D446" t="n">
-        <v>208670992046.8815</v>
+        <v>201422254398.853</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B447" t="n">
-        <v>2895085000000</v>
+        <v>2916460000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.06964341180288686</v>
+        <v>0.06909417536101706</v>
       </c>
       <c r="D447" t="n">
-        <v>201623596859.3607</v>
+        <v>201510398673.3918</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B448" t="n">
-        <v>2848485000000</v>
+        <v>2946560000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.07549277911567759</v>
+        <v>0.06995257215607817</v>
       </c>
       <c r="D448" t="n">
-        <v>215040048919.3209</v>
+        <v>206119451012.2137</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B449" t="n">
-        <v>2837818000000</v>
+        <v>2931927000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.07097786200484069</v>
+        <v>0.06866622720281257</v>
       </c>
       <c r="D449" t="n">
-        <v>201422254398.853</v>
+        <v>201324365524.0606</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B450" t="n">
-        <v>2916460000000</v>
+        <v>2904525000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.06909417536101706</v>
+        <v>0.07110226282951455</v>
       </c>
       <c r="D450" t="n">
-        <v>201510398673.3918</v>
+        <v>206518299944.8958</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B451" t="n">
-        <v>2946560000000</v>
+        <v>2965149000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.06995257215607817</v>
+        <v>0.0697150744905571</v>
       </c>
       <c r="D451" t="n">
-        <v>206119451012.2137</v>
+        <v>206715583410.6009</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B452" t="n">
-        <v>2931927000000</v>
+        <v>2982248000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.06866622720281257</v>
+        <v>0.06596619364508076</v>
       </c>
       <c r="D452" t="n">
-        <v>201324365524.0606</v>
+        <v>196727549065.6548</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B453" t="n">
-        <v>2904525000000</v>
+        <v>2992942000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.07110226282951455</v>
+        <v>0.06616749905380476</v>
       </c>
       <c r="D453" t="n">
-        <v>206518299944.8958</v>
+        <v>198035486953.0925</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B454" t="n">
-        <v>2965149000000</v>
+        <v>2997459000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.0697150744905571</v>
+        <v>0.06623349957941728</v>
       </c>
       <c r="D454" t="n">
-        <v>206715583410.6009</v>
+        <v>198532199415.8205</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B455" t="n">
-        <v>2982248000000</v>
+        <v>3032900000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.06596619364508076</v>
+        <v>0.06829808014096724</v>
       </c>
       <c r="D455" t="n">
-        <v>196727549065.6548</v>
+        <v>207141247259.5395</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B456" t="n">
-        <v>2992942000000</v>
+        <v>3034447000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.06616749905380476</v>
+        <v>0.0713718308230671</v>
       </c>
       <c r="D456" t="n">
-        <v>198035486953.0925</v>
+        <v>216574037925.5635</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B457" t="n">
-        <v>2997459000000</v>
+        <v>3034991000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.06623349957941728</v>
+        <v>0.06666880006826885</v>
       </c>
       <c r="D457" t="n">
-        <v>198532199415.8205</v>
+        <v>202339208187.9953</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B458" t="n">
-        <v>3032900000000</v>
+        <v>3046597000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.06829808014096724</v>
+        <v>0.06407258142023284</v>
       </c>
       <c r="D458" t="n">
-        <v>207141247259.5395</v>
+        <v>195203334337.1371</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B459" t="n">
-        <v>3034447000000</v>
+        <v>3236386000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.0713718308230671</v>
+        <v>0.05608524957936063</v>
       </c>
       <c r="D459" t="n">
-        <v>216574037925.5635</v>
+        <v>181513516545.1487</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B460" t="n">
-        <v>3034991000000</v>
+        <v>3318827000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.06666880006826885</v>
+        <v>0.05397761008733577</v>
       </c>
       <c r="D460" t="n">
-        <v>202339208187.9953</v>
+        <v>179142349753.3223</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B461" t="n">
-        <v>3046597000000</v>
+        <v>3324556000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.06407258142023284</v>
+        <v>0.05705906183490531</v>
       </c>
       <c r="D461" t="n">
-        <v>195203334337.1371</v>
+        <v>189696046377.6054</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B462" t="n">
-        <v>3236386000000</v>
+        <v>3315625000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.05608524957936063</v>
+        <v>0.05771039768235043</v>
       </c>
       <c r="D462" t="n">
-        <v>181513516545.1487</v>
+        <v>191346037315.5432</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B463" t="n">
-        <v>3318827000000</v>
+        <v>3350272000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.05397761008733577</v>
+        <v>0.05865102639296187</v>
       </c>
       <c r="D463" t="n">
-        <v>179142349753.3223</v>
+        <v>196496891495.6012</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B464" t="n">
-        <v>3324556000000</v>
+        <v>3449687000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.05705906183490531</v>
+        <v>0.05903571070140328</v>
       </c>
       <c r="D464" t="n">
-        <v>189696046377.6054</v>
+        <v>203654723742.3918</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B465" t="n">
-        <v>3315625000000</v>
+        <v>3398176000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.05771039768235043</v>
+        <v>0.05977929484343802</v>
       </c>
       <c r="D465" t="n">
-        <v>191346037315.5432</v>
+        <v>203140565033.8949</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B466" t="n">
-        <v>3350272000000</v>
+        <v>3468293000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.06166406649852932</v>
       </c>
       <c r="D466" t="n">
-        <v>196496891495.6012</v>
+        <v>213869050188.3838</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B467" t="n">
-        <v>3449687000000</v>
+        <v>3481094000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.05903571070140328</v>
+        <v>0.06473170649608567</v>
       </c>
       <c r="D467" t="n">
-        <v>203654723742.3918</v>
+        <v>225337155093.2849</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B468" t="n">
-        <v>3398176000000</v>
+        <v>3489713000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.05977929484343802</v>
+        <v>0.06808728517610436</v>
       </c>
       <c r="D468" t="n">
-        <v>203140565033.8949</v>
+        <v>237605084213.7587</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B469" t="n">
-        <v>3468293000000</v>
+        <v>3477595000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.06166406649852932</v>
+        <v>0.06610958324518722</v>
       </c>
       <c r="D469" t="n">
-        <v>213869050188.3838</v>
+        <v>229902356145.5468</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B470" t="n">
-        <v>3481094000000</v>
+        <v>3445432000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.06473170649608567</v>
+        <v>0.06621990305406193</v>
       </c>
       <c r="D470" t="n">
-        <v>225337155093.2849</v>
+        <v>228156173019.3627</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B471" t="n">
-        <v>3489713000000</v>
+        <v>3468690000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.06808728517610436</v>
+        <v>0.06774379297496867</v>
       </c>
       <c r="D471" t="n">
-        <v>237605084213.7587</v>
+        <v>234982217254.3441</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B472" t="n">
-        <v>3477595000000</v>
+        <v>3465042000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.06610958324518722</v>
+        <v>0.06910754516178076</v>
       </c>
       <c r="D472" t="n">
-        <v>229902356145.5468</v>
+        <v>239460546502.4671</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B473" t="n">
-        <v>3445432000000</v>
+        <v>3447483000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.06621990305406193</v>
+        <v>0.0728093487203757</v>
       </c>
       <c r="D473" t="n">
-        <v>228156173019.3627</v>
+        <v>251008991954.567</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B474" t="n">
-        <v>3468690000000</v>
+        <v>3376660000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.06774379297496867</v>
+        <v>0.07010557900197698</v>
       </c>
       <c r="D474" t="n">
-        <v>234982217254.3441</v>
+        <v>236722704392.8156</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B475" t="n">
-        <v>3465042000000</v>
+        <v>3490057000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.06910754516178076</v>
+        <v>0.06856782386297407</v>
       </c>
       <c r="D475" t="n">
-        <v>239460546502.4671</v>
+        <v>239305613647.7397</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B476" t="n">
-        <v>3447483000000</v>
+        <v>3540188000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.0728093487203757</v>
+        <v>0.06891466297284073</v>
       </c>
       <c r="D476" t="n">
-        <v>251008991954.567</v>
+        <v>243970862880.4951</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B477" t="n">
-        <v>3376660000000</v>
+        <v>3560444000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.07010557900197698</v>
+        <v>0.06644915642795915</v>
       </c>
       <c r="D477" t="n">
-        <v>236722704392.8156</v>
+        <v>236588500308.9886</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B478" t="n">
-        <v>3490057000000</v>
+        <v>3550623000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.06856782386297407</v>
+        <v>0.06572850185025733</v>
       </c>
       <c r="D478" t="n">
-        <v>239305613647.7397</v>
+        <v>233377130425.0662</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B479" t="n">
-        <v>3540188000000</v>
+        <v>3659236000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.06891466297284073</v>
+        <v>0.06299887232018547</v>
       </c>
       <c r="D479" t="n">
-        <v>243970862880.4951</v>
+        <v>230527741553.4262</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B480" t="n">
-        <v>3560444000000</v>
+        <v>3668057000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.06644915642795915</v>
+        <v>0.06276959541229582</v>
       </c>
       <c r="D480" t="n">
-        <v>236588500308.9886</v>
+        <v>230242453839.2396</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B481" t="n">
-        <v>3550623000000</v>
+        <v>3658001000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.06572850185025733</v>
+        <v>0.06509145349215648</v>
       </c>
       <c r="D481" t="n">
-        <v>233377130425.0662</v>
+        <v>238104601965.7619</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B482" t="n">
-        <v>3659236000000</v>
+        <v>3618983000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.06299887232018547</v>
+        <v>0.06510543825725763</v>
       </c>
       <c r="D482" t="n">
-        <v>230527741553.4262</v>
+        <v>235615474260.565</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B483" t="n">
-        <v>3668057000000</v>
+        <v>3708143000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.06276959541229582</v>
+        <v>0.06846454563504289</v>
       </c>
       <c r="D483" t="n">
-        <v>230242453839.2396</v>
+        <v>253876325644.7649</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B484" t="n">
-        <v>3658001000000</v>
+        <v>3679157000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.06509145349215648</v>
+        <v>0.06326151043182307</v>
       </c>
       <c r="D484" t="n">
-        <v>238104601965.7619</v>
+        <v>232749028935.8149</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B485" t="n">
-        <v>3618983000000</v>
+        <v>3680984000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.06510543825725763</v>
+        <v>0.06408654246694737</v>
       </c>
       <c r="D485" t="n">
-        <v>235615474260.565</v>
+        <v>235901537436.1538</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B486" t="n">
-        <v>3708143000000</v>
+        <v>3621974000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.06846454563504289</v>
+        <v>0.06149116064565719</v>
       </c>
       <c r="D486" t="n">
-        <v>253876325644.7649</v>
+        <v>222719385088.3936</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B487" t="n">
-        <v>3679157000000</v>
+        <v>3726372000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.06326151043182307</v>
+        <v>0.06031872413834702</v>
       </c>
       <c r="D487" t="n">
-        <v>232749028935.8149</v>
+        <v>224770004704.8604</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B488" t="n">
-        <v>3680984000000</v>
+        <v>3789445000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.06408654246694737</v>
+        <v>0.05844227948266894</v>
       </c>
       <c r="D488" t="n">
-        <v>235901537436.1538</v>
+        <v>221463803774.2024</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B489" t="n">
-        <v>3621974000000</v>
+        <v>3829270000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.06149116064565719</v>
+        <v>0.0553345248701022</v>
       </c>
       <c r="D489" t="n">
-        <v>222719385088.3936</v>
+        <v>211890836049.3362</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B490" t="n">
-        <v>3726372000000</v>
+        <v>3858434000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.06031872413834702</v>
+        <v>0.05453127641358701</v>
       </c>
       <c r="D490" t="n">
-        <v>224770004704.8604</v>
+        <v>210405330977.5822</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B491" t="n">
-        <v>3789445000000</v>
+        <v>3909531000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.05844227948266894</v>
+        <v>0.05806829993438282</v>
       </c>
       <c r="D491" t="n">
-        <v>221463803774.2024</v>
+        <v>227019818710.7676</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B492" t="n">
-        <v>3829270000000</v>
+        <v>3905132000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.0553345248701022</v>
+        <v>0.05892092223027474</v>
       </c>
       <c r="D492" t="n">
-        <v>211890836049.3362</v>
+        <v>230093978870.9573</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B493" t="n">
-        <v>3858434000000</v>
+        <v>3936219000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.05453127641358701</v>
+        <v>0.05747952291995976</v>
       </c>
       <c r="D493" t="n">
-        <v>210405330977.5822</v>
+        <v>226251990228.4811</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B494" t="n">
-        <v>3909531000000</v>
+        <v>3977391000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.05806829993438282</v>
+        <v>0.05448433303003721</v>
       </c>
       <c r="D494" t="n">
-        <v>227019818710.7676</v>
+        <v>216705495834.6727</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B495" t="n">
-        <v>3905132000000</v>
+        <v>3995219000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.05892092223027474</v>
+        <v>0.05628032102295111</v>
       </c>
       <c r="D495" t="n">
-        <v>230093978870.9573</v>
+        <v>224852207876.9937</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B496" t="n">
-        <v>3936219000000</v>
+        <v>4008914000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.05747952291995976</v>
+        <v>0.05474292721380398</v>
       </c>
       <c r="D496" t="n">
-        <v>226251990228.4811</v>
+        <v>219459687308.3997</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B497" t="n">
-        <v>3977391000000</v>
+        <v>4007716000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.05448433303003721</v>
+        <v>0.05070531087426097</v>
       </c>
       <c r="D497" t="n">
-        <v>216705495834.6727</v>
+        <v>203212485675.7497</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B498" t="n">
-        <v>3995219000000</v>
+        <v>4005043000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.05628032102295111</v>
+        <v>0.0531697124050256</v>
       </c>
       <c r="D498" t="n">
-        <v>224852207876.9937</v>
+        <v>212946984479.7609</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B499" t="n">
-        <v>4008914000000</v>
+        <v>4031953000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.05474292721380398</v>
+        <v>0.05619492896960978</v>
       </c>
       <c r="D499" t="n">
-        <v>219459687308.3997</v>
+        <v>226575312443.8051</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B500" t="n">
-        <v>4007716000000</v>
+        <v>4067165000000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.05070531087426097</v>
+        <v>0.05300990224974025</v>
       </c>
       <c r="D500" t="n">
-        <v>203212485675.7497</v>
+        <v>215600019083.5648</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B501" t="n">
-        <v>4005043000000</v>
+        <v>4094931000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.0531697124050256</v>
+        <v>0.05287340520591548</v>
       </c>
       <c r="D501" t="n">
-        <v>212946984479.7609</v>
+        <v>216512946053.2647</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>South Africa_M2 (ZAR)</t>
+  </si>
+  <si>
+    <t>South Africa_FX (USD)</t>
+  </si>
+  <si>
+    <t>South Africa_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7029 +385,7013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_M2 (ZAR)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>29983</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>26602000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30011</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>27738000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30042</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>27384000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.9560229445506692</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>26179732313.57552</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30072</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>27294000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.9251549634563789</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>25251179572.57841</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30103</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>27709000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.8764241893076249</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>24284837861.52498</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30133</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>28216000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.8714596949891068</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24589106753.81264</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>28384000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.8688852202624033</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>24662438091.92805</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30195</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>29265000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.8649770781074302</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>25313554190.81395</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30225</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>30119000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.8530239699735563</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>25692228951.63354</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30256</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>30601000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.9014693951140359</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>27585864959.88461</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30286</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>31356000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>29192812587.28237</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30317</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>31464000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.9365049634763064</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>29466192170.8185</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30348</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>31645000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.9170105456212746</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>29018798716.18523</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30376</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>33018000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.9123255177447313</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>30123163944.89554</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30407</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>32272000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.9166743056192135</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>29582913190.94326</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30437</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>34418000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>32043571362.07057</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30468</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>34672000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.9139932364500503</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>31689973494.19614</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30498</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>34907000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.91000091000091</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>31765401765.40176</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30529</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>35060000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.8880206020779682</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>31134002308.85357</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>37047000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.9059612248595761</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>33563145497.37271</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30590</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>36682000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.8514986376021798</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>31234673024.52316</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30621</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>37366000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.8389965601141035</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>31349945465.22359</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30651</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>38465000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.8179959100204499</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>31464212678.93661</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30682</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>38905000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.7864726700747149</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>30597719229.25678</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30713</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>39321000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.8350033400133601</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>32833166332.66533</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30742</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>39614000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.8080155138978669</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>32008726567.5501</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30773</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>40633000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.7961783439490446</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>32351114649.68153</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>41110000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>32064581545.90125</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30834</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>41484000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.7359976448075366</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>30532126297.19585</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30864</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>42605000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.6080136195050769</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>25904420259.0138</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30895</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>43199000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.6360109393881574</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>27475036570.62901</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>30926</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>45287000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.5985156811108451</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>27104979650.46684</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>30956</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>46311000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.5249895002099958</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>24312788744.22512</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>30987</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>47671000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.5380104374024856</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>25647495561.41389</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31017</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>47825000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.502487312195367</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>24031455705.74343</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31048</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>48078000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.504999495000505</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>24279365720.63428</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31079</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>48526000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.488997555012225</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>23729095354.52323</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31107</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>49123000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.5289885738468049</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>25985505713.0766</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31138</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>49187000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.5140066820868672</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>25282446671.80674</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31168</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>50021000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.502992807202857</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>25160203209.09411</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31199</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>50480000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.5103082261686058</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>25760359256.99122</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31229</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>50961000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.455000455000455</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>23187278187.27819</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31260</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>51681000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3550001775000888</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>18346764173.38209</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31291</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>51937000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>20281552639.80006</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31321</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>52956000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3869969040247678</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>20493808049.5356</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31352</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>52822000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.37000037000037</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>19544159544.15955</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31382</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>54577000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.3889991053020578</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>21230404170.07041</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31413</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>52982000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.43750273439209</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>23179769873.56171</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31444</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>54711000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.5034993202759176</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>27546951311.61573</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31472</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>54024000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.4650081376424087</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>25121599627.99349</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>54226000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.4860031104199067</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>26354004665.62986</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31533</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>54464000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.4234955321221361</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>23065260661.50002</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31564</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>54673000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.40399143538157</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>22087423746.61657</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31594</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>54551000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>21302327397.68822</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31625</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>54737000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.3920031360250882</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>21457075656.60525</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31656</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>55248000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.44849082836256</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>24778221285.37472</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31686</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>56003000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.4359958144401814</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>24417073596.09348</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31717</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>56188000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.4504910352283989</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>25312190287.41328</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31747</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>56921000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.457205559619605</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>26024597659.10754</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31778</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>55313000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.4775093114315729</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>26412472543.21459</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31809</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>56599000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.481000481000481</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>27224146224.14622</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31837</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>57129000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.495000495000495</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>28278883278.88328</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31868</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>58397000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.499001996007984</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>29140219560.87824</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31898</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>58843000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.494486475794887</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>29097067695.19854</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>31929</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>59131000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.4884959210590592</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>28885252308.14323</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>31959</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>59587000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.4825090470446322</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>28751266586.2485</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>31990</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>60093000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.4900039200313603</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>29445805566.44453</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32021</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>62790000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.4815100154083205</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>30234013867.48845</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32051</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>64619000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.4960071425028521</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>32051485541.3918</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32082</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>67636000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.5135051864023826</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>34731436787.51155</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32112</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>69464000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.5180005180005179</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>35982387982.38798</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>69972000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.5020080321285141</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>35126506024.09639</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32174</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>71940000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.478996024332998</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>34458973990.51588</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32203</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>75614000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.4694835680751174</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>35499530516.43192</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32234</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>75376000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.4651162790697674</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>35058604651.16279</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32264</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>76968000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.4464285714285714</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>34360714285.71429</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32295</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>78923000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.4291845493562232</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>33872532188.8412</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32325</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>78621000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.4098360655737705</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>32221721311.47541</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32356</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>82506000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.4081632653061224</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>33675918367.34694</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32387</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>86326000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.4016064257028112</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>34669076305.22088</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32417</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>87433000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.3984063745019921</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>34833864541.83267</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32448</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>89360000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.4347826086956522</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>38852173913.04348</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32478</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>93941000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.4201680672268908</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>39471008403.36134</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32509</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>93139000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.4166666666666667</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>38807916666.66667</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32540</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>95737000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.4032258064516129</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>38603629032.25806</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32568</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>100882000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.390625</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>39407031250</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32599</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>98893000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.390625</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>38630078125</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32629</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>99881000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.364963503649635</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>36452919708.0292</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32660</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>102369000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.3597122302158274</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>36823381294.96404</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32690</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>103301000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.3773584905660378</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>38981509433.96227</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32721</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>106860000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.3690036900369004</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>39431734317.34317</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32752</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>109691000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.3713330857779428</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>40731897512.06833</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32782</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>113738000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.3789314134141721</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>43098901098.90111</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32813</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>115655000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.3834355828220859</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>44346242331.28835</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32843</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>119022000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.3947887879984209</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>46988551125.14805</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32874</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>119454000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.3900916715428126</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>46598010532.47514</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32905</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>121163000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.3910833007430583</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>47384825967.93118</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>32933</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>124200000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.3784295175023652</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>47000946073.79375</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>32964</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>122731000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.3760105282947923</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>46148148148.14815</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>32994</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>123458000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.3738317757009346</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>46152523364.48598</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33025</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>122874000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.377643504531722</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>46402567975.83081</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33055</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>121553000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.3869220352099053</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>47031534145.86961</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33086</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>124069000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.3875368159975198</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>48081305223.99628</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33117</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>124001000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.390015600624025</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>48362324492.97972</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33147</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>125418000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.3940886699507389</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>49425812807.88177</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33178</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>130295000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.3960396039603961</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>51601980198.01981</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33208</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>134244000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.390625</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>52439062500</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33239</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>133075000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.3943217665615142</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>52474369085.1735</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33270</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>141904000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.3887269193391643</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>55161904761.90476</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33298</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>144489000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.3696857670979667</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>53415526802.21812</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33329</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>143243000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.3613369467028004</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>51758988256.54923</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33359</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>147025000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.3511852502194908</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>51633011413.52063</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33390</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>147706000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.3457216940363008</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>51065168539.32584</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33420</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>147683000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.3484320557491289</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>51457491289.1986</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33451</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>150139000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.3466805338880222</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>52050268677.41376</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33482</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>151994000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.3566333808844508</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>54206134094.15121</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33512</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>152178000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.3539823008849557</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>53868318584.07079</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33543</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>157379000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.3571428571428572</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>56206785714.28571</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33573</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>155363000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.3629764065335753</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>56393103448.27586</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33604</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>154965000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.357653791130186</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>55423819742.48928</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33635</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>157762000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.3516174402250352</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>55471870604.782</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>161099000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>55976025017.37318</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33695</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>164970000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.3487966515521451</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>57540983606.55738</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33725</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>163246000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.3527336860670194</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>57582363315.69665</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33756</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>164787000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.3607503607503608</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>59446969696.9697</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33786</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>167064000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.3614022406938923</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>60377303939.28442</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33817</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>168993000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.3648303538854433</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>61653775994.16271</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33848</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>171409000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.3553660270078181</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>60912935323.38309</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33878</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>170847000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.3378378378378378</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>57718581081.08108</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>33909</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>173892000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.3309066843150232</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>57542025148.90801</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>33939</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>172214000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.3278688524590164</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>56463606557.37705</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>33970</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>167467000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.3257328990228013</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>54549511400.65147</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34001</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>168685000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.3179650238473768</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>53635930047.69476</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34029</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>169307000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.3156565656565656</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>53442866161.61616</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34060</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>168424000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.3169572107765452</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>53383201267.82885</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34090</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>168455000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.3149606299212598</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>53056692913.38583</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34121</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>167739000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.3005710850616171</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>50417493237.15058</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34151</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>167148000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.2961208172934557</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>49496002368.96654</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34182</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>171374000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.2960331557134399</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>50732386027.23505</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34213</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>173708000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.2911208151382824</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>50570014556.04076</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34243</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>174910000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.2985965959988056</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>52227530606.15109</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34274</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>178454000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.2968239833778569</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>52969427129.71208</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34304</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>178963000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.2943773918163085</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>52682661171.62202</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34335</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>179000000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.2921413964358749</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>52293309962.02161</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34366</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>189328000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2878526194588371</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>54498560736.9027</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34394</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>193007000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.2873563218390804</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>55461781609.1954</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34425</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>192238000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.2836074872376631</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>54520136131.59388</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34455</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>199770000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>55002753303.96475</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34486</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>196484000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>53757592339.26128</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34516</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>199156000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.2723311546840959</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>54236383442.26579</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34547</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>205006000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.2790178571428572</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>57200334821.42857</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34578</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>205819000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.2802690582959641</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>57684697309.41704</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34608</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>208879000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.2858776443682104</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>59713836477.98742</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34639</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>213927000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.2815315315315315</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>60227195945.94595</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34669</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>215823000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.2826455624646693</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>61001413227.81232</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34700</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>208864000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.2831257078142695</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>59134767836.91959</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34731</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>213360000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.2779321845469706</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>59299610894.94164</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34759</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>216538000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.2794857462269424</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>60519284516.48966</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34790</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>222258000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.2763957987838585</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>61431177446.10282</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34820</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>230265000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.2718868950516585</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>62606035889.07015</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34851</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>227731000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.275027502750275</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>62632288228.82288</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34881</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>225899000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.2761668047500691</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>62385805026.23585</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>34912</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>226033000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>61842134062.9275</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>34943</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>229457000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.273972602739726</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>62864931506.84931</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>34973</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>229245000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.274273176083379</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>62875754251.23423</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35004</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>236725000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.2726281352235551</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>64537895310.79607</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35034</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>245722000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.2743484224965707</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>67413443072.70233</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35065</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>244019000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.2740476842970677</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>66872841874.48615</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35096</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>256444000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.2580645161290323</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>66179096774.19355</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35125</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>265163000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.2515723270440252</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>66707672955.97485</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35156</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>264779000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>61149884526.55889</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35186</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>269925000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.2299379167624741</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>62065992182.11083</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35217</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>276835000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>63934180138.56813</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35247</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>277150000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.2212389380530974</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>61316371681.41593</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35278</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>281768000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>62768545333.03631</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35309</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>283328000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.2203128442388191</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>62420797532.49615</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35339</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>286970000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.2129925452609158</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>61122470713.52502</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35370</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>289759000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.2168256721595837</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>62827189939.2888</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35400</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>295313000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.2137665669089354</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>63128046173.57845</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35431</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>295617000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.2192982456140351</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>64828289473.68421</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35462</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>303035000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.2232142857142857</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>67641741071.42857</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35490</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>313686000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.2262443438914027</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>70969683257.91855</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35521</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>309474000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.2248201438848921</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>69575989208.63309</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35551</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>316586000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.2238638907544213</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>70872173718.37924</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35582</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>316433000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.2205558006175563</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>69791133656.81517</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35612</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>317291000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.2168726957276079</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>68811754500.10843</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35643</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>324572000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.213652387565431</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>69345582736.88708</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35674</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>338253000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2148689299527288</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>72680060163.30038</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35704</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>343147000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2077274615704196</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>71281055255.50478</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35735</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>347944000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2059732234809475</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>71667147270.85478</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35765</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>350700000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.2055921052631579</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>72101151315.78947</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35796</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>351467000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.2027780594139714</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>71269796208.05029</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35827</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>363414000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.2024701356549909</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>73580481878.92287</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35855</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>361312000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1986886548778065</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>71788595271.21001</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35886</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>366500000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.1979022362952702</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>72531169602.21651</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35916</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>366492000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1940617116242965</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>71122064816.61168</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>35947</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>375751000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1677711601375724</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>63040181192.85296</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>35977</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>375135000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1631321370309951</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>61196574225.12235</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36008</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>385084000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1550387596899225</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>59702945736.4341</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36039</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>387349000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.169061707523246</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>65485883347.42181</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36069</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>378172000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1788748770235221</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>67645469993.73939</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36100</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>389009000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1758396342535608</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>68403200281.34341</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36130</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>393806000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1706484641638225</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>67202389078.49829</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36161</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>388959000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1650846058605035</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>64211143210.89558</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36192</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>379842000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.1617468661544683</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>61438253133.84554</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36220</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>391457000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.16249593760156</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>63610172245.69386</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36251</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>395318000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1643007360672976</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>64951038380.65195</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36281</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>396818000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>63899838969.40418</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36312</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>407884000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.1658374792703151</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>67642454394.6932</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36342</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>407541000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1621402513173895</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>66078800162.14025</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36373</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>413501000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.164446637066272</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>67998848873.54053</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36404</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>427411000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.1665278934221482</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>71175853455.4538</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36434</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>426662000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>69432384052.07486</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36465</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>440284000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1619957881095092</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>71324153572.00713</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36495</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>446935000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1625884074465491</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>72666449882.12341</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36526</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>438789000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.158378207158695</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>69494615140.9566</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36557</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>443529000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1576789656259855</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>69935193945.12772</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36586</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>438954000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.1533742331288344</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>67324233128.83436</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36617</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>440728000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>65052103321.03321</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36647</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>437781000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1435750179468772</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>62854414931.80186</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36678</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>441072000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>65102878228.78229</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36708</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>433197000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1437297879985627</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>62263312971.61337</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36739</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>439801000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1435441039259313</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>63130840450.72849</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36770</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>452472000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1379690949227373</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>62427152317.88079</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36800</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>450460000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1328021248339973</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>59822045152.72244</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>461178000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1291155584247902</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>59545255003.22789</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36861</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>474848000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1319713886029509</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>62666349935.33402</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36892</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>474206000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1292256797270754</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>61279592680.65749</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36923</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>483016000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.1306062743254186</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>63084920199.56639</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>36951</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>491457000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.1244152483328357</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>61144744699.91042</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>36982</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>490895000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>61224120728.36118</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37012</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>491567000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>61522778473.09137</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37043</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>492768000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>61262121438.16202</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37073</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>497927000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1210419289241793</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>60270044543.42985</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37104</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>513455000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.119387304354055</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>61300008357.11131</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37135</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>508210000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1110358534770877</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>56429531095.59077</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37165</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>510372000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.105682550754045</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>53937414793.44345</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37196</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>522814000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.09749439407234084</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>50971434142.5368</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37226</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>544056000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.08350730688935282</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>45432651356.99374</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37257</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>560885000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.08777319406653207</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>49230667954.00684</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37288</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>573536000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.08822232024702249</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>50598676665.19629</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37316</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>585236000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.0883197173769044</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>51687878118.79002</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37347</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>581307000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.09383063570255688</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>54544405348.34624</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37377</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>594432000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.102380342974149</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>60858152034.80932</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37408</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>579246000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.09737098344693282</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>56401752677.70205</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37438</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>574280000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.09826078412105729</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>56429203105.04078</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37469</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>591806000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>55962742316.78487</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37500</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>598267000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.09513842641042718</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>56918180953.28703</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37530</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>607600000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.09995002498750624</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>60729635182.40879</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37561</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>621424000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.1082602576594132</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>67275522355.74321</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37591</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>632621000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>74034055002.92569</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37622</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>639520000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.1178314303557331</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>75355556341.09842</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37653</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>646346000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.1239464551313832</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>80112295488.34903</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37681</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>651020000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.1272102785905101</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>82816435567.9939</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37712</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>671314000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.1378359751895245</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>92531219848.38043</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37742</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>680405000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>84260681114.55109</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37773</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>684477000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.1343111182743708</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>91932871303.08647</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37803</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>688974000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.1362323579096507</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>93860552558.4437</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37834</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>690024000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.1364256480218281</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>94136971350.61392</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>706699000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.144196106705119</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>101903244412.4009</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37895</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>711110000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.1455582888167567</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>103507954760.4838</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37926</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>721063000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.1569858712715856</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>113196703296.7033</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>37956</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>733453000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.1517450682852807</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>111297875569.044</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>37987</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>734861000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.1412628902387343</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>103808588783.7265</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38018</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>756772000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.150941117869919</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>114228011652.6543</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38047</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>748540000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.1595405232929164</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>119422463305.6796</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38078</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>750744000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.1447178002894356</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>108646020260.492</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38108</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>748172000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.1534636751480924</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>114817224762.8986</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38139</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>749022000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.163212012404113</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>122249387954.9535</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38169</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>748658000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.1598082301238514</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>119641709948.0623</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38200</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>766827000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1509433962264151</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>115747471698.1132</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38231</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>790428000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1552072016141549</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>122680117957.4732</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38261</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>807543000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1641497045305318</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>132557944845.6993</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38292</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>805336000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.1721614874752518</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>138647843677.3694</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38322</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>818740000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1770287494689138</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>144940518340.1784</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38353</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>819280000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.1674340728338217</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>137175387191.2934</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38384</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>842007000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1722652885443583</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>145048578811.3695</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38412</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>836640000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1604621309370989</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>134249037227.2144</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>870197000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1644736842105263</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>143124506578.9474</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38473</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>865829000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1472320376914016</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>127477767962.3086</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38504</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>876491000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.1501501501501502</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>131605255255.2553</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38534</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>898047000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1523693432881304</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>136834831631.8757</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38565</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>915941000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1574555188159345</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>144219965359.7859</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38596</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>928537000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1577784790154623</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>146503155569.5803</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38626</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>931975000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1490312965722802</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>138893442622.9508</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38657</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>937193000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1551133102731545</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>145371108594.8285</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38687</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>963515000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.158045295781771</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>152279013165.1731</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38718</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>965101000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1654232353476369</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>159650129857.2398</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38749</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1000200000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1625408383856444</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>162573346553.3215</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38777</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1032586000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>167900162601.626</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38808</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1026904000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.1670843776106934</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>171579615705.9315</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38838</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1044155000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.1487541837114169</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>155322424693.1945</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38869</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1050280000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.1402268871033332</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>147277494986.8888</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38899</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1061266000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.1445295562942622</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>153384304090.1864</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38930</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1078788000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.1400560224089636</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>151090756302.521</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38961</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1106311000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.129366106080207</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>143119146183.6999</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>38991</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1125707000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.1358511071865236</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>152928542317.6199</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39022</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1146097000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1399932803225445</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>160445878597.8273</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39052</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1156842000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1427103550633634</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>165093332572.2115</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39083</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1133627000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1388406803193336</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>157393543908.3652</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39114</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1180287000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1385502105963201</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>163529012414.0989</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39142</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1195132000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1379500620775279</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>164868533590.8401</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39173</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1215180000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.142673705236125</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>173374233128.8343</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39203</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1241347000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1414227124876255</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>175554659878.3765</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39234</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1249390000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1425313568985177</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>178077251995.439</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39264</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1290230000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1399423437543732</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>180557810182.2049</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39295</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1341912000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.140548137737175</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>188603232607.1679</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39326</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1350336000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1458512608841503</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>196948208217.26</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39356</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1346359000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.154273372415921</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>207707343412.527</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39387</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1381640000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1472732360348154</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>203478593835.1424</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39417</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1396325000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1463957369561398</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>204416027405.282</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39448</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1377990000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1338508901084192</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>184445188060.5006</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39479</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1393920000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1279230414982347</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>178314486005.2193</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39508</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1431028000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1234415504258733</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>176648315022.8367</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39539</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1458145000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.1324503311258278</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>193131788079.4702</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39569</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1482428000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1322401481089659</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>196036498280.8781</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39600</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1474862000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1277791975466394</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>188456682852.0317</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39630</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1484679000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.1364237868514754</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>202545531438.8617</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39661</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1482748000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.129974784891731</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>192719852348.6444</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39692</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1506513000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1208327795164272</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>182036153167.6313</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39722</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1523646000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1026630803030614</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>156422191651.4383</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39753</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1565803000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.09868940470551082</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>154528165956.103</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39783</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1562427000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1071799873527615</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>167460906099.6131</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39814</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1566667000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.09811039381512077</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>153706316347.1538</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39845</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1585801000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.09911490390810067</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>157176513732.3699</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39873</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1574342000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.105380851666967</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>165905500775.0761</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39904</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1574490000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.1184246209523945</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>186458381443.3356</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39934</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1597266000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1258211402163369</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>200969829348.7875</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39965</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1545955000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1297489746587278</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>200586076118.5335</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>39995</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1539789000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1289908145640949</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>198618637366.8331</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40026</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1554419000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1287665835263759</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>200157223998.4857</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40057</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1544145000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.1333210677950962</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>205867060230.4588</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40087</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1537065000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1281100311435486</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>196913445019.6585</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40118</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1549706000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1351700236142031</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>209473796615.0723</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40148</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1589340000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1355548054856319</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>215442674550.5341</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40179</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1569747000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1312802847206815</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>206076833099.4356</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40210</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1566078000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1295674132772911</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>202912675450.4735</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40238</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1578113000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.137462902199269</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>216931992978.395</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40269</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1581563000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.135475655024792</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>214263283387.9752</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40299</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1580338000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1310255368771374</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>207064634897.3415</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40330</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1551427000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.1304886801070007</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>202443661512.3638</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40360</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1583836000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.1372156206262521</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>217327039710.2006</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40391</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1595672000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.135707306481381</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>216544349147.7581</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40422</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1589594000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1437359857413902</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>228481860518.5994</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40452</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1598006000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1429245215601641</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>228394243000.2716</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40483</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1660253000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.1407974769092138</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>233759433430.9529</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40513</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1678417000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1518395359783781</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>254850058458.2214</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40544</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1674643000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1392874056327827</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>233256678831.1001</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40575</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1653749000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.143682289720969</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>237614442943.7628</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40603</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1650771000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1477235796377818</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>243857801282.2407</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40634</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>1656915000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1525129559756101</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>252701004450.3281</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40664</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1666606000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1472472133464874</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>245403089246.536</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40695</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>1646475000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1479443137603006</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>243586613998.491</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40725</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>1670191000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.1497633738692865</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>250133439166.1176</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40756</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>1693482000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1431372829680947</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>242400412235.3749</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40787</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>1721643000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>213164326573.063</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40817</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>1740142000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1258004050773044</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>218910568492.0306</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40848</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1757764000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1233745404298369</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>216863325684.1118</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40878</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>1798932000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1240987329519366</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>223245181866.6931</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40909</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>1785342000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1281640499839795</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>228816661326.4979</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40940</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>1767502000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1332924569798595</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>235594684296.8156</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>40969</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>1799376000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1306455195119083</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>235080412317.2596</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41000</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>1777035000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.1286223262633928</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>228566375551.4682</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41030</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>1781526000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.1173516088905579</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>209064942380.36</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41061</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>1769160000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.1228531413548245</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>217346863559.3012</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41091</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>1802929000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.121307696973373</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>218709164796.5063</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41122</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>1820822000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.1191696260457135</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>216986676835.8081</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41153</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>1831446000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1203775038520801</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>220464897919.8767</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41183</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>1812952000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1153429144847632</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>209111167500.9804</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41214</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>1872964000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.1122977237251401</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>210329593819.1333</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41244</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>1869050000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.1178189358593713</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>220209482067.9579</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41275</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>1861751000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1116694584031267</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>207900725851.4796</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41306</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>1869042000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1107591431672685</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>207013490463.6378</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41334</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>1900810000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.1083869848908543</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>206023064750.3848</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41365</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>1912464000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.1115312120096809</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>213299427844.8824</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41395</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>1915820000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.09940851931010487</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>190448829464.6851</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41426</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>1928903000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1013410460625457</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>195477047773.1825</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41456</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>1954780000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1014973910095641</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>198405069997.6757</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41487</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>1983864000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.09735676386116926</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>193142578980.6747</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41518</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>2011342000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.09976913422340704</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>200669849967.176</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>2011789000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.09962074382824587</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>200415916605.4829</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41579</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>2057061000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.09835375485129896</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>202319673308.1679</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41609</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>2049694000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.09539472429016785</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>195529994009.2113</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41640</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>2058373000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.09004506755631195</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>185346335841.0885</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41671</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>2057046000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.09295753699709973</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>191217929649.736</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41699</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>2108158000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.09495233392836797</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>200174522389.7603</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41730</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>2112214000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.09507239763079585</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>200813249289.3338</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41760</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>2147111000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.09460379928857944</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>203124858094.3011</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41791</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>2116923000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.09406629792677879</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>199131109606.0503</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41821</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>2127901000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.09349988780013464</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>198958504749.7943</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41852</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>2155842000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.09384032130926016</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>202304905971.998</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41883</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>2215507000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.08863205289560916</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>196364933614.5923</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41913</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>2217769000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.09072269700433654</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>201201985012.6104</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41944</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>2259755000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.09041517745334803</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>204316149326.0905</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>41974</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>2226544000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.08639383493593898</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>192359674813.6053</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42005</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>2222725000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.08629021123843711</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>191799409774.9551</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42036</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>2221686000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.0858052392679097</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>190632298808.1652</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42064</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>2271450000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.08247830820494211</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>187345353172.1158</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42095</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>2279247000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.08406186953597848</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>191597763954.2704</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42125</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>2307632000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.08228285554421881</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>189878550505.2167</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42156</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>2308183000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.08219898730847636</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>189730305122.6409</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42186</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>2375417000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.07889110660555235</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>187399275779.6413</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42217</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>2367936000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.07533807963235017</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>178395750932.3087</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42248</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>2386441000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.07220685820739253</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>172317406907.308</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42278</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>2415205000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.07246004009938618</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>175005851148.238</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42309</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>2448155000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.06923673424171929</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>169502257117.5363</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42339</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>2441272000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.06462202577126387</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>157759942098.6649</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42370</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>2420841000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.06301991429291656</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>152561192336.7784</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42401</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>2411088000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.06306442661823319</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>152053882246.1026</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42430</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>2459285000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.06778420221383204</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>166700671741.4439</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42461</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>2446136000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.07036653930323053</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>172126124985.0471</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42491</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>2431670000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.06368088236230601</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>154850891213.9487</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42522</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>2412885000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.06797264780652265</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>164010182302.6414</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42552</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>2453694000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.07200564524258701</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>176679819697.8643</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42583</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>2486214000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.06791448208415964</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>168849936160.3869</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42614</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>2509320000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.07292137617221112</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>182983067656.4528</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42644</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>2566282000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.07424015204383139</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>190521165867.3477</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42675</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>2561804000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.07107270026510117</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>182074327829.9372</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42705</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>2601201000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.07283957811316356</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>189470383427.5392</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42736</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>2592617000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.07423519193508875</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>192463420609.174</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42767</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>2556260000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.07625345428147895</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>194923655041.5734</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42795</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>2585519000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.07466642773409793</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>193051467568.6371</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42826</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>2575364000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.07492376506904225</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>192955967303.2689</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42856</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>2594454000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.07643512683262771</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>198307420551.4183</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42887</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>2575034000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.07659126001813682</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>197225098649.5429</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42917</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>2619202000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.07592754993185502</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>198869590636.6145</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42948</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>2645827000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.07695741176832741</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>203615997906.7584</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>42979</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>2682778000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.07383343177790903</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>198078706438.2752</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43009</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>2714733000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.07084059449426899</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>192313299613.2104</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43040</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>2783914000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.07325738983920003</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>203942273176.8067</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43070</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>2806033000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.08100721126194653</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>227308908038.9936</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43101</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>2770230000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.08452921033656996</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>234165354350.6762</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43132</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>2752658000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.08483922965979468</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>233533384236.8711</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43160</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>2788976000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.08457732481921597</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>235884129064.9977</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43191</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>2752713000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.08033741715203856</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>221145852580.8395</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43221</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>2737382000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.07878171948980958</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>215655660860.4539</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43252</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>2703936000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.07287142565657155</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>197039671204.1274</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43282</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>2791325000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.07536476546484987</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>210367553961.1721</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43313</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>2834147000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.06814983422552824</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>193146648220.7782</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43344</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>2864233000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.07075573492920535</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>202660910923.4826</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43374</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>2844764000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.06765854087590747</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>192472581376.3101</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43405</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>2891387000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.07216985898009555</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>208670992046.8815</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43435</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>2895085000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.06964341180288686</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>201623596859.3607</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43466</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>2848485000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.07549277911567759</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>215040048919.3209</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43497</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>2837818000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.07097786200484069</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>201422254398.853</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43525</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>2916460000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.06909417536101706</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>201510398673.3918</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43556</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>2946560000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.06995257215607817</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>206119451012.2137</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43586</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>2931927000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.06866622720281257</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>201324365524.0606</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43617</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>2904525000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.07110226282951455</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>206518299944.8958</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43647</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>2965149000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.0697150744905571</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>206715583410.6009</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43678</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>2982248000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.06596619364508076</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>196727549065.6548</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43709</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>2992942000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.06616749905380476</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>198035486953.0925</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43739</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>2997459000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.06623349957941728</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>198532199415.8205</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43770</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>3032900000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.06829808014096724</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>207141247259.5395</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43800</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>3034447000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.0713718308230671</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>216574037925.5635</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43831</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>3034991000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.06666880006826885</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>202339208187.9953</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43862</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>3046597000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.06407258142023284</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>195203334337.1371</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43891</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>3236386000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.05608524957936063</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>181513516545.1487</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>3318827000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.05397761008733577</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>179142349753.3223</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43952</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>3324556000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.05705906183490531</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>189696046377.6054</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>43983</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>3315625000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.05771039768235043</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>191346037315.5432</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44013</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>3350272000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.05865102639296187</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>196496891495.6012</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44044</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>3449687000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.05903571070140328</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>203654723742.3918</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44075</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>3398176000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.05977929484343802</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>203140565033.8949</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44105</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>3468293000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.06166406649852932</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>213869050188.3838</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44136</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>3481094000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.06473170649608567</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>225337155093.2849</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44166</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>3489713000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.06808728517610436</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>237605084213.7587</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44197</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>3477595000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.06610958324518722</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>229902356145.5468</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44228</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>3445432000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.06621990305406193</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>228156173019.3627</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44256</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>3468690000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.06774379297496867</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>234982217254.3441</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44287</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>3465042000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.06910754516178076</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>239460546502.4671</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44317</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>3447483000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.0728093487203757</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>251008991954.567</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44348</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>3376660000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.07010557900197698</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>236722704392.8156</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44378</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>3490057000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.06856782386297407</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>239305613647.7397</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44409</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>3540188000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.06891466297284073</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>243970862880.4951</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44440</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>3560444000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.06644915642795915</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>236588500308.9886</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44470</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>3550623000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.06572850185025733</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>233377130425.0662</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44501</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>3659236000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.06299887232018547</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>230527741553.4262</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44531</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>3668057000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.06276959541229582</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>230242453839.2396</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44562</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>3658001000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.06509145349215648</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>238104601965.7619</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44593</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>3618983000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.06510543825725763</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>235615474260.565</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44621</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>3708143000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.06846454563504289</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>253876325644.7649</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44652</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>3679157000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.06326151043182307</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>232749028935.8149</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44682</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>3680984000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.06408654246694737</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>235901537436.1538</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44713</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>3621974000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.06149116064565719</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>222719385088.3936</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44743</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>3726372000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.06031872413834702</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>224770004704.8604</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44774</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>3789445000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.05844227948266894</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>221463803774.2024</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44805</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>3829270000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.0553345248701022</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>211890836049.3362</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44835</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>3858434000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.05453127641358701</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>210405330977.5822</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44866</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>3909531000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.05806829993438282</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>227019818710.7676</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44896</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>3905132000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.05892092223027474</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>230093978870.9573</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44927</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>3936219000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.05747952291995976</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>226251990228.4811</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44958</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>3977391000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.05448433303003721</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>216705495834.6727</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>44986</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>3995219000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.05628032102295111</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>224852207876.9937</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45017</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>4008914000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.05474292721380398</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>219459687308.3997</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45047</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>4007716000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.05070531087426097</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>203212485675.7497</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45078</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>4005043000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>212946984479.7609</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45108</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>4031953000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.05619492896960978</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>226575312443.8051</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45139</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>4067165000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>0.05300990224974025</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D500">
         <v>215600019083.5648</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
         <v>45170</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>4094931000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>0.05287340520591548</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D501">
         <v>216512946053.2647</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -405,6990 +405,6990 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B2">
-        <v>26602000000</v>
+        <v>27738000000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B3">
-        <v>27738000000</v>
+        <v>27384000000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B4">
-        <v>27384000000</v>
+        <v>27294000000</v>
       </c>
       <c r="C4">
-        <v>0.9560229445506692</v>
+        <v>0.9251549634563789</v>
       </c>
       <c r="D4">
-        <v>26179732313.57552</v>
+        <v>25251179572.57841</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B5">
-        <v>27294000000</v>
+        <v>27709000000</v>
       </c>
       <c r="C5">
-        <v>0.9251549634563789</v>
+        <v>0.8764241893076249</v>
       </c>
       <c r="D5">
-        <v>25251179572.57841</v>
+        <v>24284837861.52498</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B6">
-        <v>27709000000</v>
+        <v>28216000000</v>
       </c>
       <c r="C6">
-        <v>0.8764241893076249</v>
+        <v>0.8714596949891068</v>
       </c>
       <c r="D6">
-        <v>24284837861.52498</v>
+        <v>24589106753.81264</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B7">
-        <v>28216000000</v>
+        <v>28384000000</v>
       </c>
       <c r="C7">
-        <v>0.8714596949891068</v>
+        <v>0.8688852202624033</v>
       </c>
       <c r="D7">
-        <v>24589106753.81264</v>
+        <v>24662438091.92805</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B8">
-        <v>28384000000</v>
+        <v>29265000000</v>
       </c>
       <c r="C8">
-        <v>0.8688852202624033</v>
+        <v>0.8649770781074302</v>
       </c>
       <c r="D8">
-        <v>24662438091.92805</v>
+        <v>25313554190.81395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B9">
-        <v>29265000000</v>
+        <v>30119000000</v>
       </c>
       <c r="C9">
-        <v>0.8649770781074302</v>
+        <v>0.8530239699735563</v>
       </c>
       <c r="D9">
-        <v>25313554190.81395</v>
+        <v>25692228951.63354</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B10">
-        <v>30119000000</v>
+        <v>30601000000</v>
       </c>
       <c r="C10">
-        <v>0.8530239699735563</v>
+        <v>0.9014693951140359</v>
       </c>
       <c r="D10">
-        <v>25692228951.63354</v>
+        <v>27585864959.88461</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B11">
-        <v>30601000000</v>
+        <v>31356000000</v>
       </c>
       <c r="C11">
-        <v>0.9014693951140359</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D11">
-        <v>27585864959.88461</v>
+        <v>29192812587.28237</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B12">
-        <v>31356000000</v>
+        <v>31464000000</v>
       </c>
       <c r="C12">
-        <v>0.9310120100549296</v>
+        <v>0.9365049634763064</v>
       </c>
       <c r="D12">
-        <v>29192812587.28237</v>
+        <v>29466192170.8185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B13">
-        <v>31464000000</v>
+        <v>31645000000</v>
       </c>
       <c r="C13">
-        <v>0.9365049634763064</v>
+        <v>0.9170105456212746</v>
       </c>
       <c r="D13">
-        <v>29466192170.8185</v>
+        <v>29018798716.18523</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B14">
-        <v>31645000000</v>
+        <v>33018000000</v>
       </c>
       <c r="C14">
-        <v>0.9170105456212746</v>
+        <v>0.9123255177447313</v>
       </c>
       <c r="D14">
-        <v>29018798716.18523</v>
+        <v>30123163944.89554</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B15">
-        <v>33018000000</v>
+        <v>32272000000</v>
       </c>
       <c r="C15">
-        <v>0.9123255177447313</v>
+        <v>0.9166743056192135</v>
       </c>
       <c r="D15">
-        <v>30123163944.89554</v>
+        <v>29582913190.94326</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B16">
-        <v>32272000000</v>
+        <v>34418000000</v>
       </c>
       <c r="C16">
-        <v>0.9166743056192135</v>
+        <v>0.9310120100549296</v>
       </c>
       <c r="D16">
-        <v>29582913190.94326</v>
+        <v>32043571362.07057</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B17">
-        <v>34418000000</v>
+        <v>34672000000</v>
       </c>
       <c r="C17">
-        <v>0.9310120100549296</v>
+        <v>0.9139932364500503</v>
       </c>
       <c r="D17">
-        <v>32043571362.07057</v>
+        <v>31689973494.19614</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B18">
-        <v>34672000000</v>
+        <v>34907000000</v>
       </c>
       <c r="C18">
-        <v>0.9139932364500503</v>
+        <v>0.91000091000091</v>
       </c>
       <c r="D18">
-        <v>31689973494.19614</v>
+        <v>31765401765.40176</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B19">
-        <v>34907000000</v>
+        <v>35060000000</v>
       </c>
       <c r="C19">
-        <v>0.91000091000091</v>
+        <v>0.8880206020779682</v>
       </c>
       <c r="D19">
-        <v>31765401765.40176</v>
+        <v>31134002308.85357</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B20">
-        <v>35060000000</v>
+        <v>37047000000</v>
       </c>
       <c r="C20">
-        <v>0.8880206020779682</v>
+        <v>0.9059612248595761</v>
       </c>
       <c r="D20">
-        <v>31134002308.85357</v>
+        <v>33563145497.37271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B21">
-        <v>37047000000</v>
+        <v>36682000000</v>
       </c>
       <c r="C21">
-        <v>0.9059612248595761</v>
+        <v>0.8514986376021798</v>
       </c>
       <c r="D21">
-        <v>33563145497.37271</v>
+        <v>31234673024.52316</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B22">
-        <v>36682000000</v>
+        <v>37366000000</v>
       </c>
       <c r="C22">
-        <v>0.8514986376021798</v>
+        <v>0.8389965601141035</v>
       </c>
       <c r="D22">
-        <v>31234673024.52316</v>
+        <v>31349945465.22359</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B23">
-        <v>37366000000</v>
+        <v>38465000000</v>
       </c>
       <c r="C23">
-        <v>0.8389965601141035</v>
+        <v>0.8179959100204499</v>
       </c>
       <c r="D23">
-        <v>31349945465.22359</v>
+        <v>31464212678.93661</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B24">
-        <v>38465000000</v>
+        <v>38905000000</v>
       </c>
       <c r="C24">
-        <v>0.8179959100204499</v>
+        <v>0.7864726700747149</v>
       </c>
       <c r="D24">
-        <v>31464212678.93661</v>
+        <v>30597719229.25678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B25">
-        <v>38905000000</v>
+        <v>39321000000</v>
       </c>
       <c r="C25">
-        <v>0.7864726700747149</v>
+        <v>0.8350033400133601</v>
       </c>
       <c r="D25">
-        <v>30597719229.25678</v>
+        <v>32833166332.66533</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B26">
-        <v>39321000000</v>
+        <v>39614000000</v>
       </c>
       <c r="C26">
-        <v>0.8350033400133601</v>
+        <v>0.8080155138978669</v>
       </c>
       <c r="D26">
-        <v>32833166332.66533</v>
+        <v>32008726567.5501</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B27">
-        <v>39614000000</v>
+        <v>40633000000</v>
       </c>
       <c r="C27">
-        <v>0.8080155138978669</v>
+        <v>0.7961783439490446</v>
       </c>
       <c r="D27">
-        <v>32008726567.5501</v>
+        <v>32351114649.68153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B28">
-        <v>40633000000</v>
+        <v>41110000000</v>
       </c>
       <c r="C28">
-        <v>0.7961783439490446</v>
+        <v>0.7799703611262772</v>
       </c>
       <c r="D28">
-        <v>32351114649.68153</v>
+        <v>32064581545.90125</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B29">
-        <v>41110000000</v>
+        <v>41484000000</v>
       </c>
       <c r="C29">
-        <v>0.7799703611262772</v>
+        <v>0.7359976448075366</v>
       </c>
       <c r="D29">
-        <v>32064581545.90125</v>
+        <v>30532126297.19585</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B30">
-        <v>41484000000</v>
+        <v>42605000000</v>
       </c>
       <c r="C30">
-        <v>0.7359976448075366</v>
+        <v>0.6080136195050769</v>
       </c>
       <c r="D30">
-        <v>30532126297.19585</v>
+        <v>25904420259.0138</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B31">
-        <v>42605000000</v>
+        <v>43199000000</v>
       </c>
       <c r="C31">
-        <v>0.6080136195050769</v>
+        <v>0.6360109393881574</v>
       </c>
       <c r="D31">
-        <v>25904420259.0138</v>
+        <v>27475036570.62901</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B32">
-        <v>43199000000</v>
+        <v>45287000000</v>
       </c>
       <c r="C32">
-        <v>0.6360109393881574</v>
+        <v>0.5985156811108451</v>
       </c>
       <c r="D32">
-        <v>27475036570.62901</v>
+        <v>27104979650.46684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B33">
-        <v>45287000000</v>
+        <v>46311000000</v>
       </c>
       <c r="C33">
-        <v>0.5985156811108451</v>
+        <v>0.5249895002099958</v>
       </c>
       <c r="D33">
-        <v>27104979650.46684</v>
+        <v>24312788744.22512</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B34">
-        <v>46311000000</v>
+        <v>47671000000</v>
       </c>
       <c r="C34">
-        <v>0.5249895002099958</v>
+        <v>0.5380104374024856</v>
       </c>
       <c r="D34">
-        <v>24312788744.22512</v>
+        <v>25647495561.41389</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B35">
-        <v>47671000000</v>
+        <v>47825000000</v>
       </c>
       <c r="C35">
-        <v>0.5380104374024856</v>
+        <v>0.502487312195367</v>
       </c>
       <c r="D35">
-        <v>25647495561.41389</v>
+        <v>24031455705.74343</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B36">
-        <v>47825000000</v>
+        <v>48078000000</v>
       </c>
       <c r="C36">
-        <v>0.502487312195367</v>
+        <v>0.504999495000505</v>
       </c>
       <c r="D36">
-        <v>24031455705.74343</v>
+        <v>24279365720.63428</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B37">
-        <v>48078000000</v>
+        <v>48526000000</v>
       </c>
       <c r="C37">
-        <v>0.504999495000505</v>
+        <v>0.488997555012225</v>
       </c>
       <c r="D37">
-        <v>24279365720.63428</v>
+        <v>23729095354.52323</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B38">
-        <v>48526000000</v>
+        <v>49123000000</v>
       </c>
       <c r="C38">
-        <v>0.488997555012225</v>
+        <v>0.5289885738468049</v>
       </c>
       <c r="D38">
-        <v>23729095354.52323</v>
+        <v>25985505713.0766</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B39">
-        <v>49123000000</v>
+        <v>49187000000</v>
       </c>
       <c r="C39">
-        <v>0.5289885738468049</v>
+        <v>0.5140066820868672</v>
       </c>
       <c r="D39">
-        <v>25985505713.0766</v>
+        <v>25282446671.80674</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B40">
-        <v>49187000000</v>
+        <v>50021000000</v>
       </c>
       <c r="C40">
-        <v>0.5140066820868672</v>
+        <v>0.502992807202857</v>
       </c>
       <c r="D40">
-        <v>25282446671.80674</v>
+        <v>25160203209.09411</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B41">
-        <v>50021000000</v>
+        <v>50480000000</v>
       </c>
       <c r="C41">
-        <v>0.502992807202857</v>
+        <v>0.5103082261686058</v>
       </c>
       <c r="D41">
-        <v>25160203209.09411</v>
+        <v>25760359256.99122</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B42">
-        <v>50480000000</v>
+        <v>50961000000</v>
       </c>
       <c r="C42">
-        <v>0.5103082261686058</v>
+        <v>0.455000455000455</v>
       </c>
       <c r="D42">
-        <v>25760359256.99122</v>
+        <v>23187278187.27819</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B43">
-        <v>50961000000</v>
+        <v>51681000000</v>
       </c>
       <c r="C43">
-        <v>0.455000455000455</v>
+        <v>0.3550001775000888</v>
       </c>
       <c r="D43">
-        <v>23187278187.27819</v>
+        <v>18346764173.38209</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B44">
-        <v>51681000000</v>
+        <v>51937000000</v>
       </c>
       <c r="C44">
-        <v>0.3550001775000888</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D44">
-        <v>18346764173.38209</v>
+        <v>20281552639.80006</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B45">
-        <v>51937000000</v>
+        <v>52956000000</v>
       </c>
       <c r="C45">
-        <v>0.3905029678225554</v>
+        <v>0.3869969040247678</v>
       </c>
       <c r="D45">
-        <v>20281552639.80006</v>
+        <v>20493808049.5356</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B46">
-        <v>52956000000</v>
+        <v>52822000000</v>
       </c>
       <c r="C46">
-        <v>0.3869969040247678</v>
+        <v>0.37000037000037</v>
       </c>
       <c r="D46">
-        <v>20493808049.5356</v>
+        <v>19544159544.15955</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B47">
-        <v>52822000000</v>
+        <v>54577000000</v>
       </c>
       <c r="C47">
-        <v>0.37000037000037</v>
+        <v>0.3889991053020578</v>
       </c>
       <c r="D47">
-        <v>19544159544.15955</v>
+        <v>21230404170.07041</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B48">
-        <v>54577000000</v>
+        <v>52982000000</v>
       </c>
       <c r="C48">
-        <v>0.3889991053020578</v>
+        <v>0.43750273439209</v>
       </c>
       <c r="D48">
-        <v>21230404170.07041</v>
+        <v>23179769873.56171</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B49">
-        <v>52982000000</v>
+        <v>54711000000</v>
       </c>
       <c r="C49">
-        <v>0.43750273439209</v>
+        <v>0.5034993202759176</v>
       </c>
       <c r="D49">
-        <v>23179769873.56171</v>
+        <v>27546951311.61573</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B50">
-        <v>54711000000</v>
+        <v>54024000000</v>
       </c>
       <c r="C50">
-        <v>0.5034993202759176</v>
+        <v>0.4650081376424087</v>
       </c>
       <c r="D50">
-        <v>27546951311.61573</v>
+        <v>25121599627.99349</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B51">
-        <v>54024000000</v>
+        <v>54226000000</v>
       </c>
       <c r="C51">
-        <v>0.4650081376424087</v>
+        <v>0.4860031104199067</v>
       </c>
       <c r="D51">
-        <v>25121599627.99349</v>
+        <v>26354004665.62986</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B52">
-        <v>54226000000</v>
+        <v>54464000000</v>
       </c>
       <c r="C52">
-        <v>0.4860031104199067</v>
+        <v>0.4234955321221361</v>
       </c>
       <c r="D52">
-        <v>26354004665.62986</v>
+        <v>23065260661.50002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B53">
-        <v>54464000000</v>
+        <v>54673000000</v>
       </c>
       <c r="C53">
-        <v>0.4234955321221361</v>
+        <v>0.40399143538157</v>
       </c>
       <c r="D53">
-        <v>23065260661.50002</v>
+        <v>22087423746.61657</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B54">
-        <v>54673000000</v>
+        <v>54551000000</v>
       </c>
       <c r="C54">
-        <v>0.40399143538157</v>
+        <v>0.3905029678225554</v>
       </c>
       <c r="D54">
-        <v>22087423746.61657</v>
+        <v>21302327397.68822</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B55">
-        <v>54551000000</v>
+        <v>54737000000</v>
       </c>
       <c r="C55">
-        <v>0.3905029678225554</v>
+        <v>0.3920031360250882</v>
       </c>
       <c r="D55">
-        <v>21302327397.68822</v>
+        <v>21457075656.60525</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B56">
-        <v>54737000000</v>
+        <v>55248000000</v>
       </c>
       <c r="C56">
-        <v>0.3920031360250882</v>
+        <v>0.44849082836256</v>
       </c>
       <c r="D56">
-        <v>21457075656.60525</v>
+        <v>24778221285.37472</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B57">
-        <v>55248000000</v>
+        <v>56003000000</v>
       </c>
       <c r="C57">
-        <v>0.44849082836256</v>
+        <v>0.4359958144401814</v>
       </c>
       <c r="D57">
-        <v>24778221285.37472</v>
+        <v>24417073596.09348</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B58">
-        <v>56003000000</v>
+        <v>56188000000</v>
       </c>
       <c r="C58">
-        <v>0.4359958144401814</v>
+        <v>0.4504910352283989</v>
       </c>
       <c r="D58">
-        <v>24417073596.09348</v>
+        <v>25312190287.41328</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B59">
-        <v>56188000000</v>
+        <v>56921000000</v>
       </c>
       <c r="C59">
-        <v>0.4504910352283989</v>
+        <v>0.457205559619605</v>
       </c>
       <c r="D59">
-        <v>25312190287.41328</v>
+        <v>26024597659.10754</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B60">
-        <v>56921000000</v>
+        <v>55313000000</v>
       </c>
       <c r="C60">
-        <v>0.457205559619605</v>
+        <v>0.4775093114315729</v>
       </c>
       <c r="D60">
-        <v>26024597659.10754</v>
+        <v>26412472543.21459</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B61">
-        <v>55313000000</v>
+        <v>56599000000</v>
       </c>
       <c r="C61">
-        <v>0.4775093114315729</v>
+        <v>0.481000481000481</v>
       </c>
       <c r="D61">
-        <v>26412472543.21459</v>
+        <v>27224146224.14622</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B62">
-        <v>56599000000</v>
+        <v>57129000000</v>
       </c>
       <c r="C62">
-        <v>0.481000481000481</v>
+        <v>0.495000495000495</v>
       </c>
       <c r="D62">
-        <v>27224146224.14622</v>
+        <v>28278883278.88328</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B63">
-        <v>57129000000</v>
+        <v>58397000000</v>
       </c>
       <c r="C63">
-        <v>0.495000495000495</v>
+        <v>0.499001996007984</v>
       </c>
       <c r="D63">
-        <v>28278883278.88328</v>
+        <v>29140219560.87824</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B64">
-        <v>58397000000</v>
+        <v>58843000000</v>
       </c>
       <c r="C64">
-        <v>0.499001996007984</v>
+        <v>0.494486475794887</v>
       </c>
       <c r="D64">
-        <v>29140219560.87824</v>
+        <v>29097067695.19854</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B65">
-        <v>58843000000</v>
+        <v>59131000000</v>
       </c>
       <c r="C65">
-        <v>0.494486475794887</v>
+        <v>0.4884959210590592</v>
       </c>
       <c r="D65">
-        <v>29097067695.19854</v>
+        <v>28885252308.14323</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B66">
-        <v>59131000000</v>
+        <v>59587000000</v>
       </c>
       <c r="C66">
-        <v>0.4884959210590592</v>
+        <v>0.4825090470446322</v>
       </c>
       <c r="D66">
-        <v>28885252308.14323</v>
+        <v>28751266586.2485</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B67">
-        <v>59587000000</v>
+        <v>60093000000</v>
       </c>
       <c r="C67">
-        <v>0.4825090470446322</v>
+        <v>0.4900039200313603</v>
       </c>
       <c r="D67">
-        <v>28751266586.2485</v>
+        <v>29445805566.44453</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B68">
-        <v>60093000000</v>
+        <v>62790000000</v>
       </c>
       <c r="C68">
-        <v>0.4900039200313603</v>
+        <v>0.4815100154083205</v>
       </c>
       <c r="D68">
-        <v>29445805566.44453</v>
+        <v>30234013867.48845</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B69">
-        <v>62790000000</v>
+        <v>64619000000</v>
       </c>
       <c r="C69">
-        <v>0.4815100154083205</v>
+        <v>0.4960071425028521</v>
       </c>
       <c r="D69">
-        <v>30234013867.48845</v>
+        <v>32051485541.3918</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B70">
-        <v>64619000000</v>
+        <v>67636000000</v>
       </c>
       <c r="C70">
-        <v>0.4960071425028521</v>
+        <v>0.5135051864023826</v>
       </c>
       <c r="D70">
-        <v>32051485541.3918</v>
+        <v>34731436787.51155</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B71">
-        <v>67636000000</v>
+        <v>69464000000</v>
       </c>
       <c r="C71">
-        <v>0.5135051864023826</v>
+        <v>0.5180005180005179</v>
       </c>
       <c r="D71">
-        <v>34731436787.51155</v>
+        <v>35982387982.38798</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B72">
-        <v>69464000000</v>
+        <v>69972000000</v>
       </c>
       <c r="C72">
-        <v>0.5180005180005179</v>
+        <v>0.5020080321285141</v>
       </c>
       <c r="D72">
-        <v>35982387982.38798</v>
+        <v>35126506024.09639</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B73">
-        <v>69972000000</v>
+        <v>71940000000</v>
       </c>
       <c r="C73">
-        <v>0.5020080321285141</v>
+        <v>0.478996024332998</v>
       </c>
       <c r="D73">
-        <v>35126506024.09639</v>
+        <v>34458973990.51588</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B74">
-        <v>71940000000</v>
+        <v>75614000000</v>
       </c>
       <c r="C74">
-        <v>0.478996024332998</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="D74">
-        <v>34458973990.51588</v>
+        <v>35499530516.43192</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B75">
-        <v>75614000000</v>
+        <v>75376000000</v>
       </c>
       <c r="C75">
-        <v>0.4694835680751174</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D75">
-        <v>35499530516.43192</v>
+        <v>35058604651.16279</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B76">
-        <v>75376000000</v>
+        <v>76968000000</v>
       </c>
       <c r="C76">
-        <v>0.4651162790697674</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="D76">
-        <v>35058604651.16279</v>
+        <v>34360714285.71429</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B77">
-        <v>76968000000</v>
+        <v>78923000000</v>
       </c>
       <c r="C77">
-        <v>0.4464285714285714</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="D77">
-        <v>34360714285.71429</v>
+        <v>33872532188.8412</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B78">
-        <v>78923000000</v>
+        <v>78621000000</v>
       </c>
       <c r="C78">
-        <v>0.4291845493562232</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="D78">
-        <v>33872532188.8412</v>
+        <v>32221721311.47541</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B79">
-        <v>78621000000</v>
+        <v>82506000000</v>
       </c>
       <c r="C79">
-        <v>0.4098360655737705</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="D79">
-        <v>32221721311.47541</v>
+        <v>33675918367.34694</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B80">
-        <v>82506000000</v>
+        <v>86326000000</v>
       </c>
       <c r="C80">
-        <v>0.4081632653061224</v>
+        <v>0.4016064257028112</v>
       </c>
       <c r="D80">
-        <v>33675918367.34694</v>
+        <v>34669076305.22088</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B81">
-        <v>86326000000</v>
+        <v>87433000000</v>
       </c>
       <c r="C81">
-        <v>0.4016064257028112</v>
+        <v>0.3984063745019921</v>
       </c>
       <c r="D81">
-        <v>34669076305.22088</v>
+        <v>34833864541.83267</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B82">
-        <v>87433000000</v>
+        <v>89360000000</v>
       </c>
       <c r="C82">
-        <v>0.3984063745019921</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D82">
-        <v>34833864541.83267</v>
+        <v>38852173913.04348</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B83">
-        <v>89360000000</v>
+        <v>93941000000</v>
       </c>
       <c r="C83">
-        <v>0.4347826086956522</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="D83">
-        <v>38852173913.04348</v>
+        <v>39471008403.36134</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B84">
-        <v>93941000000</v>
+        <v>93139000000</v>
       </c>
       <c r="C84">
-        <v>0.4201680672268908</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D84">
-        <v>39471008403.36134</v>
+        <v>38807916666.66667</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B85">
-        <v>93139000000</v>
+        <v>95737000000</v>
       </c>
       <c r="C85">
-        <v>0.4166666666666667</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="D85">
-        <v>38807916666.66667</v>
+        <v>38603629032.25806</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B86">
-        <v>95737000000</v>
+        <v>100882000000</v>
       </c>
       <c r="C86">
-        <v>0.4032258064516129</v>
+        <v>0.390625</v>
       </c>
       <c r="D86">
-        <v>38603629032.25806</v>
+        <v>39407031250</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B87">
-        <v>100882000000</v>
+        <v>98893000000</v>
       </c>
       <c r="C87">
         <v>0.390625</v>
       </c>
       <c r="D87">
-        <v>39407031250</v>
+        <v>38630078125</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B88">
-        <v>98893000000</v>
+        <v>99881000000</v>
       </c>
       <c r="C88">
-        <v>0.390625</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="D88">
-        <v>38630078125</v>
+        <v>36452919708.0292</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B89">
-        <v>99881000000</v>
+        <v>102369000000</v>
       </c>
       <c r="C89">
-        <v>0.364963503649635</v>
+        <v>0.3597122302158274</v>
       </c>
       <c r="D89">
-        <v>36452919708.0292</v>
+        <v>36823381294.96404</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B90">
-        <v>102369000000</v>
+        <v>103301000000</v>
       </c>
       <c r="C90">
-        <v>0.3597122302158274</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="D90">
-        <v>36823381294.96404</v>
+        <v>38981509433.96227</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B91">
-        <v>103301000000</v>
+        <v>106860000000</v>
       </c>
       <c r="C91">
-        <v>0.3773584905660378</v>
+        <v>0.3690036900369004</v>
       </c>
       <c r="D91">
-        <v>38981509433.96227</v>
+        <v>39431734317.34317</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B92">
-        <v>106860000000</v>
+        <v>109691000000</v>
       </c>
       <c r="C92">
-        <v>0.3690036900369004</v>
+        <v>0.3713330857779428</v>
       </c>
       <c r="D92">
-        <v>39431734317.34317</v>
+        <v>40731897512.06833</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B93">
-        <v>109691000000</v>
+        <v>113738000000</v>
       </c>
       <c r="C93">
-        <v>0.3713330857779428</v>
+        <v>0.3789314134141721</v>
       </c>
       <c r="D93">
-        <v>40731897512.06833</v>
+        <v>43098901098.90111</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B94">
-        <v>113738000000</v>
+        <v>115655000000</v>
       </c>
       <c r="C94">
-        <v>0.3789314134141721</v>
+        <v>0.3834355828220859</v>
       </c>
       <c r="D94">
-        <v>43098901098.90111</v>
+        <v>44346242331.28835</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B95">
-        <v>115655000000</v>
+        <v>119022000000</v>
       </c>
       <c r="C95">
-        <v>0.3834355828220859</v>
+        <v>0.3947887879984209</v>
       </c>
       <c r="D95">
-        <v>44346242331.28835</v>
+        <v>46988551125.14805</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B96">
-        <v>119022000000</v>
+        <v>119454000000</v>
       </c>
       <c r="C96">
-        <v>0.3947887879984209</v>
+        <v>0.3900916715428126</v>
       </c>
       <c r="D96">
-        <v>46988551125.14805</v>
+        <v>46598010532.47514</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B97">
-        <v>119454000000</v>
+        <v>121163000000</v>
       </c>
       <c r="C97">
-        <v>0.3900916715428126</v>
+        <v>0.3910833007430583</v>
       </c>
       <c r="D97">
-        <v>46598010532.47514</v>
+        <v>47384825967.93118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B98">
-        <v>121163000000</v>
+        <v>124200000000</v>
       </c>
       <c r="C98">
-        <v>0.3910833007430583</v>
+        <v>0.3784295175023652</v>
       </c>
       <c r="D98">
-        <v>47384825967.93118</v>
+        <v>47000946073.79375</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B99">
-        <v>124200000000</v>
+        <v>122731000000</v>
       </c>
       <c r="C99">
-        <v>0.3784295175023652</v>
+        <v>0.3760105282947923</v>
       </c>
       <c r="D99">
-        <v>47000946073.79375</v>
+        <v>46148148148.14815</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B100">
-        <v>122731000000</v>
+        <v>123458000000</v>
       </c>
       <c r="C100">
-        <v>0.3760105282947923</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="D100">
-        <v>46148148148.14815</v>
+        <v>46152523364.48598</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B101">
-        <v>123458000000</v>
+        <v>122874000000</v>
       </c>
       <c r="C101">
-        <v>0.3738317757009346</v>
+        <v>0.377643504531722</v>
       </c>
       <c r="D101">
-        <v>46152523364.48598</v>
+        <v>46402567975.83081</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B102">
-        <v>122874000000</v>
+        <v>121553000000</v>
       </c>
       <c r="C102">
-        <v>0.377643504531722</v>
+        <v>0.3869220352099053</v>
       </c>
       <c r="D102">
-        <v>46402567975.83081</v>
+        <v>47031534145.86961</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B103">
-        <v>121553000000</v>
+        <v>124069000000</v>
       </c>
       <c r="C103">
-        <v>0.3869220352099053</v>
+        <v>0.3875368159975198</v>
       </c>
       <c r="D103">
-        <v>47031534145.86961</v>
+        <v>48081305223.99628</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B104">
-        <v>124069000000</v>
+        <v>124001000000</v>
       </c>
       <c r="C104">
-        <v>0.3875368159975198</v>
+        <v>0.390015600624025</v>
       </c>
       <c r="D104">
-        <v>48081305223.99628</v>
+        <v>48362324492.97972</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B105">
-        <v>124001000000</v>
+        <v>125418000000</v>
       </c>
       <c r="C105">
-        <v>0.390015600624025</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="D105">
-        <v>48362324492.97972</v>
+        <v>49425812807.88177</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B106">
-        <v>125418000000</v>
+        <v>130295000000</v>
       </c>
       <c r="C106">
-        <v>0.3940886699507389</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="D106">
-        <v>49425812807.88177</v>
+        <v>51601980198.01981</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B107">
-        <v>130295000000</v>
+        <v>134244000000</v>
       </c>
       <c r="C107">
-        <v>0.3960396039603961</v>
+        <v>0.390625</v>
       </c>
       <c r="D107">
-        <v>51601980198.01981</v>
+        <v>52439062500</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B108">
-        <v>134244000000</v>
+        <v>133075000000</v>
       </c>
       <c r="C108">
-        <v>0.390625</v>
+        <v>0.3943217665615142</v>
       </c>
       <c r="D108">
-        <v>52439062500</v>
+        <v>52474369085.1735</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B109">
-        <v>133075000000</v>
+        <v>141904000000</v>
       </c>
       <c r="C109">
-        <v>0.3943217665615142</v>
+        <v>0.3887269193391643</v>
       </c>
       <c r="D109">
-        <v>52474369085.1735</v>
+        <v>55161904761.90476</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B110">
-        <v>141904000000</v>
+        <v>144489000000</v>
       </c>
       <c r="C110">
-        <v>0.3887269193391643</v>
+        <v>0.3696857670979667</v>
       </c>
       <c r="D110">
-        <v>55161904761.90476</v>
+        <v>53415526802.21812</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B111">
-        <v>144489000000</v>
+        <v>143243000000</v>
       </c>
       <c r="C111">
-        <v>0.3696857670979667</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="D111">
-        <v>53415526802.21812</v>
+        <v>51758988256.54923</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B112">
-        <v>143243000000</v>
+        <v>147025000000</v>
       </c>
       <c r="C112">
-        <v>0.3613369467028004</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="D112">
-        <v>51758988256.54923</v>
+        <v>51633011413.52063</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B113">
-        <v>147025000000</v>
+        <v>147706000000</v>
       </c>
       <c r="C113">
-        <v>0.3511852502194908</v>
+        <v>0.3457216940363008</v>
       </c>
       <c r="D113">
-        <v>51633011413.52063</v>
+        <v>51065168539.32584</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B114">
-        <v>147706000000</v>
+        <v>147683000000</v>
       </c>
       <c r="C114">
-        <v>0.3457216940363008</v>
+        <v>0.3484320557491289</v>
       </c>
       <c r="D114">
-        <v>51065168539.32584</v>
+        <v>51457491289.1986</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B115">
-        <v>147683000000</v>
+        <v>150139000000</v>
       </c>
       <c r="C115">
-        <v>0.3484320557491289</v>
+        <v>0.3466805338880222</v>
       </c>
       <c r="D115">
-        <v>51457491289.1986</v>
+        <v>52050268677.41376</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B116">
-        <v>150139000000</v>
+        <v>151994000000</v>
       </c>
       <c r="C116">
-        <v>0.3466805338880222</v>
+        <v>0.3566333808844508</v>
       </c>
       <c r="D116">
-        <v>52050268677.41376</v>
+        <v>54206134094.15121</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B117">
-        <v>151994000000</v>
+        <v>152178000000</v>
       </c>
       <c r="C117">
-        <v>0.3566333808844508</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="D117">
-        <v>54206134094.15121</v>
+        <v>53868318584.07079</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B118">
-        <v>152178000000</v>
+        <v>157379000000</v>
       </c>
       <c r="C118">
-        <v>0.3539823008849557</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D118">
-        <v>53868318584.07079</v>
+        <v>56206785714.28571</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B119">
-        <v>157379000000</v>
+        <v>155363000000</v>
       </c>
       <c r="C119">
-        <v>0.3571428571428572</v>
+        <v>0.3629764065335753</v>
       </c>
       <c r="D119">
-        <v>56206785714.28571</v>
+        <v>56393103448.27586</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B120">
-        <v>155363000000</v>
+        <v>154965000000</v>
       </c>
       <c r="C120">
-        <v>0.3629764065335753</v>
+        <v>0.357653791130186</v>
       </c>
       <c r="D120">
-        <v>56393103448.27586</v>
+        <v>55423819742.48928</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B121">
-        <v>154965000000</v>
+        <v>157762000000</v>
       </c>
       <c r="C121">
-        <v>0.357653791130186</v>
+        <v>0.3516174402250352</v>
       </c>
       <c r="D121">
-        <v>55423819742.48928</v>
+        <v>55471870604.782</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B122">
-        <v>157762000000</v>
+        <v>161099000000</v>
       </c>
       <c r="C122">
-        <v>0.3516174402250352</v>
+        <v>0.3474635163307853</v>
       </c>
       <c r="D122">
-        <v>55471870604.782</v>
+        <v>55976025017.37318</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B123">
-        <v>161099000000</v>
+        <v>164970000000</v>
       </c>
       <c r="C123">
-        <v>0.3474635163307853</v>
+        <v>0.3487966515521451</v>
       </c>
       <c r="D123">
-        <v>55976025017.37318</v>
+        <v>57540983606.55738</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B124">
-        <v>164970000000</v>
+        <v>163246000000</v>
       </c>
       <c r="C124">
-        <v>0.3487966515521451</v>
+        <v>0.3527336860670194</v>
       </c>
       <c r="D124">
-        <v>57540983606.55738</v>
+        <v>57582363315.69665</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B125">
-        <v>163246000000</v>
+        <v>164787000000</v>
       </c>
       <c r="C125">
-        <v>0.3527336860670194</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="D125">
-        <v>57582363315.69665</v>
+        <v>59446969696.9697</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B126">
-        <v>164787000000</v>
+        <v>167064000000</v>
       </c>
       <c r="C126">
-        <v>0.3607503607503608</v>
+        <v>0.3614022406938923</v>
       </c>
       <c r="D126">
-        <v>59446969696.9697</v>
+        <v>60377303939.28442</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B127">
-        <v>167064000000</v>
+        <v>168993000000</v>
       </c>
       <c r="C127">
-        <v>0.3614022406938923</v>
+        <v>0.3648303538854433</v>
       </c>
       <c r="D127">
-        <v>60377303939.28442</v>
+        <v>61653775994.16271</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B128">
-        <v>168993000000</v>
+        <v>171409000000</v>
       </c>
       <c r="C128">
-        <v>0.3648303538854433</v>
+        <v>0.3553660270078181</v>
       </c>
       <c r="D128">
-        <v>61653775994.16271</v>
+        <v>60912935323.38309</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B129">
-        <v>171409000000</v>
+        <v>170847000000</v>
       </c>
       <c r="C129">
-        <v>0.3553660270078181</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="D129">
-        <v>60912935323.38309</v>
+        <v>57718581081.08108</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B130">
-        <v>170847000000</v>
+        <v>173892000000</v>
       </c>
       <c r="C130">
-        <v>0.3378378378378378</v>
+        <v>0.3309066843150232</v>
       </c>
       <c r="D130">
-        <v>57718581081.08108</v>
+        <v>57542025148.90801</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B131">
-        <v>173892000000</v>
+        <v>172214000000</v>
       </c>
       <c r="C131">
-        <v>0.3309066843150232</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="D131">
-        <v>57542025148.90801</v>
+        <v>56463606557.37705</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B132">
-        <v>172214000000</v>
+        <v>167467000000</v>
       </c>
       <c r="C132">
-        <v>0.3278688524590164</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="D132">
-        <v>56463606557.37705</v>
+        <v>54549511400.65147</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B133">
-        <v>167467000000</v>
+        <v>168685000000</v>
       </c>
       <c r="C133">
-        <v>0.3257328990228013</v>
+        <v>0.3179650238473768</v>
       </c>
       <c r="D133">
-        <v>54549511400.65147</v>
+        <v>53635930047.69476</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B134">
-        <v>168685000000</v>
+        <v>169307000000</v>
       </c>
       <c r="C134">
-        <v>0.3179650238473768</v>
+        <v>0.3156565656565656</v>
       </c>
       <c r="D134">
-        <v>53635930047.69476</v>
+        <v>53442866161.61616</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B135">
-        <v>169307000000</v>
+        <v>168424000000</v>
       </c>
       <c r="C135">
-        <v>0.3156565656565656</v>
+        <v>0.3169572107765452</v>
       </c>
       <c r="D135">
-        <v>53442866161.61616</v>
+        <v>53383201267.82885</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B136">
-        <v>168424000000</v>
+        <v>168455000000</v>
       </c>
       <c r="C136">
-        <v>0.3169572107765452</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="D136">
-        <v>53383201267.82885</v>
+        <v>53056692913.38583</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B137">
-        <v>168455000000</v>
+        <v>167739000000</v>
       </c>
       <c r="C137">
-        <v>0.3149606299212598</v>
+        <v>0.3005710850616171</v>
       </c>
       <c r="D137">
-        <v>53056692913.38583</v>
+        <v>50417493237.15058</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B138">
-        <v>167739000000</v>
+        <v>167148000000</v>
       </c>
       <c r="C138">
-        <v>0.3005710850616171</v>
+        <v>0.2961208172934557</v>
       </c>
       <c r="D138">
-        <v>50417493237.15058</v>
+        <v>49496002368.96654</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B139">
-        <v>167148000000</v>
+        <v>171374000000</v>
       </c>
       <c r="C139">
-        <v>0.2961208172934557</v>
+        <v>0.2960331557134399</v>
       </c>
       <c r="D139">
-        <v>49496002368.96654</v>
+        <v>50732386027.23505</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B140">
-        <v>171374000000</v>
+        <v>173708000000</v>
       </c>
       <c r="C140">
-        <v>0.2960331557134399</v>
+        <v>0.2911208151382824</v>
       </c>
       <c r="D140">
-        <v>50732386027.23505</v>
+        <v>50570014556.04076</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B141">
-        <v>173708000000</v>
+        <v>174910000000</v>
       </c>
       <c r="C141">
-        <v>0.2911208151382824</v>
+        <v>0.2985965959988056</v>
       </c>
       <c r="D141">
-        <v>50570014556.04076</v>
+        <v>52227530606.15109</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B142">
-        <v>174910000000</v>
+        <v>178454000000</v>
       </c>
       <c r="C142">
-        <v>0.2985965959988056</v>
+        <v>0.2968239833778569</v>
       </c>
       <c r="D142">
-        <v>52227530606.15109</v>
+        <v>52969427129.71208</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B143">
-        <v>178454000000</v>
+        <v>178963000000</v>
       </c>
       <c r="C143">
-        <v>0.2968239833778569</v>
+        <v>0.2943773918163085</v>
       </c>
       <c r="D143">
-        <v>52969427129.71208</v>
+        <v>52682661171.62202</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B144">
-        <v>178963000000</v>
+        <v>179000000000</v>
       </c>
       <c r="C144">
-        <v>0.2943773918163085</v>
+        <v>0.2921413964358749</v>
       </c>
       <c r="D144">
-        <v>52682661171.62202</v>
+        <v>52293309962.02161</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B145">
-        <v>179000000000</v>
+        <v>189328000000</v>
       </c>
       <c r="C145">
-        <v>0.2921413964358749</v>
+        <v>0.2878526194588371</v>
       </c>
       <c r="D145">
-        <v>52293309962.02161</v>
+        <v>54498560736.9027</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B146">
-        <v>189328000000</v>
+        <v>193007000000</v>
       </c>
       <c r="C146">
-        <v>0.2878526194588371</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="D146">
-        <v>54498560736.9027</v>
+        <v>55461781609.1954</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B147">
-        <v>193007000000</v>
+        <v>192238000000</v>
       </c>
       <c r="C147">
-        <v>0.2873563218390804</v>
+        <v>0.2836074872376631</v>
       </c>
       <c r="D147">
-        <v>55461781609.1954</v>
+        <v>54520136131.59388</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B148">
-        <v>192238000000</v>
+        <v>199770000000</v>
       </c>
       <c r="C148">
-        <v>0.2836074872376631</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D148">
-        <v>54520136131.59388</v>
+        <v>55002753303.96475</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B149">
-        <v>199770000000</v>
+        <v>196484000000</v>
       </c>
       <c r="C149">
-        <v>0.2753303964757709</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D149">
-        <v>55002753303.96475</v>
+        <v>53757592339.26128</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B150">
-        <v>196484000000</v>
+        <v>199156000000</v>
       </c>
       <c r="C150">
-        <v>0.2735978112175103</v>
+        <v>0.2723311546840959</v>
       </c>
       <c r="D150">
-        <v>53757592339.26128</v>
+        <v>54236383442.26579</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B151">
-        <v>199156000000</v>
+        <v>205006000000</v>
       </c>
       <c r="C151">
-        <v>0.2723311546840959</v>
+        <v>0.2790178571428572</v>
       </c>
       <c r="D151">
-        <v>54236383442.26579</v>
+        <v>57200334821.42857</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B152">
-        <v>205006000000</v>
+        <v>205819000000</v>
       </c>
       <c r="C152">
-        <v>0.2790178571428572</v>
+        <v>0.2802690582959641</v>
       </c>
       <c r="D152">
-        <v>57200334821.42857</v>
+        <v>57684697309.41704</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B153">
-        <v>205819000000</v>
+        <v>208879000000</v>
       </c>
       <c r="C153">
-        <v>0.2802690582959641</v>
+        <v>0.2858776443682104</v>
       </c>
       <c r="D153">
-        <v>57684697309.41704</v>
+        <v>59713836477.98742</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B154">
-        <v>208879000000</v>
+        <v>213927000000</v>
       </c>
       <c r="C154">
-        <v>0.2858776443682104</v>
+        <v>0.2815315315315315</v>
       </c>
       <c r="D154">
-        <v>59713836477.98742</v>
+        <v>60227195945.94595</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B155">
-        <v>213927000000</v>
+        <v>215823000000</v>
       </c>
       <c r="C155">
-        <v>0.2815315315315315</v>
+        <v>0.2826455624646693</v>
       </c>
       <c r="D155">
-        <v>60227195945.94595</v>
+        <v>61001413227.81232</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B156">
-        <v>215823000000</v>
+        <v>208864000000</v>
       </c>
       <c r="C156">
-        <v>0.2826455624646693</v>
+        <v>0.2831257078142695</v>
       </c>
       <c r="D156">
-        <v>61001413227.81232</v>
+        <v>59134767836.91959</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B157">
-        <v>208864000000</v>
+        <v>213360000000</v>
       </c>
       <c r="C157">
-        <v>0.2831257078142695</v>
+        <v>0.2779321845469706</v>
       </c>
       <c r="D157">
-        <v>59134767836.91959</v>
+        <v>59299610894.94164</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B158">
-        <v>213360000000</v>
+        <v>216538000000</v>
       </c>
       <c r="C158">
-        <v>0.2779321845469706</v>
+        <v>0.2794857462269424</v>
       </c>
       <c r="D158">
-        <v>59299610894.94164</v>
+        <v>60519284516.48966</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B159">
-        <v>216538000000</v>
+        <v>222258000000</v>
       </c>
       <c r="C159">
-        <v>0.2794857462269424</v>
+        <v>0.2763957987838585</v>
       </c>
       <c r="D159">
-        <v>60519284516.48966</v>
+        <v>61431177446.10282</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B160">
-        <v>222258000000</v>
+        <v>230265000000</v>
       </c>
       <c r="C160">
-        <v>0.2763957987838585</v>
+        <v>0.2718868950516585</v>
       </c>
       <c r="D160">
-        <v>61431177446.10282</v>
+        <v>62606035889.07015</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B161">
-        <v>230265000000</v>
+        <v>227731000000</v>
       </c>
       <c r="C161">
-        <v>0.2718868950516585</v>
+        <v>0.275027502750275</v>
       </c>
       <c r="D161">
-        <v>62606035889.07015</v>
+        <v>62632288228.82288</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B162">
-        <v>227731000000</v>
+        <v>225899000000</v>
       </c>
       <c r="C162">
-        <v>0.275027502750275</v>
+        <v>0.2761668047500691</v>
       </c>
       <c r="D162">
-        <v>62632288228.82288</v>
+        <v>62385805026.23585</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B163">
-        <v>225899000000</v>
+        <v>226033000000</v>
       </c>
       <c r="C163">
-        <v>0.2761668047500691</v>
+        <v>0.2735978112175103</v>
       </c>
       <c r="D163">
-        <v>62385805026.23585</v>
+        <v>61842134062.9275</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B164">
-        <v>226033000000</v>
+        <v>229457000000</v>
       </c>
       <c r="C164">
-        <v>0.2735978112175103</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="D164">
-        <v>61842134062.9275</v>
+        <v>62864931506.84931</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B165">
-        <v>229457000000</v>
+        <v>229245000000</v>
       </c>
       <c r="C165">
-        <v>0.273972602739726</v>
+        <v>0.274273176083379</v>
       </c>
       <c r="D165">
-        <v>62864931506.84931</v>
+        <v>62875754251.23423</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B166">
-        <v>229245000000</v>
+        <v>236725000000</v>
       </c>
       <c r="C166">
-        <v>0.274273176083379</v>
+        <v>0.2726281352235551</v>
       </c>
       <c r="D166">
-        <v>62875754251.23423</v>
+        <v>64537895310.79607</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B167">
-        <v>236725000000</v>
+        <v>245722000000</v>
       </c>
       <c r="C167">
-        <v>0.2726281352235551</v>
+        <v>0.2743484224965707</v>
       </c>
       <c r="D167">
-        <v>64537895310.79607</v>
+        <v>67413443072.70233</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B168">
-        <v>245722000000</v>
+        <v>244019000000</v>
       </c>
       <c r="C168">
-        <v>0.2743484224965707</v>
+        <v>0.2740476842970677</v>
       </c>
       <c r="D168">
-        <v>67413443072.70233</v>
+        <v>66872841874.48615</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B169">
-        <v>244019000000</v>
+        <v>256444000000</v>
       </c>
       <c r="C169">
-        <v>0.2740476842970677</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="D169">
-        <v>66872841874.48615</v>
+        <v>66179096774.19355</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B170">
-        <v>256444000000</v>
+        <v>265163000000</v>
       </c>
       <c r="C170">
-        <v>0.2580645161290323</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="D170">
-        <v>66179096774.19355</v>
+        <v>66707672955.97485</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B171">
-        <v>265163000000</v>
+        <v>264779000000</v>
       </c>
       <c r="C171">
-        <v>0.2515723270440252</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D171">
-        <v>66707672955.97485</v>
+        <v>61149884526.55889</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B172">
-        <v>264779000000</v>
+        <v>269925000000</v>
       </c>
       <c r="C172">
-        <v>0.2309468822170901</v>
+        <v>0.2299379167624741</v>
       </c>
       <c r="D172">
-        <v>61149884526.55889</v>
+        <v>62065992182.11083</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B173">
-        <v>269925000000</v>
+        <v>276835000000</v>
       </c>
       <c r="C173">
-        <v>0.2299379167624741</v>
+        <v>0.2309468822170901</v>
       </c>
       <c r="D173">
-        <v>62065992182.11083</v>
+        <v>63934180138.56813</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B174">
-        <v>276835000000</v>
+        <v>277150000000</v>
       </c>
       <c r="C174">
-        <v>0.2309468822170901</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="D174">
-        <v>63934180138.56813</v>
+        <v>61316371681.41593</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B175">
-        <v>277150000000</v>
+        <v>281768000000</v>
       </c>
       <c r="C175">
-        <v>0.2212389380530974</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D175">
-        <v>61316371681.41593</v>
+        <v>62768545333.03631</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B176">
-        <v>281768000000</v>
+        <v>283328000000</v>
       </c>
       <c r="C176">
-        <v>0.2227667631989307</v>
+        <v>0.2203128442388191</v>
       </c>
       <c r="D176">
-        <v>62768545333.03631</v>
+        <v>62420797532.49615</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B177">
-        <v>283328000000</v>
+        <v>286970000000</v>
       </c>
       <c r="C177">
-        <v>0.2203128442388191</v>
+        <v>0.2129925452609158</v>
       </c>
       <c r="D177">
-        <v>62420797532.49615</v>
+        <v>61122470713.52502</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B178">
-        <v>286970000000</v>
+        <v>289759000000</v>
       </c>
       <c r="C178">
-        <v>0.2129925452609158</v>
+        <v>0.2168256721595837</v>
       </c>
       <c r="D178">
-        <v>61122470713.52502</v>
+        <v>62827189939.2888</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B179">
-        <v>289759000000</v>
+        <v>295313000000</v>
       </c>
       <c r="C179">
-        <v>0.2168256721595837</v>
+        <v>0.2137665669089354</v>
       </c>
       <c r="D179">
-        <v>62827189939.2888</v>
+        <v>63128046173.57845</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B180">
-        <v>295313000000</v>
+        <v>295617000000</v>
       </c>
       <c r="C180">
-        <v>0.2137665669089354</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="D180">
-        <v>63128046173.57845</v>
+        <v>64828289473.68421</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B181">
-        <v>295617000000</v>
+        <v>303035000000</v>
       </c>
       <c r="C181">
-        <v>0.2192982456140351</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="D181">
-        <v>64828289473.68421</v>
+        <v>67641741071.42857</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B182">
-        <v>303035000000</v>
+        <v>313686000000</v>
       </c>
       <c r="C182">
-        <v>0.2232142857142857</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="D182">
-        <v>67641741071.42857</v>
+        <v>70969683257.91855</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B183">
-        <v>313686000000</v>
+        <v>309474000000</v>
       </c>
       <c r="C183">
-        <v>0.2262443438914027</v>
+        <v>0.2248201438848921</v>
       </c>
       <c r="D183">
-        <v>70969683257.91855</v>
+        <v>69575989208.63309</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B184">
-        <v>309474000000</v>
+        <v>316586000000</v>
       </c>
       <c r="C184">
-        <v>0.2248201438848921</v>
+        <v>0.2238638907544213</v>
       </c>
       <c r="D184">
-        <v>69575989208.63309</v>
+        <v>70872173718.37924</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B185">
-        <v>316586000000</v>
+        <v>316433000000</v>
       </c>
       <c r="C185">
-        <v>0.2238638907544213</v>
+        <v>0.2205558006175563</v>
       </c>
       <c r="D185">
-        <v>70872173718.37924</v>
+        <v>69791133656.81517</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B186">
-        <v>316433000000</v>
+        <v>317291000000</v>
       </c>
       <c r="C186">
-        <v>0.2205558006175563</v>
+        <v>0.2168726957276079</v>
       </c>
       <c r="D186">
-        <v>69791133656.81517</v>
+        <v>68811754500.10843</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B187">
-        <v>317291000000</v>
+        <v>324572000000</v>
       </c>
       <c r="C187">
-        <v>0.2168726957276079</v>
+        <v>0.213652387565431</v>
       </c>
       <c r="D187">
-        <v>68811754500.10843</v>
+        <v>69345582736.88708</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B188">
-        <v>324572000000</v>
+        <v>338253000000</v>
       </c>
       <c r="C188">
-        <v>0.213652387565431</v>
+        <v>0.2148689299527288</v>
       </c>
       <c r="D188">
-        <v>69345582736.88708</v>
+        <v>72680060163.30038</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B189">
-        <v>338253000000</v>
+        <v>343147000000</v>
       </c>
       <c r="C189">
-        <v>0.2148689299527288</v>
+        <v>0.2077274615704196</v>
       </c>
       <c r="D189">
-        <v>72680060163.30038</v>
+        <v>71281055255.50478</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B190">
-        <v>343147000000</v>
+        <v>347944000000</v>
       </c>
       <c r="C190">
-        <v>0.2077274615704196</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="D190">
-        <v>71281055255.50478</v>
+        <v>71667147270.85478</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B191">
-        <v>347944000000</v>
+        <v>350700000000</v>
       </c>
       <c r="C191">
-        <v>0.2059732234809475</v>
+        <v>0.2055921052631579</v>
       </c>
       <c r="D191">
-        <v>71667147270.85478</v>
+        <v>72101151315.78947</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B192">
-        <v>350700000000</v>
+        <v>351467000000</v>
       </c>
       <c r="C192">
-        <v>0.2055921052631579</v>
+        <v>0.2027780594139714</v>
       </c>
       <c r="D192">
-        <v>72101151315.78947</v>
+        <v>71269796208.05029</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B193">
-        <v>351467000000</v>
+        <v>363414000000</v>
       </c>
       <c r="C193">
-        <v>0.2027780594139714</v>
+        <v>0.2024701356549909</v>
       </c>
       <c r="D193">
-        <v>71269796208.05029</v>
+        <v>73580481878.92287</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B194">
-        <v>363414000000</v>
+        <v>361312000000</v>
       </c>
       <c r="C194">
-        <v>0.2024701356549909</v>
+        <v>0.1986886548778065</v>
       </c>
       <c r="D194">
-        <v>73580481878.92287</v>
+        <v>71788595271.21001</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B195">
-        <v>361312000000</v>
+        <v>366500000000</v>
       </c>
       <c r="C195">
-        <v>0.1986886548778065</v>
+        <v>0.1979022362952702</v>
       </c>
       <c r="D195">
-        <v>71788595271.21001</v>
+        <v>72531169602.21651</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B196">
-        <v>366500000000</v>
+        <v>366492000000</v>
       </c>
       <c r="C196">
-        <v>0.1979022362952702</v>
+        <v>0.1940617116242965</v>
       </c>
       <c r="D196">
-        <v>72531169602.21651</v>
+        <v>71122064816.61168</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B197">
-        <v>366492000000</v>
+        <v>375751000000</v>
       </c>
       <c r="C197">
-        <v>0.1940617116242965</v>
+        <v>0.1677711601375724</v>
       </c>
       <c r="D197">
-        <v>71122064816.61168</v>
+        <v>63040181192.85296</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B198">
-        <v>375751000000</v>
+        <v>375135000000</v>
       </c>
       <c r="C198">
-        <v>0.1677711601375724</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D198">
-        <v>63040181192.85296</v>
+        <v>61196574225.12235</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B199">
-        <v>375135000000</v>
+        <v>385084000000</v>
       </c>
       <c r="C199">
-        <v>0.1631321370309951</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="D199">
-        <v>61196574225.12235</v>
+        <v>59702945736.4341</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B200">
-        <v>385084000000</v>
+        <v>387349000000</v>
       </c>
       <c r="C200">
-        <v>0.1550387596899225</v>
+        <v>0.169061707523246</v>
       </c>
       <c r="D200">
-        <v>59702945736.4341</v>
+        <v>65485883347.42181</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B201">
-        <v>387349000000</v>
+        <v>378172000000</v>
       </c>
       <c r="C201">
-        <v>0.169061707523246</v>
+        <v>0.1788748770235221</v>
       </c>
       <c r="D201">
-        <v>65485883347.42181</v>
+        <v>67645469993.73939</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B202">
-        <v>378172000000</v>
+        <v>389009000000</v>
       </c>
       <c r="C202">
-        <v>0.1788748770235221</v>
+        <v>0.1758396342535608</v>
       </c>
       <c r="D202">
-        <v>67645469993.73939</v>
+        <v>68403200281.34341</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B203">
-        <v>389009000000</v>
+        <v>393806000000</v>
       </c>
       <c r="C203">
-        <v>0.1758396342535608</v>
+        <v>0.1706484641638225</v>
       </c>
       <c r="D203">
-        <v>68403200281.34341</v>
+        <v>67202389078.49829</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B204">
-        <v>393806000000</v>
+        <v>388959000000</v>
       </c>
       <c r="C204">
-        <v>0.1706484641638225</v>
+        <v>0.1650846058605035</v>
       </c>
       <c r="D204">
-        <v>67202389078.49829</v>
+        <v>64211143210.89558</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B205">
-        <v>388959000000</v>
+        <v>379842000000</v>
       </c>
       <c r="C205">
-        <v>0.1650846058605035</v>
+        <v>0.1617468661544683</v>
       </c>
       <c r="D205">
-        <v>64211143210.89558</v>
+        <v>61438253133.84554</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B206">
-        <v>379842000000</v>
+        <v>391457000000</v>
       </c>
       <c r="C206">
-        <v>0.1617468661544683</v>
+        <v>0.16249593760156</v>
       </c>
       <c r="D206">
-        <v>61438253133.84554</v>
+        <v>63610172245.69386</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B207">
-        <v>391457000000</v>
+        <v>395318000000</v>
       </c>
       <c r="C207">
-        <v>0.16249593760156</v>
+        <v>0.1643007360672976</v>
       </c>
       <c r="D207">
-        <v>63610172245.69386</v>
+        <v>64951038380.65195</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B208">
-        <v>395318000000</v>
+        <v>396818000000</v>
       </c>
       <c r="C208">
-        <v>0.1643007360672976</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="D208">
-        <v>64951038380.65195</v>
+        <v>63899838969.40418</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B209">
-        <v>396818000000</v>
+        <v>407884000000</v>
       </c>
       <c r="C209">
-        <v>0.1610305958132045</v>
+        <v>0.1658374792703151</v>
       </c>
       <c r="D209">
-        <v>63899838969.40418</v>
+        <v>67642454394.6932</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B210">
-        <v>407884000000</v>
+        <v>407541000000</v>
       </c>
       <c r="C210">
-        <v>0.1658374792703151</v>
+        <v>0.1621402513173895</v>
       </c>
       <c r="D210">
-        <v>67642454394.6932</v>
+        <v>66078800162.14025</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B211">
-        <v>407541000000</v>
+        <v>413501000000</v>
       </c>
       <c r="C211">
-        <v>0.1621402513173895</v>
+        <v>0.164446637066272</v>
       </c>
       <c r="D211">
-        <v>66078800162.14025</v>
+        <v>67998848873.54053</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B212">
-        <v>413501000000</v>
+        <v>427411000000</v>
       </c>
       <c r="C212">
-        <v>0.164446637066272</v>
+        <v>0.1665278934221482</v>
       </c>
       <c r="D212">
-        <v>67998848873.54053</v>
+        <v>71175853455.4538</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B213">
-        <v>427411000000</v>
+        <v>426662000000</v>
       </c>
       <c r="C213">
-        <v>0.1665278934221482</v>
+        <v>0.1627339300244101</v>
       </c>
       <c r="D213">
-        <v>71175853455.4538</v>
+        <v>69432384052.07486</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B214">
-        <v>426662000000</v>
+        <v>440284000000</v>
       </c>
       <c r="C214">
-        <v>0.1627339300244101</v>
+        <v>0.1619957881095092</v>
       </c>
       <c r="D214">
-        <v>69432384052.07486</v>
+        <v>71324153572.00713</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B215">
-        <v>440284000000</v>
+        <v>446935000000</v>
       </c>
       <c r="C215">
-        <v>0.1619957881095092</v>
+        <v>0.1625884074465491</v>
       </c>
       <c r="D215">
-        <v>71324153572.00713</v>
+        <v>72666449882.12341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B216">
-        <v>446935000000</v>
+        <v>438789000000</v>
       </c>
       <c r="C216">
-        <v>0.1625884074465491</v>
+        <v>0.158378207158695</v>
       </c>
       <c r="D216">
-        <v>72666449882.12341</v>
+        <v>69494615140.9566</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B217">
-        <v>438789000000</v>
+        <v>443529000000</v>
       </c>
       <c r="C217">
-        <v>0.158378207158695</v>
+        <v>0.1576789656259855</v>
       </c>
       <c r="D217">
-        <v>69494615140.9566</v>
+        <v>69935193945.12772</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B218">
-        <v>443529000000</v>
+        <v>438954000000</v>
       </c>
       <c r="C218">
-        <v>0.1576789656259855</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="D218">
-        <v>69935193945.12772</v>
+        <v>67324233128.83436</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B219">
-        <v>438954000000</v>
+        <v>440728000000</v>
       </c>
       <c r="C219">
-        <v>0.1533742331288344</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D219">
-        <v>67324233128.83436</v>
+        <v>65052103321.03321</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B220">
-        <v>440728000000</v>
+        <v>437781000000</v>
       </c>
       <c r="C220">
-        <v>0.1476014760147601</v>
+        <v>0.1435750179468772</v>
       </c>
       <c r="D220">
-        <v>65052103321.03321</v>
+        <v>62854414931.80186</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B221">
-        <v>437781000000</v>
+        <v>441072000000</v>
       </c>
       <c r="C221">
-        <v>0.1435750179468772</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="D221">
-        <v>62854414931.80186</v>
+        <v>65102878228.78229</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B222">
-        <v>441072000000</v>
+        <v>433197000000</v>
       </c>
       <c r="C222">
-        <v>0.1476014760147601</v>
+        <v>0.1437297879985627</v>
       </c>
       <c r="D222">
-        <v>65102878228.78229</v>
+        <v>62263312971.61337</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B223">
-        <v>433197000000</v>
+        <v>439801000000</v>
       </c>
       <c r="C223">
-        <v>0.1437297879985627</v>
+        <v>0.1435441039259313</v>
       </c>
       <c r="D223">
-        <v>62263312971.61337</v>
+        <v>63130840450.72849</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B224">
-        <v>439801000000</v>
+        <v>452472000000</v>
       </c>
       <c r="C224">
-        <v>0.1435441039259313</v>
+        <v>0.1379690949227373</v>
       </c>
       <c r="D224">
-        <v>63130840450.72849</v>
+        <v>62427152317.88079</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B225">
-        <v>452472000000</v>
+        <v>450460000000</v>
       </c>
       <c r="C225">
-        <v>0.1379690949227373</v>
+        <v>0.1328021248339973</v>
       </c>
       <c r="D225">
-        <v>62427152317.88079</v>
+        <v>59822045152.72244</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B226">
-        <v>450460000000</v>
+        <v>461178000000</v>
       </c>
       <c r="C226">
-        <v>0.1328021248339973</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D226">
-        <v>59822045152.72244</v>
+        <v>59545255003.22789</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B227">
-        <v>461178000000</v>
+        <v>474848000000</v>
       </c>
       <c r="C227">
-        <v>0.1291155584247902</v>
+        <v>0.1319713886029509</v>
       </c>
       <c r="D227">
-        <v>59545255003.22789</v>
+        <v>62666349935.33402</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B228">
-        <v>474848000000</v>
+        <v>474206000000</v>
       </c>
       <c r="C228">
-        <v>0.1319713886029509</v>
+        <v>0.1292256797270754</v>
       </c>
       <c r="D228">
-        <v>62666349935.33402</v>
+        <v>61279592680.65749</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B229">
-        <v>474206000000</v>
+        <v>483016000000</v>
       </c>
       <c r="C229">
-        <v>0.1292256797270754</v>
+        <v>0.1306062743254186</v>
       </c>
       <c r="D229">
-        <v>61279592680.65749</v>
+        <v>63084920199.56639</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B230">
-        <v>483016000000</v>
+        <v>491457000000</v>
       </c>
       <c r="C230">
-        <v>0.1306062743254186</v>
+        <v>0.1244152483328357</v>
       </c>
       <c r="D230">
-        <v>63084920199.56639</v>
+        <v>61144744699.91042</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B231">
-        <v>491457000000</v>
+        <v>490895000000</v>
       </c>
       <c r="C231">
-        <v>0.1244152483328357</v>
+        <v>0.1247193813918683</v>
       </c>
       <c r="D231">
-        <v>61144744699.91042</v>
+        <v>61224120728.36118</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B232">
-        <v>490895000000</v>
+        <v>491567000000</v>
       </c>
       <c r="C232">
-        <v>0.1247193813918683</v>
+        <v>0.1251564455569462</v>
       </c>
       <c r="D232">
-        <v>61224120728.36118</v>
+        <v>61522778473.09137</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B233">
-        <v>491567000000</v>
+        <v>492768000000</v>
       </c>
       <c r="C233">
-        <v>0.1251564455569462</v>
+        <v>0.1243224426873539</v>
       </c>
       <c r="D233">
-        <v>61522778473.09137</v>
+        <v>61262121438.16202</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B234">
-        <v>492768000000</v>
+        <v>497927000000</v>
       </c>
       <c r="C234">
-        <v>0.1243224426873539</v>
+        <v>0.1210419289241793</v>
       </c>
       <c r="D234">
-        <v>61262121438.16202</v>
+        <v>60270044543.42985</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B235">
-        <v>497927000000</v>
+        <v>513455000000</v>
       </c>
       <c r="C235">
-        <v>0.1210419289241793</v>
+        <v>0.119387304354055</v>
       </c>
       <c r="D235">
-        <v>60270044543.42985</v>
+        <v>61300008357.11131</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B236">
-        <v>513455000000</v>
+        <v>508210000000</v>
       </c>
       <c r="C236">
-        <v>0.119387304354055</v>
+        <v>0.1110358534770877</v>
       </c>
       <c r="D236">
-        <v>61300008357.11131</v>
+        <v>56429531095.59077</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B237">
-        <v>508210000000</v>
+        <v>510372000000</v>
       </c>
       <c r="C237">
-        <v>0.1110358534770877</v>
+        <v>0.105682550754045</v>
       </c>
       <c r="D237">
-        <v>56429531095.59077</v>
+        <v>53937414793.44345</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B238">
-        <v>510372000000</v>
+        <v>522814000000</v>
       </c>
       <c r="C238">
-        <v>0.105682550754045</v>
+        <v>0.09749439407234084</v>
       </c>
       <c r="D238">
-        <v>53937414793.44345</v>
+        <v>50971434142.5368</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B239">
-        <v>522814000000</v>
+        <v>544056000000</v>
       </c>
       <c r="C239">
-        <v>0.09749439407234084</v>
+        <v>0.08350730688935282</v>
       </c>
       <c r="D239">
-        <v>50971434142.5368</v>
+        <v>45432651356.99374</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B240">
-        <v>544056000000</v>
+        <v>560885000000</v>
       </c>
       <c r="C240">
-        <v>0.08350730688935282</v>
+        <v>0.08777319406653207</v>
       </c>
       <c r="D240">
-        <v>45432651356.99374</v>
+        <v>49230667954.00684</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B241">
-        <v>560885000000</v>
+        <v>573536000000</v>
       </c>
       <c r="C241">
-        <v>0.08777319406653207</v>
+        <v>0.08822232024702249</v>
       </c>
       <c r="D241">
-        <v>49230667954.00684</v>
+        <v>50598676665.19629</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B242">
-        <v>573536000000</v>
+        <v>585236000000</v>
       </c>
       <c r="C242">
-        <v>0.08822232024702249</v>
+        <v>0.0883197173769044</v>
       </c>
       <c r="D242">
-        <v>50598676665.19629</v>
+        <v>51687878118.79002</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B243">
-        <v>585236000000</v>
+        <v>581307000000</v>
       </c>
       <c r="C243">
-        <v>0.0883197173769044</v>
+        <v>0.09383063570255688</v>
       </c>
       <c r="D243">
-        <v>51687878118.79002</v>
+        <v>54544405348.34624</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B244">
-        <v>581307000000</v>
+        <v>594432000000</v>
       </c>
       <c r="C244">
-        <v>0.09383063570255688</v>
+        <v>0.102380342974149</v>
       </c>
       <c r="D244">
-        <v>54544405348.34624</v>
+        <v>60858152034.80932</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B245">
-        <v>594432000000</v>
+        <v>579246000000</v>
       </c>
       <c r="C245">
-        <v>0.102380342974149</v>
+        <v>0.09737098344693282</v>
       </c>
       <c r="D245">
-        <v>60858152034.80932</v>
+        <v>56401752677.70205</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B246">
-        <v>579246000000</v>
+        <v>574280000000</v>
       </c>
       <c r="C246">
-        <v>0.09737098344693282</v>
+        <v>0.09826078412105729</v>
       </c>
       <c r="D246">
-        <v>56401752677.70205</v>
+        <v>56429203105.04078</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B247">
-        <v>574280000000</v>
+        <v>591806000000</v>
       </c>
       <c r="C247">
-        <v>0.09826078412105729</v>
+        <v>0.09456264775413713</v>
       </c>
       <c r="D247">
-        <v>56429203105.04078</v>
+        <v>55962742316.78487</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B248">
-        <v>591806000000</v>
+        <v>598267000000</v>
       </c>
       <c r="C248">
-        <v>0.09456264775413713</v>
+        <v>0.09513842641042718</v>
       </c>
       <c r="D248">
-        <v>55962742316.78487</v>
+        <v>56918180953.28703</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B249">
-        <v>598267000000</v>
+        <v>607600000000</v>
       </c>
       <c r="C249">
-        <v>0.09513842641042718</v>
+        <v>0.09995002498750624</v>
       </c>
       <c r="D249">
-        <v>56918180953.28703</v>
+        <v>60729635182.40879</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B250">
-        <v>607600000000</v>
+        <v>621424000000</v>
       </c>
       <c r="C250">
-        <v>0.09995002498750624</v>
+        <v>0.1082602576594132</v>
       </c>
       <c r="D250">
-        <v>60729635182.40879</v>
+        <v>67275522355.74321</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B251">
-        <v>621424000000</v>
+        <v>632621000000</v>
       </c>
       <c r="C251">
-        <v>0.1082602576594132</v>
+        <v>0.1170275014628438</v>
       </c>
       <c r="D251">
-        <v>67275522355.74321</v>
+        <v>74034055002.92569</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B252">
-        <v>632621000000</v>
+        <v>639520000000</v>
       </c>
       <c r="C252">
-        <v>0.1170275014628438</v>
+        <v>0.1178314303557331</v>
       </c>
       <c r="D252">
-        <v>74034055002.92569</v>
+        <v>75355556341.09842</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B253">
-        <v>639520000000</v>
+        <v>646346000000</v>
       </c>
       <c r="C253">
-        <v>0.1178314303557331</v>
+        <v>0.1239464551313832</v>
       </c>
       <c r="D253">
-        <v>75355556341.09842</v>
+        <v>80112295488.34903</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B254">
-        <v>646346000000</v>
+        <v>651020000000</v>
       </c>
       <c r="C254">
-        <v>0.1239464551313832</v>
+        <v>0.1272102785905101</v>
       </c>
       <c r="D254">
-        <v>80112295488.34903</v>
+        <v>82816435567.9939</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B255">
-        <v>651020000000</v>
+        <v>671314000000</v>
       </c>
       <c r="C255">
-        <v>0.1272102785905101</v>
+        <v>0.1378359751895245</v>
       </c>
       <c r="D255">
-        <v>82816435567.9939</v>
+        <v>92531219848.38043</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B256">
-        <v>671314000000</v>
+        <v>680405000000</v>
       </c>
       <c r="C256">
-        <v>0.1378359751895245</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="D256">
-        <v>92531219848.38043</v>
+        <v>84260681114.55109</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B257">
-        <v>680405000000</v>
+        <v>684477000000</v>
       </c>
       <c r="C257">
-        <v>0.1238390092879257</v>
+        <v>0.1343111182743708</v>
       </c>
       <c r="D257">
-        <v>84260681114.55109</v>
+        <v>91932871303.08647</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B258">
-        <v>684477000000</v>
+        <v>688974000000</v>
       </c>
       <c r="C258">
-        <v>0.1343111182743708</v>
+        <v>0.1362323579096507</v>
       </c>
       <c r="D258">
-        <v>91932871303.08647</v>
+        <v>93860552558.4437</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B259">
-        <v>688974000000</v>
+        <v>690024000000</v>
       </c>
       <c r="C259">
-        <v>0.1362323579096507</v>
+        <v>0.1364256480218281</v>
       </c>
       <c r="D259">
-        <v>93860552558.4437</v>
+        <v>94136971350.61392</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B260">
-        <v>690024000000</v>
+        <v>706699000000</v>
       </c>
       <c r="C260">
-        <v>0.1364256480218281</v>
+        <v>0.144196106705119</v>
       </c>
       <c r="D260">
-        <v>94136971350.61392</v>
+        <v>101903244412.4009</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B261">
-        <v>706699000000</v>
+        <v>711110000000</v>
       </c>
       <c r="C261">
-        <v>0.144196106705119</v>
+        <v>0.1455582888167567</v>
       </c>
       <c r="D261">
-        <v>101903244412.4009</v>
+        <v>103507954760.4838</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B262">
-        <v>711110000000</v>
+        <v>721063000000</v>
       </c>
       <c r="C262">
-        <v>0.1455582888167567</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="D262">
-        <v>103507954760.4838</v>
+        <v>113196703296.7033</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B263">
-        <v>721063000000</v>
+        <v>733453000000</v>
       </c>
       <c r="C263">
-        <v>0.1569858712715856</v>
+        <v>0.1517450682852807</v>
       </c>
       <c r="D263">
-        <v>113196703296.7033</v>
+        <v>111297875569.044</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B264">
-        <v>733453000000</v>
+        <v>734861000000</v>
       </c>
       <c r="C264">
-        <v>0.1517450682852807</v>
+        <v>0.1412628902387343</v>
       </c>
       <c r="D264">
-        <v>111297875569.044</v>
+        <v>103808588783.7265</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B265">
-        <v>734861000000</v>
+        <v>756772000000</v>
       </c>
       <c r="C265">
-        <v>0.1412628902387343</v>
+        <v>0.150941117869919</v>
       </c>
       <c r="D265">
-        <v>103808588783.7265</v>
+        <v>114228011652.6543</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B266">
-        <v>756772000000</v>
+        <v>748540000000</v>
       </c>
       <c r="C266">
-        <v>0.150941117869919</v>
+        <v>0.1595405232929164</v>
       </c>
       <c r="D266">
-        <v>114228011652.6543</v>
+        <v>119422463305.6796</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B267">
-        <v>748540000000</v>
+        <v>750744000000</v>
       </c>
       <c r="C267">
-        <v>0.1595405232929164</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D267">
-        <v>119422463305.6796</v>
+        <v>108646020260.492</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B268">
-        <v>750744000000</v>
+        <v>748172000000</v>
       </c>
       <c r="C268">
-        <v>0.1447178002894356</v>
+        <v>0.1534636751480924</v>
       </c>
       <c r="D268">
-        <v>108646020260.492</v>
+        <v>114817224762.8986</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B269">
-        <v>748172000000</v>
+        <v>749022000000</v>
       </c>
       <c r="C269">
-        <v>0.1534636751480924</v>
+        <v>0.163212012404113</v>
       </c>
       <c r="D269">
-        <v>114817224762.8986</v>
+        <v>122249387954.9535</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B270">
-        <v>749022000000</v>
+        <v>748658000000</v>
       </c>
       <c r="C270">
-        <v>0.163212012404113</v>
+        <v>0.1598082301238514</v>
       </c>
       <c r="D270">
-        <v>122249387954.9535</v>
+        <v>119641709948.0623</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B271">
-        <v>748658000000</v>
+        <v>766827000000</v>
       </c>
       <c r="C271">
-        <v>0.1598082301238514</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="D271">
-        <v>119641709948.0623</v>
+        <v>115747471698.1132</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B272">
-        <v>766827000000</v>
+        <v>790428000000</v>
       </c>
       <c r="C272">
-        <v>0.1509433962264151</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D272">
-        <v>115747471698.1132</v>
+        <v>122680117957.4732</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B273">
-        <v>790428000000</v>
+        <v>807543000000</v>
       </c>
       <c r="C273">
-        <v>0.1552072016141549</v>
+        <v>0.1641497045305318</v>
       </c>
       <c r="D273">
-        <v>122680117957.4732</v>
+        <v>132557944845.6993</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B274">
-        <v>807543000000</v>
+        <v>805336000000</v>
       </c>
       <c r="C274">
-        <v>0.1641497045305318</v>
+        <v>0.1721614874752518</v>
       </c>
       <c r="D274">
-        <v>132557944845.6993</v>
+        <v>138647843677.3694</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B275">
-        <v>805336000000</v>
+        <v>818740000000</v>
       </c>
       <c r="C275">
-        <v>0.1721614874752518</v>
+        <v>0.1770287494689138</v>
       </c>
       <c r="D275">
-        <v>138647843677.3694</v>
+        <v>144940518340.1784</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B276">
-        <v>818740000000</v>
+        <v>819280000000</v>
       </c>
       <c r="C276">
-        <v>0.1770287494689138</v>
+        <v>0.1674340728338217</v>
       </c>
       <c r="D276">
-        <v>144940518340.1784</v>
+        <v>137175387191.2934</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B277">
-        <v>819280000000</v>
+        <v>842007000000</v>
       </c>
       <c r="C277">
-        <v>0.1674340728338217</v>
+        <v>0.1722652885443583</v>
       </c>
       <c r="D277">
-        <v>137175387191.2934</v>
+        <v>145048578811.3695</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B278">
-        <v>842007000000</v>
+        <v>836640000000</v>
       </c>
       <c r="C278">
-        <v>0.1722652885443583</v>
+        <v>0.1604621309370989</v>
       </c>
       <c r="D278">
-        <v>145048578811.3695</v>
+        <v>134249037227.2144</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B279">
-        <v>836640000000</v>
+        <v>870197000000</v>
       </c>
       <c r="C279">
-        <v>0.1604621309370989</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="D279">
-        <v>134249037227.2144</v>
+        <v>143124506578.9474</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B280">
-        <v>870197000000</v>
+        <v>865829000000</v>
       </c>
       <c r="C280">
-        <v>0.1644736842105263</v>
+        <v>0.1472320376914016</v>
       </c>
       <c r="D280">
-        <v>143124506578.9474</v>
+        <v>127477767962.3086</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B281">
-        <v>865829000000</v>
+        <v>876491000000</v>
       </c>
       <c r="C281">
-        <v>0.1472320376914016</v>
+        <v>0.1501501501501502</v>
       </c>
       <c r="D281">
-        <v>127477767962.3086</v>
+        <v>131605255255.2553</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B282">
-        <v>876491000000</v>
+        <v>898047000000</v>
       </c>
       <c r="C282">
-        <v>0.1501501501501502</v>
+        <v>0.1523693432881304</v>
       </c>
       <c r="D282">
-        <v>131605255255.2553</v>
+        <v>136834831631.8757</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B283">
-        <v>898047000000</v>
+        <v>915941000000</v>
       </c>
       <c r="C283">
-        <v>0.1523693432881304</v>
+        <v>0.1574555188159345</v>
       </c>
       <c r="D283">
-        <v>136834831631.8757</v>
+        <v>144219965359.7859</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B284">
-        <v>915941000000</v>
+        <v>928537000000</v>
       </c>
       <c r="C284">
-        <v>0.1574555188159345</v>
+        <v>0.1577784790154623</v>
       </c>
       <c r="D284">
-        <v>144219965359.7859</v>
+        <v>146503155569.5803</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B285">
-        <v>928537000000</v>
+        <v>931975000000</v>
       </c>
       <c r="C285">
-        <v>0.1577784790154623</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D285">
-        <v>146503155569.5803</v>
+        <v>138893442622.9508</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B286">
-        <v>931975000000</v>
+        <v>937193000000</v>
       </c>
       <c r="C286">
-        <v>0.1490312965722802</v>
+        <v>0.1551133102731545</v>
       </c>
       <c r="D286">
-        <v>138893442622.9508</v>
+        <v>145371108594.8285</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B287">
-        <v>937193000000</v>
+        <v>963515000000</v>
       </c>
       <c r="C287">
-        <v>0.1551133102731545</v>
+        <v>0.158045295781771</v>
       </c>
       <c r="D287">
-        <v>145371108594.8285</v>
+        <v>152279013165.1731</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B288">
-        <v>963515000000</v>
+        <v>965101000000</v>
       </c>
       <c r="C288">
-        <v>0.158045295781771</v>
+        <v>0.1654232353476369</v>
       </c>
       <c r="D288">
-        <v>152279013165.1731</v>
+        <v>159650129857.2398</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B289">
-        <v>965101000000</v>
+        <v>1000200000000</v>
       </c>
       <c r="C289">
-        <v>0.1654232353476369</v>
+        <v>0.1625408383856444</v>
       </c>
       <c r="D289">
-        <v>159650129857.2398</v>
+        <v>162573346553.3215</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B290">
-        <v>1000200000000</v>
+        <v>1032586000000</v>
       </c>
       <c r="C290">
-        <v>0.1625408383856444</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="D290">
-        <v>162573346553.3215</v>
+        <v>167900162601.626</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B291">
-        <v>1032586000000</v>
+        <v>1026904000000</v>
       </c>
       <c r="C291">
-        <v>0.1626016260162602</v>
+        <v>0.1670843776106934</v>
       </c>
       <c r="D291">
-        <v>167900162601.626</v>
+        <v>171579615705.9315</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B292">
-        <v>1026904000000</v>
+        <v>1044155000000</v>
       </c>
       <c r="C292">
-        <v>0.1670843776106934</v>
+        <v>0.1487541837114169</v>
       </c>
       <c r="D292">
-        <v>171579615705.9315</v>
+        <v>155322424693.1945</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B293">
-        <v>1044155000000</v>
+        <v>1050280000000</v>
       </c>
       <c r="C293">
-        <v>0.1487541837114169</v>
+        <v>0.1402268871033332</v>
       </c>
       <c r="D293">
-        <v>155322424693.1945</v>
+        <v>147277494986.8888</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B294">
-        <v>1050280000000</v>
+        <v>1061266000000</v>
       </c>
       <c r="C294">
-        <v>0.1402268871033332</v>
+        <v>0.1445295562942622</v>
       </c>
       <c r="D294">
-        <v>147277494986.8888</v>
+        <v>153384304090.1864</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B295">
-        <v>1061266000000</v>
+        <v>1078788000000</v>
       </c>
       <c r="C295">
-        <v>0.1445295562942622</v>
+        <v>0.1400560224089636</v>
       </c>
       <c r="D295">
-        <v>153384304090.1864</v>
+        <v>151090756302.521</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B296">
-        <v>1078788000000</v>
+        <v>1106311000000</v>
       </c>
       <c r="C296">
-        <v>0.1400560224089636</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="D296">
-        <v>151090756302.521</v>
+        <v>143119146183.6999</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B297">
-        <v>1106311000000</v>
+        <v>1125707000000</v>
       </c>
       <c r="C297">
-        <v>0.129366106080207</v>
+        <v>0.1358511071865236</v>
       </c>
       <c r="D297">
-        <v>143119146183.6999</v>
+        <v>152928542317.6199</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B298">
-        <v>1125707000000</v>
+        <v>1146097000000</v>
       </c>
       <c r="C298">
-        <v>0.1358511071865236</v>
+        <v>0.1399932803225445</v>
       </c>
       <c r="D298">
-        <v>152928542317.6199</v>
+        <v>160445878597.8273</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B299">
-        <v>1146097000000</v>
+        <v>1156842000000</v>
       </c>
       <c r="C299">
-        <v>0.1399932803225445</v>
+        <v>0.1427103550633634</v>
       </c>
       <c r="D299">
-        <v>160445878597.8273</v>
+        <v>165093332572.2115</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B300">
-        <v>1156842000000</v>
+        <v>1133627000000</v>
       </c>
       <c r="C300">
-        <v>0.1427103550633634</v>
+        <v>0.1388406803193336</v>
       </c>
       <c r="D300">
-        <v>165093332572.2115</v>
+        <v>157393543908.3652</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B301">
-        <v>1133627000000</v>
+        <v>1180287000000</v>
       </c>
       <c r="C301">
-        <v>0.1388406803193336</v>
+        <v>0.1385502105963201</v>
       </c>
       <c r="D301">
-        <v>157393543908.3652</v>
+        <v>163529012414.0989</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B302">
-        <v>1180287000000</v>
+        <v>1195132000000</v>
       </c>
       <c r="C302">
-        <v>0.1385502105963201</v>
+        <v>0.1379500620775279</v>
       </c>
       <c r="D302">
-        <v>163529012414.0989</v>
+        <v>164868533590.8401</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B303">
-        <v>1195132000000</v>
+        <v>1215180000000</v>
       </c>
       <c r="C303">
-        <v>0.1379500620775279</v>
+        <v>0.142673705236125</v>
       </c>
       <c r="D303">
-        <v>164868533590.8401</v>
+        <v>173374233128.8343</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B304">
-        <v>1215180000000</v>
+        <v>1241347000000</v>
       </c>
       <c r="C304">
-        <v>0.142673705236125</v>
+        <v>0.1414227124876255</v>
       </c>
       <c r="D304">
-        <v>173374233128.8343</v>
+        <v>175554659878.3765</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B305">
-        <v>1241347000000</v>
+        <v>1249390000000</v>
       </c>
       <c r="C305">
-        <v>0.1414227124876255</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="D305">
-        <v>175554659878.3765</v>
+        <v>178077251995.439</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B306">
-        <v>1249390000000</v>
+        <v>1290230000000</v>
       </c>
       <c r="C306">
-        <v>0.1425313568985177</v>
+        <v>0.1399423437543732</v>
       </c>
       <c r="D306">
-        <v>178077251995.439</v>
+        <v>180557810182.2049</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B307">
-        <v>1290230000000</v>
+        <v>1341912000000</v>
       </c>
       <c r="C307">
-        <v>0.1399423437543732</v>
+        <v>0.140548137737175</v>
       </c>
       <c r="D307">
-        <v>180557810182.2049</v>
+        <v>188603232607.1679</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B308">
-        <v>1341912000000</v>
+        <v>1350336000000</v>
       </c>
       <c r="C308">
-        <v>0.140548137737175</v>
+        <v>0.1458512608841503</v>
       </c>
       <c r="D308">
-        <v>188603232607.1679</v>
+        <v>196948208217.26</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B309">
-        <v>1350336000000</v>
+        <v>1346359000000</v>
       </c>
       <c r="C309">
-        <v>0.1458512608841503</v>
+        <v>0.154273372415921</v>
       </c>
       <c r="D309">
-        <v>196948208217.26</v>
+        <v>207707343412.527</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B310">
-        <v>1346359000000</v>
+        <v>1381640000000</v>
       </c>
       <c r="C310">
-        <v>0.154273372415921</v>
+        <v>0.1472732360348154</v>
       </c>
       <c r="D310">
-        <v>207707343412.527</v>
+        <v>203478593835.1424</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B311">
-        <v>1381640000000</v>
+        <v>1396325000000</v>
       </c>
       <c r="C311">
-        <v>0.1472732360348154</v>
+        <v>0.1463957369561398</v>
       </c>
       <c r="D311">
-        <v>203478593835.1424</v>
+        <v>204416027405.282</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B312">
-        <v>1396325000000</v>
+        <v>1377990000000</v>
       </c>
       <c r="C312">
-        <v>0.1463957369561398</v>
+        <v>0.1338508901084192</v>
       </c>
       <c r="D312">
-        <v>204416027405.282</v>
+        <v>184445188060.5006</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B313">
-        <v>1377990000000</v>
+        <v>1393920000000</v>
       </c>
       <c r="C313">
-        <v>0.1338508901084192</v>
+        <v>0.1279230414982347</v>
       </c>
       <c r="D313">
-        <v>184445188060.5006</v>
+        <v>178314486005.2193</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B314">
-        <v>1393920000000</v>
+        <v>1431028000000</v>
       </c>
       <c r="C314">
-        <v>0.1279230414982347</v>
+        <v>0.1234415504258733</v>
       </c>
       <c r="D314">
-        <v>178314486005.2193</v>
+        <v>176648315022.8367</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B315">
-        <v>1431028000000</v>
+        <v>1458145000000</v>
       </c>
       <c r="C315">
-        <v>0.1234415504258733</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D315">
-        <v>176648315022.8367</v>
+        <v>193131788079.4702</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B316">
-        <v>1458145000000</v>
+        <v>1482428000000</v>
       </c>
       <c r="C316">
-        <v>0.1324503311258278</v>
+        <v>0.1322401481089659</v>
       </c>
       <c r="D316">
-        <v>193131788079.4702</v>
+        <v>196036498280.8781</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B317">
-        <v>1482428000000</v>
+        <v>1474862000000</v>
       </c>
       <c r="C317">
-        <v>0.1322401481089659</v>
+        <v>0.1277791975466394</v>
       </c>
       <c r="D317">
-        <v>196036498280.8781</v>
+        <v>188456682852.0317</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B318">
-        <v>1474862000000</v>
+        <v>1484679000000</v>
       </c>
       <c r="C318">
-        <v>0.1277791975466394</v>
+        <v>0.1364237868514754</v>
       </c>
       <c r="D318">
-        <v>188456682852.0317</v>
+        <v>202545531438.8617</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B319">
-        <v>1484679000000</v>
+        <v>1482748000000</v>
       </c>
       <c r="C319">
-        <v>0.1364237868514754</v>
+        <v>0.129974784891731</v>
       </c>
       <c r="D319">
-        <v>202545531438.8617</v>
+        <v>192719852348.6444</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B320">
-        <v>1482748000000</v>
+        <v>1506513000000</v>
       </c>
       <c r="C320">
-        <v>0.129974784891731</v>
+        <v>0.1208327795164272</v>
       </c>
       <c r="D320">
-        <v>192719852348.6444</v>
+        <v>182036153167.6313</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B321">
-        <v>1506513000000</v>
+        <v>1523646000000</v>
       </c>
       <c r="C321">
-        <v>0.1208327795164272</v>
+        <v>0.1026630803030614</v>
       </c>
       <c r="D321">
-        <v>182036153167.6313</v>
+        <v>156422191651.4383</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B322">
-        <v>1523646000000</v>
+        <v>1565803000000</v>
       </c>
       <c r="C322">
-        <v>0.1026630803030614</v>
+        <v>0.09868940470551082</v>
       </c>
       <c r="D322">
-        <v>156422191651.4383</v>
+        <v>154528165956.103</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B323">
-        <v>1565803000000</v>
+        <v>1562427000000</v>
       </c>
       <c r="C323">
-        <v>0.09868940470551082</v>
+        <v>0.1071799873527615</v>
       </c>
       <c r="D323">
-        <v>154528165956.103</v>
+        <v>167460906099.6131</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B324">
-        <v>1562427000000</v>
+        <v>1566667000000</v>
       </c>
       <c r="C324">
-        <v>0.1071799873527615</v>
+        <v>0.09811039381512077</v>
       </c>
       <c r="D324">
-        <v>167460906099.6131</v>
+        <v>153706316347.1538</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B325">
-        <v>1566667000000</v>
+        <v>1585801000000</v>
       </c>
       <c r="C325">
-        <v>0.09811039381512077</v>
+        <v>0.09911490390810067</v>
       </c>
       <c r="D325">
-        <v>153706316347.1538</v>
+        <v>157176513732.3699</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B326">
-        <v>1585801000000</v>
+        <v>1574342000000</v>
       </c>
       <c r="C326">
-        <v>0.09911490390810067</v>
+        <v>0.105380851666967</v>
       </c>
       <c r="D326">
-        <v>157176513732.3699</v>
+        <v>165905500775.0761</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B327">
-        <v>1574342000000</v>
+        <v>1574490000000</v>
       </c>
       <c r="C327">
-        <v>0.105380851666967</v>
+        <v>0.1184246209523945</v>
       </c>
       <c r="D327">
-        <v>165905500775.0761</v>
+        <v>186458381443.3356</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B328">
-        <v>1574490000000</v>
+        <v>1597266000000</v>
       </c>
       <c r="C328">
-        <v>0.1184246209523945</v>
+        <v>0.1258211402163369</v>
       </c>
       <c r="D328">
-        <v>186458381443.3356</v>
+        <v>200969829348.7875</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B329">
-        <v>1597266000000</v>
+        <v>1545955000000</v>
       </c>
       <c r="C329">
-        <v>0.1258211402163369</v>
+        <v>0.1297489746587278</v>
       </c>
       <c r="D329">
-        <v>200969829348.7875</v>
+        <v>200586076118.5335</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B330">
-        <v>1545955000000</v>
+        <v>1539789000000</v>
       </c>
       <c r="C330">
-        <v>0.1297489746587278</v>
+        <v>0.1289908145640949</v>
       </c>
       <c r="D330">
-        <v>200586076118.5335</v>
+        <v>198618637366.8331</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B331">
-        <v>1539789000000</v>
+        <v>1554419000000</v>
       </c>
       <c r="C331">
-        <v>0.1289908145640949</v>
+        <v>0.1287665835263759</v>
       </c>
       <c r="D331">
-        <v>198618637366.8331</v>
+        <v>200157223998.4857</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B332">
-        <v>1554419000000</v>
+        <v>1544145000000</v>
       </c>
       <c r="C332">
-        <v>0.1287665835263759</v>
+        <v>0.1333210677950962</v>
       </c>
       <c r="D332">
-        <v>200157223998.4857</v>
+        <v>205867060230.4588</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B333">
-        <v>1544145000000</v>
+        <v>1537065000000</v>
       </c>
       <c r="C333">
-        <v>0.1333210677950962</v>
+        <v>0.1281100311435486</v>
       </c>
       <c r="D333">
-        <v>205867060230.4588</v>
+        <v>196913445019.6585</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B334">
-        <v>1537065000000</v>
+        <v>1549706000000</v>
       </c>
       <c r="C334">
-        <v>0.1281100311435486</v>
+        <v>0.1351700236142031</v>
       </c>
       <c r="D334">
-        <v>196913445019.6585</v>
+        <v>209473796615.0723</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B335">
-        <v>1549706000000</v>
+        <v>1589340000000</v>
       </c>
       <c r="C335">
-        <v>0.1351700236142031</v>
+        <v>0.1355548054856319</v>
       </c>
       <c r="D335">
-        <v>209473796615.0723</v>
+        <v>215442674550.5341</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B336">
-        <v>1589340000000</v>
+        <v>1569747000000</v>
       </c>
       <c r="C336">
-        <v>0.1355548054856319</v>
+        <v>0.1312802847206815</v>
       </c>
       <c r="D336">
-        <v>215442674550.5341</v>
+        <v>206076833099.4356</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B337">
-        <v>1569747000000</v>
+        <v>1566078000000</v>
       </c>
       <c r="C337">
-        <v>0.1312802847206815</v>
+        <v>0.1295674132772911</v>
       </c>
       <c r="D337">
-        <v>206076833099.4356</v>
+        <v>202912675450.4735</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B338">
-        <v>1566078000000</v>
+        <v>1578113000000</v>
       </c>
       <c r="C338">
-        <v>0.1295674132772911</v>
+        <v>0.137462902199269</v>
       </c>
       <c r="D338">
-        <v>202912675450.4735</v>
+        <v>216931992978.395</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B339">
-        <v>1578113000000</v>
+        <v>1581563000000</v>
       </c>
       <c r="C339">
-        <v>0.137462902199269</v>
+        <v>0.135475655024792</v>
       </c>
       <c r="D339">
-        <v>216931992978.395</v>
+        <v>214263283387.9752</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B340">
-        <v>1581563000000</v>
+        <v>1580338000000</v>
       </c>
       <c r="C340">
-        <v>0.135475655024792</v>
+        <v>0.1310255368771374</v>
       </c>
       <c r="D340">
-        <v>214263283387.9752</v>
+        <v>207064634897.3415</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B341">
-        <v>1580338000000</v>
+        <v>1551427000000</v>
       </c>
       <c r="C341">
-        <v>0.1310255368771374</v>
+        <v>0.1304886801070007</v>
       </c>
       <c r="D341">
-        <v>207064634897.3415</v>
+        <v>202443661512.3638</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B342">
-        <v>1551427000000</v>
+        <v>1583836000000</v>
       </c>
       <c r="C342">
-        <v>0.1304886801070007</v>
+        <v>0.1372156206262521</v>
       </c>
       <c r="D342">
-        <v>202443661512.3638</v>
+        <v>217327039710.2006</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B343">
-        <v>1583836000000</v>
+        <v>1595672000000</v>
       </c>
       <c r="C343">
-        <v>0.1372156206262521</v>
+        <v>0.135707306481381</v>
       </c>
       <c r="D343">
-        <v>217327039710.2006</v>
+        <v>216544349147.7581</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B344">
-        <v>1595672000000</v>
+        <v>1589594000000</v>
       </c>
       <c r="C344">
-        <v>0.135707306481381</v>
+        <v>0.1437359857413902</v>
       </c>
       <c r="D344">
-        <v>216544349147.7581</v>
+        <v>228481860518.5994</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B345">
-        <v>1589594000000</v>
+        <v>1598006000000</v>
       </c>
       <c r="C345">
-        <v>0.1437359857413902</v>
+        <v>0.1429245215601641</v>
       </c>
       <c r="D345">
-        <v>228481860518.5994</v>
+        <v>228394243000.2716</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B346">
-        <v>1598006000000</v>
+        <v>1660253000000</v>
       </c>
       <c r="C346">
-        <v>0.1429245215601641</v>
+        <v>0.1407974769092138</v>
       </c>
       <c r="D346">
-        <v>228394243000.2716</v>
+        <v>233759433430.9529</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B347">
-        <v>1660253000000</v>
+        <v>1678417000000</v>
       </c>
       <c r="C347">
-        <v>0.1407974769092138</v>
+        <v>0.1518395359783781</v>
       </c>
       <c r="D347">
-        <v>233759433430.9529</v>
+        <v>254850058458.2214</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B348">
-        <v>1678417000000</v>
+        <v>1674643000000</v>
       </c>
       <c r="C348">
-        <v>0.1518395359783781</v>
+        <v>0.1392874056327827</v>
       </c>
       <c r="D348">
-        <v>254850058458.2214</v>
+        <v>233256678831.1001</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B349">
-        <v>1674643000000</v>
+        <v>1653749000000</v>
       </c>
       <c r="C349">
-        <v>0.1392874056327827</v>
+        <v>0.143682289720969</v>
       </c>
       <c r="D349">
-        <v>233256678831.1001</v>
+        <v>237614442943.7628</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B350">
-        <v>1653749000000</v>
+        <v>1650771000000</v>
       </c>
       <c r="C350">
-        <v>0.143682289720969</v>
+        <v>0.1477235796377818</v>
       </c>
       <c r="D350">
-        <v>237614442943.7628</v>
+        <v>243857801282.2407</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B351">
-        <v>1650771000000</v>
+        <v>1656915000000</v>
       </c>
       <c r="C351">
-        <v>0.1477235796377818</v>
+        <v>0.1525129559756101</v>
       </c>
       <c r="D351">
-        <v>243857801282.2407</v>
+        <v>252701004450.3281</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B352">
-        <v>1656915000000</v>
+        <v>1666606000000</v>
       </c>
       <c r="C352">
-        <v>0.1525129559756101</v>
+        <v>0.1472472133464874</v>
       </c>
       <c r="D352">
-        <v>252701004450.3281</v>
+        <v>245403089246.536</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B353">
-        <v>1666606000000</v>
+        <v>1646475000000</v>
       </c>
       <c r="C353">
-        <v>0.1472472133464874</v>
+        <v>0.1479443137603006</v>
       </c>
       <c r="D353">
-        <v>245403089246.536</v>
+        <v>243586613998.491</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B354">
-        <v>1646475000000</v>
+        <v>1670191000000</v>
       </c>
       <c r="C354">
-        <v>0.1479443137603006</v>
+        <v>0.1497633738692865</v>
       </c>
       <c r="D354">
-        <v>243586613998.491</v>
+        <v>250133439166.1176</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B355">
-        <v>1670191000000</v>
+        <v>1693482000000</v>
       </c>
       <c r="C355">
-        <v>0.1497633738692865</v>
+        <v>0.1431372829680947</v>
       </c>
       <c r="D355">
-        <v>250133439166.1176</v>
+        <v>242400412235.3749</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B356">
-        <v>1693482000000</v>
+        <v>1721643000000</v>
       </c>
       <c r="C356">
-        <v>0.1431372829680947</v>
+        <v>0.1238144763885794</v>
       </c>
       <c r="D356">
-        <v>242400412235.3749</v>
+        <v>213164326573.063</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B357">
-        <v>1721643000000</v>
+        <v>1740142000000</v>
       </c>
       <c r="C357">
-        <v>0.1238144763885794</v>
+        <v>0.1258004050773044</v>
       </c>
       <c r="D357">
-        <v>213164326573.063</v>
+        <v>218910568492.0306</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B358">
-        <v>1740142000000</v>
+        <v>1757764000000</v>
       </c>
       <c r="C358">
-        <v>0.1258004050773044</v>
+        <v>0.1233745404298369</v>
       </c>
       <c r="D358">
-        <v>218910568492.0306</v>
+        <v>216863325684.1118</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B359">
-        <v>1757764000000</v>
+        <v>1798932000000</v>
       </c>
       <c r="C359">
-        <v>0.1233745404298369</v>
+        <v>0.1240987329519366</v>
       </c>
       <c r="D359">
-        <v>216863325684.1118</v>
+        <v>223245181866.6931</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B360">
-        <v>1798932000000</v>
+        <v>1785342000000</v>
       </c>
       <c r="C360">
-        <v>0.1240987329519366</v>
+        <v>0.1281640499839795</v>
       </c>
       <c r="D360">
-        <v>223245181866.6931</v>
+        <v>228816661326.4979</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B361">
-        <v>1785342000000</v>
+        <v>1767502000000</v>
       </c>
       <c r="C361">
-        <v>0.1281640499839795</v>
+        <v>0.1332924569798595</v>
       </c>
       <c r="D361">
-        <v>228816661326.4979</v>
+        <v>235594684296.8156</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B362">
-        <v>1767502000000</v>
+        <v>1799376000000</v>
       </c>
       <c r="C362">
-        <v>0.1332924569798595</v>
+        <v>0.1306455195119083</v>
       </c>
       <c r="D362">
-        <v>235594684296.8156</v>
+        <v>235080412317.2596</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B363">
-        <v>1799376000000</v>
+        <v>1777035000000</v>
       </c>
       <c r="C363">
-        <v>0.1306455195119083</v>
+        <v>0.1286223262633928</v>
       </c>
       <c r="D363">
-        <v>235080412317.2596</v>
+        <v>228566375551.4682</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B364">
-        <v>1777035000000</v>
+        <v>1781526000000</v>
       </c>
       <c r="C364">
-        <v>0.1286223262633928</v>
+        <v>0.1173516088905579</v>
       </c>
       <c r="D364">
-        <v>228566375551.4682</v>
+        <v>209064942380.36</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B365">
-        <v>1781526000000</v>
+        <v>1769160000000</v>
       </c>
       <c r="C365">
-        <v>0.1173516088905579</v>
+        <v>0.1228531413548245</v>
       </c>
       <c r="D365">
-        <v>209064942380.36</v>
+        <v>217346863559.3012</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B366">
-        <v>1769160000000</v>
+        <v>1802929000000</v>
       </c>
       <c r="C366">
-        <v>0.1228531413548245</v>
+        <v>0.121307696973373</v>
       </c>
       <c r="D366">
-        <v>217346863559.3012</v>
+        <v>218709164796.5063</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B367">
-        <v>1802929000000</v>
+        <v>1820822000000</v>
       </c>
       <c r="C367">
-        <v>0.121307696973373</v>
+        <v>0.1191696260457135</v>
       </c>
       <c r="D367">
-        <v>218709164796.5063</v>
+        <v>216986676835.8081</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B368">
-        <v>1820822000000</v>
+        <v>1831446000000</v>
       </c>
       <c r="C368">
-        <v>0.1191696260457135</v>
+        <v>0.1203775038520801</v>
       </c>
       <c r="D368">
-        <v>216986676835.8081</v>
+        <v>220464897919.8767</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B369">
-        <v>1831446000000</v>
+        <v>1812952000000</v>
       </c>
       <c r="C369">
-        <v>0.1203775038520801</v>
+        <v>0.1153429144847632</v>
       </c>
       <c r="D369">
-        <v>220464897919.8767</v>
+        <v>209111167500.9804</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B370">
-        <v>1812952000000</v>
+        <v>1872964000000</v>
       </c>
       <c r="C370">
-        <v>0.1153429144847632</v>
+        <v>0.1122977237251401</v>
       </c>
       <c r="D370">
-        <v>209111167500.9804</v>
+        <v>210329593819.1333</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B371">
-        <v>1872964000000</v>
+        <v>1869050000000</v>
       </c>
       <c r="C371">
-        <v>0.1122977237251401</v>
+        <v>0.1178189358593713</v>
       </c>
       <c r="D371">
-        <v>210329593819.1333</v>
+        <v>220209482067.9579</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B372">
-        <v>1869050000000</v>
+        <v>1861751000000</v>
       </c>
       <c r="C372">
-        <v>0.1178189358593713</v>
+        <v>0.1116694584031267</v>
       </c>
       <c r="D372">
-        <v>220209482067.9579</v>
+        <v>207900725851.4796</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B373">
-        <v>1861751000000</v>
+        <v>1869042000000</v>
       </c>
       <c r="C373">
-        <v>0.1116694584031267</v>
+        <v>0.1107591431672685</v>
       </c>
       <c r="D373">
-        <v>207900725851.4796</v>
+        <v>207013490463.6378</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B374">
-        <v>1869042000000</v>
+        <v>1900810000000</v>
       </c>
       <c r="C374">
-        <v>0.1107591431672685</v>
+        <v>0.1083869848908543</v>
       </c>
       <c r="D374">
-        <v>207013490463.6378</v>
+        <v>206023064750.3848</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B375">
-        <v>1900810000000</v>
+        <v>1912464000000</v>
       </c>
       <c r="C375">
-        <v>0.1083869848908543</v>
+        <v>0.1115312120096809</v>
       </c>
       <c r="D375">
-        <v>206023064750.3848</v>
+        <v>213299427844.8824</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B376">
-        <v>1912464000000</v>
+        <v>1915820000000</v>
       </c>
       <c r="C376">
-        <v>0.1115312120096809</v>
+        <v>0.09940851931010487</v>
       </c>
       <c r="D376">
-        <v>213299427844.8824</v>
+        <v>190448829464.6851</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B377">
-        <v>1915820000000</v>
+        <v>1928903000000</v>
       </c>
       <c r="C377">
-        <v>0.09940851931010487</v>
+        <v>0.1013410460625457</v>
       </c>
       <c r="D377">
-        <v>190448829464.6851</v>
+        <v>195477047773.1825</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B378">
-        <v>1928903000000</v>
+        <v>1954780000000</v>
       </c>
       <c r="C378">
-        <v>0.1013410460625457</v>
+        <v>0.1014973910095641</v>
       </c>
       <c r="D378">
-        <v>195477047773.1825</v>
+        <v>198405069997.6757</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B379">
-        <v>1954780000000</v>
+        <v>1983864000000</v>
       </c>
       <c r="C379">
-        <v>0.1014973910095641</v>
+        <v>0.09735676386116926</v>
       </c>
       <c r="D379">
-        <v>198405069997.6757</v>
+        <v>193142578980.6747</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B380">
-        <v>1983864000000</v>
+        <v>2011342000000</v>
       </c>
       <c r="C380">
-        <v>0.09735676386116926</v>
+        <v>0.09976913422340704</v>
       </c>
       <c r="D380">
-        <v>193142578980.6747</v>
+        <v>200669849967.176</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B381">
-        <v>2011342000000</v>
+        <v>2011789000000</v>
       </c>
       <c r="C381">
-        <v>0.09976913422340704</v>
+        <v>0.09962074382824587</v>
       </c>
       <c r="D381">
-        <v>200669849967.176</v>
+        <v>200415916605.4829</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B382">
-        <v>2011789000000</v>
+        <v>2057061000000</v>
       </c>
       <c r="C382">
-        <v>0.09962074382824587</v>
+        <v>0.09835375485129896</v>
       </c>
       <c r="D382">
-        <v>200415916605.4829</v>
+        <v>202319673308.1679</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B383">
-        <v>2057061000000</v>
+        <v>2049694000000</v>
       </c>
       <c r="C383">
-        <v>0.09835375485129896</v>
+        <v>0.09539472429016785</v>
       </c>
       <c r="D383">
-        <v>202319673308.1679</v>
+        <v>195529994009.2113</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B384">
-        <v>2049694000000</v>
+        <v>2058373000000</v>
       </c>
       <c r="C384">
-        <v>0.09539472429016785</v>
+        <v>0.09004506755631195</v>
       </c>
       <c r="D384">
-        <v>195529994009.2113</v>
+        <v>185346335841.0885</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B385">
-        <v>2058373000000</v>
+        <v>2057046000000</v>
       </c>
       <c r="C385">
-        <v>0.09004506755631195</v>
+        <v>0.09295753699709973</v>
       </c>
       <c r="D385">
-        <v>185346335841.0885</v>
+        <v>191217929649.736</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B386">
-        <v>2057046000000</v>
+        <v>2108158000000</v>
       </c>
       <c r="C386">
-        <v>0.09295753699709973</v>
+        <v>0.09495233392836797</v>
       </c>
       <c r="D386">
-        <v>191217929649.736</v>
+        <v>200174522389.7603</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B387">
-        <v>2108158000000</v>
+        <v>2112214000000</v>
       </c>
       <c r="C387">
-        <v>0.09495233392836797</v>
+        <v>0.09507239763079585</v>
       </c>
       <c r="D387">
-        <v>200174522389.7603</v>
+        <v>200813249289.3338</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B388">
-        <v>2112214000000</v>
+        <v>2147111000000</v>
       </c>
       <c r="C388">
-        <v>0.09507239763079585</v>
+        <v>0.09460379928857944</v>
       </c>
       <c r="D388">
-        <v>200813249289.3338</v>
+        <v>203124858094.3011</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B389">
-        <v>2147111000000</v>
+        <v>2116923000000</v>
       </c>
       <c r="C389">
-        <v>0.09460379928857944</v>
+        <v>0.09406629792677879</v>
       </c>
       <c r="D389">
-        <v>203124858094.3011</v>
+        <v>199131109606.0503</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B390">
-        <v>2116923000000</v>
+        <v>2127901000000</v>
       </c>
       <c r="C390">
-        <v>0.09406629792677879</v>
+        <v>0.09349988780013464</v>
       </c>
       <c r="D390">
-        <v>199131109606.0503</v>
+        <v>198958504749.7943</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B391">
-        <v>2127901000000</v>
+        <v>2155842000000</v>
       </c>
       <c r="C391">
-        <v>0.09349988780013464</v>
+        <v>0.09384032130926016</v>
       </c>
       <c r="D391">
-        <v>198958504749.7943</v>
+        <v>202304905971.998</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B392">
-        <v>2155842000000</v>
+        <v>2215507000000</v>
       </c>
       <c r="C392">
-        <v>0.09384032130926016</v>
+        <v>0.08863205289560916</v>
       </c>
       <c r="D392">
-        <v>202304905971.998</v>
+        <v>196364933614.5923</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B393">
-        <v>2215507000000</v>
+        <v>2217769000000</v>
       </c>
       <c r="C393">
-        <v>0.08863205289560916</v>
+        <v>0.09072269700433654</v>
       </c>
       <c r="D393">
-        <v>196364933614.5923</v>
+        <v>201201985012.6104</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B394">
-        <v>2217769000000</v>
+        <v>2259755000000</v>
       </c>
       <c r="C394">
-        <v>0.09072269700433654</v>
+        <v>0.09041517745334803</v>
       </c>
       <c r="D394">
-        <v>201201985012.6104</v>
+        <v>204316149326.0905</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B395">
-        <v>2259755000000</v>
+        <v>2226544000000</v>
       </c>
       <c r="C395">
-        <v>0.09041517745334803</v>
+        <v>0.08639383493593898</v>
       </c>
       <c r="D395">
-        <v>204316149326.0905</v>
+        <v>192359674813.6053</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B396">
-        <v>2226544000000</v>
+        <v>2222725000000</v>
       </c>
       <c r="C396">
-        <v>0.08639383493593898</v>
+        <v>0.08629021123843711</v>
       </c>
       <c r="D396">
-        <v>192359674813.6053</v>
+        <v>191799409774.9551</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B397">
-        <v>2222725000000</v>
+        <v>2221686000000</v>
       </c>
       <c r="C397">
-        <v>0.08629021123843711</v>
+        <v>0.0858052392679097</v>
       </c>
       <c r="D397">
-        <v>191799409774.9551</v>
+        <v>190632298808.1652</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B398">
-        <v>2221686000000</v>
+        <v>2271450000000</v>
       </c>
       <c r="C398">
-        <v>0.0858052392679097</v>
+        <v>0.08247830820494211</v>
       </c>
       <c r="D398">
-        <v>190632298808.1652</v>
+        <v>187345353172.1158</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B399">
-        <v>2271450000000</v>
+        <v>2279247000000</v>
       </c>
       <c r="C399">
-        <v>0.08247830820494211</v>
+        <v>0.08406186953597848</v>
       </c>
       <c r="D399">
-        <v>187345353172.1158</v>
+        <v>191597763954.2704</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B400">
-        <v>2279247000000</v>
+        <v>2307632000000</v>
       </c>
       <c r="C400">
-        <v>0.08406186953597848</v>
+        <v>0.08228285554421881</v>
       </c>
       <c r="D400">
-        <v>191597763954.2704</v>
+        <v>189878550505.2167</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B401">
-        <v>2307632000000</v>
+        <v>2308183000000</v>
       </c>
       <c r="C401">
-        <v>0.08228285554421881</v>
+        <v>0.08219898730847636</v>
       </c>
       <c r="D401">
-        <v>189878550505.2167</v>
+        <v>189730305122.6409</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B402">
-        <v>2308183000000</v>
+        <v>2375417000000</v>
       </c>
       <c r="C402">
-        <v>0.08219898730847636</v>
+        <v>0.07889110660555235</v>
       </c>
       <c r="D402">
-        <v>189730305122.6409</v>
+        <v>187399275779.6413</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B403">
-        <v>2375417000000</v>
+        <v>2367936000000</v>
       </c>
       <c r="C403">
-        <v>0.07889110660555235</v>
+        <v>0.07533807963235017</v>
       </c>
       <c r="D403">
-        <v>187399275779.6413</v>
+        <v>178395750932.3087</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B404">
-        <v>2367936000000</v>
+        <v>2386441000000</v>
       </c>
       <c r="C404">
-        <v>0.07533807963235017</v>
+        <v>0.07220685820739253</v>
       </c>
       <c r="D404">
-        <v>178395750932.3087</v>
+        <v>172317406907.308</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B405">
-        <v>2386441000000</v>
+        <v>2415205000000</v>
       </c>
       <c r="C405">
-        <v>0.07220685820739253</v>
+        <v>0.07246004009938618</v>
       </c>
       <c r="D405">
-        <v>172317406907.308</v>
+        <v>175005851148.238</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B406">
-        <v>2415205000000</v>
+        <v>2448155000000</v>
       </c>
       <c r="C406">
-        <v>0.07246004009938618</v>
+        <v>0.06923673424171929</v>
       </c>
       <c r="D406">
-        <v>175005851148.238</v>
+        <v>169502257117.5363</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B407">
-        <v>2448155000000</v>
+        <v>2441272000000</v>
       </c>
       <c r="C407">
-        <v>0.06923673424171929</v>
+        <v>0.06462202577126387</v>
       </c>
       <c r="D407">
-        <v>169502257117.5363</v>
+        <v>157759942098.6649</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B408">
-        <v>2441272000000</v>
+        <v>2420841000000</v>
       </c>
       <c r="C408">
-        <v>0.06462202577126387</v>
+        <v>0.06301991429291656</v>
       </c>
       <c r="D408">
-        <v>157759942098.6649</v>
+        <v>152561192336.7784</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B409">
-        <v>2420841000000</v>
+        <v>2411088000000</v>
       </c>
       <c r="C409">
-        <v>0.06301991429291656</v>
+        <v>0.06306442661823319</v>
       </c>
       <c r="D409">
-        <v>152561192336.7784</v>
+        <v>152053882246.1026</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B410">
-        <v>2411088000000</v>
+        <v>2459285000000</v>
       </c>
       <c r="C410">
-        <v>0.06306442661823319</v>
+        <v>0.06778420221383204</v>
       </c>
       <c r="D410">
-        <v>152053882246.1026</v>
+        <v>166700671741.4439</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B411">
-        <v>2459285000000</v>
+        <v>2446136000000</v>
       </c>
       <c r="C411">
-        <v>0.06778420221383204</v>
+        <v>0.07036653930323053</v>
       </c>
       <c r="D411">
-        <v>166700671741.4439</v>
+        <v>172126124985.0471</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B412">
-        <v>2446136000000</v>
+        <v>2431670000000</v>
       </c>
       <c r="C412">
-        <v>0.07036653930323053</v>
+        <v>0.06368088236230601</v>
       </c>
       <c r="D412">
-        <v>172126124985.0471</v>
+        <v>154850891213.9487</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B413">
-        <v>2431670000000</v>
+        <v>2412885000000</v>
       </c>
       <c r="C413">
-        <v>0.06368088236230601</v>
+        <v>0.06797264780652265</v>
       </c>
       <c r="D413">
-        <v>154850891213.9487</v>
+        <v>164010182302.6414</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B414">
-        <v>2412885000000</v>
+        <v>2453694000000</v>
       </c>
       <c r="C414">
-        <v>0.06797264780652265</v>
+        <v>0.07200564524258701</v>
       </c>
       <c r="D414">
-        <v>164010182302.6414</v>
+        <v>176679819697.8643</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B415">
-        <v>2453694000000</v>
+        <v>2486214000000</v>
       </c>
       <c r="C415">
-        <v>0.07200564524258701</v>
+        <v>0.06791448208415964</v>
       </c>
       <c r="D415">
-        <v>176679819697.8643</v>
+        <v>168849936160.3869</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B416">
-        <v>2486214000000</v>
+        <v>2509320000000</v>
       </c>
       <c r="C416">
-        <v>0.06791448208415964</v>
+        <v>0.07292137617221112</v>
       </c>
       <c r="D416">
-        <v>168849936160.3869</v>
+        <v>182983067656.4528</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B417">
-        <v>2509320000000</v>
+        <v>2566282000000</v>
       </c>
       <c r="C417">
-        <v>0.07292137617221112</v>
+        <v>0.07424015204383139</v>
       </c>
       <c r="D417">
-        <v>182983067656.4528</v>
+        <v>190521165867.3477</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B418">
-        <v>2566282000000</v>
+        <v>2561804000000</v>
       </c>
       <c r="C418">
-        <v>0.07424015204383139</v>
+        <v>0.07107270026510117</v>
       </c>
       <c r="D418">
-        <v>190521165867.3477</v>
+        <v>182074327829.9372</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B419">
-        <v>2561804000000</v>
+        <v>2601201000000</v>
       </c>
       <c r="C419">
-        <v>0.07107270026510117</v>
+        <v>0.07283957811316356</v>
       </c>
       <c r="D419">
-        <v>182074327829.9372</v>
+        <v>189470383427.5392</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B420">
-        <v>2601201000000</v>
+        <v>2592617000000</v>
       </c>
       <c r="C420">
-        <v>0.07283957811316356</v>
+        <v>0.07423519193508875</v>
       </c>
       <c r="D420">
-        <v>189470383427.5392</v>
+        <v>192463420609.174</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B421">
-        <v>2592617000000</v>
+        <v>2556260000000</v>
       </c>
       <c r="C421">
-        <v>0.07423519193508875</v>
+        <v>0.07625345428147895</v>
       </c>
       <c r="D421">
-        <v>192463420609.174</v>
+        <v>194923655041.5734</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B422">
-        <v>2556260000000</v>
+        <v>2585519000000</v>
       </c>
       <c r="C422">
-        <v>0.07625345428147895</v>
+        <v>0.07466642773409793</v>
       </c>
       <c r="D422">
-        <v>194923655041.5734</v>
+        <v>193051467568.6371</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B423">
-        <v>2585519000000</v>
+        <v>2575364000000</v>
       </c>
       <c r="C423">
-        <v>0.07466642773409793</v>
+        <v>0.07492376506904225</v>
       </c>
       <c r="D423">
-        <v>193051467568.6371</v>
+        <v>192955967303.2689</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B424">
-        <v>2575364000000</v>
+        <v>2594454000000</v>
       </c>
       <c r="C424">
-        <v>0.07492376506904225</v>
+        <v>0.07643512683262771</v>
       </c>
       <c r="D424">
-        <v>192955967303.2689</v>
+        <v>198307420551.4183</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B425">
-        <v>2594454000000</v>
+        <v>2575034000000</v>
       </c>
       <c r="C425">
-        <v>0.07643512683262771</v>
+        <v>0.07659126001813682</v>
       </c>
       <c r="D425">
-        <v>198307420551.4183</v>
+        <v>197225098649.5429</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B426">
-        <v>2575034000000</v>
+        <v>2619202000000</v>
       </c>
       <c r="C426">
-        <v>0.07659126001813682</v>
+        <v>0.07592754993185502</v>
       </c>
       <c r="D426">
-        <v>197225098649.5429</v>
+        <v>198869590636.6145</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B427">
-        <v>2619202000000</v>
+        <v>2645827000000</v>
       </c>
       <c r="C427">
-        <v>0.07592754993185502</v>
+        <v>0.07695741176832741</v>
       </c>
       <c r="D427">
-        <v>198869590636.6145</v>
+        <v>203615997906.7584</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B428">
-        <v>2645827000000</v>
+        <v>2682778000000</v>
       </c>
       <c r="C428">
-        <v>0.07695741176832741</v>
+        <v>0.07383343177790903</v>
       </c>
       <c r="D428">
-        <v>203615997906.7584</v>
+        <v>198078706438.2752</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B429">
-        <v>2682778000000</v>
+        <v>2714733000000</v>
       </c>
       <c r="C429">
-        <v>0.07383343177790903</v>
+        <v>0.07084059449426899</v>
       </c>
       <c r="D429">
-        <v>198078706438.2752</v>
+        <v>192313299613.2104</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B430">
-        <v>2714733000000</v>
+        <v>2783914000000</v>
       </c>
       <c r="C430">
-        <v>0.07084059449426899</v>
+        <v>0.07325738983920003</v>
       </c>
       <c r="D430">
-        <v>192313299613.2104</v>
+        <v>203942273176.8067</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B431">
-        <v>2783914000000</v>
+        <v>2806033000000</v>
       </c>
       <c r="C431">
-        <v>0.07325738983920003</v>
+        <v>0.08100721126194653</v>
       </c>
       <c r="D431">
-        <v>203942273176.8067</v>
+        <v>227308908038.9936</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B432">
-        <v>2806033000000</v>
+        <v>2770230000000</v>
       </c>
       <c r="C432">
-        <v>0.08100721126194653</v>
+        <v>0.08452921033656996</v>
       </c>
       <c r="D432">
-        <v>227308908038.9936</v>
+        <v>234165354350.6762</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B433">
-        <v>2770230000000</v>
+        <v>2752658000000</v>
       </c>
       <c r="C433">
-        <v>0.08452921033656996</v>
+        <v>0.08483922965979468</v>
       </c>
       <c r="D433">
-        <v>234165354350.6762</v>
+        <v>233533384236.8711</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B434">
-        <v>2752658000000</v>
+        <v>2788976000000</v>
       </c>
       <c r="C434">
-        <v>0.08483922965979468</v>
+        <v>0.08457732481921597</v>
       </c>
       <c r="D434">
-        <v>233533384236.8711</v>
+        <v>235884129064.9977</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B435">
-        <v>2788976000000</v>
+        <v>2752713000000</v>
       </c>
       <c r="C435">
-        <v>0.08457732481921597</v>
+        <v>0.08033741715203856</v>
       </c>
       <c r="D435">
-        <v>235884129064.9977</v>
+        <v>221145852580.8395</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B436">
-        <v>2752713000000</v>
+        <v>2737382000000</v>
       </c>
       <c r="C436">
-        <v>0.08033741715203856</v>
+        <v>0.07878171948980958</v>
       </c>
       <c r="D436">
-        <v>221145852580.8395</v>
+        <v>215655660860.4539</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B437">
-        <v>2737382000000</v>
+        <v>2703936000000</v>
       </c>
       <c r="C437">
-        <v>0.07878171948980958</v>
+        <v>0.07287142565657155</v>
       </c>
       <c r="D437">
-        <v>215655660860.4539</v>
+        <v>197039671204.1274</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B438">
-        <v>2703936000000</v>
+        <v>2791325000000</v>
       </c>
       <c r="C438">
-        <v>0.07287142565657155</v>
+        <v>0.07536476546484987</v>
       </c>
       <c r="D438">
-        <v>197039671204.1274</v>
+        <v>210367553961.1721</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B439">
-        <v>2791325000000</v>
+        <v>2834147000000</v>
       </c>
       <c r="C439">
-        <v>0.07536476546484987</v>
+        <v>0.06814983422552824</v>
       </c>
       <c r="D439">
-        <v>210367553961.1721</v>
+        <v>193146648220.7782</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B440">
-        <v>2834147000000</v>
+        <v>2864233000000</v>
       </c>
       <c r="C440">
-        <v>0.06814983422552824</v>
+        <v>0.07075573492920535</v>
       </c>
       <c r="D440">
-        <v>193146648220.7782</v>
+        <v>202660910923.4826</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B441">
-        <v>2864233000000</v>
+        <v>2844764000000</v>
       </c>
       <c r="C441">
-        <v>0.07075573492920535</v>
+        <v>0.06765854087590747</v>
       </c>
       <c r="D441">
-        <v>202660910923.4826</v>
+        <v>192472581376.3101</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B442">
-        <v>2844764000000</v>
+        <v>2891387000000</v>
       </c>
       <c r="C442">
-        <v>0.06765854087590747</v>
+        <v>0.07216985898009555</v>
       </c>
       <c r="D442">
-        <v>192472581376.3101</v>
+        <v>208670992046.8815</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B443">
-        <v>2891387000000</v>
+        <v>2895085000000</v>
       </c>
       <c r="C443">
-        <v>0.07216985898009555</v>
+        <v>0.06964341180288686</v>
       </c>
       <c r="D443">
-        <v>208670992046.8815</v>
+        <v>201623596859.3607</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B444">
-        <v>2895085000000</v>
+        <v>2848485000000</v>
       </c>
       <c r="C444">
-        <v>0.06964341180288686</v>
+        <v>0.07549277911567759</v>
       </c>
       <c r="D444">
-        <v>201623596859.3607</v>
+        <v>215040048919.3209</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B445">
-        <v>2848485000000</v>
+        <v>2837818000000</v>
       </c>
       <c r="C445">
-        <v>0.07549277911567759</v>
+        <v>0.07097786200484069</v>
       </c>
       <c r="D445">
-        <v>215040048919.3209</v>
+        <v>201422254398.853</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B446">
-        <v>2837818000000</v>
+        <v>2916460000000</v>
       </c>
       <c r="C446">
-        <v>0.07097786200484069</v>
+        <v>0.06909417536101706</v>
       </c>
       <c r="D446">
-        <v>201422254398.853</v>
+        <v>201510398673.3918</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B447">
-        <v>2916460000000</v>
+        <v>2946560000000</v>
       </c>
       <c r="C447">
-        <v>0.06909417536101706</v>
+        <v>0.06995257215607817</v>
       </c>
       <c r="D447">
-        <v>201510398673.3918</v>
+        <v>206119451012.2137</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B448">
-        <v>2946560000000</v>
+        <v>2931927000000</v>
       </c>
       <c r="C448">
-        <v>0.06995257215607817</v>
+        <v>0.06866622720281257</v>
       </c>
       <c r="D448">
-        <v>206119451012.2137</v>
+        <v>201324365524.0606</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B449">
-        <v>2931927000000</v>
+        <v>2904525000000</v>
       </c>
       <c r="C449">
-        <v>0.06866622720281257</v>
+        <v>0.07110226282951455</v>
       </c>
       <c r="D449">
-        <v>201324365524.0606</v>
+        <v>206518299944.8958</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B450">
-        <v>2904525000000</v>
+        <v>2965149000000</v>
       </c>
       <c r="C450">
-        <v>0.07110226282951455</v>
+        <v>0.0697150744905571</v>
       </c>
       <c r="D450">
-        <v>206518299944.8958</v>
+        <v>206715583410.6009</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B451">
-        <v>2965149000000</v>
+        <v>2982248000000</v>
       </c>
       <c r="C451">
-        <v>0.0697150744905571</v>
+        <v>0.06596619364508076</v>
       </c>
       <c r="D451">
-        <v>206715583410.6009</v>
+        <v>196727549065.6548</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B452">
-        <v>2982248000000</v>
+        <v>2992942000000</v>
       </c>
       <c r="C452">
-        <v>0.06596619364508076</v>
+        <v>0.06616749905380476</v>
       </c>
       <c r="D452">
-        <v>196727549065.6548</v>
+        <v>198035486953.0925</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B453">
-        <v>2992942000000</v>
+        <v>2997459000000</v>
       </c>
       <c r="C453">
-        <v>0.06616749905380476</v>
+        <v>0.06623349957941728</v>
       </c>
       <c r="D453">
-        <v>198035486953.0925</v>
+        <v>198532199415.8205</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B454">
-        <v>2997459000000</v>
+        <v>3032900000000</v>
       </c>
       <c r="C454">
-        <v>0.06623349957941728</v>
+        <v>0.06829808014096724</v>
       </c>
       <c r="D454">
-        <v>198532199415.8205</v>
+        <v>207141247259.5395</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B455">
-        <v>3032900000000</v>
+        <v>3034447000000</v>
       </c>
       <c r="C455">
-        <v>0.06829808014096724</v>
+        <v>0.0713718308230671</v>
       </c>
       <c r="D455">
-        <v>207141247259.5395</v>
+        <v>216574037925.5635</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B456">
-        <v>3034447000000</v>
+        <v>3034991000000</v>
       </c>
       <c r="C456">
-        <v>0.0713718308230671</v>
+        <v>0.06666880006826885</v>
       </c>
       <c r="D456">
-        <v>216574037925.5635</v>
+        <v>202339208187.9953</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B457">
-        <v>3034991000000</v>
+        <v>3046597000000</v>
       </c>
       <c r="C457">
-        <v>0.06666880006826885</v>
+        <v>0.06407258142023284</v>
       </c>
       <c r="D457">
-        <v>202339208187.9953</v>
+        <v>195203334337.1371</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B458">
-        <v>3046597000000</v>
+        <v>3236386000000</v>
       </c>
       <c r="C458">
-        <v>0.06407258142023284</v>
+        <v>0.05608524957936063</v>
       </c>
       <c r="D458">
-        <v>195203334337.1371</v>
+        <v>181513516545.1487</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B459">
-        <v>3236386000000</v>
+        <v>3318827000000</v>
       </c>
       <c r="C459">
-        <v>0.05608524957936063</v>
+        <v>0.05397761008733577</v>
       </c>
       <c r="D459">
-        <v>181513516545.1487</v>
+        <v>179142349753.3223</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B460">
-        <v>3318827000000</v>
+        <v>3324556000000</v>
       </c>
       <c r="C460">
-        <v>0.05397761008733577</v>
+        <v>0.05705906183490531</v>
       </c>
       <c r="D460">
-        <v>179142349753.3223</v>
+        <v>189696046377.6054</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B461">
-        <v>3324556000000</v>
+        <v>3315625000000</v>
       </c>
       <c r="C461">
-        <v>0.05705906183490531</v>
+        <v>0.05771039768235043</v>
       </c>
       <c r="D461">
-        <v>189696046377.6054</v>
+        <v>191346037315.5432</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B462">
-        <v>3315625000000</v>
+        <v>3350272000000</v>
       </c>
       <c r="C462">
-        <v>0.05771039768235043</v>
+        <v>0.05865102639296187</v>
       </c>
       <c r="D462">
-        <v>191346037315.5432</v>
+        <v>196496891495.6012</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B463">
-        <v>3350272000000</v>
+        <v>3449687000000</v>
       </c>
       <c r="C463">
-        <v>0.05865102639296187</v>
+        <v>0.05903571070140328</v>
       </c>
       <c r="D463">
-        <v>196496891495.6012</v>
+        <v>203654723742.3918</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B464">
-        <v>3449687000000</v>
+        <v>3398176000000</v>
       </c>
       <c r="C464">
-        <v>0.05903571070140328</v>
+        <v>0.05977929484343802</v>
       </c>
       <c r="D464">
-        <v>203654723742.3918</v>
+        <v>203140565033.8949</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B465">
-        <v>3398176000000</v>
+        <v>3468293000000</v>
       </c>
       <c r="C465">
-        <v>0.05977929484343802</v>
+        <v>0.06166406649852932</v>
       </c>
       <c r="D465">
-        <v>203140565033.8949</v>
+        <v>213869050188.3838</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B466">
-        <v>3468293000000</v>
+        <v>3481094000000</v>
       </c>
       <c r="C466">
-        <v>0.06166406649852932</v>
+        <v>0.06473170649608567</v>
       </c>
       <c r="D466">
-        <v>213869050188.3838</v>
+        <v>225337155093.2849</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B467">
-        <v>3481094000000</v>
+        <v>3489713000000</v>
       </c>
       <c r="C467">
-        <v>0.06473170649608567</v>
+        <v>0.06808728517610436</v>
       </c>
       <c r="D467">
-        <v>225337155093.2849</v>
+        <v>237605084213.7587</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B468">
-        <v>3489713000000</v>
+        <v>3477595000000</v>
       </c>
       <c r="C468">
-        <v>0.06808728517610436</v>
+        <v>0.06610958324518722</v>
       </c>
       <c r="D468">
-        <v>237605084213.7587</v>
+        <v>229902356145.5468</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B469">
-        <v>3477595000000</v>
+        <v>3445432000000</v>
       </c>
       <c r="C469">
-        <v>0.06610958324518722</v>
+        <v>0.06621990305406193</v>
       </c>
       <c r="D469">
-        <v>229902356145.5468</v>
+        <v>228156173019.3627</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B470">
-        <v>3445432000000</v>
+        <v>3468690000000</v>
       </c>
       <c r="C470">
-        <v>0.06621990305406193</v>
+        <v>0.06774379297496867</v>
       </c>
       <c r="D470">
-        <v>228156173019.3627</v>
+        <v>234982217254.3441</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B471">
-        <v>3468690000000</v>
+        <v>3465042000000</v>
       </c>
       <c r="C471">
-        <v>0.06774379297496867</v>
+        <v>0.06910754516178076</v>
       </c>
       <c r="D471">
-        <v>234982217254.3441</v>
+        <v>239460546502.4671</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B472">
-        <v>3465042000000</v>
+        <v>3447483000000</v>
       </c>
       <c r="C472">
-        <v>0.06910754516178076</v>
+        <v>0.0728093487203757</v>
       </c>
       <c r="D472">
-        <v>239460546502.4671</v>
+        <v>251008991954.567</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B473">
-        <v>3447483000000</v>
+        <v>3376660000000</v>
       </c>
       <c r="C473">
-        <v>0.0728093487203757</v>
+        <v>0.07010557900197698</v>
       </c>
       <c r="D473">
-        <v>251008991954.567</v>
+        <v>236722704392.8156</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B474">
-        <v>3376660000000</v>
+        <v>3490057000000</v>
       </c>
       <c r="C474">
-        <v>0.07010557900197698</v>
+        <v>0.06856782386297407</v>
       </c>
       <c r="D474">
-        <v>236722704392.8156</v>
+        <v>239305613647.7397</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B475">
-        <v>3490057000000</v>
+        <v>3540188000000</v>
       </c>
       <c r="C475">
-        <v>0.06856782386297407</v>
+        <v>0.06891466297284073</v>
       </c>
       <c r="D475">
-        <v>239305613647.7397</v>
+        <v>243970862880.4951</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B476">
-        <v>3540188000000</v>
+        <v>3560444000000</v>
       </c>
       <c r="C476">
-        <v>0.06891466297284073</v>
+        <v>0.06644915642795915</v>
       </c>
       <c r="D476">
-        <v>243970862880.4951</v>
+        <v>236588500308.9886</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B477">
-        <v>3560444000000</v>
+        <v>3550623000000</v>
       </c>
       <c r="C477">
-        <v>0.06644915642795915</v>
+        <v>0.06572850185025733</v>
       </c>
       <c r="D477">
-        <v>236588500308.9886</v>
+        <v>233377130425.0662</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B478">
-        <v>3550623000000</v>
+        <v>3659236000000</v>
       </c>
       <c r="C478">
-        <v>0.06572850185025733</v>
+        <v>0.06299887232018547</v>
       </c>
       <c r="D478">
-        <v>233377130425.0662</v>
+        <v>230527741553.4262</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B479">
-        <v>3659236000000</v>
+        <v>3668057000000</v>
       </c>
       <c r="C479">
-        <v>0.06299887232018547</v>
+        <v>0.06276959541229582</v>
       </c>
       <c r="D479">
-        <v>230527741553.4262</v>
+        <v>230242453839.2396</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B480">
-        <v>3668057000000</v>
+        <v>3658001000000</v>
       </c>
       <c r="C480">
-        <v>0.06276959541229582</v>
+        <v>0.06509145349215648</v>
       </c>
       <c r="D480">
-        <v>230242453839.2396</v>
+        <v>238104601965.7619</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B481">
-        <v>3658001000000</v>
+        <v>3618983000000</v>
       </c>
       <c r="C481">
-        <v>0.06509145349215648</v>
+        <v>0.06510543825725763</v>
       </c>
       <c r="D481">
-        <v>238104601965.7619</v>
+        <v>235615474260.565</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B482">
-        <v>3618983000000</v>
+        <v>3708143000000</v>
       </c>
       <c r="C482">
-        <v>0.06510543825725763</v>
+        <v>0.06846454563504289</v>
       </c>
       <c r="D482">
-        <v>235615474260.565</v>
+        <v>253876325644.7649</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B483">
-        <v>3708143000000</v>
+        <v>3679157000000</v>
       </c>
       <c r="C483">
-        <v>0.06846454563504289</v>
+        <v>0.06326151043182307</v>
       </c>
       <c r="D483">
-        <v>253876325644.7649</v>
+        <v>232749028935.8149</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B484">
-        <v>3679157000000</v>
+        <v>3680984000000</v>
       </c>
       <c r="C484">
-        <v>0.06326151043182307</v>
+        <v>0.06408654246694737</v>
       </c>
       <c r="D484">
-        <v>232749028935.8149</v>
+        <v>235901537436.1538</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B485">
-        <v>3680984000000</v>
+        <v>3621974000000</v>
       </c>
       <c r="C485">
-        <v>0.06408654246694737</v>
+        <v>0.06149116064565719</v>
       </c>
       <c r="D485">
-        <v>235901537436.1538</v>
+        <v>222719385088.3936</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B486">
-        <v>3621974000000</v>
+        <v>3726372000000</v>
       </c>
       <c r="C486">
-        <v>0.06149116064565719</v>
+        <v>0.06031872413834702</v>
       </c>
       <c r="D486">
-        <v>222719385088.3936</v>
+        <v>224770004704.8604</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B487">
-        <v>3726372000000</v>
+        <v>3789445000000</v>
       </c>
       <c r="C487">
-        <v>0.06031872413834702</v>
+        <v>0.05844227948266894</v>
       </c>
       <c r="D487">
-        <v>224770004704.8604</v>
+        <v>221463803774.2024</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B488">
-        <v>3789445000000</v>
+        <v>3829270000000</v>
       </c>
       <c r="C488">
-        <v>0.05844227948266894</v>
+        <v>0.0553345248701022</v>
       </c>
       <c r="D488">
-        <v>221463803774.2024</v>
+        <v>211890836049.3362</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B489">
-        <v>3829270000000</v>
+        <v>3858434000000</v>
       </c>
       <c r="C489">
-        <v>0.0553345248701022</v>
+        <v>0.05453127641358701</v>
       </c>
       <c r="D489">
-        <v>211890836049.3362</v>
+        <v>210405330977.5822</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B490">
-        <v>3858434000000</v>
+        <v>3909531000000</v>
       </c>
       <c r="C490">
-        <v>0.05453127641358701</v>
+        <v>0.05806829993438282</v>
       </c>
       <c r="D490">
-        <v>210405330977.5822</v>
+        <v>227019818710.7676</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B491">
-        <v>3909531000000</v>
+        <v>3905132000000</v>
       </c>
       <c r="C491">
-        <v>0.05806829993438282</v>
+        <v>0.05892092223027474</v>
       </c>
       <c r="D491">
-        <v>227019818710.7676</v>
+        <v>230093978870.9573</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B492">
-        <v>3905132000000</v>
+        <v>3936219000000</v>
       </c>
       <c r="C492">
-        <v>0.05892092223027474</v>
+        <v>0.05747952291995976</v>
       </c>
       <c r="D492">
-        <v>230093978870.9573</v>
+        <v>226251990228.4811</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B493">
-        <v>3936219000000</v>
+        <v>3977391000000</v>
       </c>
       <c r="C493">
-        <v>0.05747952291995976</v>
+        <v>0.05448433303003721</v>
       </c>
       <c r="D493">
-        <v>226251990228.4811</v>
+        <v>216705495834.6727</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B494">
-        <v>3977391000000</v>
+        <v>3995219000000</v>
       </c>
       <c r="C494">
-        <v>0.05448433303003721</v>
+        <v>0.05628032102295111</v>
       </c>
       <c r="D494">
-        <v>216705495834.6727</v>
+        <v>224852207876.9937</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B495">
-        <v>3995219000000</v>
+        <v>4008914000000</v>
       </c>
       <c r="C495">
-        <v>0.05628032102295111</v>
+        <v>0.05474292721380398</v>
       </c>
       <c r="D495">
-        <v>224852207876.9937</v>
+        <v>219459687308.3997</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B496">
-        <v>4008914000000</v>
+        <v>4007716000000</v>
       </c>
       <c r="C496">
-        <v>0.05474292721380398</v>
+        <v>0.05070531087426097</v>
       </c>
       <c r="D496">
-        <v>219459687308.3997</v>
+        <v>203212485675.7497</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B497">
-        <v>4007716000000</v>
+        <v>4005043000000</v>
       </c>
       <c r="C497">
-        <v>0.05070531087426097</v>
+        <v>0.0531697124050256</v>
       </c>
       <c r="D497">
-        <v>203212485675.7497</v>
+        <v>212946984479.7609</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B498">
-        <v>4005043000000</v>
+        <v>4031953000000</v>
       </c>
       <c r="C498">
-        <v>0.0531697124050256</v>
+        <v>0.05619492896960978</v>
       </c>
       <c r="D498">
-        <v>212946984479.7609</v>
+        <v>226575312443.8051</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B499">
-        <v>4031953000000</v>
+        <v>4067165000000</v>
       </c>
       <c r="C499">
-        <v>0.05619492896960978</v>
+        <v>0.05300990224974025</v>
       </c>
       <c r="D499">
-        <v>226575312443.8051</v>
+        <v>215600019083.5648</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B500">
-        <v>4067165000000</v>
+        <v>4094931000000</v>
       </c>
       <c r="C500">
-        <v>0.05300990224974025</v>
+        <v>0.05287340520591548</v>
       </c>
       <c r="D500">
-        <v>215600019083.5648</v>
+        <v>216512946053.2647</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B501">
-        <v>4094931000000</v>
+        <v>4094997000000</v>
       </c>
       <c r="C501">
-        <v>0.05287340520591548</v>
+        <v>0.05364778085954475</v>
       </c>
       <c r="D501">
-        <v>216512946053.2647</v>
+        <v>219687501676.4932</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>South Africa_M2 (ZAR)</t>
-  </si>
-  <si>
-    <t>South Africa_FX (USD)</t>
-  </si>
-  <si>
-    <t>South Africa_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,7013 +426,7029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>30011</v>
-      </c>
-      <c r="B2">
-        <v>27738000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_M2 (ZAR)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>South Africa_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
         <v>27384000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30072</v>
       </c>
-      <c r="B4">
+      <c r="B3" t="n">
         <v>27294000000</v>
       </c>
-      <c r="C4">
-        <v>0.9251549634563789</v>
-      </c>
-      <c r="D4">
-        <v>25251179572.57841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="B5">
+      <c r="B4" t="n">
         <v>27709000000</v>
       </c>
-      <c r="C5">
+      <c r="C4" t="n">
         <v>0.8764241893076249</v>
       </c>
-      <c r="D5">
+      <c r="D4" t="n">
         <v>24284837861.52498</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B6">
+      <c r="B5" t="n">
         <v>28216000000</v>
       </c>
-      <c r="C6">
+      <c r="C5" t="n">
         <v>0.8714596949891068</v>
       </c>
-      <c r="D6">
+      <c r="D5" t="n">
         <v>24589106753.81264</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="B7">
+      <c r="B6" t="n">
         <v>28384000000</v>
       </c>
-      <c r="C7">
+      <c r="C6" t="n">
         <v>0.8688852202624033</v>
       </c>
-      <c r="D7">
+      <c r="D6" t="n">
         <v>24662438091.92805</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="B8">
+      <c r="B7" t="n">
         <v>29265000000</v>
       </c>
-      <c r="C8">
+      <c r="C7" t="n">
         <v>0.8649770781074302</v>
       </c>
-      <c r="D8">
+      <c r="D7" t="n">
         <v>25313554190.81395</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B9">
+      <c r="B8" t="n">
         <v>30119000000</v>
       </c>
-      <c r="C9">
+      <c r="C8" t="n">
         <v>0.8530239699735563</v>
       </c>
-      <c r="D9">
+      <c r="D8" t="n">
         <v>25692228951.63354</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="B10">
+      <c r="B9" t="n">
         <v>30601000000</v>
       </c>
-      <c r="C10">
+      <c r="C9" t="n">
         <v>0.9014693951140359</v>
       </c>
-      <c r="D10">
+      <c r="D9" t="n">
         <v>27585864959.88461</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="n">
         <v>31356000000</v>
       </c>
-      <c r="C11">
+      <c r="C10" t="n">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D11">
+      <c r="D10" t="n">
         <v>29192812587.28237</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B12">
+      <c r="B11" t="n">
         <v>31464000000</v>
       </c>
-      <c r="C12">
+      <c r="C11" t="n">
         <v>0.9365049634763064</v>
       </c>
-      <c r="D12">
+      <c r="D11" t="n">
         <v>29466192170.8185</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="B13">
+      <c r="B12" t="n">
         <v>31645000000</v>
       </c>
-      <c r="C13">
+      <c r="C12" t="n">
         <v>0.9170105456212746</v>
       </c>
-      <c r="D13">
+      <c r="D12" t="n">
         <v>29018798716.18523</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="B14">
+      <c r="B13" t="n">
         <v>33018000000</v>
       </c>
-      <c r="C14">
+      <c r="C13" t="n">
         <v>0.9123255177447313</v>
       </c>
-      <c r="D14">
+      <c r="D13" t="n">
         <v>30123163944.89554</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B15">
+      <c r="B14" t="n">
         <v>32272000000</v>
       </c>
-      <c r="C15">
+      <c r="C14" t="n">
         <v>0.9166743056192135</v>
       </c>
-      <c r="D15">
+      <c r="D14" t="n">
         <v>29582913190.94326</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="B16">
+      <c r="B15" t="n">
         <v>34418000000</v>
       </c>
-      <c r="C16">
+      <c r="C15" t="n">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D16">
+      <c r="D15" t="n">
         <v>32043571362.07057</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="B17">
+      <c r="B16" t="n">
         <v>34672000000</v>
       </c>
-      <c r="C17">
+      <c r="C16" t="n">
         <v>0.9139932364500503</v>
       </c>
-      <c r="D17">
+      <c r="D16" t="n">
         <v>31689973494.19614</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B18">
+      <c r="B17" t="n">
         <v>34907000000</v>
       </c>
-      <c r="C18">
+      <c r="C17" t="n">
         <v>0.91000091000091</v>
       </c>
-      <c r="D18">
+      <c r="D17" t="n">
         <v>31765401765.40176</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="B19">
+      <c r="B18" t="n">
         <v>35060000000</v>
       </c>
-      <c r="C19">
+      <c r="C18" t="n">
         <v>0.8880206020779682</v>
       </c>
-      <c r="D19">
+      <c r="D18" t="n">
         <v>31134002308.85357</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="B20">
+      <c r="B19" t="n">
         <v>37047000000</v>
       </c>
-      <c r="C20">
+      <c r="C19" t="n">
         <v>0.9059612248595761</v>
       </c>
-      <c r="D20">
+      <c r="D19" t="n">
         <v>33563145497.37271</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B21">
+      <c r="B20" t="n">
         <v>36682000000</v>
       </c>
-      <c r="C21">
+      <c r="C20" t="n">
         <v>0.8514986376021798</v>
       </c>
-      <c r="D21">
+      <c r="D20" t="n">
         <v>31234673024.52316</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="B22">
+      <c r="B21" t="n">
         <v>37366000000</v>
       </c>
-      <c r="C22">
+      <c r="C21" t="n">
         <v>0.8389965601141035</v>
       </c>
-      <c r="D22">
+      <c r="D21" t="n">
         <v>31349945465.22359</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="B23">
+      <c r="B22" t="n">
         <v>38465000000</v>
       </c>
-      <c r="C23">
+      <c r="C22" t="n">
         <v>0.8179959100204499</v>
       </c>
-      <c r="D23">
+      <c r="D22" t="n">
         <v>31464212678.93661</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B24">
+      <c r="B23" t="n">
         <v>38905000000</v>
       </c>
-      <c r="C24">
+      <c r="C23" t="n">
         <v>0.7864726700747149</v>
       </c>
-      <c r="D24">
+      <c r="D23" t="n">
         <v>30597719229.25678</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="B25">
+      <c r="B24" t="n">
         <v>39321000000</v>
       </c>
-      <c r="C25">
+      <c r="C24" t="n">
         <v>0.8350033400133601</v>
       </c>
-      <c r="D25">
+      <c r="D24" t="n">
         <v>32833166332.66533</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="B26">
+      <c r="B25" t="n">
         <v>39614000000</v>
       </c>
-      <c r="C26">
+      <c r="C25" t="n">
         <v>0.8080155138978669</v>
       </c>
-      <c r="D26">
+      <c r="D25" t="n">
         <v>32008726567.5501</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B27">
+      <c r="B26" t="n">
         <v>40633000000</v>
       </c>
-      <c r="C27">
+      <c r="C26" t="n">
         <v>0.7961783439490446</v>
       </c>
-      <c r="D27">
+      <c r="D26" t="n">
         <v>32351114649.68153</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="B28">
+      <c r="B27" t="n">
         <v>41110000000</v>
       </c>
-      <c r="C28">
+      <c r="C27" t="n">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D28">
+      <c r="D27" t="n">
         <v>32064581545.90125</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B29">
+      <c r="B28" t="n">
         <v>41484000000</v>
       </c>
-      <c r="C29">
+      <c r="C28" t="n">
         <v>0.7359976448075366</v>
       </c>
-      <c r="D29">
+      <c r="D28" t="n">
         <v>30532126297.19585</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B30">
+      <c r="B29" t="n">
         <v>42605000000</v>
       </c>
-      <c r="C30">
+      <c r="C29" t="n">
         <v>0.6080136195050769</v>
       </c>
-      <c r="D30">
+      <c r="D29" t="n">
         <v>25904420259.0138</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B31">
+      <c r="B30" t="n">
         <v>43199000000</v>
       </c>
-      <c r="C31">
+      <c r="C30" t="n">
         <v>0.6360109393881574</v>
       </c>
-      <c r="D31">
+      <c r="D30" t="n">
         <v>27475036570.62901</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B32">
+      <c r="B31" t="n">
         <v>45287000000</v>
       </c>
-      <c r="C32">
+      <c r="C31" t="n">
         <v>0.5985156811108451</v>
       </c>
-      <c r="D32">
+      <c r="D31" t="n">
         <v>27104979650.46684</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B33">
+      <c r="B32" t="n">
         <v>46311000000</v>
       </c>
-      <c r="C33">
+      <c r="C32" t="n">
         <v>0.5249895002099958</v>
       </c>
-      <c r="D33">
+      <c r="D32" t="n">
         <v>24312788744.22512</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B34">
+      <c r="B33" t="n">
         <v>47671000000</v>
       </c>
-      <c r="C34">
+      <c r="C33" t="n">
         <v>0.5380104374024856</v>
       </c>
-      <c r="D34">
+      <c r="D33" t="n">
         <v>25647495561.41389</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B35">
+      <c r="B34" t="n">
         <v>47825000000</v>
       </c>
-      <c r="C35">
+      <c r="C34" t="n">
         <v>0.502487312195367</v>
       </c>
-      <c r="D35">
+      <c r="D34" t="n">
         <v>24031455705.74343</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B36">
+      <c r="B35" t="n">
         <v>48078000000</v>
       </c>
-      <c r="C36">
+      <c r="C35" t="n">
         <v>0.504999495000505</v>
       </c>
-      <c r="D36">
+      <c r="D35" t="n">
         <v>24279365720.63428</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B37">
+      <c r="B36" t="n">
         <v>48526000000</v>
       </c>
-      <c r="C37">
+      <c r="C36" t="n">
         <v>0.488997555012225</v>
       </c>
-      <c r="D37">
+      <c r="D36" t="n">
         <v>23729095354.52323</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B38">
+      <c r="B37" t="n">
         <v>49123000000</v>
       </c>
-      <c r="C38">
+      <c r="C37" t="n">
         <v>0.5289885738468049</v>
       </c>
-      <c r="D38">
+      <c r="D37" t="n">
         <v>25985505713.0766</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B39">
+      <c r="B38" t="n">
         <v>49187000000</v>
       </c>
-      <c r="C39">
+      <c r="C38" t="n">
         <v>0.5140066820868672</v>
       </c>
-      <c r="D39">
+      <c r="D38" t="n">
         <v>25282446671.80674</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B40">
+      <c r="B39" t="n">
         <v>50021000000</v>
       </c>
-      <c r="C40">
+      <c r="C39" t="n">
         <v>0.502992807202857</v>
       </c>
-      <c r="D40">
+      <c r="D39" t="n">
         <v>25160203209.09411</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B41">
+      <c r="B40" t="n">
         <v>50480000000</v>
       </c>
-      <c r="C41">
+      <c r="C40" t="n">
         <v>0.5103082261686058</v>
       </c>
-      <c r="D41">
+      <c r="D40" t="n">
         <v>25760359256.99122</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B42">
+      <c r="B41" t="n">
         <v>50961000000</v>
       </c>
-      <c r="C42">
+      <c r="C41" t="n">
         <v>0.455000455000455</v>
       </c>
-      <c r="D42">
+      <c r="D41" t="n">
         <v>23187278187.27819</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B43">
+      <c r="B42" t="n">
         <v>51681000000</v>
       </c>
-      <c r="C43">
+      <c r="C42" t="n">
         <v>0.3550001775000888</v>
       </c>
-      <c r="D43">
+      <c r="D42" t="n">
         <v>18346764173.38209</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B44">
+      <c r="B43" t="n">
         <v>51937000000</v>
       </c>
-      <c r="C44">
+      <c r="C43" t="n">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D44">
+      <c r="D43" t="n">
         <v>20281552639.80006</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B45">
+      <c r="B44" t="n">
         <v>52956000000</v>
       </c>
-      <c r="C45">
+      <c r="C44" t="n">
         <v>0.3869969040247678</v>
       </c>
-      <c r="D45">
+      <c r="D44" t="n">
         <v>20493808049.5356</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B46">
+      <c r="B45" t="n">
         <v>52822000000</v>
       </c>
-      <c r="C46">
+      <c r="C45" t="n">
         <v>0.37000037000037</v>
       </c>
-      <c r="D46">
+      <c r="D45" t="n">
         <v>19544159544.15955</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B47">
+      <c r="B46" t="n">
         <v>54577000000</v>
       </c>
-      <c r="C47">
+      <c r="C46" t="n">
         <v>0.3889991053020578</v>
       </c>
-      <c r="D47">
+      <c r="D46" t="n">
         <v>21230404170.07041</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B48">
+      <c r="B47" t="n">
         <v>52982000000</v>
       </c>
-      <c r="C48">
+      <c r="C47" t="n">
         <v>0.43750273439209</v>
       </c>
-      <c r="D48">
+      <c r="D47" t="n">
         <v>23179769873.56171</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B49">
+      <c r="B48" t="n">
         <v>54711000000</v>
       </c>
-      <c r="C49">
+      <c r="C48" t="n">
         <v>0.5034993202759176</v>
       </c>
-      <c r="D49">
+      <c r="D48" t="n">
         <v>27546951311.61573</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B50">
+      <c r="B49" t="n">
         <v>54024000000</v>
       </c>
-      <c r="C50">
+      <c r="C49" t="n">
         <v>0.4650081376424087</v>
       </c>
-      <c r="D50">
+      <c r="D49" t="n">
         <v>25121599627.99349</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B51">
+      <c r="B50" t="n">
         <v>54226000000</v>
       </c>
-      <c r="C51">
+      <c r="C50" t="n">
         <v>0.4860031104199067</v>
       </c>
-      <c r="D51">
+      <c r="D50" t="n">
         <v>26354004665.62986</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B52">
+      <c r="B51" t="n">
         <v>54464000000</v>
       </c>
-      <c r="C52">
+      <c r="C51" t="n">
         <v>0.4234955321221361</v>
       </c>
-      <c r="D52">
+      <c r="D51" t="n">
         <v>23065260661.50002</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B53">
+      <c r="B52" t="n">
         <v>54673000000</v>
       </c>
-      <c r="C53">
+      <c r="C52" t="n">
         <v>0.40399143538157</v>
       </c>
-      <c r="D53">
+      <c r="D52" t="n">
         <v>22087423746.61657</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B54">
+      <c r="B53" t="n">
         <v>54551000000</v>
       </c>
-      <c r="C54">
+      <c r="C53" t="n">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D54">
+      <c r="D53" t="n">
         <v>21302327397.68822</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B55">
+      <c r="B54" t="n">
         <v>54737000000</v>
       </c>
-      <c r="C55">
+      <c r="C54" t="n">
         <v>0.3920031360250882</v>
       </c>
-      <c r="D55">
+      <c r="D54" t="n">
         <v>21457075656.60525</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B56">
+      <c r="B55" t="n">
         <v>55248000000</v>
       </c>
-      <c r="C56">
+      <c r="C55" t="n">
         <v>0.44849082836256</v>
       </c>
-      <c r="D56">
+      <c r="D55" t="n">
         <v>24778221285.37472</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>56003000000</v>
       </c>
-      <c r="C57">
+      <c r="C56" t="n">
         <v>0.4359958144401814</v>
       </c>
-      <c r="D57">
+      <c r="D56" t="n">
         <v>24417073596.09348</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>56188000000</v>
       </c>
-      <c r="C58">
+      <c r="C57" t="n">
         <v>0.4504910352283989</v>
       </c>
-      <c r="D58">
+      <c r="D57" t="n">
         <v>25312190287.41328</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>56921000000</v>
       </c>
-      <c r="C59">
+      <c r="C58" t="n">
         <v>0.457205559619605</v>
       </c>
-      <c r="D59">
+      <c r="D58" t="n">
         <v>26024597659.10754</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>55313000000</v>
       </c>
-      <c r="C60">
+      <c r="C59" t="n">
         <v>0.4775093114315729</v>
       </c>
-      <c r="D60">
+      <c r="D59" t="n">
         <v>26412472543.21459</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>56599000000</v>
       </c>
-      <c r="C61">
+      <c r="C60" t="n">
         <v>0.481000481000481</v>
       </c>
-      <c r="D61">
+      <c r="D60" t="n">
         <v>27224146224.14622</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>57129000000</v>
       </c>
-      <c r="C62">
+      <c r="C61" t="n">
         <v>0.495000495000495</v>
       </c>
-      <c r="D62">
+      <c r="D61" t="n">
         <v>28278883278.88328</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>58397000000</v>
       </c>
-      <c r="C63">
+      <c r="C62" t="n">
         <v>0.499001996007984</v>
       </c>
-      <c r="D63">
+      <c r="D62" t="n">
         <v>29140219560.87824</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>58843000000</v>
       </c>
-      <c r="C64">
+      <c r="C63" t="n">
         <v>0.494486475794887</v>
       </c>
-      <c r="D64">
+      <c r="D63" t="n">
         <v>29097067695.19854</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>59131000000</v>
       </c>
-      <c r="C65">
+      <c r="C64" t="n">
         <v>0.4884959210590592</v>
       </c>
-      <c r="D65">
+      <c r="D64" t="n">
         <v>28885252308.14323</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>59587000000</v>
       </c>
-      <c r="C66">
+      <c r="C65" t="n">
         <v>0.4825090470446322</v>
       </c>
-      <c r="D66">
+      <c r="D65" t="n">
         <v>28751266586.2485</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>60093000000</v>
       </c>
-      <c r="C67">
+      <c r="C66" t="n">
         <v>0.4900039200313603</v>
       </c>
-      <c r="D67">
+      <c r="D66" t="n">
         <v>29445805566.44453</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>62790000000</v>
       </c>
-      <c r="C68">
+      <c r="C67" t="n">
         <v>0.4815100154083205</v>
       </c>
-      <c r="D68">
+      <c r="D67" t="n">
         <v>30234013867.48845</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>64619000000</v>
       </c>
-      <c r="C69">
+      <c r="C68" t="n">
         <v>0.4960071425028521</v>
       </c>
-      <c r="D69">
+      <c r="D68" t="n">
         <v>32051485541.3918</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>67636000000</v>
       </c>
-      <c r="C70">
+      <c r="C69" t="n">
         <v>0.5135051864023826</v>
       </c>
-      <c r="D70">
+      <c r="D69" t="n">
         <v>34731436787.51155</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>69464000000</v>
       </c>
-      <c r="C71">
+      <c r="C70" t="n">
         <v>0.5180005180005179</v>
       </c>
-      <c r="D71">
+      <c r="D70" t="n">
         <v>35982387982.38798</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>69972000000</v>
       </c>
-      <c r="C72">
+      <c r="C71" t="n">
         <v>0.5020080321285141</v>
       </c>
-      <c r="D72">
+      <c r="D71" t="n">
         <v>35126506024.09639</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>71940000000</v>
       </c>
-      <c r="C73">
+      <c r="C72" t="n">
         <v>0.478996024332998</v>
       </c>
-      <c r="D73">
+      <c r="D72" t="n">
         <v>34458973990.51588</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>75614000000</v>
       </c>
-      <c r="C74">
+      <c r="C73" t="n">
         <v>0.4694835680751174</v>
       </c>
-      <c r="D74">
+      <c r="D73" t="n">
         <v>35499530516.43192</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>75376000000</v>
       </c>
-      <c r="C75">
+      <c r="C74" t="n">
         <v>0.4651162790697674</v>
       </c>
-      <c r="D75">
+      <c r="D74" t="n">
         <v>35058604651.16279</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>76968000000</v>
       </c>
-      <c r="C76">
+      <c r="C75" t="n">
         <v>0.4464285714285714</v>
       </c>
-      <c r="D76">
+      <c r="D75" t="n">
         <v>34360714285.71429</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>78923000000</v>
       </c>
-      <c r="C77">
+      <c r="C76" t="n">
         <v>0.4291845493562232</v>
       </c>
-      <c r="D77">
+      <c r="D76" t="n">
         <v>33872532188.8412</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>78621000000</v>
       </c>
-      <c r="C78">
+      <c r="C77" t="n">
         <v>0.4098360655737705</v>
       </c>
-      <c r="D78">
+      <c r="D77" t="n">
         <v>32221721311.47541</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>82506000000</v>
       </c>
-      <c r="C79">
+      <c r="C78" t="n">
         <v>0.4081632653061224</v>
       </c>
-      <c r="D79">
+      <c r="D78" t="n">
         <v>33675918367.34694</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>86326000000</v>
       </c>
-      <c r="C80">
+      <c r="C79" t="n">
         <v>0.4016064257028112</v>
       </c>
-      <c r="D80">
+      <c r="D79" t="n">
         <v>34669076305.22088</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>87433000000</v>
       </c>
-      <c r="C81">
+      <c r="C80" t="n">
         <v>0.3984063745019921</v>
       </c>
-      <c r="D81">
+      <c r="D80" t="n">
         <v>34833864541.83267</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>89360000000</v>
       </c>
-      <c r="C82">
+      <c r="C81" t="n">
         <v>0.4347826086956522</v>
       </c>
-      <c r="D82">
+      <c r="D81" t="n">
         <v>38852173913.04348</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>93941000000</v>
       </c>
-      <c r="C83">
+      <c r="C82" t="n">
         <v>0.4201680672268908</v>
       </c>
-      <c r="D83">
+      <c r="D82" t="n">
         <v>39471008403.36134</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>93139000000</v>
       </c>
-      <c r="C84">
+      <c r="C83" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="D84">
+      <c r="D83" t="n">
         <v>38807916666.66667</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>95737000000</v>
       </c>
-      <c r="C85">
+      <c r="C84" t="n">
         <v>0.4032258064516129</v>
       </c>
-      <c r="D85">
+      <c r="D84" t="n">
         <v>38603629032.25806</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>100882000000</v>
       </c>
-      <c r="C86">
+      <c r="C85" t="n">
         <v>0.390625</v>
       </c>
-      <c r="D86">
+      <c r="D85" t="n">
         <v>39407031250</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>98893000000</v>
       </c>
-      <c r="C87">
+      <c r="C86" t="n">
         <v>0.390625</v>
       </c>
-      <c r="D87">
+      <c r="D86" t="n">
         <v>38630078125</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>99881000000</v>
       </c>
-      <c r="C88">
+      <c r="C87" t="n">
         <v>0.364963503649635</v>
       </c>
-      <c r="D88">
+      <c r="D87" t="n">
         <v>36452919708.0292</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>102369000000</v>
       </c>
-      <c r="C89">
+      <c r="C88" t="n">
         <v>0.3597122302158274</v>
       </c>
-      <c r="D89">
+      <c r="D88" t="n">
         <v>36823381294.96404</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>103301000000</v>
       </c>
-      <c r="C90">
+      <c r="C89" t="n">
         <v>0.3773584905660378</v>
       </c>
-      <c r="D90">
+      <c r="D89" t="n">
         <v>38981509433.96227</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>106860000000</v>
       </c>
-      <c r="C91">
+      <c r="C90" t="n">
         <v>0.3690036900369004</v>
       </c>
-      <c r="D91">
+      <c r="D90" t="n">
         <v>39431734317.34317</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>109691000000</v>
       </c>
-      <c r="C92">
+      <c r="C91" t="n">
         <v>0.3713330857779428</v>
       </c>
-      <c r="D92">
+      <c r="D91" t="n">
         <v>40731897512.06833</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>113738000000</v>
       </c>
-      <c r="C93">
+      <c r="C92" t="n">
         <v>0.3789314134141721</v>
       </c>
-      <c r="D93">
+      <c r="D92" t="n">
         <v>43098901098.90111</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>115655000000</v>
       </c>
-      <c r="C94">
+      <c r="C93" t="n">
         <v>0.3834355828220859</v>
       </c>
-      <c r="D94">
+      <c r="D93" t="n">
         <v>44346242331.28835</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>119022000000</v>
       </c>
-      <c r="C95">
+      <c r="C94" t="n">
         <v>0.3947887879984209</v>
       </c>
-      <c r="D95">
+      <c r="D94" t="n">
         <v>46988551125.14805</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>119454000000</v>
       </c>
-      <c r="C96">
+      <c r="C95" t="n">
         <v>0.3900916715428126</v>
       </c>
-      <c r="D96">
+      <c r="D95" t="n">
         <v>46598010532.47514</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>121163000000</v>
       </c>
-      <c r="C97">
+      <c r="C96" t="n">
         <v>0.3910833007430583</v>
       </c>
-      <c r="D97">
+      <c r="D96" t="n">
         <v>47384825967.93118</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>124200000000</v>
       </c>
-      <c r="C98">
+      <c r="C97" t="n">
         <v>0.3784295175023652</v>
       </c>
-      <c r="D98">
+      <c r="D97" t="n">
         <v>47000946073.79375</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>122731000000</v>
       </c>
-      <c r="C99">
+      <c r="C98" t="n">
         <v>0.3760105282947923</v>
       </c>
-      <c r="D99">
+      <c r="D98" t="n">
         <v>46148148148.14815</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>123458000000</v>
       </c>
-      <c r="C100">
+      <c r="C99" t="n">
         <v>0.3738317757009346</v>
       </c>
-      <c r="D100">
+      <c r="D99" t="n">
         <v>46152523364.48598</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>122874000000</v>
       </c>
-      <c r="C101">
+      <c r="C100" t="n">
         <v>0.377643504531722</v>
       </c>
-      <c r="D101">
+      <c r="D100" t="n">
         <v>46402567975.83081</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>121553000000</v>
       </c>
-      <c r="C102">
+      <c r="C101" t="n">
         <v>0.3869220352099053</v>
       </c>
-      <c r="D102">
+      <c r="D101" t="n">
         <v>47031534145.86961</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>124069000000</v>
       </c>
-      <c r="C103">
+      <c r="C102" t="n">
         <v>0.3875368159975198</v>
       </c>
-      <c r="D103">
+      <c r="D102" t="n">
         <v>48081305223.99628</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>124001000000</v>
       </c>
-      <c r="C104">
+      <c r="C103" t="n">
         <v>0.390015600624025</v>
       </c>
-      <c r="D104">
+      <c r="D103" t="n">
         <v>48362324492.97972</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>125418000000</v>
       </c>
-      <c r="C105">
+      <c r="C104" t="n">
         <v>0.3940886699507389</v>
       </c>
-      <c r="D105">
+      <c r="D104" t="n">
         <v>49425812807.88177</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>130295000000</v>
       </c>
-      <c r="C106">
+      <c r="C105" t="n">
         <v>0.3960396039603961</v>
       </c>
-      <c r="D106">
+      <c r="D105" t="n">
         <v>51601980198.01981</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>134244000000</v>
       </c>
-      <c r="C107">
+      <c r="C106" t="n">
         <v>0.390625</v>
       </c>
-      <c r="D107">
+      <c r="D106" t="n">
         <v>52439062500</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>133075000000</v>
       </c>
-      <c r="C108">
+      <c r="C107" t="n">
         <v>0.3943217665615142</v>
       </c>
-      <c r="D108">
+      <c r="D107" t="n">
         <v>52474369085.1735</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>141904000000</v>
       </c>
-      <c r="C109">
+      <c r="C108" t="n">
         <v>0.3887269193391643</v>
       </c>
-      <c r="D109">
+      <c r="D108" t="n">
         <v>55161904761.90476</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>144489000000</v>
       </c>
-      <c r="C110">
+      <c r="C109" t="n">
         <v>0.3696857670979667</v>
       </c>
-      <c r="D110">
+      <c r="D109" t="n">
         <v>53415526802.21812</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>143243000000</v>
       </c>
-      <c r="C111">
+      <c r="C110" t="n">
         <v>0.3613369467028004</v>
       </c>
-      <c r="D111">
+      <c r="D110" t="n">
         <v>51758988256.54923</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>147025000000</v>
       </c>
-      <c r="C112">
+      <c r="C111" t="n">
         <v>0.3511852502194908</v>
       </c>
-      <c r="D112">
+      <c r="D111" t="n">
         <v>51633011413.52063</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>147706000000</v>
       </c>
-      <c r="C113">
+      <c r="C112" t="n">
         <v>0.3457216940363008</v>
       </c>
-      <c r="D113">
+      <c r="D112" t="n">
         <v>51065168539.32584</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>147683000000</v>
       </c>
-      <c r="C114">
+      <c r="C113" t="n">
         <v>0.3484320557491289</v>
       </c>
-      <c r="D114">
+      <c r="D113" t="n">
         <v>51457491289.1986</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>150139000000</v>
       </c>
-      <c r="C115">
+      <c r="C114" t="n">
         <v>0.3466805338880222</v>
       </c>
-      <c r="D115">
+      <c r="D114" t="n">
         <v>52050268677.41376</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>151994000000</v>
       </c>
-      <c r="C116">
+      <c r="C115" t="n">
         <v>0.3566333808844508</v>
       </c>
-      <c r="D116">
+      <c r="D115" t="n">
         <v>54206134094.15121</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>152178000000</v>
       </c>
-      <c r="C117">
+      <c r="C116" t="n">
         <v>0.3539823008849557</v>
       </c>
-      <c r="D117">
+      <c r="D116" t="n">
         <v>53868318584.07079</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>157379000000</v>
       </c>
-      <c r="C118">
+      <c r="C117" t="n">
         <v>0.3571428571428572</v>
       </c>
-      <c r="D118">
+      <c r="D117" t="n">
         <v>56206785714.28571</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>155363000000</v>
       </c>
-      <c r="C119">
+      <c r="C118" t="n">
         <v>0.3629764065335753</v>
       </c>
-      <c r="D119">
+      <c r="D118" t="n">
         <v>56393103448.27586</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>154965000000</v>
       </c>
-      <c r="C120">
+      <c r="C119" t="n">
         <v>0.357653791130186</v>
       </c>
-      <c r="D120">
+      <c r="D119" t="n">
         <v>55423819742.48928</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>157762000000</v>
       </c>
-      <c r="C121">
+      <c r="C120" t="n">
         <v>0.3516174402250352</v>
       </c>
-      <c r="D121">
+      <c r="D120" t="n">
         <v>55471870604.782</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>161099000000</v>
       </c>
-      <c r="C122">
+      <c r="C121" t="n">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D122">
+      <c r="D121" t="n">
         <v>55976025017.37318</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>164970000000</v>
       </c>
-      <c r="C123">
+      <c r="C122" t="n">
         <v>0.3487966515521451</v>
       </c>
-      <c r="D123">
+      <c r="D122" t="n">
         <v>57540983606.55738</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>163246000000</v>
       </c>
-      <c r="C124">
+      <c r="C123" t="n">
         <v>0.3527336860670194</v>
       </c>
-      <c r="D124">
+      <c r="D123" t="n">
         <v>57582363315.69665</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>164787000000</v>
       </c>
-      <c r="C125">
+      <c r="C124" t="n">
         <v>0.3607503607503608</v>
       </c>
-      <c r="D125">
+      <c r="D124" t="n">
         <v>59446969696.9697</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>167064000000</v>
       </c>
-      <c r="C126">
+      <c r="C125" t="n">
         <v>0.3614022406938923</v>
       </c>
-      <c r="D126">
+      <c r="D125" t="n">
         <v>60377303939.28442</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>168993000000</v>
       </c>
-      <c r="C127">
+      <c r="C126" t="n">
         <v>0.3648303538854433</v>
       </c>
-      <c r="D127">
+      <c r="D126" t="n">
         <v>61653775994.16271</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>171409000000</v>
       </c>
-      <c r="C128">
+      <c r="C127" t="n">
         <v>0.3553660270078181</v>
       </c>
-      <c r="D128">
+      <c r="D127" t="n">
         <v>60912935323.38309</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>170847000000</v>
       </c>
-      <c r="C129">
+      <c r="C128" t="n">
         <v>0.3378378378378378</v>
       </c>
-      <c r="D129">
+      <c r="D128" t="n">
         <v>57718581081.08108</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>173892000000</v>
       </c>
-      <c r="C130">
+      <c r="C129" t="n">
         <v>0.3309066843150232</v>
       </c>
-      <c r="D130">
+      <c r="D129" t="n">
         <v>57542025148.90801</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>172214000000</v>
       </c>
-      <c r="C131">
+      <c r="C130" t="n">
         <v>0.3278688524590164</v>
       </c>
-      <c r="D131">
+      <c r="D130" t="n">
         <v>56463606557.37705</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>167467000000</v>
       </c>
-      <c r="C132">
+      <c r="C131" t="n">
         <v>0.3257328990228013</v>
       </c>
-      <c r="D132">
+      <c r="D131" t="n">
         <v>54549511400.65147</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>168685000000</v>
       </c>
-      <c r="C133">
+      <c r="C132" t="n">
         <v>0.3179650238473768</v>
       </c>
-      <c r="D133">
+      <c r="D132" t="n">
         <v>53635930047.69476</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>169307000000</v>
       </c>
-      <c r="C134">
+      <c r="C133" t="n">
         <v>0.3156565656565656</v>
       </c>
-      <c r="D134">
+      <c r="D133" t="n">
         <v>53442866161.61616</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>168424000000</v>
       </c>
-      <c r="C135">
+      <c r="C134" t="n">
         <v>0.3169572107765452</v>
       </c>
-      <c r="D135">
+      <c r="D134" t="n">
         <v>53383201267.82885</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>168455000000</v>
       </c>
-      <c r="C136">
+      <c r="C135" t="n">
         <v>0.3149606299212598</v>
       </c>
-      <c r="D136">
+      <c r="D135" t="n">
         <v>53056692913.38583</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>167739000000</v>
       </c>
-      <c r="C137">
+      <c r="C136" t="n">
         <v>0.3005710850616171</v>
       </c>
-      <c r="D137">
+      <c r="D136" t="n">
         <v>50417493237.15058</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>167148000000</v>
       </c>
-      <c r="C138">
+      <c r="C137" t="n">
         <v>0.2961208172934557</v>
       </c>
-      <c r="D138">
+      <c r="D137" t="n">
         <v>49496002368.96654</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>171374000000</v>
       </c>
-      <c r="C139">
+      <c r="C138" t="n">
         <v>0.2960331557134399</v>
       </c>
-      <c r="D139">
+      <c r="D138" t="n">
         <v>50732386027.23505</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>173708000000</v>
       </c>
-      <c r="C140">
+      <c r="C139" t="n">
         <v>0.2911208151382824</v>
       </c>
-      <c r="D140">
+      <c r="D139" t="n">
         <v>50570014556.04076</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>174910000000</v>
       </c>
-      <c r="C141">
+      <c r="C140" t="n">
         <v>0.2985965959988056</v>
       </c>
-      <c r="D141">
+      <c r="D140" t="n">
         <v>52227530606.15109</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>178454000000</v>
       </c>
-      <c r="C142">
+      <c r="C141" t="n">
         <v>0.2968239833778569</v>
       </c>
-      <c r="D142">
+      <c r="D141" t="n">
         <v>52969427129.71208</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>178963000000</v>
       </c>
-      <c r="C143">
+      <c r="C142" t="n">
         <v>0.2943773918163085</v>
       </c>
-      <c r="D143">
+      <c r="D142" t="n">
         <v>52682661171.62202</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>179000000000</v>
       </c>
-      <c r="C144">
+      <c r="C143" t="n">
         <v>0.2921413964358749</v>
       </c>
-      <c r="D144">
+      <c r="D143" t="n">
         <v>52293309962.02161</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>189328000000</v>
       </c>
-      <c r="C145">
+      <c r="C144" t="n">
         <v>0.2878526194588371</v>
       </c>
-      <c r="D145">
+      <c r="D144" t="n">
         <v>54498560736.9027</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>193007000000</v>
       </c>
-      <c r="C146">
+      <c r="C145" t="n">
         <v>0.2873563218390804</v>
       </c>
-      <c r="D146">
+      <c r="D145" t="n">
         <v>55461781609.1954</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>192238000000</v>
       </c>
-      <c r="C147">
+      <c r="C146" t="n">
         <v>0.2836074872376631</v>
       </c>
-      <c r="D147">
+      <c r="D146" t="n">
         <v>54520136131.59388</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>199770000000</v>
       </c>
-      <c r="C148">
+      <c r="C147" t="n">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D148">
+      <c r="D147" t="n">
         <v>55002753303.96475</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>196484000000</v>
       </c>
-      <c r="C149">
+      <c r="C148" t="n">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D149">
+      <c r="D148" t="n">
         <v>53757592339.26128</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>199156000000</v>
       </c>
-      <c r="C150">
+      <c r="C149" t="n">
         <v>0.2723311546840959</v>
       </c>
-      <c r="D150">
+      <c r="D149" t="n">
         <v>54236383442.26579</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>205006000000</v>
       </c>
-      <c r="C151">
+      <c r="C150" t="n">
         <v>0.2790178571428572</v>
       </c>
-      <c r="D151">
+      <c r="D150" t="n">
         <v>57200334821.42857</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>205819000000</v>
       </c>
-      <c r="C152">
+      <c r="C151" t="n">
         <v>0.2802690582959641</v>
       </c>
-      <c r="D152">
+      <c r="D151" t="n">
         <v>57684697309.41704</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>208879000000</v>
       </c>
-      <c r="C153">
+      <c r="C152" t="n">
         <v>0.2858776443682104</v>
       </c>
-      <c r="D153">
+      <c r="D152" t="n">
         <v>59713836477.98742</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>213927000000</v>
       </c>
-      <c r="C154">
+      <c r="C153" t="n">
         <v>0.2815315315315315</v>
       </c>
-      <c r="D154">
+      <c r="D153" t="n">
         <v>60227195945.94595</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>215823000000</v>
       </c>
-      <c r="C155">
+      <c r="C154" t="n">
         <v>0.2826455624646693</v>
       </c>
-      <c r="D155">
+      <c r="D154" t="n">
         <v>61001413227.81232</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>208864000000</v>
       </c>
-      <c r="C156">
+      <c r="C155" t="n">
         <v>0.2831257078142695</v>
       </c>
-      <c r="D156">
+      <c r="D155" t="n">
         <v>59134767836.91959</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>213360000000</v>
       </c>
-      <c r="C157">
+      <c r="C156" t="n">
         <v>0.2779321845469706</v>
       </c>
-      <c r="D157">
+      <c r="D156" t="n">
         <v>59299610894.94164</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>216538000000</v>
       </c>
-      <c r="C158">
+      <c r="C157" t="n">
         <v>0.2794857462269424</v>
       </c>
-      <c r="D158">
+      <c r="D157" t="n">
         <v>60519284516.48966</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>222258000000</v>
       </c>
-      <c r="C159">
+      <c r="C158" t="n">
         <v>0.2763957987838585</v>
       </c>
-      <c r="D159">
+      <c r="D158" t="n">
         <v>61431177446.10282</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>230265000000</v>
       </c>
-      <c r="C160">
+      <c r="C159" t="n">
         <v>0.2718868950516585</v>
       </c>
-      <c r="D160">
+      <c r="D159" t="n">
         <v>62606035889.07015</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>227731000000</v>
       </c>
-      <c r="C161">
+      <c r="C160" t="n">
         <v>0.275027502750275</v>
       </c>
-      <c r="D161">
+      <c r="D160" t="n">
         <v>62632288228.82288</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>225899000000</v>
       </c>
-      <c r="C162">
+      <c r="C161" t="n">
         <v>0.2761668047500691</v>
       </c>
-      <c r="D162">
+      <c r="D161" t="n">
         <v>62385805026.23585</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>226033000000</v>
       </c>
-      <c r="C163">
+      <c r="C162" t="n">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D163">
+      <c r="D162" t="n">
         <v>61842134062.9275</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>229457000000</v>
       </c>
-      <c r="C164">
+      <c r="C163" t="n">
         <v>0.273972602739726</v>
       </c>
-      <c r="D164">
+      <c r="D163" t="n">
         <v>62864931506.84931</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>229245000000</v>
       </c>
-      <c r="C165">
+      <c r="C164" t="n">
         <v>0.274273176083379</v>
       </c>
-      <c r="D165">
+      <c r="D164" t="n">
         <v>62875754251.23423</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>236725000000</v>
       </c>
-      <c r="C166">
+      <c r="C165" t="n">
         <v>0.2726281352235551</v>
       </c>
-      <c r="D166">
+      <c r="D165" t="n">
         <v>64537895310.79607</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>245722000000</v>
       </c>
-      <c r="C167">
+      <c r="C166" t="n">
         <v>0.2743484224965707</v>
       </c>
-      <c r="D167">
+      <c r="D166" t="n">
         <v>67413443072.70233</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>244019000000</v>
       </c>
-      <c r="C168">
+      <c r="C167" t="n">
         <v>0.2740476842970677</v>
       </c>
-      <c r="D168">
+      <c r="D167" t="n">
         <v>66872841874.48615</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>256444000000</v>
       </c>
-      <c r="C169">
+      <c r="C168" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="D169">
+      <c r="D168" t="n">
         <v>66179096774.19355</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>265163000000</v>
       </c>
-      <c r="C170">
+      <c r="C169" t="n">
         <v>0.2515723270440252</v>
       </c>
-      <c r="D170">
+      <c r="D169" t="n">
         <v>66707672955.97485</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>264779000000</v>
       </c>
-      <c r="C171">
+      <c r="C170" t="n">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D171">
+      <c r="D170" t="n">
         <v>61149884526.55889</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>269925000000</v>
       </c>
-      <c r="C172">
+      <c r="C171" t="n">
         <v>0.2299379167624741</v>
       </c>
-      <c r="D172">
+      <c r="D171" t="n">
         <v>62065992182.11083</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>276835000000</v>
       </c>
-      <c r="C173">
+      <c r="C172" t="n">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D173">
+      <c r="D172" t="n">
         <v>63934180138.56813</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>277150000000</v>
       </c>
-      <c r="C174">
+      <c r="C173" t="n">
         <v>0.2212389380530974</v>
       </c>
-      <c r="D174">
+      <c r="D173" t="n">
         <v>61316371681.41593</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>281768000000</v>
       </c>
-      <c r="C175">
+      <c r="C174" t="n">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D175">
+      <c r="D174" t="n">
         <v>62768545333.03631</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>283328000000</v>
       </c>
-      <c r="C176">
+      <c r="C175" t="n">
         <v>0.2203128442388191</v>
       </c>
-      <c r="D176">
+      <c r="D175" t="n">
         <v>62420797532.49615</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>286970000000</v>
       </c>
-      <c r="C177">
+      <c r="C176" t="n">
         <v>0.2129925452609158</v>
       </c>
-      <c r="D177">
+      <c r="D176" t="n">
         <v>61122470713.52502</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>289759000000</v>
       </c>
-      <c r="C178">
+      <c r="C177" t="n">
         <v>0.2168256721595837</v>
       </c>
-      <c r="D178">
+      <c r="D177" t="n">
         <v>62827189939.2888</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>295313000000</v>
       </c>
-      <c r="C179">
+      <c r="C178" t="n">
         <v>0.2137665669089354</v>
       </c>
-      <c r="D179">
+      <c r="D178" t="n">
         <v>63128046173.57845</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>295617000000</v>
       </c>
-      <c r="C180">
+      <c r="C179" t="n">
         <v>0.2192982456140351</v>
       </c>
-      <c r="D180">
+      <c r="D179" t="n">
         <v>64828289473.68421</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>303035000000</v>
       </c>
-      <c r="C181">
+      <c r="C180" t="n">
         <v>0.2232142857142857</v>
       </c>
-      <c r="D181">
+      <c r="D180" t="n">
         <v>67641741071.42857</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>313686000000</v>
       </c>
-      <c r="C182">
+      <c r="C181" t="n">
         <v>0.2262443438914027</v>
       </c>
-      <c r="D182">
+      <c r="D181" t="n">
         <v>70969683257.91855</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>309474000000</v>
       </c>
-      <c r="C183">
+      <c r="C182" t="n">
         <v>0.2248201438848921</v>
       </c>
-      <c r="D183">
+      <c r="D182" t="n">
         <v>69575989208.63309</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>316586000000</v>
       </c>
-      <c r="C184">
+      <c r="C183" t="n">
         <v>0.2238638907544213</v>
       </c>
-      <c r="D184">
+      <c r="D183" t="n">
         <v>70872173718.37924</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>316433000000</v>
       </c>
-      <c r="C185">
+      <c r="C184" t="n">
         <v>0.2205558006175563</v>
       </c>
-      <c r="D185">
+      <c r="D184" t="n">
         <v>69791133656.81517</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>317291000000</v>
       </c>
-      <c r="C186">
+      <c r="C185" t="n">
         <v>0.2168726957276079</v>
       </c>
-      <c r="D186">
+      <c r="D185" t="n">
         <v>68811754500.10843</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>324572000000</v>
       </c>
-      <c r="C187">
+      <c r="C186" t="n">
         <v>0.213652387565431</v>
       </c>
-      <c r="D187">
+      <c r="D186" t="n">
         <v>69345582736.88708</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>338253000000</v>
       </c>
-      <c r="C188">
+      <c r="C187" t="n">
         <v>0.2148689299527288</v>
       </c>
-      <c r="D188">
+      <c r="D187" t="n">
         <v>72680060163.30038</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>343147000000</v>
       </c>
-      <c r="C189">
+      <c r="C188" t="n">
         <v>0.2077274615704196</v>
       </c>
-      <c r="D189">
+      <c r="D188" t="n">
         <v>71281055255.50478</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>347944000000</v>
       </c>
-      <c r="C190">
+      <c r="C189" t="n">
         <v>0.2059732234809475</v>
       </c>
-      <c r="D190">
+      <c r="D189" t="n">
         <v>71667147270.85478</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>350700000000</v>
       </c>
-      <c r="C191">
+      <c r="C190" t="n">
         <v>0.2055921052631579</v>
       </c>
-      <c r="D191">
+      <c r="D190" t="n">
         <v>72101151315.78947</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>351467000000</v>
       </c>
-      <c r="C192">
+      <c r="C191" t="n">
         <v>0.2027780594139714</v>
       </c>
-      <c r="D192">
+      <c r="D191" t="n">
         <v>71269796208.05029</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>363414000000</v>
       </c>
-      <c r="C193">
+      <c r="C192" t="n">
         <v>0.2024701356549909</v>
       </c>
-      <c r="D193">
+      <c r="D192" t="n">
         <v>73580481878.92287</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>361312000000</v>
       </c>
-      <c r="C194">
+      <c r="C193" t="n">
         <v>0.1986886548778065</v>
       </c>
-      <c r="D194">
+      <c r="D193" t="n">
         <v>71788595271.21001</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>366500000000</v>
       </c>
-      <c r="C195">
+      <c r="C194" t="n">
         <v>0.1979022362952702</v>
       </c>
-      <c r="D195">
+      <c r="D194" t="n">
         <v>72531169602.21651</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>366492000000</v>
       </c>
-      <c r="C196">
+      <c r="C195" t="n">
         <v>0.1940617116242965</v>
       </c>
-      <c r="D196">
+      <c r="D195" t="n">
         <v>71122064816.61168</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>375751000000</v>
       </c>
-      <c r="C197">
+      <c r="C196" t="n">
         <v>0.1677711601375724</v>
       </c>
-      <c r="D197">
+      <c r="D196" t="n">
         <v>63040181192.85296</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>375135000000</v>
       </c>
-      <c r="C198">
+      <c r="C197" t="n">
         <v>0.1631321370309951</v>
       </c>
-      <c r="D198">
+      <c r="D197" t="n">
         <v>61196574225.12235</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>385084000000</v>
       </c>
-      <c r="C199">
+      <c r="C198" t="n">
         <v>0.1550387596899225</v>
       </c>
-      <c r="D199">
+      <c r="D198" t="n">
         <v>59702945736.4341</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>387349000000</v>
       </c>
-      <c r="C200">
+      <c r="C199" t="n">
         <v>0.169061707523246</v>
       </c>
-      <c r="D200">
+      <c r="D199" t="n">
         <v>65485883347.42181</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>378172000000</v>
       </c>
-      <c r="C201">
+      <c r="C200" t="n">
         <v>0.1788748770235221</v>
       </c>
-      <c r="D201">
+      <c r="D200" t="n">
         <v>67645469993.73939</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>389009000000</v>
       </c>
-      <c r="C202">
+      <c r="C201" t="n">
         <v>0.1758396342535608</v>
       </c>
-      <c r="D202">
+      <c r="D201" t="n">
         <v>68403200281.34341</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>393806000000</v>
       </c>
-      <c r="C203">
+      <c r="C202" t="n">
         <v>0.1706484641638225</v>
       </c>
-      <c r="D203">
+      <c r="D202" t="n">
         <v>67202389078.49829</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>388959000000</v>
       </c>
-      <c r="C204">
+      <c r="C203" t="n">
         <v>0.1650846058605035</v>
       </c>
-      <c r="D204">
+      <c r="D203" t="n">
         <v>64211143210.89558</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>379842000000</v>
       </c>
-      <c r="C205">
+      <c r="C204" t="n">
         <v>0.1617468661544683</v>
       </c>
-      <c r="D205">
+      <c r="D204" t="n">
         <v>61438253133.84554</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>391457000000</v>
       </c>
-      <c r="C206">
+      <c r="C205" t="n">
         <v>0.16249593760156</v>
       </c>
-      <c r="D206">
+      <c r="D205" t="n">
         <v>63610172245.69386</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>395318000000</v>
       </c>
-      <c r="C207">
+      <c r="C206" t="n">
         <v>0.1643007360672976</v>
       </c>
-      <c r="D207">
+      <c r="D206" t="n">
         <v>64951038380.65195</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>396818000000</v>
       </c>
-      <c r="C208">
+      <c r="C207" t="n">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D208">
+      <c r="D207" t="n">
         <v>63899838969.40418</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>407884000000</v>
       </c>
-      <c r="C209">
+      <c r="C208" t="n">
         <v>0.1658374792703151</v>
       </c>
-      <c r="D209">
+      <c r="D208" t="n">
         <v>67642454394.6932</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>407541000000</v>
       </c>
-      <c r="C210">
+      <c r="C209" t="n">
         <v>0.1621402513173895</v>
       </c>
-      <c r="D210">
+      <c r="D209" t="n">
         <v>66078800162.14025</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>413501000000</v>
       </c>
-      <c r="C211">
+      <c r="C210" t="n">
         <v>0.164446637066272</v>
       </c>
-      <c r="D211">
+      <c r="D210" t="n">
         <v>67998848873.54053</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>427411000000</v>
       </c>
-      <c r="C212">
+      <c r="C211" t="n">
         <v>0.1665278934221482</v>
       </c>
-      <c r="D212">
+      <c r="D211" t="n">
         <v>71175853455.4538</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>426662000000</v>
       </c>
-      <c r="C213">
+      <c r="C212" t="n">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D213">
+      <c r="D212" t="n">
         <v>69432384052.07486</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>440284000000</v>
       </c>
-      <c r="C214">
+      <c r="C213" t="n">
         <v>0.1619957881095092</v>
       </c>
-      <c r="D214">
+      <c r="D213" t="n">
         <v>71324153572.00713</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>446935000000</v>
       </c>
-      <c r="C215">
+      <c r="C214" t="n">
         <v>0.1625884074465491</v>
       </c>
-      <c r="D215">
+      <c r="D214" t="n">
         <v>72666449882.12341</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>438789000000</v>
       </c>
-      <c r="C216">
+      <c r="C215" t="n">
         <v>0.158378207158695</v>
       </c>
-      <c r="D216">
+      <c r="D215" t="n">
         <v>69494615140.9566</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>443529000000</v>
       </c>
-      <c r="C217">
+      <c r="C216" t="n">
         <v>0.1576789656259855</v>
       </c>
-      <c r="D217">
+      <c r="D216" t="n">
         <v>69935193945.12772</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>438954000000</v>
       </c>
-      <c r="C218">
+      <c r="C217" t="n">
         <v>0.1533742331288344</v>
       </c>
-      <c r="D218">
+      <c r="D217" t="n">
         <v>67324233128.83436</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>440728000000</v>
       </c>
-      <c r="C219">
+      <c r="C218" t="n">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D219">
+      <c r="D218" t="n">
         <v>65052103321.03321</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>437781000000</v>
       </c>
-      <c r="C220">
+      <c r="C219" t="n">
         <v>0.1435750179468772</v>
       </c>
-      <c r="D220">
+      <c r="D219" t="n">
         <v>62854414931.80186</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>441072000000</v>
       </c>
-      <c r="C221">
+      <c r="C220" t="n">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D221">
+      <c r="D220" t="n">
         <v>65102878228.78229</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>433197000000</v>
       </c>
-      <c r="C222">
+      <c r="C221" t="n">
         <v>0.1437297879985627</v>
       </c>
-      <c r="D222">
+      <c r="D221" t="n">
         <v>62263312971.61337</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>439801000000</v>
       </c>
-      <c r="C223">
+      <c r="C222" t="n">
         <v>0.1435441039259313</v>
       </c>
-      <c r="D223">
+      <c r="D222" t="n">
         <v>63130840450.72849</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>452472000000</v>
       </c>
-      <c r="C224">
+      <c r="C223" t="n">
         <v>0.1379690949227373</v>
       </c>
-      <c r="D224">
+      <c r="D223" t="n">
         <v>62427152317.88079</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>450460000000</v>
       </c>
-      <c r="C225">
+      <c r="C224" t="n">
         <v>0.1328021248339973</v>
       </c>
-      <c r="D225">
+      <c r="D224" t="n">
         <v>59822045152.72244</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>461178000000</v>
       </c>
-      <c r="C226">
+      <c r="C225" t="n">
         <v>0.1291155584247902</v>
       </c>
-      <c r="D226">
+      <c r="D225" t="n">
         <v>59545255003.22789</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>474848000000</v>
       </c>
-      <c r="C227">
+      <c r="C226" t="n">
         <v>0.1319713886029509</v>
       </c>
-      <c r="D227">
+      <c r="D226" t="n">
         <v>62666349935.33402</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>474206000000</v>
       </c>
-      <c r="C228">
+      <c r="C227" t="n">
         <v>0.1292256797270754</v>
       </c>
-      <c r="D228">
+      <c r="D227" t="n">
         <v>61279592680.65749</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>483016000000</v>
       </c>
-      <c r="C229">
+      <c r="C228" t="n">
         <v>0.1306062743254186</v>
       </c>
-      <c r="D229">
+      <c r="D228" t="n">
         <v>63084920199.56639</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>491457000000</v>
       </c>
-      <c r="C230">
+      <c r="C229" t="n">
         <v>0.1244152483328357</v>
       </c>
-      <c r="D230">
+      <c r="D229" t="n">
         <v>61144744699.91042</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>490895000000</v>
       </c>
-      <c r="C231">
+      <c r="C230" t="n">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D231">
+      <c r="D230" t="n">
         <v>61224120728.36118</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>491567000000</v>
       </c>
-      <c r="C232">
+      <c r="C231" t="n">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D232">
+      <c r="D231" t="n">
         <v>61522778473.09137</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>492768000000</v>
       </c>
-      <c r="C233">
+      <c r="C232" t="n">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D233">
+      <c r="D232" t="n">
         <v>61262121438.16202</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>497927000000</v>
       </c>
-      <c r="C234">
+      <c r="C233" t="n">
         <v>0.1210419289241793</v>
       </c>
-      <c r="D234">
+      <c r="D233" t="n">
         <v>60270044543.42985</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>513455000000</v>
       </c>
-      <c r="C235">
+      <c r="C234" t="n">
         <v>0.119387304354055</v>
       </c>
-      <c r="D235">
+      <c r="D234" t="n">
         <v>61300008357.11131</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>508210000000</v>
       </c>
-      <c r="C236">
+      <c r="C235" t="n">
         <v>0.1110358534770877</v>
       </c>
-      <c r="D236">
+      <c r="D235" t="n">
         <v>56429531095.59077</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>510372000000</v>
       </c>
-      <c r="C237">
+      <c r="C236" t="n">
         <v>0.105682550754045</v>
       </c>
-      <c r="D237">
+      <c r="D236" t="n">
         <v>53937414793.44345</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>522814000000</v>
       </c>
-      <c r="C238">
+      <c r="C237" t="n">
         <v>0.09749439407234084</v>
       </c>
-      <c r="D238">
+      <c r="D237" t="n">
         <v>50971434142.5368</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>544056000000</v>
       </c>
-      <c r="C239">
+      <c r="C238" t="n">
         <v>0.08350730688935282</v>
       </c>
-      <c r="D239">
+      <c r="D238" t="n">
         <v>45432651356.99374</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>560885000000</v>
       </c>
-      <c r="C240">
+      <c r="C239" t="n">
         <v>0.08777319406653207</v>
       </c>
-      <c r="D240">
+      <c r="D239" t="n">
         <v>49230667954.00684</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>573536000000</v>
       </c>
-      <c r="C241">
+      <c r="C240" t="n">
         <v>0.08822232024702249</v>
       </c>
-      <c r="D241">
+      <c r="D240" t="n">
         <v>50598676665.19629</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>585236000000</v>
       </c>
-      <c r="C242">
+      <c r="C241" t="n">
         <v>0.0883197173769044</v>
       </c>
-      <c r="D242">
+      <c r="D241" t="n">
         <v>51687878118.79002</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>581307000000</v>
       </c>
-      <c r="C243">
+      <c r="C242" t="n">
         <v>0.09383063570255688</v>
       </c>
-      <c r="D243">
+      <c r="D242" t="n">
         <v>54544405348.34624</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>594432000000</v>
       </c>
-      <c r="C244">
+      <c r="C243" t="n">
         <v>0.102380342974149</v>
       </c>
-      <c r="D244">
+      <c r="D243" t="n">
         <v>60858152034.80932</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>579246000000</v>
       </c>
-      <c r="C245">
+      <c r="C244" t="n">
         <v>0.09737098344693282</v>
       </c>
-      <c r="D245">
+      <c r="D244" t="n">
         <v>56401752677.70205</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>574280000000</v>
       </c>
-      <c r="C246">
+      <c r="C245" t="n">
         <v>0.09826078412105729</v>
       </c>
-      <c r="D246">
+      <c r="D245" t="n">
         <v>56429203105.04078</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>591806000000</v>
       </c>
-      <c r="C247">
+      <c r="C246" t="n">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D247">
+      <c r="D246" t="n">
         <v>55962742316.78487</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>598267000000</v>
       </c>
-      <c r="C248">
+      <c r="C247" t="n">
         <v>0.09513842641042718</v>
       </c>
-      <c r="D248">
+      <c r="D247" t="n">
         <v>56918180953.28703</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>607600000000</v>
       </c>
-      <c r="C249">
+      <c r="C248" t="n">
         <v>0.09995002498750624</v>
       </c>
-      <c r="D249">
+      <c r="D248" t="n">
         <v>60729635182.40879</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>621424000000</v>
       </c>
-      <c r="C250">
+      <c r="C249" t="n">
         <v>0.1082602576594132</v>
       </c>
-      <c r="D250">
+      <c r="D249" t="n">
         <v>67275522355.74321</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>632621000000</v>
       </c>
-      <c r="C251">
+      <c r="C250" t="n">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D251">
+      <c r="D250" t="n">
         <v>74034055002.92569</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>639520000000</v>
       </c>
-      <c r="C252">
+      <c r="C251" t="n">
         <v>0.1178314303557331</v>
       </c>
-      <c r="D252">
+      <c r="D251" t="n">
         <v>75355556341.09842</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>646346000000</v>
       </c>
-      <c r="C253">
+      <c r="C252" t="n">
         <v>0.1239464551313832</v>
       </c>
-      <c r="D253">
+      <c r="D252" t="n">
         <v>80112295488.34903</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>651020000000</v>
       </c>
-      <c r="C254">
+      <c r="C253" t="n">
         <v>0.1272102785905101</v>
       </c>
-      <c r="D254">
+      <c r="D253" t="n">
         <v>82816435567.9939</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>671314000000</v>
       </c>
-      <c r="C255">
+      <c r="C254" t="n">
         <v>0.1378359751895245</v>
       </c>
-      <c r="D255">
+      <c r="D254" t="n">
         <v>92531219848.38043</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>680405000000</v>
       </c>
-      <c r="C256">
+      <c r="C255" t="n">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D256">
+      <c r="D255" t="n">
         <v>84260681114.55109</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>684477000000</v>
       </c>
-      <c r="C257">
+      <c r="C256" t="n">
         <v>0.1343111182743708</v>
       </c>
-      <c r="D257">
+      <c r="D256" t="n">
         <v>91932871303.08647</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>688974000000</v>
       </c>
-      <c r="C258">
+      <c r="C257" t="n">
         <v>0.1362323579096507</v>
       </c>
-      <c r="D258">
+      <c r="D257" t="n">
         <v>93860552558.4437</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>690024000000</v>
       </c>
-      <c r="C259">
+      <c r="C258" t="n">
         <v>0.1364256480218281</v>
       </c>
-      <c r="D259">
+      <c r="D258" t="n">
         <v>94136971350.61392</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>706699000000</v>
       </c>
-      <c r="C260">
+      <c r="C259" t="n">
         <v>0.144196106705119</v>
       </c>
-      <c r="D260">
+      <c r="D259" t="n">
         <v>101903244412.4009</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>711110000000</v>
       </c>
-      <c r="C261">
+      <c r="C260" t="n">
         <v>0.1455582888167567</v>
       </c>
-      <c r="D261">
+      <c r="D260" t="n">
         <v>103507954760.4838</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>721063000000</v>
       </c>
-      <c r="C262">
+      <c r="C261" t="n">
         <v>0.1569858712715856</v>
       </c>
-      <c r="D262">
+      <c r="D261" t="n">
         <v>113196703296.7033</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>733453000000</v>
       </c>
-      <c r="C263">
+      <c r="C262" t="n">
         <v>0.1517450682852807</v>
       </c>
-      <c r="D263">
+      <c r="D262" t="n">
         <v>111297875569.044</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>734861000000</v>
       </c>
-      <c r="C264">
+      <c r="C263" t="n">
         <v>0.1412628902387343</v>
       </c>
-      <c r="D264">
+      <c r="D263" t="n">
         <v>103808588783.7265</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>756772000000</v>
       </c>
-      <c r="C265">
+      <c r="C264" t="n">
         <v>0.150941117869919</v>
       </c>
-      <c r="D265">
+      <c r="D264" t="n">
         <v>114228011652.6543</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>748540000000</v>
       </c>
-      <c r="C266">
+      <c r="C265" t="n">
         <v>0.1595405232929164</v>
       </c>
-      <c r="D266">
+      <c r="D265" t="n">
         <v>119422463305.6796</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>750744000000</v>
       </c>
-      <c r="C267">
+      <c r="C266" t="n">
         <v>0.1447178002894356</v>
       </c>
-      <c r="D267">
+      <c r="D266" t="n">
         <v>108646020260.492</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>748172000000</v>
       </c>
-      <c r="C268">
+      <c r="C267" t="n">
         <v>0.1534636751480924</v>
       </c>
-      <c r="D268">
+      <c r="D267" t="n">
         <v>114817224762.8986</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>749022000000</v>
       </c>
-      <c r="C269">
+      <c r="C268" t="n">
         <v>0.163212012404113</v>
       </c>
-      <c r="D269">
+      <c r="D268" t="n">
         <v>122249387954.9535</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>748658000000</v>
       </c>
-      <c r="C270">
+      <c r="C269" t="n">
         <v>0.1598082301238514</v>
       </c>
-      <c r="D270">
+      <c r="D269" t="n">
         <v>119641709948.0623</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>766827000000</v>
       </c>
-      <c r="C271">
+      <c r="C270" t="n">
         <v>0.1509433962264151</v>
       </c>
-      <c r="D271">
+      <c r="D270" t="n">
         <v>115747471698.1132</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>790428000000</v>
       </c>
-      <c r="C272">
+      <c r="C271" t="n">
         <v>0.1552072016141549</v>
       </c>
-      <c r="D272">
+      <c r="D271" t="n">
         <v>122680117957.4732</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>807543000000</v>
       </c>
-      <c r="C273">
+      <c r="C272" t="n">
         <v>0.1641497045305318</v>
       </c>
-      <c r="D273">
+      <c r="D272" t="n">
         <v>132557944845.6993</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>805336000000</v>
       </c>
-      <c r="C274">
+      <c r="C273" t="n">
         <v>0.1721614874752518</v>
       </c>
-      <c r="D274">
+      <c r="D273" t="n">
         <v>138647843677.3694</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>818740000000</v>
       </c>
-      <c r="C275">
+      <c r="C274" t="n">
         <v>0.1770287494689138</v>
       </c>
-      <c r="D275">
+      <c r="D274" t="n">
         <v>144940518340.1784</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>819280000000</v>
       </c>
-      <c r="C276">
+      <c r="C275" t="n">
         <v>0.1674340728338217</v>
       </c>
-      <c r="D276">
+      <c r="D275" t="n">
         <v>137175387191.2934</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>842007000000</v>
       </c>
-      <c r="C277">
+      <c r="C276" t="n">
         <v>0.1722652885443583</v>
       </c>
-      <c r="D277">
+      <c r="D276" t="n">
         <v>145048578811.3695</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>836640000000</v>
       </c>
-      <c r="C278">
+      <c r="C277" t="n">
         <v>0.1604621309370989</v>
       </c>
-      <c r="D278">
+      <c r="D277" t="n">
         <v>134249037227.2144</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>870197000000</v>
       </c>
-      <c r="C279">
+      <c r="C278" t="n">
         <v>0.1644736842105263</v>
       </c>
-      <c r="D279">
+      <c r="D278" t="n">
         <v>143124506578.9474</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>865829000000</v>
       </c>
-      <c r="C280">
+      <c r="C279" t="n">
         <v>0.1472320376914016</v>
       </c>
-      <c r="D280">
+      <c r="D279" t="n">
         <v>127477767962.3086</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>876491000000</v>
       </c>
-      <c r="C281">
+      <c r="C280" t="n">
         <v>0.1501501501501502</v>
       </c>
-      <c r="D281">
+      <c r="D280" t="n">
         <v>131605255255.2553</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>898047000000</v>
       </c>
-      <c r="C282">
+      <c r="C281" t="n">
         <v>0.1523693432881304</v>
       </c>
-      <c r="D282">
+      <c r="D281" t="n">
         <v>136834831631.8757</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>915941000000</v>
       </c>
-      <c r="C283">
+      <c r="C282" t="n">
         <v>0.1574555188159345</v>
       </c>
-      <c r="D283">
+      <c r="D282" t="n">
         <v>144219965359.7859</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>928537000000</v>
       </c>
-      <c r="C284">
+      <c r="C283" t="n">
         <v>0.1577784790154623</v>
       </c>
-      <c r="D284">
+      <c r="D283" t="n">
         <v>146503155569.5803</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>931975000000</v>
       </c>
-      <c r="C285">
+      <c r="C284" t="n">
         <v>0.1490312965722802</v>
       </c>
-      <c r="D285">
+      <c r="D284" t="n">
         <v>138893442622.9508</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>937193000000</v>
       </c>
-      <c r="C286">
+      <c r="C285" t="n">
         <v>0.1551133102731545</v>
       </c>
-      <c r="D286">
+      <c r="D285" t="n">
         <v>145371108594.8285</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>963515000000</v>
       </c>
-      <c r="C287">
+      <c r="C286" t="n">
         <v>0.158045295781771</v>
       </c>
-      <c r="D287">
+      <c r="D286" t="n">
         <v>152279013165.1731</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>965101000000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>0.1654232353476369</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>159650129857.2398</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>1000200000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>0.1625408383856444</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>162573346553.3215</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>1032586000000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>167900162601.626</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>1026904000000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>0.1670843776106934</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>171579615705.9315</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>1044155000000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>0.1487541837114169</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>155322424693.1945</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>1050280000000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>0.1402268871033332</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>147277494986.8888</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>1061266000000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>0.1445295562942622</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>153384304090.1864</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>1078788000000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>0.1400560224089636</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>151090756302.521</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>1106311000000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>0.129366106080207</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>143119146183.6999</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>1125707000000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>0.1358511071865236</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>152928542317.6199</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>1146097000000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>0.1399932803225445</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>160445878597.8273</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>1156842000000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>0.1427103550633634</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>165093332572.2115</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>1133627000000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>0.1388406803193336</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>157393543908.3652</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>1180287000000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>0.1385502105963201</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>163529012414.0989</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>1195132000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>0.1379500620775279</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>164868533590.8401</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>1215180000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>0.142673705236125</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>173374233128.8343</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>1241347000000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>0.1414227124876255</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>175554659878.3765</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>1249390000000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>0.1425313568985177</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>178077251995.439</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>1290230000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>0.1399423437543732</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>180557810182.2049</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>1341912000000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>0.140548137737175</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>188603232607.1679</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>1350336000000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>0.1458512608841503</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>196948208217.26</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>1346359000000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>0.154273372415921</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>207707343412.527</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>1381640000000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>0.1472732360348154</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>203478593835.1424</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>1396325000000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>0.1463957369561398</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>204416027405.282</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>1377990000000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>0.1338508901084192</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>184445188060.5006</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>1393920000000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>0.1279230414982347</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>178314486005.2193</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>1431028000000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>0.1234415504258733</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>176648315022.8367</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>1458145000000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>0.1324503311258278</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>193131788079.4702</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>1482428000000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>0.1322401481089659</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>196036498280.8781</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>1474862000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>0.1277791975466394</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>188456682852.0317</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>1484679000000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>0.1364237868514754</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>202545531438.8617</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>1482748000000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>0.129974784891731</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>192719852348.6444</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>1506513000000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>0.1208327795164272</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>182036153167.6313</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>1523646000000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>0.1026630803030614</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>156422191651.4383</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>1565803000000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>0.09868940470551082</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>154528165956.103</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>1562427000000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>0.1071799873527615</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>167460906099.6131</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>1566667000000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>0.09811039381512077</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>153706316347.1538</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>1585801000000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>0.09911490390810067</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>157176513732.3699</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>1574342000000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>0.105380851666967</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>165905500775.0761</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>1574490000000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>0.1184246209523945</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>186458381443.3356</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>1597266000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>0.1258211402163369</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>200969829348.7875</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>1545955000000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>0.1297489746587278</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>200586076118.5335</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>1539789000000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>0.1289908145640949</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>198618637366.8331</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>1554419000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>0.1287665835263759</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>200157223998.4857</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>1544145000000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>0.1333210677950962</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>205867060230.4588</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>1537065000000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>0.1281100311435486</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>196913445019.6585</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>1549706000000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>0.1351700236142031</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>209473796615.0723</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>1589340000000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>0.1355548054856319</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>215442674550.5341</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>1569747000000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>0.1312802847206815</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>206076833099.4356</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>1566078000000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>0.1295674132772911</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>202912675450.4735</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>1578113000000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>0.137462902199269</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>216931992978.395</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>1581563000000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>0.135475655024792</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>214263283387.9752</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>1580338000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>0.1310255368771374</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>207064634897.3415</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>1551427000000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>0.1304886801070007</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>202443661512.3638</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>1583836000000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>0.1372156206262521</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>217327039710.2006</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>1595672000000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>0.135707306481381</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>216544349147.7581</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>1589594000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>0.1437359857413902</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>228481860518.5994</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>1598006000000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>0.1429245215601641</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>228394243000.2716</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>1660253000000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>0.1407974769092138</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>233759433430.9529</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>1678417000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>0.1518395359783781</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>254850058458.2214</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>1674643000000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>0.1392874056327827</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>233256678831.1001</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>1653749000000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>0.143682289720969</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>237614442943.7628</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>1650771000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>0.1477235796377818</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>243857801282.2407</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>1656915000000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>0.1525129559756101</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>252701004450.3281</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>1666606000000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>0.1472472133464874</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>245403089246.536</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>1646475000000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>0.1479443137603006</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>243586613998.491</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>1670191000000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>0.1497633738692865</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>250133439166.1176</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>1693482000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>0.1431372829680947</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>242400412235.3749</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>1721643000000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>213164326573.063</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>1740142000000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>0.1258004050773044</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>218910568492.0306</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>1757764000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>0.1233745404298369</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>216863325684.1118</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>1798932000000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>0.1240987329519366</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>223245181866.6931</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>1785342000000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>0.1281640499839795</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>228816661326.4979</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>1767502000000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>0.1332924569798595</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>235594684296.8156</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>1799376000000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>0.1306455195119083</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>235080412317.2596</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>1777035000000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>0.1286223262633928</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>228566375551.4682</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>1781526000000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>0.1173516088905579</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>209064942380.36</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>1769160000000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>0.1228531413548245</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>217346863559.3012</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>1802929000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>0.121307696973373</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>218709164796.5063</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>1820822000000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>0.1191696260457135</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>216986676835.8081</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>1831446000000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>0.1203775038520801</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>220464897919.8767</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>1812952000000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>0.1153429144847632</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>209111167500.9804</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>1872964000000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>0.1122977237251401</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>210329593819.1333</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>1869050000000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>0.1178189358593713</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>220209482067.9579</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>1861751000000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>0.1116694584031267</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>207900725851.4796</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>1869042000000</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>0.1107591431672685</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>207013490463.6378</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>1900810000000</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>0.1083869848908543</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>206023064750.3848</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>1912464000000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>0.1115312120096809</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>213299427844.8824</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>1915820000000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>0.09940851931010487</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>190448829464.6851</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>1928903000000</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>0.1013410460625457</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>195477047773.1825</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>1954780000000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>0.1014973910095641</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>198405069997.6757</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>1983864000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>0.09735676386116926</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>193142578980.6747</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>2011342000000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>0.09976913422340704</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>200669849967.176</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>2011789000000</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>0.09962074382824587</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>200415916605.4829</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>2057061000000</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>0.09835375485129896</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>202319673308.1679</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>2049694000000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>0.09539472429016785</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>195529994009.2113</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>2058373000000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>0.09004506755631195</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>185346335841.0885</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>2057046000000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>0.09295753699709973</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>191217929649.736</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>2108158000000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>0.09495233392836797</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>200174522389.7603</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>2112214000000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>0.09507239763079585</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>200813249289.3338</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>2147111000000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>0.09460379928857944</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>203124858094.3011</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>2116923000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>0.09406629792677879</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>199131109606.0503</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>2127901000000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>0.09349988780013464</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>198958504749.7943</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>2155842000000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>0.09384032130926016</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>202304905971.998</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>2215507000000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>0.08863205289560916</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>196364933614.5923</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>2217769000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>0.09072269700433654</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>201201985012.6104</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>2259755000000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>0.09041517745334803</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>204316149326.0905</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>2226544000000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>0.08639383493593898</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>192359674813.6053</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>2222725000000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>0.08629021123843711</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>191799409774.9551</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>2221686000000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>0.0858052392679097</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>190632298808.1652</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>2271450000000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>0.08247830820494211</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>187345353172.1158</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>2279247000000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>0.08406186953597848</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>191597763954.2704</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>2307632000000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>0.08228285554421881</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>189878550505.2167</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>2308183000000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>0.08219898730847636</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>189730305122.6409</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>2375417000000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>0.07889110660555235</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>187399275779.6413</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>2367936000000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>0.07533807963235017</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>178395750932.3087</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>2386441000000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>0.07220685820739253</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>172317406907.308</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>2415205000000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>0.07246004009938618</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>175005851148.238</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>2448155000000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>0.06923673424171929</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>169502257117.5363</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>2441272000000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>0.06462202577126387</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>157759942098.6649</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>2420841000000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>0.06301991429291656</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>152561192336.7784</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>2411088000000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>0.06306442661823319</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>152053882246.1026</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>2459285000000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>0.06778420221383204</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>166700671741.4439</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>2446136000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>0.07036653930323053</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>172126124985.0471</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>2431670000000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>0.06368088236230601</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>154850891213.9487</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>2412885000000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>0.06797264780652265</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>164010182302.6414</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>2453694000000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>0.07200564524258701</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>176679819697.8643</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>2486214000000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>0.06791448208415964</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>168849936160.3869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>2509320000000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>0.07292137617221112</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>182983067656.4528</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>2566282000000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>0.07424015204383139</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>190521165867.3477</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>2561804000000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>0.07107270026510117</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>182074327829.9372</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>2601201000000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>0.07283957811316356</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>189470383427.5392</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>2592617000000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>0.07423519193508875</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>192463420609.174</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>2556260000000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>0.07625345428147895</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>194923655041.5734</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>2585519000000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>0.07466642773409793</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>193051467568.6371</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>2575364000000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>0.07492376506904225</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>192955967303.2689</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>2594454000000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>0.07643512683262771</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>198307420551.4183</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>2575034000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>0.07659126001813682</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>197225098649.5429</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>2619202000000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>0.07592754993185502</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>198869590636.6145</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>2645827000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>0.07695741176832741</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>203615997906.7584</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>2682778000000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>0.07383343177790903</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>198078706438.2752</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>2714733000000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>0.07084059449426899</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>192313299613.2104</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>2783914000000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>0.07325738983920003</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>203942273176.8067</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>2806033000000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>0.08100721126194653</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>227308908038.9936</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>2770230000000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>0.08452921033656996</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>234165354350.6762</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>2752658000000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>0.08483922965979468</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>233533384236.8711</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>2788976000000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>0.08457732481921597</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>235884129064.9977</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>2752713000000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>0.08033741715203856</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>221145852580.8395</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>2737382000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>0.07878171948980958</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>215655660860.4539</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>2703936000000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>0.07287142565657155</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>197039671204.1274</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>2791325000000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>0.07536476546484987</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>210367553961.1721</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>2834147000000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>0.06814983422552824</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>193146648220.7782</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>2864233000000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>0.07075573492920535</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>202660910923.4826</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>2844764000000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>0.06765854087590747</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>192472581376.3101</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>2891387000000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>0.07216985898009555</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>208670992046.8815</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>2895085000000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>0.06964341180288686</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>201623596859.3607</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>2848485000000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>0.07549277911567759</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>215040048919.3209</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>2837818000000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>0.07097786200484069</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>201422254398.853</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>2916460000000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>0.06909417536101706</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>201510398673.3918</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>2946560000000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>0.06995257215607817</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>206119451012.2137</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>2931927000000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>0.06866622720281257</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>201324365524.0606</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>2904525000000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>0.07110226282951455</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>206518299944.8958</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>2965149000000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>0.0697150744905571</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>206715583410.6009</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>2982248000000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>0.06596619364508076</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>196727549065.6548</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>2992942000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>0.06616749905380476</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>198035486953.0925</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>2997459000000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>0.06623349957941728</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>198532199415.8205</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>3032900000000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>0.06829808014096724</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>207141247259.5395</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>3034447000000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>0.0713718308230671</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>216574037925.5635</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>3034991000000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>0.06666880006826885</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>202339208187.9953</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>3046597000000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>0.06407258142023284</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>195203334337.1371</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>3236386000000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>0.05608524957936063</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>181513516545.1487</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>3318827000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>0.05397761008733577</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>179142349753.3223</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>3324556000000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>0.05705906183490531</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>189696046377.6054</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>3315625000000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>0.05771039768235043</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>191346037315.5432</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>3350272000000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>0.05865102639296187</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>196496891495.6012</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>3449687000000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>0.05903571070140328</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>203654723742.3918</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>3398176000000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>0.05977929484343802</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>203140565033.8949</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>3468293000000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>0.06166406649852932</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>213869050188.3838</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>3481094000000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>0.06473170649608567</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>225337155093.2849</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>3489713000000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>0.06808728517610436</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>237605084213.7587</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>3477595000000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>0.06610958324518722</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>229902356145.5468</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>3445432000000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>0.06621990305406193</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>228156173019.3627</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>3468690000000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>0.06774379297496867</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>234982217254.3441</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>3465042000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>0.06910754516178076</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>239460546502.4671</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>3447483000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>0.0728093487203757</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>251008991954.567</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>3376660000000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>0.07010557900197698</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>236722704392.8156</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>3490057000000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>0.06856782386297407</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>239305613647.7397</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>3540188000000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>0.06891466297284073</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>243970862880.4951</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>3560444000000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>0.06644915642795915</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>236588500308.9886</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>3550623000000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>0.06572850185025733</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>233377130425.0662</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>3659236000000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>0.06299887232018547</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>230527741553.4262</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>3668057000000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>0.06276959541229582</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>230242453839.2396</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>3658001000000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>0.06509145349215648</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>238104601965.7619</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>3618983000000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>0.06510543825725763</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>235615474260.565</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>3708143000000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>0.06846454563504289</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>253876325644.7649</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>3679157000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>0.06326151043182307</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>232749028935.8149</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>3680984000000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>0.06408654246694737</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>235901537436.1538</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>3621974000000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>0.06149116064565719</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>222719385088.3936</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>3726372000000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>0.06031872413834702</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>224770004704.8604</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>3789445000000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>0.05844227948266894</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>221463803774.2024</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>3829270000000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>0.0553345248701022</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>211890836049.3362</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>3858434000000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>0.05453127641358701</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>210405330977.5822</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>3909531000000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>0.05806829993438282</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>227019818710.7676</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>3905132000000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>0.05892092223027474</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>230093978870.9573</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>3936219000000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>0.05747952291995976</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>226251990228.4811</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>3977391000000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>0.05448433303003721</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>216705495834.6727</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>3995219000000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>0.05628032102295111</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>224852207876.9937</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>4008914000000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>0.05474292721380398</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>219459687308.3997</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>4007716000000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>0.05070531087426097</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>203212485675.7497</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>4005043000000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>212946984479.7609</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>4031953000000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>0.05619492896960978</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>226575312443.8051</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B499">
+      <c r="B498" t="n">
         <v>4067165000000</v>
       </c>
-      <c r="C499">
+      <c r="C498" t="n">
         <v>0.05300990224974025</v>
       </c>
-      <c r="D499">
+      <c r="D498" t="n">
         <v>215600019083.5648</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
+    <row r="499">
+      <c r="A499" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B500">
+      <c r="B499" t="n">
         <v>4094931000000</v>
       </c>
-      <c r="C500">
+      <c r="C499" t="n">
         <v>0.05287340520591548</v>
       </c>
-      <c r="D500">
+      <c r="D499" t="n">
         <v>216512946053.2647</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B501">
+      <c r="B500" t="n">
         <v>4094997000000</v>
       </c>
-      <c r="C501">
+      <c r="C500" t="n">
         <v>0.05364778085954475</v>
       </c>
-      <c r="D501">
+      <c r="D500" t="n">
         <v>219687501676.4932</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B501" t="n">
+        <v>4155806000000</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.05306053145428305</v>
+      </c>
+      <c r="D501" t="n">
+        <v>220509274980.8982</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/South Africa.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>South Africa_M2 (ZAR)</t>
+  </si>
+  <si>
+    <t>South Africa_FX (USD)</t>
+  </si>
+  <si>
+    <t>South Africa_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7029 +385,7013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_M2 (ZAR)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>South Africa_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30042</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27384000000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30072</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>27294000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30103</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>27709000000</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8764241893076249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24284837861.52498</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30133</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B4">
         <v>28216000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C4">
         <v>0.8714596949891068</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D4">
         <v>24589106753.81264</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30164</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5">
         <v>28384000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C5">
         <v>0.8688852202624033</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D5">
         <v>24662438091.92805</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30195</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>29265000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C6">
         <v>0.8649770781074302</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D6">
         <v>25313554190.81395</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30225</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B7">
         <v>30119000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C7">
         <v>0.8530239699735563</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7">
         <v>25692228951.63354</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30256</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B8">
         <v>30601000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C8">
         <v>0.9014693951140359</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D8">
         <v>27585864959.88461</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30286</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B9">
         <v>31356000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C9">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D9">
         <v>29192812587.28237</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30317</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B10">
         <v>31464000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C10">
         <v>0.9365049634763064</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D10">
         <v>29466192170.8185</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30348</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B11">
         <v>31645000000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C11">
         <v>0.9170105456212746</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D11">
         <v>29018798716.18523</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30376</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B12">
         <v>33018000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C12">
         <v>0.9123255177447313</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D12">
         <v>30123163944.89554</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30407</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B13">
         <v>32272000000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C13">
         <v>0.9166743056192135</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D13">
         <v>29582913190.94326</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30437</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B14">
         <v>34418000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C14">
         <v>0.9310120100549296</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14">
         <v>32043571362.07057</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30468</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B15">
         <v>34672000000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C15">
         <v>0.9139932364500503</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D15">
         <v>31689973494.19614</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30498</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B16">
         <v>34907000000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C16">
         <v>0.91000091000091</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D16">
         <v>31765401765.40176</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>30529</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B17">
         <v>35060000000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C17">
         <v>0.8880206020779682</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D17">
         <v>31134002308.85357</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>30560</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B18">
         <v>37047000000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C18">
         <v>0.9059612248595761</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D18">
         <v>33563145497.37271</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>30590</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B19">
         <v>36682000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C19">
         <v>0.8514986376021798</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D19">
         <v>31234673024.52316</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>30621</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B20">
         <v>37366000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C20">
         <v>0.8389965601141035</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D20">
         <v>31349945465.22359</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>30651</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B21">
         <v>38465000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C21">
         <v>0.8179959100204499</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D21">
         <v>31464212678.93661</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>30682</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B22">
         <v>38905000000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C22">
         <v>0.7864726700747149</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D22">
         <v>30597719229.25678</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>30713</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B23">
         <v>39321000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C23">
         <v>0.8350033400133601</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D23">
         <v>32833166332.66533</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>30742</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B24">
         <v>39614000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C24">
         <v>0.8080155138978669</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D24">
         <v>32008726567.5501</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>30773</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B25">
         <v>40633000000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C25">
         <v>0.7961783439490446</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D25">
         <v>32351114649.68153</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>30803</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B26">
         <v>41110000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C26">
         <v>0.7799703611262772</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D26">
         <v>32064581545.90125</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>30834</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B27">
         <v>41484000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C27">
         <v>0.7359976448075366</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D27">
         <v>30532126297.19585</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>30864</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B28">
         <v>42605000000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C28">
         <v>0.6080136195050769</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D28">
         <v>25904420259.0138</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>30895</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B29">
         <v>43199000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C29">
         <v>0.6360109393881574</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D29">
         <v>27475036570.62901</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>30926</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B30">
         <v>45287000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C30">
         <v>0.5985156811108451</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D30">
         <v>27104979650.46684</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>30956</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B31">
         <v>46311000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C31">
         <v>0.5249895002099958</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D31">
         <v>24312788744.22512</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30987</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B32">
         <v>47671000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C32">
         <v>0.5380104374024856</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D32">
         <v>25647495561.41389</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>31017</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B33">
         <v>47825000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C33">
         <v>0.502487312195367</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D33">
         <v>24031455705.74343</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>31048</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B34">
         <v>48078000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C34">
         <v>0.504999495000505</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D34">
         <v>24279365720.63428</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>31079</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B35">
         <v>48526000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C35">
         <v>0.488997555012225</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D35">
         <v>23729095354.52323</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>31107</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B36">
         <v>49123000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C36">
         <v>0.5289885738468049</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D36">
         <v>25985505713.0766</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>31138</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B37">
         <v>49187000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C37">
         <v>0.5140066820868672</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D37">
         <v>25282446671.80674</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>31168</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B38">
         <v>50021000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C38">
         <v>0.502992807202857</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D38">
         <v>25160203209.09411</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>31199</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B39">
         <v>50480000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C39">
         <v>0.5103082261686058</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D39">
         <v>25760359256.99122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>31229</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B40">
         <v>50961000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C40">
         <v>0.455000455000455</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D40">
         <v>23187278187.27819</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>31260</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B41">
         <v>51681000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C41">
         <v>0.3550001775000888</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D41">
         <v>18346764173.38209</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>31291</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B42">
         <v>51937000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C42">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D42">
         <v>20281552639.80006</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>31321</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B43">
         <v>52956000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C43">
         <v>0.3869969040247678</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D43">
         <v>20493808049.5356</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>31352</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B44">
         <v>52822000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C44">
         <v>0.37000037000037</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D44">
         <v>19544159544.15955</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>31382</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B45">
         <v>54577000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C45">
         <v>0.3889991053020578</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D45">
         <v>21230404170.07041</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>31413</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B46">
         <v>52982000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C46">
         <v>0.43750273439209</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D46">
         <v>23179769873.56171</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>31444</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B47">
         <v>54711000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C47">
         <v>0.5034993202759176</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D47">
         <v>27546951311.61573</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>31472</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B48">
         <v>54024000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C48">
         <v>0.4650081376424087</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D48">
         <v>25121599627.99349</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31503</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B49">
         <v>54226000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C49">
         <v>0.4860031104199067</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D49">
         <v>26354004665.62986</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31533</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B50">
         <v>54464000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C50">
         <v>0.4234955321221361</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D50">
         <v>23065260661.50002</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31564</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B51">
         <v>54673000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C51">
         <v>0.40399143538157</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D51">
         <v>22087423746.61657</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31594</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B52">
         <v>54551000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C52">
         <v>0.3905029678225554</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D52">
         <v>21302327397.68822</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31625</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B53">
         <v>54737000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C53">
         <v>0.3920031360250882</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D53">
         <v>21457075656.60525</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31656</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B54">
         <v>55248000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C54">
         <v>0.44849082836256</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D54">
         <v>24778221285.37472</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31686</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B55">
         <v>56003000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C55">
         <v>0.4359958144401814</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D55">
         <v>24417073596.09348</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31717</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B56">
         <v>56188000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C56">
         <v>0.4504910352283989</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D56">
         <v>25312190287.41328</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31747</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B57">
         <v>56921000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C57">
         <v>0.457205559619605</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D57">
         <v>26024597659.10754</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31778</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B58">
         <v>55313000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C58">
         <v>0.4775093114315729</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D58">
         <v>26412472543.21459</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31809</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B59">
         <v>56599000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C59">
         <v>0.481000481000481</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D59">
         <v>27224146224.14622</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31837</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B60">
         <v>57129000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C60">
         <v>0.495000495000495</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D60">
         <v>28278883278.88328</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31868</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B61">
         <v>58397000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C61">
         <v>0.499001996007984</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D61">
         <v>29140219560.87824</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31898</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B62">
         <v>58843000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C62">
         <v>0.494486475794887</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D62">
         <v>29097067695.19854</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31929</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B63">
         <v>59131000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C63">
         <v>0.4884959210590592</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D63">
         <v>28885252308.14323</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31959</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B64">
         <v>59587000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C64">
         <v>0.4825090470446322</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D64">
         <v>28751266586.2485</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31990</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B65">
         <v>60093000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C65">
         <v>0.4900039200313603</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D65">
         <v>29445805566.44453</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>32021</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B66">
         <v>62790000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C66">
         <v>0.4815100154083205</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D66">
         <v>30234013867.48845</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>32051</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B67">
         <v>64619000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C67">
         <v>0.4960071425028521</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D67">
         <v>32051485541.3918</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>32082</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B68">
         <v>67636000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C68">
         <v>0.5135051864023826</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D68">
         <v>34731436787.51155</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32112</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B69">
         <v>69464000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C69">
         <v>0.5180005180005179</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D69">
         <v>35982387982.38798</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32143</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B70">
         <v>69972000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C70">
         <v>0.5020080321285141</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D70">
         <v>35126506024.09639</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32174</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B71">
         <v>71940000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C71">
         <v>0.478996024332998</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D71">
         <v>34458973990.51588</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32203</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B72">
         <v>75614000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C72">
         <v>0.4694835680751174</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D72">
         <v>35499530516.43192</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32234</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B73">
         <v>75376000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C73">
         <v>0.4651162790697674</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D73">
         <v>35058604651.16279</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32264</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B74">
         <v>76968000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C74">
         <v>0.4464285714285714</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D74">
         <v>34360714285.71429</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32295</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B75">
         <v>78923000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C75">
         <v>0.4291845493562232</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D75">
         <v>33872532188.8412</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32325</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B76">
         <v>78621000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C76">
         <v>0.4098360655737705</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D76">
         <v>32221721311.47541</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32356</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B77">
         <v>82506000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C77">
         <v>0.4081632653061224</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D77">
         <v>33675918367.34694</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32387</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B78">
         <v>86326000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C78">
         <v>0.4016064257028112</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D78">
         <v>34669076305.22088</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32417</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B79">
         <v>87433000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C79">
         <v>0.3984063745019921</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D79">
         <v>34833864541.83267</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32448</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B80">
         <v>89360000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C80">
         <v>0.4347826086956522</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D80">
         <v>38852173913.04348</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32478</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B81">
         <v>93941000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C81">
         <v>0.4201680672268908</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D81">
         <v>39471008403.36134</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32509</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B82">
         <v>93139000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C82">
         <v>0.4166666666666667</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D82">
         <v>38807916666.66667</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32540</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B83">
         <v>95737000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C83">
         <v>0.4032258064516129</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D83">
         <v>38603629032.25806</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32568</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B84">
         <v>100882000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C84">
         <v>0.390625</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D84">
         <v>39407031250</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32599</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B85">
         <v>98893000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C85">
         <v>0.390625</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D85">
         <v>38630078125</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32629</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B86">
         <v>99881000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C86">
         <v>0.364963503649635</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D86">
         <v>36452919708.0292</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32660</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B87">
         <v>102369000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C87">
         <v>0.3597122302158274</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D87">
         <v>36823381294.96404</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32690</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B88">
         <v>103301000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C88">
         <v>0.3773584905660378</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D88">
         <v>38981509433.96227</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32721</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B89">
         <v>106860000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C89">
         <v>0.3690036900369004</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D89">
         <v>39431734317.34317</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32752</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B90">
         <v>109691000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C90">
         <v>0.3713330857779428</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D90">
         <v>40731897512.06833</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32782</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B91">
         <v>113738000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C91">
         <v>0.3789314134141721</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D91">
         <v>43098901098.90111</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32813</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B92">
         <v>115655000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C92">
         <v>0.3834355828220859</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D92">
         <v>44346242331.28835</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32843</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B93">
         <v>119022000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C93">
         <v>0.3947887879984209</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D93">
         <v>46988551125.14805</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32874</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B94">
         <v>119454000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C94">
         <v>0.3900916715428126</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D94">
         <v>46598010532.47514</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32905</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B95">
         <v>121163000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C95">
         <v>0.3910833007430583</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D95">
         <v>47384825967.93118</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32933</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B96">
         <v>124200000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C96">
         <v>0.3784295175023652</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D96">
         <v>47000946073.79375</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32964</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B97">
         <v>122731000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C97">
         <v>0.3760105282947923</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D97">
         <v>46148148148.14815</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32994</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B98">
         <v>123458000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C98">
         <v>0.3738317757009346</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D98">
         <v>46152523364.48598</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>33025</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B99">
         <v>122874000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C99">
         <v>0.377643504531722</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D99">
         <v>46402567975.83081</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>33055</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B100">
         <v>121553000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C100">
         <v>0.3869220352099053</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D100">
         <v>47031534145.86961</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>33086</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B101">
         <v>124069000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C101">
         <v>0.3875368159975198</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D101">
         <v>48081305223.99628</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33117</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B102">
         <v>124001000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C102">
         <v>0.390015600624025</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D102">
         <v>48362324492.97972</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33147</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B103">
         <v>125418000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C103">
         <v>0.3940886699507389</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D103">
         <v>49425812807.88177</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33178</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B104">
         <v>130295000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C104">
         <v>0.3960396039603961</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D104">
         <v>51601980198.01981</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33208</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B105">
         <v>134244000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C105">
         <v>0.390625</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D105">
         <v>52439062500</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33239</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B106">
         <v>133075000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C106">
         <v>0.3943217665615142</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D106">
         <v>52474369085.1735</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33270</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B107">
         <v>141904000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C107">
         <v>0.3887269193391643</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D107">
         <v>55161904761.90476</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33298</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B108">
         <v>144489000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C108">
         <v>0.3696857670979667</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D108">
         <v>53415526802.21812</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33329</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B109">
         <v>143243000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C109">
         <v>0.3613369467028004</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D109">
         <v>51758988256.54923</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33359</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B110">
         <v>147025000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C110">
         <v>0.3511852502194908</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D110">
         <v>51633011413.52063</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33390</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B111">
         <v>147706000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C111">
         <v>0.3457216940363008</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D111">
         <v>51065168539.32584</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33420</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B112">
         <v>147683000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C112">
         <v>0.3484320557491289</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D112">
         <v>51457491289.1986</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33451</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B113">
         <v>150139000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C113">
         <v>0.3466805338880222</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D113">
         <v>52050268677.41376</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33482</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B114">
         <v>151994000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C114">
         <v>0.3566333808844508</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D114">
         <v>54206134094.15121</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33512</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B115">
         <v>152178000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C115">
         <v>0.3539823008849557</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D115">
         <v>53868318584.07079</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33543</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B116">
         <v>157379000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C116">
         <v>0.3571428571428572</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D116">
         <v>56206785714.28571</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33573</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B117">
         <v>155363000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C117">
         <v>0.3629764065335753</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D117">
         <v>56393103448.27586</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33604</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B118">
         <v>154965000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C118">
         <v>0.357653791130186</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D118">
         <v>55423819742.48928</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33635</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B119">
         <v>157762000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C119">
         <v>0.3516174402250352</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D119">
         <v>55471870604.782</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33664</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B120">
         <v>161099000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C120">
         <v>0.3474635163307853</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D120">
         <v>55976025017.37318</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33695</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B121">
         <v>164970000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C121">
         <v>0.3487966515521451</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D121">
         <v>57540983606.55738</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33725</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B122">
         <v>163246000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C122">
         <v>0.3527336860670194</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D122">
         <v>57582363315.69665</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33756</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B123">
         <v>164787000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C123">
         <v>0.3607503607503608</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D123">
         <v>59446969696.9697</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33786</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B124">
         <v>167064000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C124">
         <v>0.3614022406938923</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D124">
         <v>60377303939.28442</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33817</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B125">
         <v>168993000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C125">
         <v>0.3648303538854433</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D125">
         <v>61653775994.16271</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33848</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B126">
         <v>171409000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C126">
         <v>0.3553660270078181</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D126">
         <v>60912935323.38309</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33878</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B127">
         <v>170847000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C127">
         <v>0.3378378378378378</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D127">
         <v>57718581081.08108</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33909</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B128">
         <v>173892000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C128">
         <v>0.3309066843150232</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D128">
         <v>57542025148.90801</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33939</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B129">
         <v>172214000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C129">
         <v>0.3278688524590164</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D129">
         <v>56463606557.37705</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33970</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B130">
         <v>167467000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C130">
         <v>0.3257328990228013</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D130">
         <v>54549511400.65147</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>34001</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B131">
         <v>168685000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C131">
         <v>0.3179650238473768</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D131">
         <v>53635930047.69476</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>34029</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B132">
         <v>169307000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C132">
         <v>0.3156565656565656</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D132">
         <v>53442866161.61616</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>34060</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B133">
         <v>168424000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C133">
         <v>0.3169572107765452</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D133">
         <v>53383201267.82885</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34090</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B134">
         <v>168455000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C134">
         <v>0.3149606299212598</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D134">
         <v>53056692913.38583</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34121</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B135">
         <v>167739000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C135">
         <v>0.3005710850616171</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D135">
         <v>50417493237.15058</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34151</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B136">
         <v>167148000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C136">
         <v>0.2961208172934557</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D136">
         <v>49496002368.96654</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34182</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B137">
         <v>171374000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C137">
         <v>0.2960331557134399</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D137">
         <v>50732386027.23505</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34213</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B138">
         <v>173708000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C138">
         <v>0.2911208151382824</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D138">
         <v>50570014556.04076</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34243</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B139">
         <v>174910000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C139">
         <v>0.2985965959988056</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D139">
         <v>52227530606.15109</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34274</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B140">
         <v>178454000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C140">
         <v>0.2968239833778569</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D140">
         <v>52969427129.71208</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34304</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B141">
         <v>178963000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C141">
         <v>0.2943773918163085</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D141">
         <v>52682661171.62202</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34335</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B142">
         <v>179000000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C142">
         <v>0.2921413964358749</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D142">
         <v>52293309962.02161</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34366</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B143">
         <v>189328000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C143">
         <v>0.2878526194588371</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D143">
         <v>54498560736.9027</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34394</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B144">
         <v>193007000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C144">
         <v>0.2873563218390804</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D144">
         <v>55461781609.1954</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34425</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B145">
         <v>192238000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C145">
         <v>0.2836074872376631</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D145">
         <v>54520136131.59388</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34455</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B146">
         <v>199770000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C146">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D146">
         <v>55002753303.96475</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34486</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B147">
         <v>196484000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C147">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D147">
         <v>53757592339.26128</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34516</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B148">
         <v>199156000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C148">
         <v>0.2723311546840959</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D148">
         <v>54236383442.26579</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34547</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B149">
         <v>205006000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C149">
         <v>0.2790178571428572</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D149">
         <v>57200334821.42857</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34578</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B150">
         <v>205819000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C150">
         <v>0.2802690582959641</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D150">
         <v>57684697309.41704</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34608</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B151">
         <v>208879000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C151">
         <v>0.2858776443682104</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D151">
         <v>59713836477.98742</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34639</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B152">
         <v>213927000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C152">
         <v>0.2815315315315315</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D152">
         <v>60227195945.94595</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34669</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B153">
         <v>215823000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C153">
         <v>0.2826455624646693</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D153">
         <v>61001413227.81232</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34700</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B154">
         <v>208864000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C154">
         <v>0.2831257078142695</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D154">
         <v>59134767836.91959</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34731</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B155">
         <v>213360000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C155">
         <v>0.2779321845469706</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D155">
         <v>59299610894.94164</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34759</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B156">
         <v>216538000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C156">
         <v>0.2794857462269424</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D156">
         <v>60519284516.48966</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34790</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B157">
         <v>222258000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C157">
         <v>0.2763957987838585</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D157">
         <v>61431177446.10282</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34820</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B158">
         <v>230265000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C158">
         <v>0.2718868950516585</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D158">
         <v>62606035889.07015</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34851</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B159">
         <v>227731000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C159">
         <v>0.275027502750275</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D159">
         <v>62632288228.82288</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34881</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B160">
         <v>225899000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C160">
         <v>0.2761668047500691</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D160">
         <v>62385805026.23585</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34912</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B161">
         <v>226033000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C161">
         <v>0.2735978112175103</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D161">
         <v>61842134062.9275</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34943</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B162">
         <v>229457000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C162">
         <v>0.273972602739726</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D162">
         <v>62864931506.84931</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34973</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B163">
         <v>229245000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C163">
         <v>0.274273176083379</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D163">
         <v>62875754251.23423</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35004</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B164">
         <v>236725000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C164">
         <v>0.2726281352235551</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D164">
         <v>64537895310.79607</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35034</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B165">
         <v>245722000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C165">
         <v>0.2743484224965707</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D165">
         <v>67413443072.70233</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35065</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B166">
         <v>244019000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C166">
         <v>0.2740476842970677</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D166">
         <v>66872841874.48615</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35096</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B167">
         <v>256444000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C167">
         <v>0.2580645161290323</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D167">
         <v>66179096774.19355</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35125</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B168">
         <v>265163000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C168">
         <v>0.2515723270440252</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D168">
         <v>66707672955.97485</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35156</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B169">
         <v>264779000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C169">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D169">
         <v>61149884526.55889</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35186</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B170">
         <v>269925000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C170">
         <v>0.2299379167624741</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D170">
         <v>62065992182.11083</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35217</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B171">
         <v>276835000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C171">
         <v>0.2309468822170901</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D171">
         <v>63934180138.56813</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35247</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B172">
         <v>277150000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C172">
         <v>0.2212389380530974</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D172">
         <v>61316371681.41593</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35278</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B173">
         <v>281768000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C173">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D173">
         <v>62768545333.03631</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35309</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B174">
         <v>283328000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C174">
         <v>0.2203128442388191</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D174">
         <v>62420797532.49615</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35339</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B175">
         <v>286970000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C175">
         <v>0.2129925452609158</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D175">
         <v>61122470713.52502</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35370</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B176">
         <v>289759000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C176">
         <v>0.2168256721595837</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D176">
         <v>62827189939.2888</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35400</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B177">
         <v>295313000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C177">
         <v>0.2137665669089354</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D177">
         <v>63128046173.57845</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35431</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B178">
         <v>295617000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C178">
         <v>0.2192982456140351</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D178">
         <v>64828289473.68421</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35462</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B179">
         <v>303035000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C179">
         <v>0.2232142857142857</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D179">
         <v>67641741071.42857</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35490</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B180">
         <v>313686000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C180">
         <v>0.2262443438914027</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D180">
         <v>70969683257.91855</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35521</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B181">
         <v>309474000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C181">
         <v>0.2248201438848921</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D181">
         <v>69575989208.63309</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35551</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B182">
         <v>316586000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C182">
         <v>0.2238638907544213</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D182">
         <v>70872173718.37924</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35582</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B183">
         <v>316433000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C183">
         <v>0.2205558006175563</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D183">
         <v>69791133656.81517</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35612</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B184">
         <v>317291000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C184">
         <v>0.2168726957276079</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D184">
         <v>68811754500.10843</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35643</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B185">
         <v>324572000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C185">
         <v>0.213652387565431</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D185">
         <v>69345582736.88708</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35674</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B186">
         <v>338253000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C186">
         <v>0.2148689299527288</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D186">
         <v>72680060163.30038</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35704</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B187">
         <v>343147000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C187">
         <v>0.2077274615704196</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D187">
         <v>71281055255.50478</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35735</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>347944000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C188">
         <v>0.2059732234809475</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D188">
         <v>71667147270.85478</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35765</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>350700000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C189">
         <v>0.2055921052631579</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D189">
         <v>72101151315.78947</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35796</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>351467000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C190">
         <v>0.2027780594139714</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D190">
         <v>71269796208.05029</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35827</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>363414000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C191">
         <v>0.2024701356549909</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D191">
         <v>73580481878.92287</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35855</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>361312000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C192">
         <v>0.1986886548778065</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D192">
         <v>71788595271.21001</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35886</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>366500000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C193">
         <v>0.1979022362952702</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D193">
         <v>72531169602.21651</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35916</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>366492000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C194">
         <v>0.1940617116242965</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D194">
         <v>71122064816.61168</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35947</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>375751000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C195">
         <v>0.1677711601375724</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D195">
         <v>63040181192.85296</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35977</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>375135000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C196">
         <v>0.1631321370309951</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D196">
         <v>61196574225.12235</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36008</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>385084000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C197">
         <v>0.1550387596899225</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D197">
         <v>59702945736.4341</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36039</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>387349000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C198">
         <v>0.169061707523246</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D198">
         <v>65485883347.42181</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36069</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>378172000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C199">
         <v>0.1788748770235221</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D199">
         <v>67645469993.73939</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36100</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>389009000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C200">
         <v>0.1758396342535608</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D200">
         <v>68403200281.34341</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36130</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>393806000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C201">
         <v>0.1706484641638225</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D201">
         <v>67202389078.49829</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36161</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>388959000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C202">
         <v>0.1650846058605035</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D202">
         <v>64211143210.89558</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36192</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>379842000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C203">
         <v>0.1617468661544683</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D203">
         <v>61438253133.84554</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36220</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>391457000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C204">
         <v>0.16249593760156</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D204">
         <v>63610172245.69386</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36251</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>395318000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C205">
         <v>0.1643007360672976</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D205">
         <v>64951038380.65195</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36281</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>396818000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C206">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D206">
         <v>63899838969.40418</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36312</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>407884000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C207">
         <v>0.1658374792703151</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D207">
         <v>67642454394.6932</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36342</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>407541000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C208">
         <v>0.1621402513173895</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D208">
         <v>66078800162.14025</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36373</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>413501000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C209">
         <v>0.164446637066272</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D209">
         <v>67998848873.54053</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36404</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>427411000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C210">
         <v>0.1665278934221482</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D210">
         <v>71175853455.4538</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36434</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>426662000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C211">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D211">
         <v>69432384052.07486</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36465</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>440284000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C212">
         <v>0.1619957881095092</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D212">
         <v>71324153572.00713</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36495</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>446935000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C213">
         <v>0.1625884074465491</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D213">
         <v>72666449882.12341</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36526</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>438789000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C214">
         <v>0.158378207158695</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D214">
         <v>69494615140.9566</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36557</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>443529000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C215">
         <v>0.1576789656259855</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D215">
         <v>69935193945.12772</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36586</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>438954000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C216">
         <v>0.1533742331288344</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D216">
         <v>67324233128.83436</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36617</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>440728000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C217">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D217">
         <v>65052103321.03321</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36647</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>437781000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C218">
         <v>0.1435750179468772</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D218">
         <v>62854414931.80186</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36678</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>441072000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C219">
         <v>0.1476014760147601</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D219">
         <v>65102878228.78229</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36708</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>433197000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C220">
         <v>0.1437297879985627</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D220">
         <v>62263312971.61337</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36739</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>439801000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C221">
         <v>0.1435441039259313</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D221">
         <v>63130840450.72849</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36770</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>452472000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C222">
         <v>0.1379690949227373</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D222">
         <v>62427152317.88079</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36800</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>450460000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C223">
         <v>0.1328021248339973</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D223">
         <v>59822045152.72244</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36831</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>461178000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C224">
         <v>0.1291155584247902</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D224">
         <v>59545255003.22789</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36861</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>474848000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C225">
         <v>0.1319713886029509</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D225">
         <v>62666349935.33402</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36892</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>474206000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C226">
         <v>0.1292256797270754</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D226">
         <v>61279592680.65749</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36923</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>483016000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C227">
         <v>0.1306062743254186</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D227">
         <v>63084920199.56639</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36951</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>491457000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C228">
         <v>0.1244152483328357</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D228">
         <v>61144744699.91042</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36982</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>490895000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C229">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D229">
         <v>61224120728.36118</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37012</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>491567000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C230">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D230">
         <v>61522778473.09137</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37043</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>492768000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C231">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D231">
         <v>61262121438.16202</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37073</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>497927000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C232">
         <v>0.1210419289241793</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D232">
         <v>60270044543.42985</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37104</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>513455000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C233">
         <v>0.119387304354055</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D233">
         <v>61300008357.11131</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37135</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>508210000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C234">
         <v>0.1110358534770877</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D234">
         <v>56429531095.59077</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37165</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>510372000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C235">
         <v>0.105682550754045</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D235">
         <v>53937414793.44345</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37196</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>522814000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C236">
         <v>0.09749439407234084</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D236">
         <v>50971434142.5368</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37226</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>544056000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C237">
         <v>0.08350730688935282</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D237">
         <v>45432651356.99374</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37257</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>560885000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C238">
         <v>0.08777319406653207</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D238">
         <v>49230667954.00684</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37288</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>573536000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C239">
         <v>0.08822232024702249</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D239">
         <v>50598676665.19629</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37316</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>585236000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C240">
         <v>0.0883197173769044</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D240">
         <v>51687878118.79002</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37347</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>581307000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C241">
         <v>0.09383063570255688</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D241">
         <v>54544405348.34624</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37377</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>594432000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C242">
         <v>0.102380342974149</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D242">
         <v>60858152034.80932</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37408</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>579246000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C243">
         <v>0.09737098344693282</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D243">
         <v>56401752677.70205</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37438</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>574280000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C244">
         <v>0.09826078412105729</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D244">
         <v>56429203105.04078</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37469</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>591806000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C245">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D245">
         <v>55962742316.78487</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37500</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>598267000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C246">
         <v>0.09513842641042718</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D246">
         <v>56918180953.28703</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37530</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>607600000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C247">
         <v>0.09995002498750624</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D247">
         <v>60729635182.40879</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37561</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>621424000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C248">
         <v>0.1082602576594132</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D248">
         <v>67275522355.74321</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37591</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>632621000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C249">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D249">
         <v>74034055002.92569</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37622</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>639520000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C250">
         <v>0.1178314303557331</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D250">
         <v>75355556341.09842</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37653</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>646346000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C251">
         <v>0.1239464551313832</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D251">
         <v>80112295488.34903</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37681</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>651020000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C252">
         <v>0.1272102785905101</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D252">
         <v>82816435567.9939</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37712</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>671314000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C253">
         <v>0.1378359751895245</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D253">
         <v>92531219848.38043</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37742</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>680405000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C254">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D254">
         <v>84260681114.55109</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37773</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>684477000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C255">
         <v>0.1343111182743708</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D255">
         <v>91932871303.08647</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37803</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>688974000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C256">
         <v>0.1362323579096507</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D256">
         <v>93860552558.4437</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37834</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>690024000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C257">
         <v>0.1364256480218281</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D257">
         <v>94136971350.61392</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37865</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>706699000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C258">
         <v>0.144196106705119</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D258">
         <v>101903244412.4009</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>711110000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C259">
         <v>0.1455582888167567</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D259">
         <v>103507954760.4838</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37926</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>721063000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C260">
         <v>0.1569858712715856</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D260">
         <v>113196703296.7033</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37956</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>733453000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C261">
         <v>0.1517450682852807</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D261">
         <v>111297875569.044</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37987</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>734861000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C262">
         <v>0.1412628902387343</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D262">
         <v>103808588783.7265</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38018</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>756772000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C263">
         <v>0.150941117869919</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D263">
         <v>114228011652.6543</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38047</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>748540000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C264">
         <v>0.1595405232929164</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D264">
         <v>119422463305.6796</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38078</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>750744000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C265">
         <v>0.1447178002894356</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D265">
         <v>108646020260.492</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38108</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>748172000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C266">
         <v>0.1534636751480924</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D266">
         <v>114817224762.8986</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38139</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>749022000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267">
         <v>0.163212012404113</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D267">
         <v>122249387954.9535</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38169</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>748658000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C268">
         <v>0.1598082301238514</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D268">
         <v>119641709948.0623</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38200</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>766827000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C269">
         <v>0.1509433962264151</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D269">
         <v>115747471698.1132</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38231</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>790428000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C270">
         <v>0.1552072016141549</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D270">
         <v>122680117957.4732</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38261</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>807543000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C271">
         <v>0.1641497045305318</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D271">
         <v>132557944845.6993</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38292</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>805336000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C272">
         <v>0.1721614874752518</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D272">
         <v>138647843677.3694</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38322</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>818740000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C273">
         <v>0.1770287494689138</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D273">
         <v>144940518340.1784</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38353</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>819280000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C274">
         <v>0.1674340728338217</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D274">
         <v>137175387191.2934</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38384</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>842007000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C275">
         <v>0.1722652885443583</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D275">
         <v>145048578811.3695</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38412</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>836640000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C276">
         <v>0.1604621309370989</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D276">
         <v>134249037227.2144</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38443</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>870197000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C277">
         <v>0.1644736842105263</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D277">
         <v>143124506578.9474</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38473</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>865829000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C278">
         <v>0.1472320376914016</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D278">
         <v>127477767962.3086</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38504</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>876491000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C279">
         <v>0.1501501501501502</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D279">
         <v>131605255255.2553</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38534</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>898047000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C280">
         <v>0.1523693432881304</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D280">
         <v>136834831631.8757</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38565</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>915941000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C281">
         <v>0.1574555188159345</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D281">
         <v>144219965359.7859</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38596</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>928537000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C282">
         <v>0.1577784790154623</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D282">
         <v>146503155569.5803</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38626</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>931975000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C283">
         <v>0.1490312965722802</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D283">
         <v>138893442622.9508</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38657</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>937193000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C284">
         <v>0.1551133102731545</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D284">
         <v>145371108594.8285</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38687</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>963515000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C285">
         <v>0.158045295781771</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D285">
         <v>152279013165.1731</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38718</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>965101000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.1654232353476369</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>159650129857.2398</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38749</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>1000200000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.1625408383856444</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>162573346553.3215</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38777</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>1032586000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>167900162601.626</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38808</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>1026904000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.1670843776106934</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>171579615705.9315</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38838</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>1044155000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.1487541837114169</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>155322424693.1945</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38869</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>1050280000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.1402268871033332</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>147277494986.8888</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38899</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>1061266000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.1445295562942622</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>153384304090.1864</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38930</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>1078788000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.1400560224089636</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>151090756302.521</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38961</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>1106311000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.129366106080207</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>143119146183.6999</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38991</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>1125707000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.1358511071865236</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>152928542317.6199</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39022</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>1146097000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.1399932803225445</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>160445878597.8273</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39052</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>1156842000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.1427103550633634</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>165093332572.2115</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39083</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>1133627000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.1388406803193336</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>157393543908.3652</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39114</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>1180287000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.1385502105963201</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>163529012414.0989</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39142</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>1195132000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.1379500620775279</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>164868533590.8401</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39173</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>1215180000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.142673705236125</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>173374233128.8343</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39203</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>1241347000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.1414227124876255</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>175554659878.3765</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39234</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>1249390000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.1425313568985177</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>178077251995.439</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39264</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>1290230000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.1399423437543732</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>180557810182.2049</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39295</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>1341912000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.140548137737175</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>188603232607.1679</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39326</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>1350336000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.1458512608841503</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>196948208217.26</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39356</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>1346359000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>0.154273372415921</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>207707343412.527</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39387</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>1381640000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>0.1472732360348154</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>203478593835.1424</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39417</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>1396325000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>0.1463957369561398</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>204416027405.282</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39448</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>1377990000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>0.1338508901084192</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>184445188060.5006</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39479</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>1393920000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.1279230414982347</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>178314486005.2193</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39508</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>1431028000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>0.1234415504258733</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>176648315022.8367</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39539</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>1458145000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.1324503311258278</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>193131788079.4702</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39569</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>1482428000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.1322401481089659</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>196036498280.8781</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39600</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>1474862000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>0.1277791975466394</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>188456682852.0317</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39630</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>1484679000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.1364237868514754</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>202545531438.8617</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39661</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>1482748000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.129974784891731</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>192719852348.6444</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39692</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>1506513000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.1208327795164272</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>182036153167.6313</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39722</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>1523646000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.1026630803030614</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>156422191651.4383</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39753</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>1565803000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.09868940470551082</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>154528165956.103</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39783</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>1562427000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.1071799873527615</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>167460906099.6131</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39814</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>1566667000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.09811039381512077</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>153706316347.1538</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39845</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>1585801000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.09911490390810067</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>157176513732.3699</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39873</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>1574342000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.105380851666967</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>165905500775.0761</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39904</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>1574490000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.1184246209523945</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>186458381443.3356</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39934</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>1597266000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.1258211402163369</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>200969829348.7875</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39965</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>1545955000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.1297489746587278</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>200586076118.5335</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39995</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>1539789000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.1289908145640949</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>198618637366.8331</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40026</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>1554419000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.1287665835263759</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>200157223998.4857</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40057</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>1544145000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.1333210677950962</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>205867060230.4588</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40087</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>1537065000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.1281100311435486</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>196913445019.6585</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40118</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>1549706000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.1351700236142031</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>209473796615.0723</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40148</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>1589340000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.1355548054856319</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>215442674550.5341</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40179</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>1569747000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.1312802847206815</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>206076833099.4356</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40210</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>1566078000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.1295674132772911</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>202912675450.4735</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40238</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>1578113000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.137462902199269</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>216931992978.395</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40269</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>1581563000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.135475655024792</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>214263283387.9752</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40299</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>1580338000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.1310255368771374</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>207064634897.3415</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40330</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>1551427000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.1304886801070007</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>202443661512.3638</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40360</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>1583836000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.1372156206262521</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>217327039710.2006</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40391</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>1595672000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.135707306481381</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>216544349147.7581</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40422</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>1589594000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.1437359857413902</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>228481860518.5994</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40452</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>1598006000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.1429245215601641</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>228394243000.2716</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40483</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>1660253000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.1407974769092138</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>233759433430.9529</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40513</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>1678417000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>0.1518395359783781</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>254850058458.2214</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40544</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>1674643000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>0.1392874056327827</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>233256678831.1001</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40575</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>1653749000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>0.143682289720969</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>237614442943.7628</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40603</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>1650771000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>0.1477235796377818</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>243857801282.2407</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40634</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>1656915000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>0.1525129559756101</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>252701004450.3281</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40664</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>1666606000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>0.1472472133464874</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>245403089246.536</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40695</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>1646475000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>0.1479443137603006</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>243586613998.491</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40725</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>1670191000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>0.1497633738692865</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>250133439166.1176</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40756</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>1693482000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>0.1431372829680947</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>242400412235.3749</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40787</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>1721643000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>213164326573.063</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40817</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>1740142000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>0.1258004050773044</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>218910568492.0306</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40848</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>1757764000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>0.1233745404298369</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>216863325684.1118</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40878</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>1798932000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>0.1240987329519366</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>223245181866.6931</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40909</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>1785342000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>0.1281640499839795</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>228816661326.4979</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40940</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>1767502000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>0.1332924569798595</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>235594684296.8156</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40969</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>1799376000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>0.1306455195119083</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>235080412317.2596</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41000</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>1777035000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>0.1286223262633928</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>228566375551.4682</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41030</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>1781526000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>0.1173516088905579</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>209064942380.36</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41061</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>1769160000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>0.1228531413548245</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>217346863559.3012</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41091</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>1802929000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>0.121307696973373</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>218709164796.5063</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41122</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>1820822000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>0.1191696260457135</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>216986676835.8081</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41153</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>1831446000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>0.1203775038520801</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>220464897919.8767</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41183</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>1812952000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>0.1153429144847632</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>209111167500.9804</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41214</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>1872964000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>0.1122977237251401</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>210329593819.1333</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41244</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>1869050000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>0.1178189358593713</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>220209482067.9579</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41275</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>1861751000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>0.1116694584031267</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>207900725851.4796</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41306</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>1869042000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>0.1107591431672685</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>207013490463.6378</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41334</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>1900810000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>0.1083869848908543</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>206023064750.3848</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41365</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>1912464000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>0.1115312120096809</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>213299427844.8824</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41395</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>1915820000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.09940851931010487</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>190448829464.6851</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41426</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>1928903000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.1013410460625457</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>195477047773.1825</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41456</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>1954780000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.1014973910095641</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>198405069997.6757</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41487</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>1983864000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.09735676386116926</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>193142578980.6747</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41518</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>2011342000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.09976913422340704</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>200669849967.176</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41548</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>2011789000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.09962074382824587</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>200415916605.4829</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41579</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>2057061000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.09835375485129896</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>202319673308.1679</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41609</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>2049694000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.09539472429016785</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>195529994009.2113</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41640</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>2058373000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.09004506755631195</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>185346335841.0885</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41671</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>2057046000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.09295753699709973</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>191217929649.736</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41699</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>2108158000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.09495233392836797</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>200174522389.7603</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41730</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>2112214000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.09507239763079585</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>200813249289.3338</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41760</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>2147111000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.09460379928857944</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>203124858094.3011</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41791</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>2116923000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.09406629792677879</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>199131109606.0503</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41821</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>2127901000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.09349988780013464</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>198958504749.7943</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41852</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>2155842000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.09384032130926016</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>202304905971.998</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41883</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>2215507000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.08863205289560916</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>196364933614.5923</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41913</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>2217769000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.09072269700433654</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>201201985012.6104</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41944</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>2259755000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.09041517745334803</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>204316149326.0905</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41974</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>2226544000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.08639383493593898</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>192359674813.6053</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42005</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>2222725000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.08629021123843711</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>191799409774.9551</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42036</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>2221686000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.0858052392679097</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>190632298808.1652</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42064</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>2271450000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.08247830820494211</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>187345353172.1158</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42095</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>2279247000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.08406186953597848</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>191597763954.2704</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42125</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>2307632000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.08228285554421881</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>189878550505.2167</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42156</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>2308183000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.08219898730847636</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>189730305122.6409</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42186</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>2375417000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.07889110660555235</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>187399275779.6413</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42217</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>2367936000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.07533807963235017</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>178395750932.3087</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42248</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>2386441000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.07220685820739253</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>172317406907.308</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42278</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>2415205000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.07246004009938618</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>175005851148.238</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42309</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>2448155000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.06923673424171929</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>169502257117.5363</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42339</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>2441272000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.06462202577126387</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>157759942098.6649</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42370</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>2420841000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.06301991429291656</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>152561192336.7784</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42401</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>2411088000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.06306442661823319</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>152053882246.1026</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42430</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>2459285000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.06778420221383204</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>166700671741.4439</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42461</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>2446136000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.07036653930323053</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>172126124985.0471</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42491</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>2431670000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.06368088236230601</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>154850891213.9487</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42522</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>2412885000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.06797264780652265</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>164010182302.6414</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42552</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>2453694000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.07200564524258701</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>176679819697.8643</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42583</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>2486214000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.06791448208415964</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>168849936160.3869</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42614</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>2509320000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.07292137617221112</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>182983067656.4528</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42644</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>2566282000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.07424015204383139</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>190521165867.3477</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42675</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>2561804000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.07107270026510117</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>182074327829.9372</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42705</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>2601201000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.07283957811316356</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>189470383427.5392</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42736</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>2592617000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.07423519193508875</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>192463420609.174</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42767</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>2556260000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.07625345428147895</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>194923655041.5734</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42795</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>2585519000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.07466642773409793</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>193051467568.6371</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42826</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>2575364000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.07492376506904225</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>192955967303.2689</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42856</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>2594454000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.07643512683262771</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>198307420551.4183</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42887</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>2575034000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.07659126001813682</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>197225098649.5429</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42917</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>2619202000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.07592754993185502</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>198869590636.6145</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42948</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>2645827000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.07695741176832741</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>203615997906.7584</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42979</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>2682778000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.07383343177790903</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>198078706438.2752</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43009</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>2714733000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.07084059449426899</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>192313299613.2104</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43040</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>2783914000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.07325738983920003</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>203942273176.8067</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43070</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>2806033000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.08100721126194653</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>227308908038.9936</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43101</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>2770230000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.08452921033656996</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>234165354350.6762</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43132</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>2752658000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.08483922965979468</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>233533384236.8711</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43160</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>2788976000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.08457732481921597</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>235884129064.9977</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43191</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>2752713000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.08033741715203856</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>221145852580.8395</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43221</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>2737382000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.07878171948980958</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>215655660860.4539</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43252</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>2703936000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.07287142565657155</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>197039671204.1274</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43282</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>2791325000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.07536476546484987</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>210367553961.1721</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43313</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>2834147000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.06814983422552824</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>193146648220.7782</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43344</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>2864233000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.07075573492920535</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>202660910923.4826</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43374</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>2844764000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.06765854087590747</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>192472581376.3101</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43405</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>2891387000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.07216985898009555</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>208670992046.8815</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43435</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>2895085000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.06964341180288686</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>201623596859.3607</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43466</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>2848485000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.07549277911567759</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>215040048919.3209</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43497</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>2837818000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.07097786200484069</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>201422254398.853</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43525</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>2916460000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.06909417536101706</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>201510398673.3918</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43556</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>2946560000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.06995257215607817</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>206119451012.2137</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43586</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>2931927000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.06866622720281257</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>201324365524.0606</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43617</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>2904525000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.07110226282951455</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>206518299944.8958</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43647</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>2965149000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.0697150744905571</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>206715583410.6009</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43678</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>2982248000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.06596619364508076</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>196727549065.6548</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43709</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>2992942000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.06616749905380476</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>198035486953.0925</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43739</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>2997459000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.06623349957941728</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>198532199415.8205</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43770</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>3032900000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.06829808014096724</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>207141247259.5395</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43800</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>3034447000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.0713718308230671</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>216574037925.5635</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43831</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>3034991000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.06666880006826885</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>202339208187.9953</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43862</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>3046597000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.06407258142023284</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>195203334337.1371</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43891</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>3236386000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.05608524957936063</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>181513516545.1487</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43922</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>3318827000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.05397761008733577</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>179142349753.3223</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43952</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>3324556000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.05705906183490531</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>189696046377.6054</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43983</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>3315625000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.05771039768235043</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>191346037315.5432</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44013</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>3350272000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.05865102639296187</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>196496891495.6012</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44044</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>3449687000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.05903571070140328</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>203654723742.3918</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44075</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>3398176000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.05977929484343802</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>203140565033.8949</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44105</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>3468293000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.06166406649852932</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>213869050188.3838</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44136</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>3481094000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.06473170649608567</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>225337155093.2849</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44166</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>3489713000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.06808728517610436</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>237605084213.7587</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44197</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>3477595000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.06610958324518722</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>229902356145.5468</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44228</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>3445432000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.06621990305406193</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>228156173019.3627</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44256</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>3468690000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.06774379297496867</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>234982217254.3441</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44287</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>3465042000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.06910754516178076</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>239460546502.4671</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44317</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>3447483000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.0728093487203757</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>251008991954.567</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44348</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>3376660000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.07010557900197698</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>236722704392.8156</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44378</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>3490057000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.06856782386297407</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>239305613647.7397</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44409</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>3540188000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.06891466297284073</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>243970862880.4951</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44440</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>3560444000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.06644915642795915</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>236588500308.9886</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44470</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>3550623000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.06572850185025733</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>233377130425.0662</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44501</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>3659236000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.06299887232018547</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>230527741553.4262</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44531</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>3668057000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.06276959541229582</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>230242453839.2396</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44562</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>3658001000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.06509145349215648</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>238104601965.7619</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44593</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>3618983000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.06510543825725763</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>235615474260.565</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44621</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>3708143000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.06846454563504289</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>253876325644.7649</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44652</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>3679157000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.06326151043182307</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>232749028935.8149</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44682</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>3680984000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.06408654246694737</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>235901537436.1538</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44713</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>3621974000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.06149116064565719</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>222719385088.3936</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44743</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>3726372000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.06031872413834702</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>224770004704.8604</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44774</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>3789445000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.05844227948266894</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>221463803774.2024</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44805</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>3829270000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.0553345248701022</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>211890836049.3362</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44835</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>3858434000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.05453127641358701</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>210405330977.5822</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44866</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>3909531000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.05806829993438282</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>227019818710.7676</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44896</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>3905132000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.05892092223027474</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>230093978870.9573</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44927</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>3936219000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.05747952291995976</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>226251990228.4811</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44958</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>3977391000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.05448433303003721</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>216705495834.6727</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44986</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>3995219000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.05628032102295111</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>224852207876.9937</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>45017</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>4008914000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.05474292721380398</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>219459687308.3997</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45047</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>4007716000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.05070531087426097</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>203212485675.7497</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45078</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>4005043000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.0531697124050256</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>212946984479.7609</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45108</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>4031953000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.05619492896960978</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>226575312443.8051</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45139</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>4067165000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.05300990224974025</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>215600019083.5648</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45170</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>4094931000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.05287340520591548</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>216512946053.2647</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45200</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B499">
         <v>4094997000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C499">
         <v>0.05364778085954475</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D499">
         <v>219687501676.4932</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45231</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B500">
         <v>4155806000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C500">
         <v>0.05306053145428305</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D500">
         <v>220509274980.8982</v>
       </c>
     </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B501">
+        <v>4216314000000</v>
+      </c>
+      <c r="C501">
+        <v>0.05469950825142082</v>
+      </c>
+      <c r="D501">
+        <v>230630302433.5811</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>